--- a/Assignment 1/Assignment 1.xlsx
+++ b/Assignment 1/Assignment 1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\raeedh\school\COMPENG4DM4\Assignment 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EDBDE19-C95E-4E9B-84DF-A3FCBFE9135A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7397966-A427-4405-81A3-6666FFDDC827}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="A1" sheetId="6" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="43">
   <si>
     <t>4DM4 Assignment #1, Timing for Basic RISC 7-stage  pipeline</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -143,6 +143,36 @@
   </si>
   <si>
     <t>**forward R0 (ID** to **IF) in cc5</t>
+  </si>
+  <si>
+    <t>LD Ra,(0)R0</t>
+  </si>
+  <si>
+    <t>LD Rb,(16)R0</t>
+  </si>
+  <si>
+    <t>ADD Ra,Ra,Rb</t>
+  </si>
+  <si>
+    <t>SD (0)R0,Ra</t>
+  </si>
+  <si>
+    <t>LD Rd,(48)R0</t>
+  </si>
+  <si>
+    <t>XOR Rd,Rd,Rd</t>
+  </si>
+  <si>
+    <t>SD (48)R0,Rd</t>
+  </si>
+  <si>
+    <t>ROT.L Rd,Rd,#16</t>
+  </si>
+  <si>
+    <t>*forward Rb (MEM2* to *EX) in cc7</t>
+  </si>
+  <si>
+    <t>*MEM1</t>
   </si>
 </sst>
 </file>
@@ -308,7 +338,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -338,6 +368,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3738,15 +3769,15 @@
   </sheetPr>
   <dimension ref="B2:AF41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="S14" sqref="S14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.375" customWidth="1"/>
     <col min="2" max="2" width="28.125" customWidth="1"/>
-    <col min="3" max="32" width="8.75" customWidth="1"/>
+    <col min="3" max="32" width="8.625" customWidth="1"/>
     <col min="33" max="74" width="4.375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3932,7 +3963,7 @@
     </row>
     <row r="6" spans="2:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="11" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>4</v>
@@ -3943,21 +3974,19 @@
       <c r="E6" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="15" t="s">
+      <c r="F6" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="H6" s="13" t="s">
         <v>9</v>
       </c>
       <c r="I6" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="J6" s="9" t="s">
-        <v>28</v>
-      </c>
+      <c r="J6" s="9"/>
       <c r="L6" s="9"/>
       <c r="N6" s="21"/>
       <c r="P6" s="9"/>
@@ -3980,7 +4009,7 @@
     </row>
     <row r="7" spans="2:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="11" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="9" t="s">
@@ -3989,27 +4018,25 @@
       <c r="E7" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="H7" s="15" t="s">
+      <c r="F7" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="H7" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="9" t="s">
-        <v>9</v>
+      <c r="I7" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>10</v>
       </c>
       <c r="K7" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="L7" s="9" t="s">
-        <v>32</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="L7" s="9"/>
       <c r="M7" s="9"/>
       <c r="N7" s="9"/>
       <c r="O7" s="9"/>
@@ -4033,35 +4060,37 @@
     </row>
     <row r="8" spans="2:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="11" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
       <c r="E8" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="J8" s="9" t="s">
+      <c r="I8" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="K8" s="9" t="s">
+      <c r="L8" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="L8" s="13" t="s">
+      <c r="M8" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="M8" s="9"/>
       <c r="N8" s="9"/>
       <c r="O8" s="9"/>
       <c r="P8" s="9"/>
@@ -4084,36 +4113,38 @@
     </row>
     <row r="9" spans="2:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="11" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="H9" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="I9" s="9" t="s">
+      <c r="I9" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="J9" s="9" t="s">
+      <c r="K9" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="K9" s="9" t="s">
+      <c r="L9" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="L9" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="M9" s="13" t="s">
+      <c r="M9" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="N9" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="N9" s="9"/>
       <c r="O9" s="9"/>
       <c r="P9" s="9"/>
       <c r="Q9" s="9"/>
@@ -4135,37 +4166,43 @@
     </row>
     <row r="10" spans="2:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="11" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="15" t="s">
-        <v>31</v>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>12</v>
       </c>
       <c r="I10" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J10" s="9" t="s">
+      <c r="K10" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="K10" s="9" t="s">
+      <c r="L10" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="L10" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="M10" s="9" t="s">
+      <c r="M10" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="N10" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="O10" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="N10" s="13" t="s">
+      <c r="P10" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="O10" s="9"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="9"/>
+      <c r="Q10" s="13"/>
       <c r="R10" s="9"/>
       <c r="S10" s="9"/>
       <c r="T10" s="9"/>
@@ -4183,22 +4220,44 @@
       <c r="AF10" s="9"/>
     </row>
     <row r="11" spans="2:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="11"/>
+      <c r="B11" s="11" t="s">
+        <v>37</v>
+      </c>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="9"/>
+      <c r="H11" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="L11" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="M11" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="N11" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="O11" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="P11" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q11" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="R11" s="9"/>
       <c r="S11" s="9"/>
       <c r="T11" s="9"/>
@@ -4216,7 +4275,9 @@
       <c r="AF11" s="9"/>
     </row>
     <row r="12" spans="2:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="11"/>
+      <c r="B12" s="11" t="s">
+        <v>38</v>
+      </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
@@ -4225,16 +4286,36 @@
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="13"/>
-      <c r="R12" s="9"/>
-      <c r="S12" s="9"/>
-      <c r="T12" s="9"/>
+      <c r="K12" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="L12" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="M12" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="N12" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="O12" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="P12" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q12" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="R12" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="S12" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="T12" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="U12" s="9"/>
       <c r="V12" s="9"/>
       <c r="W12" s="9"/>
@@ -4249,7 +4330,9 @@
       <c r="AF12" s="9"/>
     </row>
     <row r="13" spans="2:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="11"/>
+      <c r="B13" s="11" t="s">
+        <v>39</v>
+      </c>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
@@ -4259,12 +4342,24 @@
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="9"/>
+      <c r="L13" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="M13" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="N13" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="O13" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="P13" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q13" s="9" t="s">
+        <v>2</v>
+      </c>
       <c r="R13" s="9"/>
       <c r="S13" s="9"/>
       <c r="T13" s="9"/>
@@ -4282,7 +4377,9 @@
       <c r="AF13" s="9"/>
     </row>
     <row r="14" spans="2:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="11"/>
+      <c r="B14" s="11" t="s">
+        <v>37</v>
+      </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
@@ -4315,7 +4412,9 @@
       <c r="AF14" s="9"/>
     </row>
     <row r="15" spans="2:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="10"/>
+      <c r="B15" s="11" t="s">
+        <v>40</v>
+      </c>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
@@ -4330,7 +4429,9 @@
       <c r="N15" s="9"/>
       <c r="O15" s="9"/>
       <c r="P15" s="9"/>
-      <c r="Q15" s="9"/>
+      <c r="Q15" s="9" t="s">
+        <v>2</v>
+      </c>
       <c r="R15" s="9"/>
       <c r="S15" s="9"/>
       <c r="T15" s="13"/>
@@ -4348,7 +4449,9 @@
       <c r="AF15" s="9"/>
     </row>
     <row r="16" spans="2:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="10"/>
+      <c r="B16" s="11" t="s">
+        <v>39</v>
+      </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
@@ -4562,7 +4665,9 @@
       <c r="O22" s="9"/>
       <c r="P22" s="9"/>
       <c r="Q22" s="9"/>
-      <c r="R22" s="9"/>
+      <c r="R22" s="9" t="s">
+        <v>2</v>
+      </c>
       <c r="S22" s="9"/>
       <c r="T22" s="9"/>
       <c r="U22" s="9"/>
@@ -4679,13 +4784,27 @@
     </row>
     <row r="26" spans="2:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="10"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
+      <c r="C26" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G26" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H26" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I26" s="13" t="s">
+        <v>10</v>
+      </c>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c r="L26" s="9"/>
@@ -4696,10 +4815,10 @@
       <c r="Q26" s="9"/>
       <c r="R26" s="9"/>
       <c r="S26" s="9"/>
-      <c r="T26" s="9"/>
-      <c r="U26" s="9"/>
-      <c r="V26" s="9"/>
-      <c r="W26" s="9"/>
+      <c r="T26" s="13"/>
+      <c r="U26" s="13"/>
+      <c r="V26" s="13"/>
+      <c r="W26" s="13"/>
       <c r="X26" s="9"/>
       <c r="Y26" s="9"/>
       <c r="Z26" s="9"/>

--- a/Assignment 1/Assignment 1.xlsx
+++ b/Assignment 1/Assignment 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\raeedh\school\COMPENG4DM4\Assignment 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7397966-A427-4405-81A3-6666FFDDC827}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8984E059-AB7A-40E3-B3E8-A38255A49B5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="45">
   <si>
     <t>4DM4 Assignment #1, Timing for Basic RISC 7-stage  pipeline</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -173,6 +173,12 @@
   </si>
   <si>
     <t>*MEM1</t>
+  </si>
+  <si>
+    <t>*ID</t>
+  </si>
+  <si>
+    <t>*EX*</t>
   </si>
 </sst>
 </file>
@@ -338,7 +344,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -369,6 +375,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3770,7 +3777,7 @@
   <dimension ref="B2:AF41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="S14" sqref="S14"/>
+      <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4252,10 +4259,10 @@
       <c r="O11" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="P11" s="9" t="s">
+      <c r="P11" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="Q11" s="9" t="s">
+      <c r="Q11" s="15" t="s">
         <v>10</v>
       </c>
       <c r="R11" s="9"/>
@@ -4301,13 +4308,13 @@
       <c r="O12" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="P12" s="9" t="s">
+      <c r="P12" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="Q12" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="R12" s="9" t="s">
+      <c r="Q12" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="R12" s="15" t="s">
         <v>8</v>
       </c>
       <c r="S12" s="9" t="s">
@@ -4357,13 +4364,21 @@
       <c r="P13" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="Q13" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="R13" s="9"/>
-      <c r="S13" s="9"/>
-      <c r="T13" s="9"/>
-      <c r="U13" s="9"/>
+      <c r="Q13" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="R13" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="S13" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="T13" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="U13" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="V13" s="9"/>
       <c r="W13" s="9"/>
       <c r="X13" s="9"/>
@@ -4390,17 +4405,39 @@
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="9"/>
-      <c r="S14" s="9"/>
-      <c r="T14" s="13"/>
-      <c r="U14" s="9"/>
-      <c r="V14" s="9"/>
-      <c r="W14" s="9"/>
+      <c r="M14" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="N14" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="O14" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="P14" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q14" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="R14" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="S14" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="T14" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="U14" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="V14" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="W14" s="15" t="s">
+        <v>10</v>
+      </c>
       <c r="X14" s="9"/>
       <c r="Y14" s="9"/>
       <c r="Z14" s="9"/>
@@ -4427,20 +4464,42 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
       <c r="N15" s="9"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="9"/>
+      <c r="O15" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="P15" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="Q15" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="R15" s="9"/>
-      <c r="S15" s="9"/>
-      <c r="T15" s="13"/>
-      <c r="U15" s="9"/>
-      <c r="V15" s="9"/>
-      <c r="W15" s="9"/>
-      <c r="X15" s="9"/>
-      <c r="Y15" s="9"/>
-      <c r="Z15" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="R15" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="S15" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="T15" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="U15" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="V15" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="W15" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="X15" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y15" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z15" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="AA15" s="13"/>
       <c r="AB15" s="9"/>
       <c r="AC15" s="9"/>
@@ -4468,16 +4527,36 @@
       <c r="P16" s="9"/>
       <c r="Q16" s="9"/>
       <c r="R16" s="9"/>
-      <c r="S16" s="9"/>
-      <c r="T16" s="13"/>
-      <c r="U16" s="9"/>
-      <c r="V16" s="9"/>
-      <c r="W16" s="9"/>
-      <c r="X16" s="9"/>
-      <c r="Y16" s="9"/>
-      <c r="Z16" s="9"/>
-      <c r="AA16" s="13"/>
-      <c r="AB16" s="9"/>
+      <c r="S16" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="T16" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="U16" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="V16" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="W16" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="X16" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y16" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z16" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA16" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB16" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="AC16" s="9"/>
       <c r="AD16" s="9"/>
       <c r="AE16" s="9"/>

--- a/Assignment 1/Assignment 1.xlsx
+++ b/Assignment 1/Assignment 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\raeedh\school\COMPENG4DM4\Assignment 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8984E059-AB7A-40E3-B3E8-A38255A49B5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3893A5CD-23F8-46F4-A401-0C3A7DA68517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="48">
   <si>
     <t>4DM4 Assignment #1, Timing for Basic RISC 7-stage  pipeline</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -175,10 +175,19 @@
     <t>*MEM1</t>
   </si>
   <si>
-    <t>*ID</t>
+    <t xml:space="preserve">but </t>
   </si>
   <si>
-    <t>*EX*</t>
+    <t>*forward Rd (MEM2* to *EX) in cc14</t>
+  </si>
+  <si>
+    <t>*forward (0)R0 (MEM2* to *MEM1) in cc11</t>
+  </si>
+  <si>
+    <t>*forward (48)R0 (MEM2* to *MEM1) in cc18</t>
+  </si>
+  <si>
+    <t>*forward Rd (MEM2* to *EX) in cc20</t>
   </si>
 </sst>
 </file>
@@ -245,7 +254,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -340,11 +349,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -375,7 +408,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3777,7 +3812,7 @@
   <dimension ref="B2:AF41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="R10" sqref="R10"/>
+      <selection activeCell="X12" sqref="X12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4034,10 +4069,10 @@
       <c r="H7" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="13" t="s">
+      <c r="I7" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="J7" s="13" t="s">
+      <c r="J7" s="17" t="s">
         <v>10</v>
       </c>
       <c r="K7" s="13" t="s">
@@ -4083,10 +4118,10 @@
       <c r="H8" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="23" t="s">
+      <c r="I8" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="J8" s="13" t="s">
+      <c r="J8" s="17" t="s">
         <v>14</v>
       </c>
       <c r="K8" s="13" t="s">
@@ -4152,7 +4187,9 @@
       <c r="N9" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="O9" s="9"/>
+      <c r="O9" s="9" t="s">
+        <v>45</v>
+      </c>
       <c r="P9" s="9"/>
       <c r="Q9" s="9"/>
       <c r="R9" s="9"/>
@@ -4192,7 +4229,7 @@
         <v>5</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="L10" s="9" t="s">
         <v>7</v>
@@ -4265,7 +4302,9 @@
       <c r="Q11" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="R11" s="9"/>
+      <c r="R11" s="9" t="s">
+        <v>44</v>
+      </c>
       <c r="S11" s="9"/>
       <c r="T11" s="9"/>
       <c r="U11" s="9"/>
@@ -4312,9 +4351,9 @@
         <v>12</v>
       </c>
       <c r="Q12" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="R12" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="R12" s="9" t="s">
         <v>8</v>
       </c>
       <c r="S12" s="9" t="s">
@@ -4364,22 +4403,24 @@
       <c r="P13" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="Q13" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="R13" s="15" t="s">
-        <v>43</v>
+      <c r="Q13" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="R13" s="9" t="s">
+        <v>7</v>
       </c>
       <c r="S13" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="T13" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="U13" s="9" t="s">
+      <c r="T13" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="U13" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="V13" s="9"/>
+      <c r="V13" s="9" t="s">
+        <v>46</v>
+      </c>
       <c r="W13" s="9"/>
       <c r="X13" s="9"/>
       <c r="Y13" s="9"/>
@@ -4418,19 +4459,19 @@
         <v>12</v>
       </c>
       <c r="Q14" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="R14" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="S14" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="T14" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="R14" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="S14" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="T14" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="U14" s="9" t="s">
-        <v>8</v>
+      <c r="U14" s="15" t="s">
+        <v>42</v>
       </c>
       <c r="V14" s="18" t="s">
         <v>13</v>
@@ -4438,7 +4479,9 @@
       <c r="W14" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="X14" s="9"/>
+      <c r="X14" s="9" t="s">
+        <v>47</v>
+      </c>
       <c r="Y14" s="9"/>
       <c r="Z14" s="9"/>
       <c r="AA14" s="13"/>
@@ -4471,16 +4514,16 @@
         <v>12</v>
       </c>
       <c r="Q15" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="R15" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="S15" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="T15" s="13" t="s">
         <v>12</v>
-      </c>
-      <c r="R15" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="S15" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="T15" s="13" t="s">
-        <v>6</v>
       </c>
       <c r="U15" s="9" t="s">
         <v>12</v>
@@ -4488,10 +4531,10 @@
       <c r="V15" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="W15" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="X15" s="15" t="s">
+      <c r="W15" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="X15" s="9" t="s">
         <v>8</v>
       </c>
       <c r="Y15" s="9" t="s">
@@ -4526,12 +4569,14 @@
       <c r="O16" s="9"/>
       <c r="P16" s="9"/>
       <c r="Q16" s="9"/>
-      <c r="R16" s="9"/>
+      <c r="R16" s="9" t="s">
+        <v>4</v>
+      </c>
       <c r="S16" s="9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T16" s="13" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="U16" s="9" t="s">
         <v>12</v>
@@ -4539,24 +4584,22 @@
       <c r="V16" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="W16" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="X16" s="15" t="s">
-        <v>43</v>
+      <c r="W16" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="X16" s="9" t="s">
+        <v>7</v>
       </c>
       <c r="Y16" s="9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Z16" s="9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AA16" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB16" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="AB16" s="9"/>
       <c r="AC16" s="9"/>
       <c r="AD16" s="9"/>
       <c r="AE16" s="9"/>

--- a/Assignment 1/Assignment 1.xlsx
+++ b/Assignment 1/Assignment 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\raeedh\school\COMPENG4DM4\Assignment 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3893A5CD-23F8-46F4-A401-0C3A7DA68517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{937597C4-6B0C-4E1D-821F-436B87A93F4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="47">
   <si>
     <t>4DM4 Assignment #1, Timing for Basic RISC 7-stage  pipeline</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -173,9 +173,6 @@
   </si>
   <si>
     <t>*MEM1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">but </t>
   </si>
   <si>
     <t>*forward Rd (MEM2* to *EX) in cc14</t>
@@ -3812,7 +3809,7 @@
   <dimension ref="B2:AF41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="X12" sqref="X12"/>
+      <selection activeCell="S17" sqref="S17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4166,10 +4163,10 @@
       <c r="G9" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="H9" s="13" t="s">
+      <c r="H9" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="I9" s="13" t="s">
+      <c r="I9" s="23" t="s">
         <v>12</v>
       </c>
       <c r="J9" s="13" t="s">
@@ -4188,7 +4185,7 @@
         <v>10</v>
       </c>
       <c r="O9" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P9" s="9"/>
       <c r="Q9" s="9"/>
@@ -4219,22 +4216,22 @@
       <c r="G10" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="13" t="s">
+      <c r="H10" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="I10" s="9" t="s">
+      <c r="I10" s="14" t="s">
         <v>12</v>
       </c>
       <c r="J10" s="9" t="s">
         <v>5</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="L10" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="M10" s="18" t="s">
+      <c r="M10" s="16" t="s">
         <v>12</v>
       </c>
       <c r="N10" s="17" t="s">
@@ -4272,10 +4269,10 @@
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
-      <c r="H11" s="9" t="s">
+      <c r="H11" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="I11" s="9" t="s">
+      <c r="I11" s="14" t="s">
         <v>12</v>
       </c>
       <c r="J11" s="9" t="s">
@@ -4287,7 +4284,7 @@
       <c r="L11" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="M11" s="9" t="s">
+      <c r="M11" s="14" t="s">
         <v>12</v>
       </c>
       <c r="N11" s="13" t="s">
@@ -4303,7 +4300,7 @@
         <v>10</v>
       </c>
       <c r="R11" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S11" s="9"/>
       <c r="T11" s="9"/>
@@ -4338,16 +4335,16 @@
       <c r="L12" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="M12" s="9" t="s">
+      <c r="M12" s="14" t="s">
         <v>12</v>
       </c>
       <c r="N12" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="O12" s="13" t="s">
+      <c r="O12" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="P12" s="18" t="s">
+      <c r="P12" s="16" t="s">
         <v>12</v>
       </c>
       <c r="Q12" s="24" t="s">
@@ -4391,16 +4388,16 @@
       <c r="L13" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="M13" s="9" t="s">
+      <c r="M13" s="14" t="s">
         <v>12</v>
       </c>
       <c r="N13" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="O13" s="9" t="s">
+      <c r="O13" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="P13" s="13" t="s">
+      <c r="P13" s="23" t="s">
         <v>12</v>
       </c>
       <c r="Q13" s="25" t="s">
@@ -4419,7 +4416,7 @@
         <v>10</v>
       </c>
       <c r="V13" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W13" s="9"/>
       <c r="X13" s="9"/>
@@ -4446,16 +4443,16 @@
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c r="L14" s="9"/>
-      <c r="M14" s="9" t="s">
+      <c r="M14" s="14" t="s">
         <v>12</v>
       </c>
       <c r="N14" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="O14" s="9" t="s">
+      <c r="O14" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="P14" s="9" t="s">
+      <c r="P14" s="14" t="s">
         <v>12</v>
       </c>
       <c r="Q14" s="9" t="s">
@@ -4467,7 +4464,7 @@
       <c r="S14" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="T14" s="19" t="s">
+      <c r="T14" s="20" t="s">
         <v>12</v>
       </c>
       <c r="U14" s="15" t="s">
@@ -4480,7 +4477,7 @@
         <v>10</v>
       </c>
       <c r="X14" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Y14" s="9"/>
       <c r="Z14" s="9"/>
@@ -4507,10 +4504,10 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
       <c r="N15" s="9"/>
-      <c r="O15" s="9" t="s">
+      <c r="O15" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="P15" s="9" t="s">
+      <c r="P15" s="14" t="s">
         <v>12</v>
       </c>
       <c r="Q15" s="9" t="s">
@@ -4522,13 +4519,13 @@
       <c r="S15" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="T15" s="13" t="s">
+      <c r="T15" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="U15" s="9" t="s">
+      <c r="U15" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="V15" s="18" t="s">
+      <c r="V15" s="16" t="s">
         <v>12</v>
       </c>
       <c r="W15" s="26" t="s">
@@ -4575,13 +4572,13 @@
       <c r="S16" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="T16" s="13" t="s">
+      <c r="T16" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="U16" s="9" t="s">
+      <c r="U16" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="V16" s="9" t="s">
+      <c r="V16" s="14" t="s">
         <v>12</v>
       </c>
       <c r="W16" s="25" t="s">

--- a/Assignment 1/Assignment 1.xlsx
+++ b/Assignment 1/Assignment 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\raeedh\school\COMPENG4DM4\Assignment 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{937597C4-6B0C-4E1D-821F-436B87A93F4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96642944-ABEE-41FC-BAE9-EE919E51AD87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,12 +17,16 @@
     <sheet name="A2.1" sheetId="8" r:id="rId2"/>
     <sheet name="A2.2" sheetId="11" r:id="rId3"/>
     <sheet name="B1" sheetId="12" r:id="rId4"/>
+    <sheet name="B4" sheetId="14" r:id="rId5"/>
+    <sheet name="B4.2" sheetId="16" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'A1'!$B$2:$AF$26</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'A2.1'!$B$2:$AF$26</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'A2.2'!$B$2:$AF$26</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'B1'!$B$2:$AF$26</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'B4'!$A$1:$M$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">'B4.2'!$B$2:$AF$26</definedName>
   </definedNames>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -42,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="122">
   <si>
     <t>4DM4 Assignment #1, Timing for Basic RISC 7-stage  pipeline</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -185,13 +189,253 @@
   </si>
   <si>
     <t>*forward Rd (MEM2* to *EX) in cc20</t>
+  </si>
+  <si>
+    <t>loop iteration 2 starts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">          No-op</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">          BNEZ  R0, loop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">          SUBI   R0,R0,#4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">          SW      0(R0),R2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">          ADD    R2,R2,R31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">loop:  LW      R2,0(R0)  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M1,M2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F1,F2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7 stage pipeline (F1, F2, D, EX, M1, M2, WB)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">COMPRESSED TIMING TABLE, </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">LD Rc,(32)R0 </t>
+  </si>
+  <si>
+    <t>XOR Rd,Rd,Ra</t>
+  </si>
+  <si>
+    <t>ADD Rc,Rc,Rd</t>
+  </si>
+  <si>
+    <t>XOR Rb,Rb,Rc</t>
+  </si>
+  <si>
+    <t>ROT.L Rb,Rb,#12</t>
+  </si>
+  <si>
+    <t>ROT.L Rd,Rd,#8</t>
+  </si>
+  <si>
+    <t>SD (32)R0,Rc</t>
+  </si>
+  <si>
+    <t>ROT.L Rb,Rb,#7</t>
+  </si>
+  <si>
+    <t>SD (16)R0,Rb</t>
+  </si>
+  <si>
+    <t>5,6</t>
+  </si>
+  <si>
+    <t>load a from memory</t>
+  </si>
+  <si>
+    <t>load b from memory</t>
+  </si>
+  <si>
+    <t>load c from memory</t>
+  </si>
+  <si>
+    <t>load d from memory</t>
+  </si>
+  <si>
+    <t>a = a + b</t>
+  </si>
+  <si>
+    <t>XOR(d,a)</t>
+  </si>
+  <si>
+    <t>ROTATE_LEFT(d, 16)</t>
+  </si>
+  <si>
+    <t>c = c + d</t>
+  </si>
+  <si>
+    <t>XOR(b,c)</t>
+  </si>
+  <si>
+    <t>ROTATE_LEFT(b, 12)</t>
+  </si>
+  <si>
+    <t>store a into memory</t>
+  </si>
+  <si>
+    <t>ROTATE_LEFT(d, 8)</t>
+  </si>
+  <si>
+    <t>store d into memory</t>
+  </si>
+  <si>
+    <t>store c into memory</t>
+  </si>
+  <si>
+    <t>ROTATE_LEFT(b, 7)</t>
+  </si>
+  <si>
+    <t>store b into memory</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>2,3</t>
+  </si>
+  <si>
+    <t>6,7</t>
+  </si>
+  <si>
+    <t>3,4</t>
+  </si>
+  <si>
+    <t>7,8</t>
+  </si>
+  <si>
+    <t>4,5</t>
+  </si>
+  <si>
+    <t>8,9</t>
+  </si>
+  <si>
+    <t>9,10</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>10,11</t>
+  </si>
+  <si>
+    <t>11,12</t>
+  </si>
+  <si>
+    <t>12,13</t>
+  </si>
+  <si>
+    <t>13,14</t>
+  </si>
+  <si>
+    <t>14,15</t>
+  </si>
+  <si>
+    <t>15,16</t>
+  </si>
+  <si>
+    <t>16,17</t>
+  </si>
+  <si>
+    <t>17,18</t>
+  </si>
+  <si>
+    <t>18,19</t>
+  </si>
+  <si>
+    <t>19,20</t>
+  </si>
+  <si>
+    <t>20,21</t>
+  </si>
+  <si>
+    <t>21,22</t>
+  </si>
+  <si>
+    <t>22,23</t>
+  </si>
+  <si>
+    <t>23,24</t>
+  </si>
+  <si>
+    <t>24,25</t>
+  </si>
+  <si>
+    <t>Instruction</t>
+  </si>
+  <si>
+    <t>LD Rd,(36)R0</t>
+  </si>
+  <si>
+    <t>LD Rc,(48)R0</t>
+  </si>
+  <si>
+    <t>LD Rc,(36)R0</t>
+  </si>
+  <si>
+    <t>MEM1*</t>
+  </si>
+  <si>
+    <t>*forward Rd (MEM1* to *MEM1) in cc22</t>
+  </si>
+  <si>
+    <t>*forward Rd (MEM1* to *MEM1) in cc16</t>
+  </si>
+  <si>
+    <t>*forward Rd (MEM1* to *MEM1) in cc9</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -242,16 +486,81 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="12"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -370,11 +679,159 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -408,9 +865,79 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{53D89EA9-8A42-480A-8461-C03CD41241BA}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3809,7 +4336,7 @@
   <dimension ref="B2:AF41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="S17" sqref="S17"/>
+      <selection activeCell="T19" sqref="T19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4121,16 +4648,18 @@
       <c r="J8" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="K8" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="L8" s="13" t="s">
+      <c r="K8" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="L8" s="15" t="s">
         <v>9</v>
       </c>
       <c r="M8" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="N8" s="9"/>
+      <c r="N8" s="13" t="s">
+        <v>121</v>
+      </c>
       <c r="O8" s="9"/>
       <c r="P8" s="9"/>
       <c r="Q8" s="9"/>
@@ -4172,11 +4701,11 @@
       <c r="J9" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="K9" s="13" t="s">
+      <c r="K9" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="L9" s="9" t="s">
-        <v>8</v>
+      <c r="L9" s="15" t="s">
+        <v>42</v>
       </c>
       <c r="M9" s="19" t="s">
         <v>13</v>
@@ -4350,16 +4879,18 @@
       <c r="Q12" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="R12" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="S12" s="9" t="s">
+      <c r="R12" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="S12" s="15" t="s">
         <v>9</v>
       </c>
       <c r="T12" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="U12" s="9"/>
+      <c r="U12" s="13" t="s">
+        <v>120</v>
+      </c>
       <c r="V12" s="9"/>
       <c r="W12" s="9"/>
       <c r="X12" s="9"/>
@@ -4403,11 +4934,11 @@
       <c r="Q13" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="R13" s="9" t="s">
+      <c r="R13" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="S13" s="9" t="s">
-        <v>8</v>
+      <c r="S13" s="15" t="s">
+        <v>42</v>
       </c>
       <c r="T13" s="18" t="s">
         <v>13</v>
@@ -4531,16 +5062,18 @@
       <c r="W15" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="X15" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y15" s="9" t="s">
+      <c r="X15" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y15" s="15" t="s">
         <v>9</v>
       </c>
       <c r="Z15" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="AA15" s="13"/>
+      <c r="AA15" s="13" t="s">
+        <v>119</v>
+      </c>
       <c r="AB15" s="9"/>
       <c r="AC15" s="9"/>
       <c r="AD15" s="9"/>
@@ -4584,11 +5117,11 @@
       <c r="W16" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="X16" s="9" t="s">
+      <c r="X16" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="Y16" s="9" t="s">
-        <v>8</v>
+      <c r="Y16" s="15" t="s">
+        <v>42</v>
       </c>
       <c r="Z16" s="9" t="s">
         <v>9</v>
@@ -4968,4 +5501,1982 @@
   <pageSetup paperSize="9" scale="60" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE8F676F-49DF-48A1-9A2A-A9219EC105D3}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A2:K41"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6.75" style="27" customWidth="1"/>
+    <col min="2" max="2" width="19.625" style="27" customWidth="1"/>
+    <col min="3" max="7" width="10.125" style="27" customWidth="1"/>
+    <col min="8" max="8" width="23.5" style="27" customWidth="1"/>
+    <col min="9" max="11" width="8.125" style="27" customWidth="1"/>
+    <col min="12" max="63" width="12.125" style="27" customWidth="1"/>
+    <col min="64" max="16384" width="11" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:11" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="38" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="38"/>
+    </row>
+    <row r="4" spans="1:11" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="38"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+    </row>
+    <row r="5" spans="1:11" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="38"/>
+      <c r="B5" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="37"/>
+    </row>
+    <row r="7" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="65" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" s="51" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="G8" s="49" t="s">
+        <v>55</v>
+      </c>
+      <c r="H8" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="I8" s="39"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="40"/>
+    </row>
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="64" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="52" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="48">
+        <v>3</v>
+      </c>
+      <c r="E9" s="48">
+        <v>4</v>
+      </c>
+      <c r="F9" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="G9" s="50">
+        <v>7</v>
+      </c>
+      <c r="H9" s="62" t="s">
+        <v>72</v>
+      </c>
+      <c r="I9" s="39"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="40"/>
+    </row>
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="53" t="s">
+        <v>89</v>
+      </c>
+      <c r="D10" s="33">
+        <v>4</v>
+      </c>
+      <c r="E10" s="33">
+        <v>5</v>
+      </c>
+      <c r="F10" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="G10" s="34">
+        <v>8</v>
+      </c>
+      <c r="H10" s="63" t="s">
+        <v>73</v>
+      </c>
+      <c r="I10" s="41"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="40"/>
+    </row>
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="D11" s="33">
+        <v>5</v>
+      </c>
+      <c r="E11" s="33">
+        <v>6</v>
+      </c>
+      <c r="F11" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="G11" s="34">
+        <v>9</v>
+      </c>
+      <c r="H11" s="63" t="s">
+        <v>74</v>
+      </c>
+      <c r="I11" s="54"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="40"/>
+    </row>
+    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="54" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="53" t="s">
+        <v>93</v>
+      </c>
+      <c r="D12" s="33">
+        <v>6</v>
+      </c>
+      <c r="E12" s="33">
+        <v>7</v>
+      </c>
+      <c r="F12" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="G12" s="34">
+        <v>10</v>
+      </c>
+      <c r="H12" s="63" t="s">
+        <v>75</v>
+      </c>
+      <c r="I12" s="54"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="40"/>
+    </row>
+    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="54" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" s="33">
+        <v>7</v>
+      </c>
+      <c r="E13" s="33">
+        <v>8</v>
+      </c>
+      <c r="F13" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="G13" s="34">
+        <v>11</v>
+      </c>
+      <c r="H13" s="63" t="s">
+        <v>76</v>
+      </c>
+      <c r="I13" s="40"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="40"/>
+    </row>
+    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="54" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="53" t="s">
+        <v>90</v>
+      </c>
+      <c r="D14" s="33">
+        <v>8</v>
+      </c>
+      <c r="E14" s="33">
+        <v>9</v>
+      </c>
+      <c r="F14" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="G14" s="34">
+        <v>12</v>
+      </c>
+      <c r="H14" s="63" t="s">
+        <v>77</v>
+      </c>
+      <c r="I14" s="42"/>
+      <c r="J14" s="42"/>
+      <c r="K14" s="42"/>
+    </row>
+    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="54" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="53" t="s">
+        <v>92</v>
+      </c>
+      <c r="D15" s="33">
+        <v>9</v>
+      </c>
+      <c r="E15" s="33">
+        <v>10</v>
+      </c>
+      <c r="F15" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="G15" s="34">
+        <v>13</v>
+      </c>
+      <c r="H15" s="63" t="s">
+        <v>78</v>
+      </c>
+      <c r="I15" s="41"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="40"/>
+    </row>
+    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="54" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" s="53" t="s">
+        <v>94</v>
+      </c>
+      <c r="D16" s="33">
+        <v>10</v>
+      </c>
+      <c r="E16" s="33">
+        <v>11</v>
+      </c>
+      <c r="F16" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="G16" s="34">
+        <v>14</v>
+      </c>
+      <c r="H16" s="63" t="s">
+        <v>79</v>
+      </c>
+      <c r="I16" s="41"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="40"/>
+    </row>
+    <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" s="53" t="s">
+        <v>95</v>
+      </c>
+      <c r="D17" s="33">
+        <v>11</v>
+      </c>
+      <c r="E17" s="33">
+        <v>12</v>
+      </c>
+      <c r="F17" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="G17" s="34">
+        <v>15</v>
+      </c>
+      <c r="H17" s="63" t="s">
+        <v>80</v>
+      </c>
+      <c r="I17" s="41"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="40"/>
+    </row>
+    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="54" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" s="53" t="s">
+        <v>99</v>
+      </c>
+      <c r="D18" s="33">
+        <v>12</v>
+      </c>
+      <c r="E18" s="33">
+        <v>13</v>
+      </c>
+      <c r="F18" s="33" t="s">
+        <v>103</v>
+      </c>
+      <c r="G18" s="34">
+        <v>16</v>
+      </c>
+      <c r="H18" s="63" t="s">
+        <v>81</v>
+      </c>
+      <c r="I18" s="41"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="40"/>
+    </row>
+    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="54" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="53" t="s">
+        <v>100</v>
+      </c>
+      <c r="D19" s="33">
+        <v>13</v>
+      </c>
+      <c r="E19" s="33">
+        <v>14</v>
+      </c>
+      <c r="F19" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="G19" s="34">
+        <v>17</v>
+      </c>
+      <c r="H19" s="63" t="s">
+        <v>76</v>
+      </c>
+      <c r="I19" s="41"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="40"/>
+    </row>
+    <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="54" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="53" t="s">
+        <v>101</v>
+      </c>
+      <c r="D20" s="33">
+        <v>14</v>
+      </c>
+      <c r="E20" s="33">
+        <v>15</v>
+      </c>
+      <c r="F20" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="G20" s="34">
+        <v>18</v>
+      </c>
+      <c r="H20" s="63" t="s">
+        <v>77</v>
+      </c>
+      <c r="I20" s="41"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="40"/>
+    </row>
+    <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="54" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="53" t="s">
+        <v>102</v>
+      </c>
+      <c r="D21" s="33">
+        <v>15</v>
+      </c>
+      <c r="E21" s="33">
+        <v>16</v>
+      </c>
+      <c r="F21" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="G21" s="34">
+        <v>19</v>
+      </c>
+      <c r="H21" s="63" t="s">
+        <v>82</v>
+      </c>
+      <c r="I21" s="32"/>
+    </row>
+    <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" s="53" t="s">
+        <v>104</v>
+      </c>
+      <c r="D22" s="33">
+        <v>16</v>
+      </c>
+      <c r="E22" s="33">
+        <v>17</v>
+      </c>
+      <c r="F22" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="G22" s="34">
+        <v>20</v>
+      </c>
+      <c r="H22" s="63" t="s">
+        <v>83</v>
+      </c>
+      <c r="I22" s="31"/>
+    </row>
+    <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="54" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" s="53" t="s">
+        <v>106</v>
+      </c>
+      <c r="D23" s="33">
+        <v>17</v>
+      </c>
+      <c r="E23" s="33">
+        <v>18</v>
+      </c>
+      <c r="F23" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="G23" s="34">
+        <v>21</v>
+      </c>
+      <c r="H23" s="63" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="54" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="53" t="s">
+        <v>107</v>
+      </c>
+      <c r="D24" s="33">
+        <v>18</v>
+      </c>
+      <c r="E24" s="33">
+        <v>19</v>
+      </c>
+      <c r="F24" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="G24" s="34">
+        <v>22</v>
+      </c>
+      <c r="H24" s="63" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" s="53" t="s">
+        <v>108</v>
+      </c>
+      <c r="D25" s="33">
+        <v>19</v>
+      </c>
+      <c r="E25" s="33">
+        <v>20</v>
+      </c>
+      <c r="F25" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="G25" s="34">
+        <v>23</v>
+      </c>
+      <c r="H25" s="63" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="54" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" s="53" t="s">
+        <v>109</v>
+      </c>
+      <c r="D26" s="33">
+        <v>20</v>
+      </c>
+      <c r="E26" s="33">
+        <v>21</v>
+      </c>
+      <c r="F26" s="33" t="s">
+        <v>111</v>
+      </c>
+      <c r="G26" s="34">
+        <v>24</v>
+      </c>
+      <c r="H26" s="63" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="54" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" s="53" t="s">
+        <v>110</v>
+      </c>
+      <c r="D27" s="33">
+        <v>21</v>
+      </c>
+      <c r="E27" s="33">
+        <v>22</v>
+      </c>
+      <c r="F27" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="G27" s="34">
+        <v>25</v>
+      </c>
+      <c r="H27" s="63" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="54" t="s">
+        <v>70</v>
+      </c>
+      <c r="C28" s="53" t="s">
+        <v>111</v>
+      </c>
+      <c r="D28" s="33">
+        <v>22</v>
+      </c>
+      <c r="E28" s="33">
+        <v>23</v>
+      </c>
+      <c r="F28" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="G28" s="34">
+        <v>26</v>
+      </c>
+      <c r="H28" s="63" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A29" s="30"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="30"/>
+      <c r="J29" s="30"/>
+    </row>
+    <row r="31" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A31" s="28"/>
+      <c r="C31" s="29"/>
+    </row>
+    <row r="32" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A32" s="28"/>
+    </row>
+    <row r="33" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+      <c r="A33" s="28"/>
+    </row>
+    <row r="35" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+      <c r="A35" s="28"/>
+      <c r="C35" s="29"/>
+    </row>
+    <row r="36" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+      <c r="A36" s="28"/>
+    </row>
+    <row r="37" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+      <c r="A37" s="28"/>
+    </row>
+    <row r="38" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+      <c r="A38" s="28"/>
+    </row>
+    <row r="40" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+      <c r="A40" s="28"/>
+    </row>
+    <row r="41" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+      <c r="A41" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A29:J29"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup scale="68" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7B5DA73-718D-432E-BEC5-70BCFB6775D8}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B2:AF41"/>
+  <sheetViews>
+    <sheetView topLeftCell="A5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N29" sqref="N29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.375" customWidth="1"/>
+    <col min="2" max="2" width="28.125" customWidth="1"/>
+    <col min="3" max="32" width="8.625" customWidth="1"/>
+    <col min="33" max="74" width="4.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:32" ht="18" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="2:32" ht="18" x14ac:dyDescent="0.25">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+    </row>
+    <row r="4" spans="2:32" ht="18" x14ac:dyDescent="0.25">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4"/>
+      <c r="X4" s="4"/>
+      <c r="Y4" s="4"/>
+      <c r="Z4" s="4"/>
+    </row>
+    <row r="5" spans="2:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="6">
+        <v>1</v>
+      </c>
+      <c r="D5" s="7">
+        <f t="shared" ref="D5:AF5" si="0">C5+1</f>
+        <v>2</v>
+      </c>
+      <c r="E5" s="7">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F5" s="7">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="G5" s="7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="H5" s="7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="I5" s="8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="J5" s="7">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="K5" s="7">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="L5" s="7">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="M5" s="7">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="N5" s="7">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="O5" s="7">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="P5" s="7">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="Q5" s="7">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="R5" s="7">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="S5" s="7">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="T5" s="7">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="U5" s="7">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="V5" s="7">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="W5" s="7">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="X5" s="7">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="Y5" s="7">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="Z5" s="7">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="AA5" s="7">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="AB5" s="7">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="AC5" s="7">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="AD5" s="7">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="AE5" s="7">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="AF5" s="7">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="2:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" s="9"/>
+      <c r="K6" s="46"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="46"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="46"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="9"/>
+      <c r="V6" s="9"/>
+      <c r="W6" s="9"/>
+      <c r="X6" s="9"/>
+      <c r="Y6" s="9"/>
+      <c r="Z6" s="9"/>
+      <c r="AA6" s="9"/>
+      <c r="AB6" s="9"/>
+      <c r="AC6" s="9"/>
+      <c r="AD6" s="9"/>
+      <c r="AE6" s="9"/>
+      <c r="AF6" s="9"/>
+    </row>
+    <row r="7" spans="2:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="K7" s="13"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="9"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="9"/>
+      <c r="V7" s="9"/>
+      <c r="W7" s="9"/>
+      <c r="X7" s="9"/>
+      <c r="Y7" s="9"/>
+      <c r="Z7" s="9"/>
+      <c r="AA7" s="9"/>
+      <c r="AB7" s="9"/>
+      <c r="AC7" s="9"/>
+      <c r="AD7" s="9"/>
+      <c r="AE7" s="9"/>
+      <c r="AF7" s="9"/>
+    </row>
+    <row r="8" spans="2:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="J8" s="56" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
+      <c r="S8" s="9"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="9"/>
+      <c r="V8" s="9"/>
+      <c r="W8" s="9"/>
+      <c r="X8" s="9"/>
+      <c r="Y8" s="9"/>
+      <c r="Z8" s="9"/>
+      <c r="AA8" s="9"/>
+      <c r="AB8" s="9"/>
+      <c r="AC8" s="9"/>
+      <c r="AD8" s="9"/>
+      <c r="AE8" s="9"/>
+      <c r="AF8" s="9"/>
+    </row>
+    <row r="9" spans="2:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="44" t="s">
+        <v>117</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="J9" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="K9" s="56" t="s">
+        <v>9</v>
+      </c>
+      <c r="L9" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="M9" s="13"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="9"/>
+      <c r="V9" s="9"/>
+      <c r="W9" s="9"/>
+      <c r="X9" s="9"/>
+      <c r="Y9" s="9"/>
+      <c r="Z9" s="9"/>
+      <c r="AA9" s="9"/>
+      <c r="AB9" s="9"/>
+      <c r="AC9" s="9"/>
+      <c r="AD9" s="9"/>
+      <c r="AE9" s="9"/>
+      <c r="AF9" s="9"/>
+    </row>
+    <row r="10" spans="2:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J10" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="K10" s="55" t="s">
+        <v>8</v>
+      </c>
+      <c r="L10" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="M10" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="9"/>
+      <c r="T10" s="9"/>
+      <c r="U10" s="9"/>
+      <c r="V10" s="9"/>
+      <c r="W10" s="9"/>
+      <c r="X10" s="9"/>
+      <c r="Y10" s="9"/>
+      <c r="Z10" s="9"/>
+      <c r="AA10" s="9"/>
+      <c r="AB10" s="9"/>
+      <c r="AC10" s="9"/>
+      <c r="AD10" s="9"/>
+      <c r="AE10" s="9"/>
+      <c r="AF10" s="9"/>
+    </row>
+    <row r="11" spans="2:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="L11" s="56" t="s">
+        <v>8</v>
+      </c>
+      <c r="M11" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="N11" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9"/>
+      <c r="S11" s="9"/>
+      <c r="T11" s="9"/>
+      <c r="U11" s="9"/>
+      <c r="V11" s="9"/>
+      <c r="W11" s="9"/>
+      <c r="X11" s="9"/>
+      <c r="Y11" s="9"/>
+      <c r="Z11" s="9"/>
+      <c r="AA11" s="9"/>
+      <c r="AB11" s="9"/>
+      <c r="AC11" s="9"/>
+      <c r="AD11" s="9"/>
+      <c r="AE11" s="9"/>
+      <c r="AF11" s="9"/>
+    </row>
+    <row r="12" spans="2:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="L12" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="M12" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="N12" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="O12" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="9"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="9"/>
+      <c r="V12" s="9"/>
+      <c r="W12" s="9"/>
+      <c r="X12" s="9"/>
+      <c r="Y12" s="9"/>
+      <c r="Z12" s="9"/>
+      <c r="AA12" s="9"/>
+      <c r="AB12" s="9"/>
+      <c r="AC12" s="9"/>
+      <c r="AD12" s="9"/>
+      <c r="AE12" s="9"/>
+      <c r="AF12" s="9"/>
+    </row>
+    <row r="13" spans="2:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="K13" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="L13" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="M13" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="N13" s="57" t="s">
+        <v>8</v>
+      </c>
+      <c r="O13" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="P13" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9"/>
+      <c r="S13" s="9"/>
+      <c r="T13" s="9"/>
+      <c r="U13" s="9"/>
+      <c r="V13" s="9"/>
+      <c r="W13" s="9"/>
+      <c r="X13" s="9"/>
+      <c r="Y13" s="9"/>
+      <c r="Z13" s="9"/>
+      <c r="AA13" s="13"/>
+      <c r="AB13" s="9"/>
+      <c r="AC13" s="9"/>
+      <c r="AD13" s="9"/>
+      <c r="AE13" s="9"/>
+      <c r="AF13" s="9"/>
+    </row>
+    <row r="14" spans="2:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="L14" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="M14" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="N14" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="O14" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="P14" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q14" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="R14" s="9"/>
+      <c r="S14" s="9"/>
+      <c r="T14" s="13"/>
+      <c r="U14" s="9"/>
+      <c r="V14" s="9"/>
+      <c r="W14" s="9"/>
+      <c r="X14" s="9"/>
+      <c r="Y14" s="9"/>
+      <c r="Z14" s="9"/>
+      <c r="AA14" s="13"/>
+      <c r="AB14" s="9"/>
+      <c r="AC14" s="9"/>
+      <c r="AD14" s="9"/>
+      <c r="AE14" s="9"/>
+      <c r="AF14" s="9"/>
+    </row>
+    <row r="15" spans="2:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="M15" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="N15" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="O15" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="P15" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q15" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="R15" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="S15" s="9"/>
+      <c r="T15" s="13"/>
+      <c r="U15" s="9"/>
+      <c r="V15" s="9"/>
+      <c r="W15" s="9"/>
+      <c r="X15" s="9"/>
+      <c r="Y15" s="9"/>
+      <c r="Z15" s="9"/>
+      <c r="AA15" s="13"/>
+      <c r="AB15" s="9"/>
+      <c r="AC15" s="9"/>
+      <c r="AD15" s="9"/>
+      <c r="AE15" s="9"/>
+      <c r="AF15" s="9"/>
+    </row>
+    <row r="16" spans="2:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="N16" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="O16" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="P16" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q16" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="R16" s="58" t="s">
+        <v>9</v>
+      </c>
+      <c r="S16" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="T16" s="13"/>
+      <c r="U16" s="9"/>
+      <c r="V16" s="9"/>
+      <c r="W16" s="9"/>
+      <c r="X16" s="9"/>
+      <c r="Y16" s="9"/>
+      <c r="Z16" s="9"/>
+      <c r="AA16" s="13"/>
+      <c r="AB16" s="9"/>
+      <c r="AC16" s="9"/>
+      <c r="AD16" s="9"/>
+      <c r="AE16" s="9"/>
+      <c r="AF16" s="9"/>
+    </row>
+    <row r="17" spans="2:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="O17" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="P17" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q17" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="R17" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="S17" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="T17" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="U17" s="9"/>
+      <c r="V17" s="9"/>
+      <c r="W17" s="9"/>
+      <c r="X17" s="9"/>
+      <c r="Y17" s="9"/>
+      <c r="Z17" s="9"/>
+      <c r="AA17" s="9"/>
+      <c r="AB17" s="9"/>
+      <c r="AC17" s="9"/>
+      <c r="AD17" s="9"/>
+      <c r="AE17" s="9"/>
+      <c r="AF17" s="9"/>
+    </row>
+    <row r="18" spans="2:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="P18" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q18" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="R18" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="S18" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="T18" s="59" t="s">
+        <v>9</v>
+      </c>
+      <c r="U18" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="V18" s="9"/>
+      <c r="W18" s="9"/>
+      <c r="X18" s="9"/>
+      <c r="Y18" s="9"/>
+      <c r="Z18" s="9"/>
+      <c r="AA18" s="9"/>
+      <c r="AB18" s="9"/>
+      <c r="AC18" s="9"/>
+      <c r="AD18" s="9"/>
+      <c r="AE18" s="9"/>
+      <c r="AF18" s="9"/>
+    </row>
+    <row r="19" spans="2:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q19" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="R19" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="S19" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="T19" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="U19" s="60" t="s">
+        <v>9</v>
+      </c>
+      <c r="V19" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="W19" s="9"/>
+      <c r="X19" s="9"/>
+      <c r="Y19" s="9"/>
+      <c r="Z19" s="9"/>
+      <c r="AA19" s="9"/>
+      <c r="AB19" s="9"/>
+      <c r="AC19" s="9"/>
+      <c r="AD19" s="9"/>
+      <c r="AE19" s="9"/>
+      <c r="AF19" s="9"/>
+    </row>
+    <row r="20" spans="2:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="R20" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="S20" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="T20" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="U20" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="V20" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="W20" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="X20" s="9"/>
+      <c r="Y20" s="9"/>
+      <c r="Z20" s="9"/>
+      <c r="AA20" s="9"/>
+      <c r="AB20" s="9"/>
+      <c r="AC20" s="9"/>
+      <c r="AD20" s="9"/>
+      <c r="AE20" s="9"/>
+      <c r="AF20" s="9"/>
+    </row>
+    <row r="21" spans="2:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="9"/>
+      <c r="R21" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="S21" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="T21" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="U21" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="V21" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="W21" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="X21" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y21" s="9"/>
+      <c r="Z21" s="9"/>
+      <c r="AA21" s="9"/>
+      <c r="AB21" s="9"/>
+      <c r="AC21" s="9"/>
+      <c r="AD21" s="9"/>
+      <c r="AE21" s="9"/>
+      <c r="AF21" s="9"/>
+    </row>
+    <row r="22" spans="2:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="9"/>
+      <c r="R22" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="S22" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="T22" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="U22" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="V22" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="W22" s="58" t="s">
+        <v>8</v>
+      </c>
+      <c r="X22" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y22" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z22" s="9"/>
+      <c r="AA22" s="9"/>
+      <c r="AB22" s="9"/>
+      <c r="AC22" s="9"/>
+      <c r="AD22" s="9"/>
+      <c r="AE22" s="9"/>
+      <c r="AF22" s="9"/>
+    </row>
+    <row r="23" spans="2:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="9"/>
+      <c r="R23" s="9"/>
+      <c r="S23" s="9"/>
+      <c r="T23" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="U23" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="V23" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="W23" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="X23" s="59" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y23" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z23" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA23" s="9"/>
+      <c r="AB23" s="9"/>
+      <c r="AC23" s="9"/>
+      <c r="AD23" s="9"/>
+      <c r="AE23" s="9"/>
+      <c r="AF23" s="9"/>
+    </row>
+    <row r="24" spans="2:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="9"/>
+      <c r="R24" s="9"/>
+      <c r="S24" s="9"/>
+      <c r="T24" s="9"/>
+      <c r="U24" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="V24" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="W24" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="X24" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y24" s="60" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z24" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA24" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB24" s="9"/>
+      <c r="AC24" s="9"/>
+      <c r="AD24" s="9"/>
+      <c r="AE24" s="9"/>
+      <c r="AF24" s="9"/>
+    </row>
+    <row r="25" spans="2:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="9"/>
+      <c r="R25" s="9"/>
+      <c r="S25" s="9"/>
+      <c r="T25" s="9"/>
+      <c r="U25" s="9"/>
+      <c r="V25" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="W25" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="X25" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y25" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z25" s="61" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA25" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB25" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC25" s="9"/>
+      <c r="AD25" s="9"/>
+      <c r="AE25" s="9"/>
+      <c r="AF25" s="9"/>
+    </row>
+    <row r="26" spans="2:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="10"/>
+      <c r="C26" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G26" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H26" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I26" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="9"/>
+      <c r="P26" s="9"/>
+      <c r="Q26" s="9"/>
+      <c r="R26" s="9"/>
+      <c r="S26" s="9"/>
+      <c r="T26" s="13"/>
+      <c r="U26" s="13"/>
+      <c r="V26" s="13"/>
+      <c r="W26" s="13"/>
+      <c r="X26" s="9"/>
+      <c r="Y26" s="9"/>
+      <c r="Z26" s="9"/>
+      <c r="AA26" s="9"/>
+      <c r="AB26" s="9"/>
+      <c r="AC26" s="9"/>
+      <c r="AD26" s="9"/>
+      <c r="AE26" s="9"/>
+      <c r="AF26" s="9"/>
+    </row>
+    <row r="27" spans="2:32" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="2:32" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="2:32" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="D29" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="E29" s="47" t="s">
+        <v>96</v>
+      </c>
+      <c r="F29" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="G29" s="47" t="s">
+        <v>98</v>
+      </c>
+      <c r="H29" s="47" t="s">
+        <v>98</v>
+      </c>
+      <c r="I29" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="O29" s="44" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="2:32" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="D30" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="E30" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="F30" s="47" t="s">
+        <v>97</v>
+      </c>
+      <c r="G30" s="47" t="s">
+        <v>97</v>
+      </c>
+      <c r="H30" s="47" t="s">
+        <v>96</v>
+      </c>
+      <c r="I30" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="J30" s="47" t="s">
+        <v>98</v>
+      </c>
+      <c r="K30" s="47" t="s">
+        <v>98</v>
+      </c>
+      <c r="L30" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="O30" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="R30" s="44" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="31" spans="2:32" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="O31" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="R31" s="44" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="32" spans="2:32" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="O32" s="44" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="O33" s="44" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="O34" s="44" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="O35" s="44" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="O36" s="44" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" scale="60" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
 </file>
--- a/Assignment 1/Assignment 1.xlsx
+++ b/Assignment 1/Assignment 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\raeedh\school\COMPENG4DM4\Assignment 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96642944-ABEE-41FC-BAE9-EE919E51AD87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BD6DA9F-B8C6-493B-9FCA-C482EEBDE98B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="121">
   <si>
     <t>4DM4 Assignment #1, Timing for Basic RISC 7-stage  pipeline</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -162,9 +162,6 @@
   </si>
   <si>
     <t>LD Rd,(48)R0</t>
-  </si>
-  <si>
-    <t>XOR Rd,Rd,Rd</t>
   </si>
   <si>
     <t>SD (48)R0,Rd</t>
@@ -4336,7 +4333,7 @@
   <dimension ref="B2:AF41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="T19" sqref="T19"/>
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4600,7 +4597,7 @@
         <v>10</v>
       </c>
       <c r="K7" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L7" s="9"/>
       <c r="M7" s="9"/>
@@ -4649,7 +4646,7 @@
         <v>14</v>
       </c>
       <c r="K8" s="18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L8" s="15" t="s">
         <v>9</v>
@@ -4658,7 +4655,7 @@
         <v>10</v>
       </c>
       <c r="N8" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O8" s="9"/>
       <c r="P8" s="9"/>
@@ -4705,7 +4702,7 @@
         <v>7</v>
       </c>
       <c r="L9" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M9" s="19" t="s">
         <v>13</v>
@@ -4714,7 +4711,7 @@
         <v>10</v>
       </c>
       <c r="O9" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P9" s="9"/>
       <c r="Q9" s="9"/>
@@ -4764,7 +4761,7 @@
         <v>12</v>
       </c>
       <c r="N10" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O10" s="13" t="s">
         <v>9</v>
@@ -4829,7 +4826,7 @@
         <v>10</v>
       </c>
       <c r="R11" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="S11" s="9"/>
       <c r="T11" s="9"/>
@@ -4848,7 +4845,7 @@
     </row>
     <row r="12" spans="2:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="11" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
@@ -4880,7 +4877,7 @@
         <v>14</v>
       </c>
       <c r="R12" s="18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="S12" s="15" t="s">
         <v>9</v>
@@ -4889,7 +4886,7 @@
         <v>10</v>
       </c>
       <c r="U12" s="13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="V12" s="9"/>
       <c r="W12" s="9"/>
@@ -4905,7 +4902,7 @@
     </row>
     <row r="13" spans="2:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
@@ -4938,7 +4935,7 @@
         <v>7</v>
       </c>
       <c r="S13" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T13" s="18" t="s">
         <v>13</v>
@@ -4947,7 +4944,7 @@
         <v>10</v>
       </c>
       <c r="V13" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="W13" s="9"/>
       <c r="X13" s="9"/>
@@ -4999,7 +4996,7 @@
         <v>12</v>
       </c>
       <c r="U14" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="V14" s="18" t="s">
         <v>13</v>
@@ -5008,7 +5005,7 @@
         <v>10</v>
       </c>
       <c r="X14" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y14" s="9"/>
       <c r="Z14" s="9"/>
@@ -5021,7 +5018,7 @@
     </row>
     <row r="15" spans="2:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
@@ -5063,7 +5060,7 @@
         <v>14</v>
       </c>
       <c r="X15" s="18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Y15" s="15" t="s">
         <v>9</v>
@@ -5072,7 +5069,7 @@
         <v>10</v>
       </c>
       <c r="AA15" s="13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AB15" s="9"/>
       <c r="AC15" s="9"/>
@@ -5082,7 +5079,7 @@
     </row>
     <row r="16" spans="2:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
@@ -5121,7 +5118,7 @@
         <v>7</v>
       </c>
       <c r="Y16" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Z16" s="9" t="s">
         <v>9</v>
@@ -5527,7 +5524,7 @@
   <sheetData>
     <row r="2" spans="1:11" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A2" s="38" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="19.5" x14ac:dyDescent="0.25">
@@ -5541,32 +5538,32 @@
     <row r="5" spans="1:11" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A5" s="38"/>
       <c r="B5" s="37" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C5" s="37"/>
     </row>
     <row r="7" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="65" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C8" s="51" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D8" s="36" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E8" s="35" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F8" s="35" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G8" s="49" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H8" s="35" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I8" s="39"/>
       <c r="J8" s="40"/>
@@ -5577,7 +5574,7 @@
         <v>33</v>
       </c>
       <c r="C9" s="52" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D9" s="48">
         <v>3</v>
@@ -5586,13 +5583,13 @@
         <v>4</v>
       </c>
       <c r="F9" s="48" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G9" s="50">
         <v>7</v>
       </c>
       <c r="H9" s="62" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I9" s="39"/>
       <c r="J9" s="40"/>
@@ -5603,7 +5600,7 @@
         <v>34</v>
       </c>
       <c r="C10" s="53" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D10" s="33">
         <v>4</v>
@@ -5612,13 +5609,13 @@
         <v>5</v>
       </c>
       <c r="F10" s="33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G10" s="34">
         <v>8</v>
       </c>
       <c r="H10" s="63" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I10" s="41"/>
       <c r="J10" s="40"/>
@@ -5629,7 +5626,7 @@
         <v>37</v>
       </c>
       <c r="C11" s="53" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D11" s="33">
         <v>5</v>
@@ -5638,13 +5635,13 @@
         <v>6</v>
       </c>
       <c r="F11" s="33" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G11" s="34">
         <v>9</v>
       </c>
       <c r="H11" s="63" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I11" s="54"/>
       <c r="J11" s="40"/>
@@ -5652,10 +5649,10 @@
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="54" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C12" s="53" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D12" s="33">
         <v>6</v>
@@ -5664,13 +5661,13 @@
         <v>7</v>
       </c>
       <c r="F12" s="33" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G12" s="34">
         <v>10</v>
       </c>
       <c r="H12" s="63" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I12" s="54"/>
       <c r="J12" s="40"/>
@@ -5681,7 +5678,7 @@
         <v>35</v>
       </c>
       <c r="C13" s="53" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D13" s="33">
         <v>7</v>
@@ -5690,13 +5687,13 @@
         <v>8</v>
       </c>
       <c r="F13" s="33" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G13" s="34">
         <v>11</v>
       </c>
       <c r="H13" s="63" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I13" s="40"/>
       <c r="J13" s="40"/>
@@ -5704,10 +5701,10 @@
     </row>
     <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="54" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C14" s="53" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D14" s="33">
         <v>8</v>
@@ -5716,13 +5713,13 @@
         <v>9</v>
       </c>
       <c r="F14" s="33" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G14" s="34">
         <v>12</v>
       </c>
       <c r="H14" s="63" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I14" s="42"/>
       <c r="J14" s="42"/>
@@ -5730,10 +5727,10 @@
     </row>
     <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="54" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C15" s="53" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D15" s="33">
         <v>9</v>
@@ -5742,13 +5739,13 @@
         <v>10</v>
       </c>
       <c r="F15" s="33" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G15" s="34">
         <v>13</v>
       </c>
       <c r="H15" s="63" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I15" s="41"/>
       <c r="J15" s="40"/>
@@ -5756,10 +5753,10 @@
     </row>
     <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="54" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C16" s="53" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D16" s="33">
         <v>10</v>
@@ -5768,13 +5765,13 @@
         <v>11</v>
       </c>
       <c r="F16" s="33" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G16" s="34">
         <v>14</v>
       </c>
       <c r="H16" s="63" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I16" s="41"/>
       <c r="J16" s="40"/>
@@ -5782,10 +5779,10 @@
     </row>
     <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="54" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C17" s="53" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D17" s="33">
         <v>11</v>
@@ -5794,13 +5791,13 @@
         <v>12</v>
       </c>
       <c r="F17" s="33" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G17" s="34">
         <v>15</v>
       </c>
       <c r="H17" s="63" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I17" s="41"/>
       <c r="J17" s="40"/>
@@ -5808,10 +5805,10 @@
     </row>
     <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="54" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C18" s="53" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D18" s="33">
         <v>12</v>
@@ -5820,13 +5817,13 @@
         <v>13</v>
       </c>
       <c r="F18" s="33" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G18" s="34">
         <v>16</v>
       </c>
       <c r="H18" s="63" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I18" s="41"/>
       <c r="J18" s="40"/>
@@ -5837,7 +5834,7 @@
         <v>35</v>
       </c>
       <c r="C19" s="53" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D19" s="33">
         <v>13</v>
@@ -5846,13 +5843,13 @@
         <v>14</v>
       </c>
       <c r="F19" s="33" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G19" s="34">
         <v>17</v>
       </c>
       <c r="H19" s="63" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I19" s="41"/>
       <c r="J19" s="40"/>
@@ -5860,10 +5857,10 @@
     </row>
     <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="54" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C20" s="53" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D20" s="33">
         <v>14</v>
@@ -5872,13 +5869,13 @@
         <v>15</v>
       </c>
       <c r="F20" s="33" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G20" s="34">
         <v>18</v>
       </c>
       <c r="H20" s="63" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I20" s="41"/>
       <c r="J20" s="40"/>
@@ -5889,7 +5886,7 @@
         <v>36</v>
       </c>
       <c r="C21" s="53" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D21" s="33">
         <v>15</v>
@@ -5898,22 +5895,22 @@
         <v>16</v>
       </c>
       <c r="F21" s="33" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G21" s="34">
         <v>19</v>
       </c>
       <c r="H21" s="63" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I21" s="32"/>
     </row>
     <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="54" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C22" s="53" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D22" s="33">
         <v>16</v>
@@ -5922,22 +5919,22 @@
         <v>17</v>
       </c>
       <c r="F22" s="33" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G22" s="34">
         <v>20</v>
       </c>
       <c r="H22" s="63" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I22" s="31"/>
     </row>
     <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="54" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C23" s="53" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D23" s="33">
         <v>17</v>
@@ -5946,21 +5943,21 @@
         <v>18</v>
       </c>
       <c r="F23" s="33" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G23" s="34">
         <v>21</v>
       </c>
       <c r="H23" s="63" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="54" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C24" s="53" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D24" s="33">
         <v>18</v>
@@ -5969,21 +5966,21 @@
         <v>19</v>
       </c>
       <c r="F24" s="33" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G24" s="34">
         <v>22</v>
       </c>
       <c r="H24" s="63" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="54" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C25" s="53" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D25" s="33">
         <v>19</v>
@@ -5992,21 +5989,21 @@
         <v>20</v>
       </c>
       <c r="F25" s="33" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G25" s="34">
         <v>23</v>
       </c>
       <c r="H25" s="63" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="54" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C26" s="53" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D26" s="33">
         <v>20</v>
@@ -6015,21 +6012,21 @@
         <v>21</v>
       </c>
       <c r="F26" s="33" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G26" s="34">
         <v>24</v>
       </c>
       <c r="H26" s="63" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="54" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C27" s="53" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D27" s="33">
         <v>21</v>
@@ -6038,21 +6035,21 @@
         <v>22</v>
       </c>
       <c r="F27" s="33" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G27" s="34">
         <v>25</v>
       </c>
       <c r="H27" s="63" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="54" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C28" s="53" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D28" s="33">
         <v>22</v>
@@ -6061,13 +6058,13 @@
         <v>23</v>
       </c>
       <c r="F28" s="33" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G28" s="34">
         <v>26</v>
       </c>
       <c r="H28" s="63" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="18" x14ac:dyDescent="0.25">
@@ -6469,7 +6466,7 @@
     </row>
     <row r="9" spans="2:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="44" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
@@ -6567,7 +6564,7 @@
     </row>
     <row r="11" spans="2:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="44" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
@@ -6616,7 +6613,7 @@
     </row>
     <row r="12" spans="2:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="44" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
@@ -6665,7 +6662,7 @@
     </row>
     <row r="13" spans="2:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="44" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
@@ -6714,7 +6711,7 @@
     </row>
     <row r="14" spans="2:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="44" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -6763,7 +6760,7 @@
     </row>
     <row r="15" spans="2:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="44" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
@@ -6861,7 +6858,7 @@
     </row>
     <row r="17" spans="2:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="44" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
@@ -6910,7 +6907,7 @@
     </row>
     <row r="18" spans="2:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="44" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
@@ -6959,7 +6956,7 @@
     </row>
     <row r="19" spans="2:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="44" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
@@ -7008,7 +7005,7 @@
     </row>
     <row r="20" spans="2:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="44" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
@@ -7057,7 +7054,7 @@
     </row>
     <row r="21" spans="2:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="44" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
@@ -7157,7 +7154,7 @@
     </row>
     <row r="23" spans="2:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="44" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
@@ -7206,7 +7203,7 @@
     </row>
     <row r="24" spans="2:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="44" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
@@ -7255,7 +7252,7 @@
     </row>
     <row r="25" spans="2:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="44" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
@@ -7353,25 +7350,25 @@
     <row r="28" spans="2:32" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="29" spans="2:32" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="43" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C29" s="45" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D29" s="45" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E29" s="47" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F29" s="47" t="s">
         <v>7</v>
       </c>
       <c r="G29" s="47" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H29" s="47" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I29" s="47" t="s">
         <v>10</v>
@@ -7382,91 +7379,91 @@
     </row>
     <row r="30" spans="2:32" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="43" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D30" s="45" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E30" s="45" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F30" s="47" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G30" s="47" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H30" s="47" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I30" s="47" t="s">
         <v>7</v>
       </c>
       <c r="J30" s="47" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K30" s="47" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L30" s="47" t="s">
         <v>10</v>
       </c>
       <c r="O30" s="44" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="R30" s="44" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="31" spans="2:32" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="43" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O31" s="44" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="R31" s="44" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="32" spans="2:32" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="43" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O32" s="44" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="43" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O33" s="44" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="43" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O34" s="44" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="35" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="43" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O35" s="44" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="36" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O36" s="44" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="37" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Assignment 1/Assignment 1.xlsx
+++ b/Assignment 1/Assignment 1.xlsx
@@ -8,25 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\raeedh\school\COMPENG4DM4\Assignment 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BD6DA9F-B8C6-493B-9FCA-C482EEBDE98B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EB1C953-EB84-4484-98C1-D4BF964EC059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="A1" sheetId="6" r:id="rId1"/>
     <sheet name="A2.1" sheetId="8" r:id="rId2"/>
     <sheet name="A2.2" sheetId="11" r:id="rId3"/>
-    <sheet name="B1" sheetId="12" r:id="rId4"/>
-    <sheet name="B4" sheetId="14" r:id="rId5"/>
-    <sheet name="B4.2" sheetId="16" r:id="rId6"/>
+    <sheet name="B1" sheetId="19" r:id="rId4"/>
+    <sheet name="B2" sheetId="18" r:id="rId5"/>
+    <sheet name="B4" sheetId="14" r:id="rId6"/>
+    <sheet name="B4.2" sheetId="16" r:id="rId7"/>
+    <sheet name="B4.3" sheetId="17" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'A1'!$B$2:$AF$26</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'A2.1'!$B$2:$AF$26</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'A2.2'!$B$2:$AF$26</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'B1'!$B$2:$AF$26</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">'B4'!$A$1:$M$42</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">'B4.2'!$B$2:$AF$26</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'B2'!$B$2:$AF$26</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">'B4'!$A$1:$M$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">'B4.2'!$B$2:$AF$26</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">'B4.3'!$B$2:$AF$26</definedName>
   </definedNames>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -46,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1289" uniqueCount="110">
   <si>
     <t>4DM4 Assignment #1, Timing for Basic RISC 7-stage  pipeline</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -278,54 +282,6 @@
     <t>5,6</t>
   </si>
   <si>
-    <t>load a from memory</t>
-  </si>
-  <si>
-    <t>load b from memory</t>
-  </si>
-  <si>
-    <t>load c from memory</t>
-  </si>
-  <si>
-    <t>load d from memory</t>
-  </si>
-  <si>
-    <t>a = a + b</t>
-  </si>
-  <si>
-    <t>XOR(d,a)</t>
-  </si>
-  <si>
-    <t>ROTATE_LEFT(d, 16)</t>
-  </si>
-  <si>
-    <t>c = c + d</t>
-  </si>
-  <si>
-    <t>XOR(b,c)</t>
-  </si>
-  <si>
-    <t>ROTATE_LEFT(b, 12)</t>
-  </si>
-  <si>
-    <t>store a into memory</t>
-  </si>
-  <si>
-    <t>ROTATE_LEFT(d, 8)</t>
-  </si>
-  <si>
-    <t>store d into memory</t>
-  </si>
-  <si>
-    <t>store c into memory</t>
-  </si>
-  <si>
-    <t>ROTATE_LEFT(b, 7)</t>
-  </si>
-  <si>
-    <t>store b into memory</t>
-  </si>
-  <si>
     <t>Comments</t>
   </si>
   <si>
@@ -427,12 +383,27 @@
   <si>
     <t>*forward Rd (MEM1* to *MEM1) in cc9</t>
   </si>
+  <si>
+    <t>ROT.L Rd,Rd,\#16</t>
+  </si>
+  <si>
+    <t>LD Rc,(32)R0</t>
+  </si>
+  <si>
+    <t>ROT.L Rb,Rb,\#12</t>
+  </si>
+  <si>
+    <t>ROT.L Rd,Rd,\#8</t>
+  </si>
+  <si>
+    <t>ROT.L Rb,Rb,\#7</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -506,8 +477,14 @@
       <name val="Verdana"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -556,8 +533,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="21">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -672,6 +655,88 @@
         <color indexed="64"/>
       </top>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -823,12 +888,73 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -858,8 +984,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1"/>
@@ -867,42 +991,16 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -914,10 +1012,36 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -925,12 +1049,51 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4326,14 +4489,5299 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CB1643E-7C00-457A-9465-A36C07311B5A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{043A6EC4-BB68-40B4-8099-DF02E6A60E09}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B2:CG49"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.375" style="25" customWidth="1"/>
+    <col min="2" max="2" width="28.125" style="25" customWidth="1"/>
+    <col min="3" max="85" width="8.625" style="25" customWidth="1"/>
+    <col min="86" max="16384" width="11" style="25"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:85" ht="18" x14ac:dyDescent="0.25">
+      <c r="B2" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="84"/>
+    </row>
+    <row r="3" spans="2:85" ht="18" x14ac:dyDescent="0.25">
+      <c r="B3" s="84"/>
+      <c r="C3" s="84"/>
+    </row>
+    <row r="4" spans="2:85" ht="18" x14ac:dyDescent="0.25">
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="N4" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="O4" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="R4" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="S4" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="T4" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="U4" s="35"/>
+      <c r="V4" s="35"/>
+      <c r="W4" s="35"/>
+      <c r="X4" s="35"/>
+      <c r="Y4" s="35"/>
+      <c r="Z4" s="35"/>
+    </row>
+    <row r="5" spans="2:85" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="83" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="82">
+        <v>1</v>
+      </c>
+      <c r="D5" s="80">
+        <f>C5+1</f>
+        <v>2</v>
+      </c>
+      <c r="E5" s="80">
+        <f>D5+1</f>
+        <v>3</v>
+      </c>
+      <c r="F5" s="80">
+        <f>E5+1</f>
+        <v>4</v>
+      </c>
+      <c r="G5" s="80">
+        <f>F5+1</f>
+        <v>5</v>
+      </c>
+      <c r="H5" s="80">
+        <f>G5+1</f>
+        <v>6</v>
+      </c>
+      <c r="I5" s="81">
+        <f>H5+1</f>
+        <v>7</v>
+      </c>
+      <c r="J5" s="80">
+        <f>I5+1</f>
+        <v>8</v>
+      </c>
+      <c r="K5" s="80">
+        <f>J5+1</f>
+        <v>9</v>
+      </c>
+      <c r="L5" s="80">
+        <f>K5+1</f>
+        <v>10</v>
+      </c>
+      <c r="M5" s="80">
+        <f>L5+1</f>
+        <v>11</v>
+      </c>
+      <c r="N5" s="80">
+        <f>M5+1</f>
+        <v>12</v>
+      </c>
+      <c r="O5" s="80">
+        <f>N5+1</f>
+        <v>13</v>
+      </c>
+      <c r="P5" s="80">
+        <f>O5+1</f>
+        <v>14</v>
+      </c>
+      <c r="Q5" s="80">
+        <f>P5+1</f>
+        <v>15</v>
+      </c>
+      <c r="R5" s="80">
+        <f>Q5+1</f>
+        <v>16</v>
+      </c>
+      <c r="S5" s="80">
+        <f>R5+1</f>
+        <v>17</v>
+      </c>
+      <c r="T5" s="80">
+        <f>S5+1</f>
+        <v>18</v>
+      </c>
+      <c r="U5" s="80">
+        <f>T5+1</f>
+        <v>19</v>
+      </c>
+      <c r="V5" s="80">
+        <f>U5+1</f>
+        <v>20</v>
+      </c>
+      <c r="W5" s="80">
+        <f>V5+1</f>
+        <v>21</v>
+      </c>
+      <c r="X5" s="80">
+        <f>W5+1</f>
+        <v>22</v>
+      </c>
+      <c r="Y5" s="80">
+        <f>X5+1</f>
+        <v>23</v>
+      </c>
+      <c r="Z5" s="80">
+        <f>Y5+1</f>
+        <v>24</v>
+      </c>
+      <c r="AA5" s="80">
+        <f>Z5+1</f>
+        <v>25</v>
+      </c>
+      <c r="AB5" s="80">
+        <f>AA5+1</f>
+        <v>26</v>
+      </c>
+      <c r="AC5" s="80">
+        <f>AB5+1</f>
+        <v>27</v>
+      </c>
+      <c r="AD5" s="80">
+        <f>AC5+1</f>
+        <v>28</v>
+      </c>
+      <c r="AE5" s="80">
+        <f>AD5+1</f>
+        <v>29</v>
+      </c>
+      <c r="AF5" s="80">
+        <f>AE5+1</f>
+        <v>30</v>
+      </c>
+      <c r="AG5" s="80">
+        <f>AF5+1</f>
+        <v>31</v>
+      </c>
+      <c r="AH5" s="80">
+        <f>AG5+1</f>
+        <v>32</v>
+      </c>
+      <c r="AI5" s="80">
+        <f>AH5+1</f>
+        <v>33</v>
+      </c>
+      <c r="AJ5" s="80">
+        <f>AI5+1</f>
+        <v>34</v>
+      </c>
+      <c r="AK5" s="80">
+        <f>AJ5+1</f>
+        <v>35</v>
+      </c>
+      <c r="AL5" s="80">
+        <f>AK5+1</f>
+        <v>36</v>
+      </c>
+      <c r="AM5" s="80">
+        <f>AL5+1</f>
+        <v>37</v>
+      </c>
+      <c r="AN5" s="80">
+        <f>AM5+1</f>
+        <v>38</v>
+      </c>
+      <c r="AO5" s="80">
+        <f>AN5+1</f>
+        <v>39</v>
+      </c>
+      <c r="AP5" s="80">
+        <f>AO5+1</f>
+        <v>40</v>
+      </c>
+      <c r="AQ5" s="80">
+        <f>AP5+1</f>
+        <v>41</v>
+      </c>
+      <c r="AR5" s="80">
+        <f>AQ5+1</f>
+        <v>42</v>
+      </c>
+      <c r="AS5" s="80">
+        <f>AR5+1</f>
+        <v>43</v>
+      </c>
+      <c r="AT5" s="80">
+        <f>AS5+1</f>
+        <v>44</v>
+      </c>
+      <c r="AU5" s="80">
+        <f>AT5+1</f>
+        <v>45</v>
+      </c>
+      <c r="AV5" s="80">
+        <f>AU5+1</f>
+        <v>46</v>
+      </c>
+      <c r="AW5" s="80">
+        <f>AV5+1</f>
+        <v>47</v>
+      </c>
+      <c r="AX5" s="80">
+        <f>AW5+1</f>
+        <v>48</v>
+      </c>
+      <c r="AY5" s="80">
+        <f>AX5+1</f>
+        <v>49</v>
+      </c>
+      <c r="AZ5" s="80">
+        <f>AY5+1</f>
+        <v>50</v>
+      </c>
+      <c r="BA5" s="80">
+        <f>AZ5+1</f>
+        <v>51</v>
+      </c>
+      <c r="BB5" s="80">
+        <f>BA5+1</f>
+        <v>52</v>
+      </c>
+      <c r="BC5" s="80">
+        <f>BB5+1</f>
+        <v>53</v>
+      </c>
+      <c r="BD5" s="80">
+        <f>BC5+1</f>
+        <v>54</v>
+      </c>
+      <c r="BE5" s="80">
+        <f>BD5+1</f>
+        <v>55</v>
+      </c>
+      <c r="BF5" s="80">
+        <f>BE5+1</f>
+        <v>56</v>
+      </c>
+      <c r="BG5" s="80">
+        <f>BF5+1</f>
+        <v>57</v>
+      </c>
+      <c r="BH5" s="80">
+        <f>BG5+1</f>
+        <v>58</v>
+      </c>
+      <c r="BI5" s="80">
+        <f>BH5+1</f>
+        <v>59</v>
+      </c>
+      <c r="BJ5" s="80">
+        <f>BI5+1</f>
+        <v>60</v>
+      </c>
+      <c r="BK5" s="80">
+        <f>BJ5+1</f>
+        <v>61</v>
+      </c>
+      <c r="BL5" s="80">
+        <f>BK5+1</f>
+        <v>62</v>
+      </c>
+      <c r="BM5" s="80">
+        <f>BL5+1</f>
+        <v>63</v>
+      </c>
+      <c r="BN5" s="80">
+        <f>BM5+1</f>
+        <v>64</v>
+      </c>
+      <c r="BO5" s="80">
+        <f>BN5+1</f>
+        <v>65</v>
+      </c>
+      <c r="BP5" s="80">
+        <f>BO5+1</f>
+        <v>66</v>
+      </c>
+      <c r="BQ5" s="80">
+        <f>BP5+1</f>
+        <v>67</v>
+      </c>
+      <c r="BR5" s="80">
+        <f>BQ5+1</f>
+        <v>68</v>
+      </c>
+      <c r="BS5" s="80">
+        <f>BR5+1</f>
+        <v>69</v>
+      </c>
+      <c r="BT5" s="80">
+        <f>BS5+1</f>
+        <v>70</v>
+      </c>
+      <c r="BU5" s="80">
+        <f>BT5+1</f>
+        <v>71</v>
+      </c>
+      <c r="BV5" s="80">
+        <f>BU5+1</f>
+        <v>72</v>
+      </c>
+      <c r="BW5" s="80">
+        <f>BV5+1</f>
+        <v>73</v>
+      </c>
+      <c r="BX5" s="80">
+        <f>BW5+1</f>
+        <v>74</v>
+      </c>
+      <c r="BY5" s="80">
+        <f>BX5+1</f>
+        <v>75</v>
+      </c>
+      <c r="BZ5" s="80">
+        <f>BY5+1</f>
+        <v>76</v>
+      </c>
+      <c r="CA5" s="80">
+        <f>BZ5+1</f>
+        <v>77</v>
+      </c>
+      <c r="CB5" s="80">
+        <f>CA5+1</f>
+        <v>78</v>
+      </c>
+      <c r="CC5" s="80">
+        <f>CB5+1</f>
+        <v>79</v>
+      </c>
+      <c r="CD5" s="80">
+        <f>CC5+1</f>
+        <v>80</v>
+      </c>
+      <c r="CE5" s="80">
+        <f>CD5+1</f>
+        <v>81</v>
+      </c>
+      <c r="CF5" s="80">
+        <f>CE5+1</f>
+        <v>82</v>
+      </c>
+      <c r="CG5" s="80">
+        <f>CF5+1</f>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="2:85" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" s="9"/>
+      <c r="K6"/>
+      <c r="L6" s="9"/>
+      <c r="M6"/>
+      <c r="N6" s="21"/>
+      <c r="O6"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="9"/>
+      <c r="V6" s="9"/>
+      <c r="W6" s="9"/>
+      <c r="X6" s="9"/>
+      <c r="Y6" s="9"/>
+      <c r="Z6" s="9"/>
+      <c r="AA6" s="9"/>
+      <c r="AB6" s="40"/>
+      <c r="AC6" s="40"/>
+      <c r="AD6" s="40"/>
+      <c r="AE6" s="40"/>
+      <c r="AF6" s="40"/>
+    </row>
+    <row r="7" spans="2:85" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="9"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="9"/>
+      <c r="V7" s="9"/>
+      <c r="W7" s="9"/>
+      <c r="X7" s="9"/>
+      <c r="Y7" s="9"/>
+      <c r="Z7" s="9"/>
+      <c r="AA7" s="9"/>
+      <c r="AB7" s="40"/>
+      <c r="AC7" s="40"/>
+      <c r="AD7" s="40"/>
+      <c r="AE7" s="40"/>
+      <c r="AF7" s="40"/>
+    </row>
+    <row r="8" spans="2:85" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="L8" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="M8" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="N8" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
+      <c r="S8" s="9"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="9"/>
+      <c r="V8" s="9"/>
+      <c r="W8" s="9"/>
+      <c r="X8" s="9"/>
+      <c r="Y8" s="9"/>
+      <c r="Z8" s="9"/>
+      <c r="AA8" s="9"/>
+      <c r="AB8" s="40"/>
+      <c r="AC8" s="40"/>
+      <c r="AD8" s="40"/>
+      <c r="AE8" s="40"/>
+      <c r="AF8" s="40"/>
+      <c r="AI8" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="AJ8" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK8" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="AL8" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="AM8" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN8" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="AO8" s="40" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="2:85" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="K9" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="L9" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="M9" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="N9" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="O9" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="9"/>
+      <c r="V9" s="9"/>
+      <c r="W9" s="9"/>
+      <c r="X9" s="9"/>
+      <c r="Y9" s="9"/>
+      <c r="Z9" s="9"/>
+      <c r="AA9" s="9"/>
+      <c r="AB9" s="40"/>
+      <c r="AC9" s="40"/>
+      <c r="AD9" s="40"/>
+      <c r="AE9" s="40"/>
+      <c r="AF9" s="40"/>
+    </row>
+    <row r="10" spans="2:85" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="M10" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="N10" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="O10" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="P10" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="9"/>
+      <c r="T10" s="9"/>
+      <c r="U10" s="9"/>
+      <c r="V10" s="9"/>
+      <c r="W10" s="9"/>
+      <c r="X10" s="9"/>
+      <c r="Y10" s="9"/>
+      <c r="Z10" s="9"/>
+      <c r="AA10" s="9"/>
+      <c r="AB10" s="40"/>
+      <c r="AC10" s="40"/>
+      <c r="AD10" s="40"/>
+      <c r="AE10" s="40"/>
+      <c r="AF10" s="40"/>
+    </row>
+    <row r="11" spans="2:85" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="L11" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="M11" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="N11" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="O11" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="P11" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q11" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="R11" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="S11" s="9"/>
+      <c r="T11" s="9"/>
+      <c r="U11" s="9"/>
+      <c r="V11" s="9"/>
+      <c r="W11" s="9"/>
+      <c r="X11" s="9"/>
+      <c r="Y11" s="9"/>
+      <c r="Z11" s="9"/>
+      <c r="AA11" s="9"/>
+      <c r="AB11" s="40"/>
+      <c r="AC11" s="40"/>
+      <c r="AD11" s="40"/>
+      <c r="AE11" s="40"/>
+      <c r="AF11" s="40"/>
+    </row>
+    <row r="12" spans="2:85" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="L12" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="M12" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="N12" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="O12" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="P12" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q12" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="R12" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="S12" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="T12" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="U12" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="V12" s="9"/>
+      <c r="W12" s="9"/>
+      <c r="X12" s="9"/>
+      <c r="Y12" s="9"/>
+      <c r="Z12" s="9"/>
+      <c r="AA12" s="9"/>
+      <c r="AB12" s="40"/>
+      <c r="AC12" s="40"/>
+      <c r="AD12" s="40"/>
+      <c r="AE12" s="40"/>
+      <c r="AF12" s="40"/>
+    </row>
+    <row r="13" spans="2:85" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="M13" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="N13" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="O13" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="P13" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q13" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="R13" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="S13" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="T13" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="U13" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="V13" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="W13" s="9"/>
+      <c r="X13" s="9"/>
+      <c r="Y13" s="9"/>
+      <c r="Z13" s="9"/>
+      <c r="AA13" s="9"/>
+      <c r="AB13" s="40"/>
+      <c r="AC13" s="40"/>
+      <c r="AD13" s="40"/>
+      <c r="AE13" s="40"/>
+      <c r="AF13" s="40"/>
+    </row>
+    <row r="14" spans="2:85" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="N14" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="O14" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="P14" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q14" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="R14" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="S14" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="T14" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="U14" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="V14" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="W14" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="X14" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y14" s="9"/>
+      <c r="Z14" s="9"/>
+      <c r="AA14" s="9"/>
+      <c r="AB14" s="40"/>
+      <c r="AC14" s="40"/>
+      <c r="AD14" s="40"/>
+      <c r="AE14" s="40"/>
+      <c r="AF14" s="40"/>
+    </row>
+    <row r="15" spans="2:85" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="P15" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q15" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="R15" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="S15" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="T15" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="U15" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="V15" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="W15" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="X15" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y15" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z15" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA15" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB15" s="40"/>
+      <c r="AC15" s="40"/>
+      <c r="AD15" s="40"/>
+      <c r="AE15" s="40"/>
+      <c r="AF15" s="40"/>
+    </row>
+    <row r="16" spans="2:85" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="S16" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="T16" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="U16" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="V16" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="W16" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="X16" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y16" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z16" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA16" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB16" s="40"/>
+      <c r="AC16" s="40"/>
+      <c r="AD16" s="40"/>
+      <c r="AE16" s="40"/>
+      <c r="AF16" s="40"/>
+    </row>
+    <row r="17" spans="2:64" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="77"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="40"/>
+      <c r="L17" s="40"/>
+      <c r="M17" s="40"/>
+      <c r="N17" s="40"/>
+      <c r="O17" s="40"/>
+      <c r="P17" s="40"/>
+      <c r="Q17" s="40"/>
+      <c r="R17" s="40"/>
+      <c r="S17" s="40"/>
+      <c r="T17" s="78"/>
+      <c r="U17" s="78"/>
+      <c r="V17" s="78"/>
+      <c r="W17" s="40"/>
+      <c r="X17" s="40"/>
+      <c r="Y17" s="40"/>
+      <c r="Z17" s="40"/>
+      <c r="AA17" s="40"/>
+      <c r="AB17" s="40"/>
+      <c r="AC17" s="40"/>
+      <c r="AD17" s="40"/>
+      <c r="AE17" s="40"/>
+      <c r="AF17" s="40"/>
+    </row>
+    <row r="18" spans="2:64" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="77"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="40"/>
+      <c r="L18" s="40"/>
+      <c r="M18" s="40"/>
+      <c r="N18" s="40"/>
+      <c r="O18" s="40"/>
+      <c r="P18" s="40"/>
+      <c r="Q18" s="40"/>
+      <c r="R18" s="40"/>
+      <c r="S18" s="40"/>
+      <c r="T18" s="78"/>
+      <c r="U18" s="78"/>
+      <c r="V18" s="78"/>
+      <c r="W18" s="40"/>
+      <c r="X18" s="40"/>
+      <c r="Y18" s="40"/>
+      <c r="Z18" s="40"/>
+      <c r="AA18" s="40"/>
+      <c r="AB18" s="40"/>
+      <c r="AC18" s="40"/>
+      <c r="AD18" s="40"/>
+      <c r="AE18" s="40"/>
+      <c r="AF18" s="40"/>
+    </row>
+    <row r="19" spans="2:64" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="77"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="40"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="40"/>
+      <c r="L19" s="40"/>
+      <c r="M19" s="40"/>
+      <c r="N19" s="40"/>
+      <c r="O19" s="40"/>
+      <c r="P19" s="40"/>
+      <c r="Q19" s="40"/>
+      <c r="R19" s="40"/>
+      <c r="S19" s="40"/>
+      <c r="T19" s="40"/>
+      <c r="U19" s="40"/>
+      <c r="V19" s="40"/>
+      <c r="W19" s="40"/>
+      <c r="X19" s="40"/>
+      <c r="Y19" s="40"/>
+      <c r="Z19" s="40"/>
+      <c r="AA19" s="78"/>
+      <c r="AB19" s="78"/>
+      <c r="AC19" s="40"/>
+      <c r="AD19" s="40"/>
+      <c r="AE19" s="40"/>
+      <c r="AF19" s="40"/>
+      <c r="AG19" s="40"/>
+      <c r="AH19" s="40"/>
+      <c r="AI19" s="40"/>
+      <c r="AJ19" s="40"/>
+      <c r="AK19" s="40"/>
+      <c r="AL19" s="40"/>
+      <c r="AM19" s="40"/>
+      <c r="AN19" s="40"/>
+      <c r="AO19" s="40"/>
+      <c r="AP19" s="40"/>
+      <c r="AQ19" s="40"/>
+      <c r="AR19" s="40"/>
+      <c r="AS19" s="40"/>
+    </row>
+    <row r="20" spans="2:64" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="77"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="40"/>
+      <c r="L20" s="40"/>
+      <c r="M20" s="40"/>
+      <c r="N20" s="40"/>
+      <c r="O20" s="40"/>
+      <c r="P20" s="40"/>
+      <c r="Q20" s="40"/>
+      <c r="R20" s="40"/>
+      <c r="S20" s="40"/>
+      <c r="T20" s="40"/>
+      <c r="U20" s="40"/>
+      <c r="V20" s="40"/>
+      <c r="W20" s="40"/>
+      <c r="X20" s="40"/>
+      <c r="Y20" s="40"/>
+      <c r="Z20" s="40"/>
+      <c r="AA20" s="78"/>
+      <c r="AB20" s="78"/>
+      <c r="AC20" s="40"/>
+      <c r="AD20" s="40"/>
+      <c r="AE20" s="40"/>
+      <c r="AF20" s="40"/>
+      <c r="AG20" s="40"/>
+      <c r="AH20" s="40"/>
+      <c r="AI20" s="40"/>
+      <c r="AJ20" s="40"/>
+      <c r="AK20" s="40"/>
+      <c r="AL20" s="40"/>
+      <c r="AM20" s="40"/>
+      <c r="AN20" s="40"/>
+      <c r="AO20" s="40"/>
+      <c r="AP20" s="40"/>
+      <c r="AQ20" s="40"/>
+      <c r="AR20" s="40"/>
+      <c r="AS20" s="40"/>
+    </row>
+    <row r="21" spans="2:64" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="77"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="40"/>
+      <c r="L21" s="40"/>
+      <c r="M21" s="40"/>
+      <c r="N21" s="40"/>
+      <c r="O21" s="40"/>
+      <c r="P21" s="40"/>
+      <c r="Q21" s="40"/>
+      <c r="R21" s="40"/>
+      <c r="S21" s="40"/>
+      <c r="T21" s="40"/>
+      <c r="U21" s="40"/>
+      <c r="V21" s="40"/>
+      <c r="W21" s="40"/>
+      <c r="X21" s="40"/>
+      <c r="Y21" s="40"/>
+      <c r="Z21" s="40"/>
+      <c r="AA21" s="78"/>
+      <c r="AB21" s="78"/>
+      <c r="AC21" s="40"/>
+      <c r="AD21" s="40"/>
+      <c r="AE21" s="40"/>
+      <c r="AF21" s="78"/>
+      <c r="AG21" s="40"/>
+      <c r="AH21" s="40"/>
+      <c r="AI21" s="40"/>
+      <c r="AJ21" s="40"/>
+      <c r="AK21" s="40"/>
+      <c r="AL21" s="40"/>
+      <c r="AM21" s="40"/>
+      <c r="AN21" s="40"/>
+      <c r="AO21" s="40"/>
+      <c r="AP21" s="40"/>
+      <c r="AQ21" s="40"/>
+      <c r="AR21" s="40"/>
+      <c r="AS21" s="40"/>
+    </row>
+    <row r="22" spans="2:64" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="77"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="40"/>
+      <c r="L22" s="40"/>
+      <c r="M22" s="40"/>
+      <c r="N22" s="40"/>
+      <c r="O22" s="40"/>
+      <c r="P22" s="40"/>
+      <c r="Q22" s="40"/>
+      <c r="R22" s="40"/>
+      <c r="S22" s="40"/>
+      <c r="T22" s="40"/>
+      <c r="U22" s="40"/>
+      <c r="V22" s="40"/>
+      <c r="W22" s="40"/>
+      <c r="X22" s="40"/>
+      <c r="Y22" s="40"/>
+      <c r="Z22" s="40"/>
+      <c r="AA22" s="78"/>
+      <c r="AB22" s="78"/>
+      <c r="AC22" s="40"/>
+      <c r="AD22" s="40"/>
+      <c r="AE22" s="40"/>
+      <c r="AF22" s="78"/>
+      <c r="AG22" s="40"/>
+      <c r="AH22" s="40"/>
+      <c r="AI22" s="40"/>
+      <c r="AJ22" s="40"/>
+      <c r="AK22" s="40"/>
+      <c r="AL22" s="40"/>
+      <c r="AM22" s="40"/>
+      <c r="AN22" s="40"/>
+      <c r="AO22" s="40"/>
+      <c r="AP22" s="40"/>
+      <c r="AQ22" s="40"/>
+      <c r="AR22" s="40"/>
+      <c r="AS22" s="40"/>
+    </row>
+    <row r="23" spans="2:64" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="77"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="40"/>
+      <c r="L23" s="40"/>
+      <c r="M23" s="40"/>
+      <c r="N23" s="40"/>
+      <c r="O23" s="40"/>
+      <c r="P23" s="40"/>
+      <c r="Q23" s="40"/>
+      <c r="R23" s="40"/>
+      <c r="S23" s="40"/>
+      <c r="T23" s="40"/>
+      <c r="U23" s="40"/>
+      <c r="V23" s="40"/>
+      <c r="W23" s="40"/>
+      <c r="X23" s="40"/>
+      <c r="Y23" s="40"/>
+      <c r="Z23" s="40"/>
+      <c r="AA23" s="40"/>
+      <c r="AB23" s="40"/>
+      <c r="AC23" s="40"/>
+      <c r="AD23" s="40"/>
+      <c r="AE23" s="40"/>
+      <c r="AF23" s="78"/>
+      <c r="AG23" s="40"/>
+      <c r="AH23" s="78"/>
+      <c r="AI23" s="78"/>
+      <c r="AJ23" s="40"/>
+      <c r="AK23" s="40"/>
+      <c r="AL23" s="40"/>
+      <c r="AM23" s="40"/>
+      <c r="AN23" s="40"/>
+      <c r="AO23" s="40"/>
+      <c r="AP23" s="40"/>
+      <c r="AQ23" s="40"/>
+      <c r="AR23" s="40"/>
+      <c r="AS23" s="40"/>
+    </row>
+    <row r="24" spans="2:64" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="77"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="40"/>
+      <c r="J24" s="40"/>
+      <c r="K24" s="40"/>
+      <c r="L24" s="40"/>
+      <c r="M24" s="40"/>
+      <c r="N24" s="40"/>
+      <c r="O24" s="40"/>
+      <c r="P24" s="40"/>
+      <c r="Q24" s="40"/>
+      <c r="R24" s="40"/>
+      <c r="S24" s="40"/>
+      <c r="T24" s="40"/>
+      <c r="U24" s="40"/>
+      <c r="V24" s="40"/>
+      <c r="W24" s="40"/>
+      <c r="X24" s="40"/>
+      <c r="Y24" s="40"/>
+      <c r="Z24" s="40"/>
+      <c r="AA24" s="40"/>
+      <c r="AB24" s="40"/>
+      <c r="AC24" s="40"/>
+      <c r="AD24" s="40"/>
+      <c r="AE24" s="40"/>
+      <c r="AF24" s="78"/>
+      <c r="AG24" s="40"/>
+      <c r="AH24" s="78"/>
+      <c r="AI24" s="78"/>
+      <c r="AJ24" s="40"/>
+      <c r="AK24" s="40"/>
+      <c r="AL24" s="40"/>
+      <c r="AM24" s="40"/>
+      <c r="AN24" s="40"/>
+      <c r="AO24" s="40"/>
+      <c r="AP24" s="40"/>
+      <c r="AQ24" s="40"/>
+      <c r="AR24" s="40"/>
+      <c r="AS24" s="40"/>
+    </row>
+    <row r="25" spans="2:64" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="77"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="40"/>
+      <c r="J25" s="40"/>
+      <c r="K25" s="40"/>
+      <c r="L25" s="40"/>
+      <c r="M25" s="40"/>
+      <c r="N25" s="40"/>
+      <c r="O25" s="40"/>
+      <c r="P25" s="40"/>
+      <c r="Q25" s="40"/>
+      <c r="R25" s="40"/>
+      <c r="S25" s="40"/>
+      <c r="T25" s="40"/>
+      <c r="U25" s="40"/>
+      <c r="V25" s="40"/>
+      <c r="W25" s="40"/>
+      <c r="X25" s="40"/>
+      <c r="Y25" s="40"/>
+      <c r="Z25" s="40"/>
+      <c r="AA25" s="40"/>
+      <c r="AB25" s="40"/>
+      <c r="AC25" s="40"/>
+      <c r="AD25" s="40"/>
+      <c r="AE25" s="40"/>
+      <c r="AF25" s="78"/>
+      <c r="AG25" s="40"/>
+      <c r="AH25" s="78"/>
+      <c r="AI25" s="78"/>
+      <c r="AJ25" s="40"/>
+      <c r="AK25" s="40"/>
+      <c r="AL25" s="40"/>
+      <c r="AM25" s="78"/>
+      <c r="AN25" s="40"/>
+      <c r="AO25" s="40"/>
+      <c r="AP25" s="40"/>
+      <c r="AQ25" s="40"/>
+      <c r="AR25" s="40"/>
+      <c r="AS25" s="40"/>
+    </row>
+    <row r="26" spans="2:64" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="77"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="40"/>
+      <c r="I26" s="40"/>
+      <c r="J26" s="40"/>
+      <c r="K26" s="40"/>
+      <c r="L26" s="40"/>
+      <c r="M26" s="40"/>
+      <c r="N26" s="40"/>
+      <c r="O26" s="40"/>
+      <c r="P26" s="40"/>
+      <c r="Q26" s="40"/>
+      <c r="R26" s="40"/>
+      <c r="S26" s="40"/>
+      <c r="T26" s="40"/>
+      <c r="U26" s="40"/>
+      <c r="V26" s="40"/>
+      <c r="W26" s="40"/>
+      <c r="X26" s="40"/>
+      <c r="Y26" s="40"/>
+      <c r="Z26" s="40"/>
+      <c r="AA26" s="40"/>
+      <c r="AB26" s="40"/>
+      <c r="AC26" s="40"/>
+      <c r="AD26" s="40"/>
+      <c r="AE26" s="40"/>
+      <c r="AF26" s="40"/>
+      <c r="AG26" s="40"/>
+      <c r="AH26" s="78"/>
+      <c r="AI26" s="78"/>
+      <c r="AJ26" s="40"/>
+      <c r="AK26" s="40"/>
+      <c r="AL26" s="40"/>
+      <c r="AM26" s="78"/>
+      <c r="AN26" s="78"/>
+      <c r="AO26" s="78"/>
+      <c r="AP26" s="40"/>
+      <c r="AQ26" s="40"/>
+      <c r="AR26" s="40"/>
+      <c r="AS26" s="40"/>
+    </row>
+    <row r="27" spans="2:64" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="77"/>
+      <c r="AK27" s="76"/>
+      <c r="AL27" s="76"/>
+      <c r="AM27" s="75"/>
+      <c r="AN27" s="75"/>
+      <c r="AO27" s="74"/>
+      <c r="AP27" s="73"/>
+      <c r="AQ27" s="73"/>
+      <c r="AR27" s="73"/>
+      <c r="AS27" s="73"/>
+      <c r="AT27" s="73"/>
+    </row>
+    <row r="28" spans="2:64" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="77"/>
+      <c r="AL28" s="76"/>
+      <c r="AM28" s="75"/>
+      <c r="AN28" s="75"/>
+      <c r="AO28" s="74"/>
+      <c r="AP28" s="73"/>
+      <c r="AQ28" s="73"/>
+      <c r="AR28" s="73"/>
+      <c r="AS28" s="73"/>
+      <c r="AT28" s="73"/>
+      <c r="AU28" s="73"/>
+    </row>
+    <row r="29" spans="2:64" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="77"/>
+      <c r="AM29" s="75"/>
+      <c r="AN29" s="75"/>
+      <c r="AO29" s="74"/>
+      <c r="AP29" s="73"/>
+      <c r="AQ29" s="73"/>
+      <c r="AR29" s="73"/>
+      <c r="AS29" s="73"/>
+      <c r="AT29" s="73"/>
+      <c r="AU29" s="73"/>
+      <c r="AV29" s="73"/>
+    </row>
+    <row r="30" spans="2:64" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="77"/>
+      <c r="AQ30" s="40"/>
+      <c r="AR30" s="40"/>
+      <c r="AS30" s="40"/>
+      <c r="AT30" s="78"/>
+      <c r="AU30" s="78"/>
+      <c r="AV30" s="40"/>
+      <c r="AW30" s="40"/>
+      <c r="AX30" s="40"/>
+      <c r="AY30" s="40"/>
+      <c r="AZ30" s="40"/>
+      <c r="BA30" s="40"/>
+      <c r="BB30" s="40"/>
+      <c r="BC30" s="40"/>
+      <c r="BD30" s="40"/>
+      <c r="BE30" s="40"/>
+      <c r="BF30" s="40"/>
+      <c r="BG30" s="40"/>
+      <c r="BH30" s="40"/>
+      <c r="BI30" s="40"/>
+      <c r="BJ30" s="40"/>
+      <c r="BK30" s="40"/>
+      <c r="BL30" s="40"/>
+    </row>
+    <row r="31" spans="2:64" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="77"/>
+      <c r="AQ31" s="40"/>
+      <c r="AR31" s="40"/>
+      <c r="AS31" s="40"/>
+      <c r="AT31" s="78"/>
+      <c r="AU31" s="78"/>
+      <c r="AV31" s="40"/>
+      <c r="AW31" s="40"/>
+      <c r="AX31" s="40"/>
+      <c r="AY31" s="40"/>
+      <c r="AZ31" s="40"/>
+      <c r="BA31" s="40"/>
+      <c r="BB31" s="40"/>
+      <c r="BC31" s="40"/>
+      <c r="BD31" s="40"/>
+      <c r="BE31" s="40"/>
+      <c r="BF31" s="40"/>
+      <c r="BG31" s="40"/>
+      <c r="BH31" s="40"/>
+      <c r="BI31" s="40"/>
+      <c r="BJ31" s="40"/>
+      <c r="BK31" s="40"/>
+      <c r="BL31" s="40"/>
+    </row>
+    <row r="32" spans="2:64" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="77"/>
+      <c r="AQ32" s="40"/>
+      <c r="AR32" s="40"/>
+      <c r="AS32" s="40"/>
+      <c r="AT32" s="78"/>
+      <c r="AU32" s="78"/>
+      <c r="AV32" s="40"/>
+      <c r="AW32" s="40"/>
+      <c r="AX32" s="40"/>
+      <c r="AY32" s="78"/>
+      <c r="AZ32" s="40"/>
+      <c r="BA32" s="40"/>
+      <c r="BB32" s="40"/>
+      <c r="BC32" s="40"/>
+      <c r="BD32" s="40"/>
+      <c r="BE32" s="40"/>
+      <c r="BF32" s="40"/>
+      <c r="BG32" s="40"/>
+      <c r="BH32" s="40"/>
+      <c r="BI32" s="40"/>
+      <c r="BJ32" s="40"/>
+      <c r="BK32" s="40"/>
+      <c r="BL32" s="40"/>
+    </row>
+    <row r="33" spans="2:83" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="77"/>
+      <c r="AQ33" s="40"/>
+      <c r="AR33" s="40"/>
+      <c r="AS33" s="40"/>
+      <c r="AT33" s="78"/>
+      <c r="AU33" s="78"/>
+      <c r="AV33" s="40"/>
+      <c r="AW33" s="40"/>
+      <c r="AX33" s="40"/>
+      <c r="AY33" s="78"/>
+      <c r="AZ33" s="40"/>
+      <c r="BA33" s="40"/>
+      <c r="BB33" s="40"/>
+      <c r="BC33" s="40"/>
+      <c r="BD33" s="40"/>
+      <c r="BE33" s="40"/>
+      <c r="BF33" s="40"/>
+      <c r="BG33" s="40"/>
+      <c r="BH33" s="40"/>
+      <c r="BI33" s="40"/>
+      <c r="BJ33" s="40"/>
+      <c r="BK33" s="40"/>
+      <c r="BL33" s="40"/>
+    </row>
+    <row r="34" spans="2:83" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="77"/>
+      <c r="AQ34" s="40"/>
+      <c r="AR34" s="40"/>
+      <c r="AS34" s="40"/>
+      <c r="AT34" s="40"/>
+      <c r="AU34" s="40"/>
+      <c r="AV34" s="40"/>
+      <c r="AW34" s="40"/>
+      <c r="AX34" s="40"/>
+      <c r="AY34" s="78"/>
+      <c r="AZ34" s="40"/>
+      <c r="BA34" s="78"/>
+      <c r="BB34" s="78"/>
+      <c r="BC34" s="40"/>
+      <c r="BD34" s="40"/>
+      <c r="BE34" s="40"/>
+      <c r="BF34" s="40"/>
+      <c r="BG34" s="40"/>
+      <c r="BH34" s="40"/>
+      <c r="BI34" s="40"/>
+      <c r="BJ34" s="40"/>
+      <c r="BK34" s="40"/>
+      <c r="BL34" s="40"/>
+    </row>
+    <row r="35" spans="2:83" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="77"/>
+      <c r="AQ35" s="40"/>
+      <c r="AR35" s="40"/>
+      <c r="AS35" s="40"/>
+      <c r="AT35" s="40"/>
+      <c r="AU35" s="40"/>
+      <c r="AV35" s="40"/>
+      <c r="AW35" s="40"/>
+      <c r="AX35" s="40"/>
+      <c r="AY35" s="78"/>
+      <c r="AZ35" s="40"/>
+      <c r="BA35" s="78"/>
+      <c r="BB35" s="78"/>
+      <c r="BC35" s="40"/>
+      <c r="BD35" s="40"/>
+      <c r="BE35" s="40"/>
+      <c r="BF35" s="40"/>
+      <c r="BG35" s="40"/>
+      <c r="BH35" s="40"/>
+      <c r="BI35" s="40"/>
+      <c r="BJ35" s="40"/>
+      <c r="BK35" s="40"/>
+      <c r="BL35" s="40"/>
+    </row>
+    <row r="36" spans="2:83" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="77"/>
+      <c r="AQ36" s="40"/>
+      <c r="AR36" s="40"/>
+      <c r="AS36" s="40"/>
+      <c r="AT36" s="40"/>
+      <c r="AU36" s="40"/>
+      <c r="AV36" s="40"/>
+      <c r="AW36" s="40"/>
+      <c r="AX36" s="40"/>
+      <c r="AY36" s="78"/>
+      <c r="AZ36" s="40"/>
+      <c r="BA36" s="78"/>
+      <c r="BB36" s="78"/>
+      <c r="BC36" s="40"/>
+      <c r="BD36" s="40"/>
+      <c r="BE36" s="40"/>
+      <c r="BF36" s="78"/>
+      <c r="BG36" s="40"/>
+      <c r="BH36" s="40"/>
+      <c r="BI36" s="40"/>
+      <c r="BJ36" s="40"/>
+      <c r="BK36" s="40"/>
+      <c r="BL36" s="40"/>
+    </row>
+    <row r="37" spans="2:83" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="77"/>
+      <c r="AQ37" s="40"/>
+      <c r="AR37" s="40"/>
+      <c r="AS37" s="40"/>
+      <c r="AT37" s="40"/>
+      <c r="AU37" s="40"/>
+      <c r="AV37" s="40"/>
+      <c r="AW37" s="40"/>
+      <c r="AX37" s="40"/>
+      <c r="AY37" s="40"/>
+      <c r="AZ37" s="40"/>
+      <c r="BA37" s="78"/>
+      <c r="BB37" s="78"/>
+      <c r="BC37" s="40"/>
+      <c r="BD37" s="40"/>
+      <c r="BE37" s="40"/>
+      <c r="BF37" s="78"/>
+      <c r="BG37" s="78"/>
+      <c r="BH37" s="78"/>
+      <c r="BI37" s="40"/>
+      <c r="BJ37" s="40"/>
+      <c r="BK37" s="40"/>
+      <c r="BL37" s="40"/>
+    </row>
+    <row r="38" spans="2:83" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="77"/>
+      <c r="BD38" s="76"/>
+      <c r="BE38" s="76"/>
+      <c r="BF38" s="75"/>
+      <c r="BG38" s="75"/>
+      <c r="BH38" s="74"/>
+      <c r="BI38" s="73"/>
+      <c r="BJ38" s="73"/>
+      <c r="BK38" s="73"/>
+      <c r="BL38" s="73"/>
+      <c r="BM38" s="73"/>
+    </row>
+    <row r="39" spans="2:83" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="77"/>
+      <c r="BE39" s="76"/>
+      <c r="BF39" s="75"/>
+      <c r="BG39" s="75"/>
+      <c r="BH39" s="74"/>
+      <c r="BI39" s="73"/>
+      <c r="BJ39" s="73"/>
+      <c r="BK39" s="73"/>
+      <c r="BL39" s="73"/>
+      <c r="BM39" s="73"/>
+      <c r="BN39" s="73"/>
+    </row>
+    <row r="40" spans="2:83" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="77"/>
+      <c r="BF40" s="75"/>
+      <c r="BG40" s="75"/>
+      <c r="BH40" s="74"/>
+      <c r="BI40" s="73"/>
+      <c r="BJ40" s="73"/>
+      <c r="BK40" s="73"/>
+      <c r="BL40" s="73"/>
+      <c r="BM40" s="73"/>
+      <c r="BN40" s="73"/>
+      <c r="BO40" s="73"/>
+    </row>
+    <row r="41" spans="2:83" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="77"/>
+      <c r="BJ41" s="40"/>
+      <c r="BK41" s="40"/>
+      <c r="BL41" s="40"/>
+      <c r="BM41" s="78"/>
+      <c r="BN41" s="78"/>
+      <c r="BO41" s="40"/>
+      <c r="BP41" s="40"/>
+      <c r="BQ41" s="40"/>
+      <c r="BR41" s="40"/>
+      <c r="BS41" s="40"/>
+      <c r="BT41" s="40"/>
+      <c r="BU41" s="40"/>
+      <c r="BV41" s="40"/>
+      <c r="BW41" s="40"/>
+      <c r="BX41" s="40"/>
+      <c r="BY41" s="40"/>
+      <c r="BZ41" s="40"/>
+      <c r="CA41" s="40"/>
+      <c r="CB41" s="40"/>
+      <c r="CC41" s="40"/>
+      <c r="CD41" s="40"/>
+      <c r="CE41" s="40"/>
+    </row>
+    <row r="42" spans="2:83" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="77"/>
+      <c r="BJ42" s="40"/>
+      <c r="BK42" s="40"/>
+      <c r="BL42" s="40"/>
+      <c r="BM42" s="78"/>
+      <c r="BN42" s="78"/>
+      <c r="BO42" s="40"/>
+      <c r="BP42" s="40"/>
+      <c r="BQ42" s="40"/>
+      <c r="BR42" s="40"/>
+      <c r="BS42" s="40"/>
+      <c r="BT42" s="40"/>
+      <c r="BU42" s="40"/>
+      <c r="BV42" s="40"/>
+      <c r="BW42" s="40"/>
+      <c r="BX42" s="40"/>
+      <c r="BY42" s="40"/>
+      <c r="BZ42" s="40"/>
+      <c r="CA42" s="40"/>
+      <c r="CB42" s="40"/>
+      <c r="CC42" s="40"/>
+      <c r="CD42" s="40"/>
+      <c r="CE42" s="40"/>
+    </row>
+    <row r="43" spans="2:83" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="77"/>
+      <c r="BJ43" s="40"/>
+      <c r="BK43" s="40"/>
+      <c r="BL43" s="40"/>
+      <c r="BM43" s="78"/>
+      <c r="BN43" s="78"/>
+      <c r="BO43" s="40"/>
+      <c r="BP43" s="40"/>
+      <c r="BQ43" s="40"/>
+      <c r="BR43" s="78"/>
+      <c r="BS43" s="40"/>
+      <c r="BT43" s="40"/>
+      <c r="BU43" s="40"/>
+      <c r="BV43" s="40"/>
+      <c r="BW43" s="40"/>
+      <c r="BX43" s="40"/>
+      <c r="BY43" s="40"/>
+      <c r="BZ43" s="40"/>
+      <c r="CA43" s="40"/>
+      <c r="CB43" s="40"/>
+      <c r="CC43" s="40"/>
+      <c r="CD43" s="40"/>
+      <c r="CE43" s="40"/>
+    </row>
+    <row r="44" spans="2:83" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="77"/>
+      <c r="BJ44" s="40"/>
+      <c r="BK44" s="40"/>
+      <c r="BL44" s="40"/>
+      <c r="BM44" s="78"/>
+      <c r="BN44" s="78"/>
+      <c r="BO44" s="40"/>
+      <c r="BP44" s="40"/>
+      <c r="BQ44" s="40"/>
+      <c r="BR44" s="78"/>
+      <c r="BS44" s="40"/>
+      <c r="BT44" s="40"/>
+      <c r="BU44" s="40"/>
+      <c r="BV44" s="40"/>
+      <c r="BW44" s="40"/>
+      <c r="BX44" s="40"/>
+      <c r="BY44" s="40"/>
+      <c r="BZ44" s="40"/>
+      <c r="CA44" s="40"/>
+      <c r="CB44" s="40"/>
+      <c r="CC44" s="40"/>
+      <c r="CD44" s="40"/>
+      <c r="CE44" s="40"/>
+    </row>
+    <row r="45" spans="2:83" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="77"/>
+      <c r="BJ45" s="40"/>
+      <c r="BK45" s="40"/>
+      <c r="BL45" s="40"/>
+      <c r="BM45" s="40"/>
+      <c r="BN45" s="40"/>
+      <c r="BO45" s="40"/>
+      <c r="BP45" s="40"/>
+      <c r="BQ45" s="40"/>
+      <c r="BR45" s="78"/>
+      <c r="BS45" s="40"/>
+      <c r="BT45" s="78"/>
+      <c r="BU45" s="78"/>
+      <c r="BV45" s="40"/>
+      <c r="BW45" s="40"/>
+      <c r="BX45" s="40"/>
+      <c r="BY45" s="40"/>
+      <c r="BZ45" s="40"/>
+      <c r="CA45" s="40"/>
+      <c r="CB45" s="40"/>
+      <c r="CC45" s="40"/>
+      <c r="CD45" s="40"/>
+      <c r="CE45" s="40"/>
+    </row>
+    <row r="46" spans="2:83" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="77"/>
+      <c r="BJ46" s="40"/>
+      <c r="BK46" s="40"/>
+      <c r="BL46" s="40"/>
+      <c r="BM46" s="40"/>
+      <c r="BN46" s="40"/>
+      <c r="BO46" s="40"/>
+      <c r="BP46" s="40"/>
+      <c r="BQ46" s="40"/>
+      <c r="BR46" s="78"/>
+      <c r="BS46" s="40"/>
+      <c r="BT46" s="78"/>
+      <c r="BU46" s="78"/>
+      <c r="BV46" s="40"/>
+      <c r="BW46" s="40"/>
+      <c r="BX46" s="40"/>
+      <c r="BY46" s="40"/>
+      <c r="BZ46" s="40"/>
+      <c r="CA46" s="40"/>
+      <c r="CB46" s="40"/>
+      <c r="CC46" s="40"/>
+      <c r="CD46" s="40"/>
+      <c r="CE46" s="40"/>
+    </row>
+    <row r="47" spans="2:83" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="77"/>
+      <c r="BJ47" s="40"/>
+      <c r="BK47" s="40"/>
+      <c r="BL47" s="40"/>
+      <c r="BM47" s="40"/>
+      <c r="BN47" s="40"/>
+      <c r="BO47" s="40"/>
+      <c r="BP47" s="40"/>
+      <c r="BQ47" s="40"/>
+      <c r="BR47" s="78"/>
+      <c r="BS47" s="40"/>
+      <c r="BT47" s="78"/>
+      <c r="BU47" s="78"/>
+      <c r="BV47" s="40"/>
+      <c r="BW47" s="40"/>
+      <c r="BX47" s="40"/>
+      <c r="BY47" s="78"/>
+      <c r="BZ47" s="40"/>
+      <c r="CA47" s="40"/>
+      <c r="CB47" s="40"/>
+      <c r="CC47" s="40"/>
+      <c r="CD47" s="40"/>
+      <c r="CE47" s="40"/>
+    </row>
+    <row r="48" spans="2:83" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="77"/>
+      <c r="BJ48" s="40"/>
+      <c r="BK48" s="40"/>
+      <c r="BL48" s="40"/>
+      <c r="BM48" s="40"/>
+      <c r="BN48" s="40"/>
+      <c r="BO48" s="40"/>
+      <c r="BP48" s="40"/>
+      <c r="BQ48" s="40"/>
+      <c r="BR48" s="40"/>
+      <c r="BS48" s="40"/>
+      <c r="BT48" s="78"/>
+      <c r="BU48" s="78"/>
+      <c r="BV48" s="40"/>
+      <c r="BW48" s="40"/>
+      <c r="BX48" s="40"/>
+      <c r="BY48" s="78"/>
+      <c r="BZ48" s="78"/>
+      <c r="CA48" s="78"/>
+      <c r="CB48" s="40"/>
+      <c r="CC48" s="40"/>
+      <c r="CD48" s="40"/>
+      <c r="CE48" s="40"/>
+    </row>
+    <row r="49" spans="2:84" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="77"/>
+      <c r="BW49" s="76"/>
+      <c r="BX49" s="76"/>
+      <c r="BY49" s="75"/>
+      <c r="BZ49" s="75"/>
+      <c r="CA49" s="74"/>
+      <c r="CB49" s="73"/>
+      <c r="CC49" s="73"/>
+      <c r="CD49" s="73"/>
+      <c r="CE49" s="73"/>
+      <c r="CF49" s="73"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" scale="60" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DEE4D4C-B39B-4118-86C3-3F8FB4F17F86}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B2:CG49"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N21" sqref="N21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.375" style="25" customWidth="1"/>
+    <col min="2" max="2" width="28.125" style="25" customWidth="1"/>
+    <col min="3" max="85" width="8.625" style="25" customWidth="1"/>
+    <col min="86" max="16384" width="11" style="25"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:85" ht="18" x14ac:dyDescent="0.25">
+      <c r="B2" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="84"/>
+    </row>
+    <row r="3" spans="2:85" ht="18" x14ac:dyDescent="0.25">
+      <c r="B3" s="84"/>
+      <c r="C3" s="84"/>
+    </row>
+    <row r="4" spans="2:85" ht="18" x14ac:dyDescent="0.25">
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="N4" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="O4" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="R4" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="S4" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="T4" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="U4" s="35"/>
+      <c r="V4" s="35"/>
+      <c r="W4" s="35"/>
+      <c r="X4" s="35"/>
+      <c r="Y4" s="35"/>
+      <c r="Z4" s="35"/>
+    </row>
+    <row r="5" spans="2:85" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="83" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="82">
+        <v>1</v>
+      </c>
+      <c r="D5" s="80">
+        <f>C5+1</f>
+        <v>2</v>
+      </c>
+      <c r="E5" s="80">
+        <f>D5+1</f>
+        <v>3</v>
+      </c>
+      <c r="F5" s="80">
+        <f>E5+1</f>
+        <v>4</v>
+      </c>
+      <c r="G5" s="80">
+        <f>F5+1</f>
+        <v>5</v>
+      </c>
+      <c r="H5" s="80">
+        <f>G5+1</f>
+        <v>6</v>
+      </c>
+      <c r="I5" s="81">
+        <f>H5+1</f>
+        <v>7</v>
+      </c>
+      <c r="J5" s="80">
+        <f>I5+1</f>
+        <v>8</v>
+      </c>
+      <c r="K5" s="80">
+        <f>J5+1</f>
+        <v>9</v>
+      </c>
+      <c r="L5" s="80">
+        <f>K5+1</f>
+        <v>10</v>
+      </c>
+      <c r="M5" s="80">
+        <f>L5+1</f>
+        <v>11</v>
+      </c>
+      <c r="N5" s="80">
+        <f>M5+1</f>
+        <v>12</v>
+      </c>
+      <c r="O5" s="80">
+        <f>N5+1</f>
+        <v>13</v>
+      </c>
+      <c r="P5" s="80">
+        <f>O5+1</f>
+        <v>14</v>
+      </c>
+      <c r="Q5" s="80">
+        <f>P5+1</f>
+        <v>15</v>
+      </c>
+      <c r="R5" s="80">
+        <f>Q5+1</f>
+        <v>16</v>
+      </c>
+      <c r="S5" s="80">
+        <f>R5+1</f>
+        <v>17</v>
+      </c>
+      <c r="T5" s="80">
+        <f>S5+1</f>
+        <v>18</v>
+      </c>
+      <c r="U5" s="80">
+        <f>T5+1</f>
+        <v>19</v>
+      </c>
+      <c r="V5" s="80">
+        <f>U5+1</f>
+        <v>20</v>
+      </c>
+      <c r="W5" s="80">
+        <f>V5+1</f>
+        <v>21</v>
+      </c>
+      <c r="X5" s="80">
+        <f>W5+1</f>
+        <v>22</v>
+      </c>
+      <c r="Y5" s="80">
+        <f>X5+1</f>
+        <v>23</v>
+      </c>
+      <c r="Z5" s="80">
+        <f>Y5+1</f>
+        <v>24</v>
+      </c>
+      <c r="AA5" s="80">
+        <f>Z5+1</f>
+        <v>25</v>
+      </c>
+      <c r="AB5" s="80">
+        <f>AA5+1</f>
+        <v>26</v>
+      </c>
+      <c r="AC5" s="80">
+        <f>AB5+1</f>
+        <v>27</v>
+      </c>
+      <c r="AD5" s="80">
+        <f>AC5+1</f>
+        <v>28</v>
+      </c>
+      <c r="AE5" s="80">
+        <f>AD5+1</f>
+        <v>29</v>
+      </c>
+      <c r="AF5" s="80">
+        <f>AE5+1</f>
+        <v>30</v>
+      </c>
+      <c r="AG5" s="80">
+        <f>AF5+1</f>
+        <v>31</v>
+      </c>
+      <c r="AH5" s="80">
+        <f>AG5+1</f>
+        <v>32</v>
+      </c>
+      <c r="AI5" s="80">
+        <f>AH5+1</f>
+        <v>33</v>
+      </c>
+      <c r="AJ5" s="80">
+        <f>AI5+1</f>
+        <v>34</v>
+      </c>
+      <c r="AK5" s="80">
+        <f>AJ5+1</f>
+        <v>35</v>
+      </c>
+      <c r="AL5" s="80">
+        <f>AK5+1</f>
+        <v>36</v>
+      </c>
+      <c r="AM5" s="80">
+        <f>AL5+1</f>
+        <v>37</v>
+      </c>
+      <c r="AN5" s="80">
+        <f>AM5+1</f>
+        <v>38</v>
+      </c>
+      <c r="AO5" s="80">
+        <f>AN5+1</f>
+        <v>39</v>
+      </c>
+      <c r="AP5" s="80">
+        <f>AO5+1</f>
+        <v>40</v>
+      </c>
+      <c r="AQ5" s="80">
+        <f>AP5+1</f>
+        <v>41</v>
+      </c>
+      <c r="AR5" s="80">
+        <f>AQ5+1</f>
+        <v>42</v>
+      </c>
+      <c r="AS5" s="80">
+        <f>AR5+1</f>
+        <v>43</v>
+      </c>
+      <c r="AT5" s="80">
+        <f>AS5+1</f>
+        <v>44</v>
+      </c>
+      <c r="AU5" s="80">
+        <f>AT5+1</f>
+        <v>45</v>
+      </c>
+      <c r="AV5" s="80">
+        <f>AU5+1</f>
+        <v>46</v>
+      </c>
+      <c r="AW5" s="80">
+        <f>AV5+1</f>
+        <v>47</v>
+      </c>
+      <c r="AX5" s="80">
+        <f>AW5+1</f>
+        <v>48</v>
+      </c>
+      <c r="AY5" s="80">
+        <f>AX5+1</f>
+        <v>49</v>
+      </c>
+      <c r="AZ5" s="80">
+        <f>AY5+1</f>
+        <v>50</v>
+      </c>
+      <c r="BA5" s="80">
+        <f>AZ5+1</f>
+        <v>51</v>
+      </c>
+      <c r="BB5" s="80">
+        <f>BA5+1</f>
+        <v>52</v>
+      </c>
+      <c r="BC5" s="80">
+        <f>BB5+1</f>
+        <v>53</v>
+      </c>
+      <c r="BD5" s="80">
+        <f>BC5+1</f>
+        <v>54</v>
+      </c>
+      <c r="BE5" s="80">
+        <f>BD5+1</f>
+        <v>55</v>
+      </c>
+      <c r="BF5" s="80">
+        <f>BE5+1</f>
+        <v>56</v>
+      </c>
+      <c r="BG5" s="80">
+        <f>BF5+1</f>
+        <v>57</v>
+      </c>
+      <c r="BH5" s="80">
+        <f>BG5+1</f>
+        <v>58</v>
+      </c>
+      <c r="BI5" s="80">
+        <f>BH5+1</f>
+        <v>59</v>
+      </c>
+      <c r="BJ5" s="80">
+        <f>BI5+1</f>
+        <v>60</v>
+      </c>
+      <c r="BK5" s="80">
+        <f>BJ5+1</f>
+        <v>61</v>
+      </c>
+      <c r="BL5" s="80">
+        <f>BK5+1</f>
+        <v>62</v>
+      </c>
+      <c r="BM5" s="80">
+        <f>BL5+1</f>
+        <v>63</v>
+      </c>
+      <c r="BN5" s="80">
+        <f>BM5+1</f>
+        <v>64</v>
+      </c>
+      <c r="BO5" s="80">
+        <f>BN5+1</f>
+        <v>65</v>
+      </c>
+      <c r="BP5" s="80">
+        <f>BO5+1</f>
+        <v>66</v>
+      </c>
+      <c r="BQ5" s="80">
+        <f>BP5+1</f>
+        <v>67</v>
+      </c>
+      <c r="BR5" s="80">
+        <f>BQ5+1</f>
+        <v>68</v>
+      </c>
+      <c r="BS5" s="80">
+        <f>BR5+1</f>
+        <v>69</v>
+      </c>
+      <c r="BT5" s="80">
+        <f>BS5+1</f>
+        <v>70</v>
+      </c>
+      <c r="BU5" s="80">
+        <f>BT5+1</f>
+        <v>71</v>
+      </c>
+      <c r="BV5" s="80">
+        <f>BU5+1</f>
+        <v>72</v>
+      </c>
+      <c r="BW5" s="80">
+        <f>BV5+1</f>
+        <v>73</v>
+      </c>
+      <c r="BX5" s="80">
+        <f>BW5+1</f>
+        <v>74</v>
+      </c>
+      <c r="BY5" s="80">
+        <f>BX5+1</f>
+        <v>75</v>
+      </c>
+      <c r="BZ5" s="80">
+        <f>BY5+1</f>
+        <v>76</v>
+      </c>
+      <c r="CA5" s="80">
+        <f>BZ5+1</f>
+        <v>77</v>
+      </c>
+      <c r="CB5" s="80">
+        <f>CA5+1</f>
+        <v>78</v>
+      </c>
+      <c r="CC5" s="80">
+        <f>CB5+1</f>
+        <v>79</v>
+      </c>
+      <c r="CD5" s="80">
+        <f>CC5+1</f>
+        <v>80</v>
+      </c>
+      <c r="CE5" s="80">
+        <f>CD5+1</f>
+        <v>81</v>
+      </c>
+      <c r="CF5" s="80">
+        <f>CE5+1</f>
+        <v>82</v>
+      </c>
+      <c r="CG5" s="80">
+        <f>CF5+1</f>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="2:85" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="77" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" s="40"/>
+      <c r="L6" s="40"/>
+      <c r="N6" s="79"/>
+      <c r="P6" s="40"/>
+      <c r="Q6" s="40"/>
+      <c r="R6" s="40"/>
+      <c r="S6" s="40"/>
+      <c r="T6" s="40"/>
+      <c r="U6" s="40"/>
+      <c r="V6" s="40"/>
+      <c r="W6" s="40"/>
+      <c r="X6" s="40"/>
+      <c r="Y6" s="40"/>
+      <c r="Z6" s="40"/>
+      <c r="AA6" s="40"/>
+      <c r="AB6" s="40"/>
+      <c r="AC6" s="40"/>
+      <c r="AD6" s="40"/>
+      <c r="AE6" s="40"/>
+      <c r="AF6" s="40"/>
+    </row>
+    <row r="7" spans="2:85" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="77" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="40"/>
+      <c r="O7" s="40"/>
+      <c r="P7" s="40"/>
+      <c r="Q7" s="40"/>
+      <c r="R7" s="40"/>
+      <c r="S7" s="40"/>
+      <c r="T7" s="40"/>
+      <c r="U7" s="40"/>
+      <c r="V7" s="40"/>
+      <c r="W7" s="40"/>
+      <c r="X7" s="40"/>
+      <c r="Y7" s="40"/>
+      <c r="Z7" s="40"/>
+      <c r="AA7" s="40"/>
+      <c r="AB7" s="40"/>
+      <c r="AC7" s="40"/>
+      <c r="AD7" s="40"/>
+      <c r="AE7" s="40"/>
+      <c r="AF7" s="40"/>
+    </row>
+    <row r="8" spans="2:85" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="77" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="K8" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="L8" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="M8" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="N8" s="40"/>
+      <c r="O8" s="40"/>
+      <c r="P8" s="40"/>
+      <c r="Q8" s="40"/>
+      <c r="R8" s="40"/>
+      <c r="S8" s="40"/>
+      <c r="T8" s="40"/>
+      <c r="U8" s="40"/>
+      <c r="V8" s="40"/>
+      <c r="W8" s="40"/>
+      <c r="X8" s="40"/>
+      <c r="Y8" s="40"/>
+      <c r="Z8" s="40"/>
+      <c r="AA8" s="40"/>
+      <c r="AB8" s="40"/>
+      <c r="AC8" s="40"/>
+      <c r="AD8" s="40"/>
+      <c r="AE8" s="40"/>
+      <c r="AF8" s="40"/>
+      <c r="AI8" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="AJ8" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK8" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="AL8" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="AM8" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN8" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="AO8" s="40" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="2:85" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="77" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="K9" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="L9" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="M9" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="N9" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="O9" s="40"/>
+      <c r="P9" s="40"/>
+      <c r="Q9" s="40"/>
+      <c r="R9" s="40"/>
+      <c r="S9" s="40"/>
+      <c r="T9" s="40"/>
+      <c r="U9" s="40"/>
+      <c r="V9" s="40"/>
+      <c r="W9" s="40"/>
+      <c r="X9" s="40"/>
+      <c r="Y9" s="40"/>
+      <c r="Z9" s="40"/>
+      <c r="AA9" s="40"/>
+      <c r="AB9" s="40"/>
+      <c r="AC9" s="40"/>
+      <c r="AD9" s="40"/>
+      <c r="AE9" s="40"/>
+      <c r="AF9" s="40"/>
+    </row>
+    <row r="10" spans="2:85" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="77" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="L10" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="M10" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="N10" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="O10" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="P10" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q10" s="40"/>
+      <c r="R10" s="40"/>
+      <c r="S10" s="40"/>
+      <c r="T10" s="40"/>
+      <c r="U10" s="40"/>
+      <c r="V10" s="40"/>
+      <c r="W10" s="40"/>
+      <c r="X10" s="40"/>
+      <c r="Y10" s="40"/>
+      <c r="Z10" s="40"/>
+      <c r="AA10" s="40"/>
+      <c r="AB10" s="40"/>
+      <c r="AC10" s="40"/>
+      <c r="AD10" s="40"/>
+      <c r="AE10" s="40"/>
+      <c r="AF10" s="40"/>
+    </row>
+    <row r="11" spans="2:85" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="77" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="J11" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="K11" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="L11" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="M11" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="N11" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="O11" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="P11" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q11" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="R11" s="40"/>
+      <c r="S11" s="40"/>
+      <c r="T11" s="40"/>
+      <c r="U11" s="40"/>
+      <c r="V11" s="40"/>
+      <c r="W11" s="40"/>
+      <c r="X11" s="40"/>
+      <c r="Y11" s="40"/>
+      <c r="Z11" s="40"/>
+      <c r="AA11" s="40"/>
+      <c r="AB11" s="40"/>
+      <c r="AC11" s="40"/>
+      <c r="AD11" s="40"/>
+      <c r="AE11" s="40"/>
+      <c r="AF11" s="40"/>
+    </row>
+    <row r="12" spans="2:85" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="77" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="L12" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="M12" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="N12" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="O12" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="P12" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q12" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="R12" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="S12" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="T12" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="U12" s="40"/>
+      <c r="V12" s="40"/>
+      <c r="W12" s="40"/>
+      <c r="X12" s="40"/>
+      <c r="Y12" s="40"/>
+      <c r="Z12" s="40"/>
+      <c r="AA12" s="40"/>
+      <c r="AB12" s="40"/>
+      <c r="AC12" s="40"/>
+      <c r="AD12" s="40"/>
+      <c r="AE12" s="40"/>
+      <c r="AF12" s="40"/>
+    </row>
+    <row r="13" spans="2:85" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="77" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="40"/>
+      <c r="L13" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="M13" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="N13" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="O13" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="P13" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q13" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="R13" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="S13" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="T13" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="U13" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="V13" s="40"/>
+      <c r="W13" s="40"/>
+      <c r="X13" s="40"/>
+      <c r="Y13" s="40"/>
+      <c r="Z13" s="40"/>
+      <c r="AA13" s="40"/>
+      <c r="AB13" s="40"/>
+      <c r="AC13" s="40"/>
+      <c r="AD13" s="40"/>
+      <c r="AE13" s="40"/>
+      <c r="AF13" s="40"/>
+    </row>
+    <row r="14" spans="2:85" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="77" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="40"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="N14" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="O14" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="P14" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q14" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="R14" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="S14" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="T14" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="U14" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="V14" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="W14" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="X14" s="40"/>
+      <c r="Y14" s="40"/>
+      <c r="Z14" s="40"/>
+      <c r="AA14" s="40"/>
+      <c r="AB14" s="40"/>
+      <c r="AC14" s="40"/>
+      <c r="AD14" s="40"/>
+      <c r="AE14" s="40"/>
+      <c r="AF14" s="40"/>
+    </row>
+    <row r="15" spans="2:85" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="77" t="s">
+        <v>105</v>
+      </c>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="40"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="40"/>
+      <c r="N15" s="40"/>
+      <c r="O15" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="P15" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q15" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="R15" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="S15" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="T15" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="U15" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="V15" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="W15" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="X15" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y15" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z15" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA15" s="40"/>
+      <c r="AB15" s="40"/>
+      <c r="AC15" s="40"/>
+      <c r="AD15" s="40"/>
+      <c r="AE15" s="40"/>
+      <c r="AF15" s="40"/>
+    </row>
+    <row r="16" spans="2:85" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="77" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="40"/>
+      <c r="N16" s="40"/>
+      <c r="O16" s="40"/>
+      <c r="P16" s="40"/>
+      <c r="Q16" s="40"/>
+      <c r="R16" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="S16" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="T16" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="U16" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="V16" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="W16" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="X16" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y16" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z16" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA16" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB16" s="40"/>
+      <c r="AC16" s="40"/>
+      <c r="AD16" s="40"/>
+      <c r="AE16" s="40"/>
+      <c r="AF16" s="40"/>
+    </row>
+    <row r="17" spans="2:64" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="77" t="s">
+        <v>106</v>
+      </c>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="40"/>
+      <c r="L17" s="40"/>
+      <c r="M17" s="40"/>
+      <c r="N17" s="40"/>
+      <c r="O17" s="40"/>
+      <c r="P17" s="40"/>
+      <c r="Q17" s="40"/>
+      <c r="R17" s="40"/>
+      <c r="S17" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="T17" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="U17" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="V17" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="W17" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="X17" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y17" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z17" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA17" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB17" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC17" s="40"/>
+      <c r="AD17" s="40"/>
+      <c r="AE17" s="40"/>
+      <c r="AF17" s="40"/>
+    </row>
+    <row r="18" spans="2:64" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="77" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="40"/>
+      <c r="L18" s="40"/>
+      <c r="M18" s="40"/>
+      <c r="N18" s="40"/>
+      <c r="O18" s="40"/>
+      <c r="P18" s="40"/>
+      <c r="Q18" s="40"/>
+      <c r="R18" s="40"/>
+      <c r="S18" s="40"/>
+      <c r="T18" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="U18" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="V18" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="W18" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="X18" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y18" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z18" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA18" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB18" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC18" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD18" s="40"/>
+      <c r="AE18" s="40"/>
+      <c r="AF18" s="40"/>
+    </row>
+    <row r="19" spans="2:64" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="77" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="40"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="40"/>
+      <c r="L19" s="40"/>
+      <c r="M19" s="40"/>
+      <c r="N19" s="40"/>
+      <c r="O19" s="40"/>
+      <c r="P19" s="40"/>
+      <c r="Q19" s="40"/>
+      <c r="R19" s="40"/>
+      <c r="S19" s="40"/>
+      <c r="T19" s="40"/>
+      <c r="U19" s="40"/>
+      <c r="V19" s="40"/>
+      <c r="W19" s="40"/>
+      <c r="X19" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y19" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z19" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA19" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB19" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC19" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD19" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE19" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF19" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG19" s="40"/>
+      <c r="AH19" s="40"/>
+      <c r="AI19" s="40"/>
+      <c r="AJ19" s="40"/>
+      <c r="AK19" s="40"/>
+      <c r="AL19" s="40"/>
+      <c r="AM19" s="40"/>
+      <c r="AN19" s="40"/>
+      <c r="AO19" s="40"/>
+      <c r="AP19" s="40"/>
+      <c r="AQ19" s="40"/>
+      <c r="AR19" s="40"/>
+      <c r="AS19" s="40"/>
+    </row>
+    <row r="20" spans="2:64" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="77" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="40"/>
+      <c r="L20" s="40"/>
+      <c r="M20" s="40"/>
+      <c r="N20" s="40"/>
+      <c r="O20" s="40"/>
+      <c r="P20" s="40"/>
+      <c r="Q20" s="40"/>
+      <c r="R20" s="40"/>
+      <c r="S20" s="40"/>
+      <c r="T20" s="40"/>
+      <c r="U20" s="40"/>
+      <c r="V20" s="40"/>
+      <c r="W20" s="40"/>
+      <c r="X20" s="40"/>
+      <c r="Y20" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z20" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA20" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB20" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC20" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD20" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE20" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF20" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG20" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="AH20" s="40"/>
+      <c r="AI20" s="40"/>
+      <c r="AJ20" s="40"/>
+      <c r="AK20" s="40"/>
+      <c r="AL20" s="40"/>
+      <c r="AM20" s="40"/>
+      <c r="AN20" s="40"/>
+      <c r="AO20" s="40"/>
+      <c r="AP20" s="40"/>
+      <c r="AQ20" s="40"/>
+      <c r="AR20" s="40"/>
+      <c r="AS20" s="40"/>
+    </row>
+    <row r="21" spans="2:64" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="77" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="40"/>
+      <c r="L21" s="40"/>
+      <c r="M21" s="40"/>
+      <c r="N21" s="40"/>
+      <c r="O21" s="40"/>
+      <c r="P21" s="40"/>
+      <c r="Q21" s="40"/>
+      <c r="R21" s="40"/>
+      <c r="S21" s="40"/>
+      <c r="T21" s="40"/>
+      <c r="U21" s="40"/>
+      <c r="V21" s="40"/>
+      <c r="W21" s="40"/>
+      <c r="X21" s="40"/>
+      <c r="Y21" s="40"/>
+      <c r="Z21" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA21" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB21" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC21" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD21" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE21" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF21" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG21" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH21" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI21" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ21" s="40"/>
+      <c r="AK21" s="40"/>
+      <c r="AL21" s="40"/>
+      <c r="AM21" s="40"/>
+      <c r="AN21" s="40"/>
+      <c r="AO21" s="40"/>
+      <c r="AP21" s="40"/>
+      <c r="AQ21" s="40"/>
+      <c r="AR21" s="40"/>
+      <c r="AS21" s="40"/>
+    </row>
+    <row r="22" spans="2:64" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="77" t="s">
+        <v>106</v>
+      </c>
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="40"/>
+      <c r="L22" s="40"/>
+      <c r="M22" s="40"/>
+      <c r="N22" s="40"/>
+      <c r="O22" s="40"/>
+      <c r="P22" s="40"/>
+      <c r="Q22" s="40"/>
+      <c r="R22" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="S22" s="40"/>
+      <c r="T22" s="40"/>
+      <c r="U22" s="40"/>
+      <c r="V22" s="40"/>
+      <c r="W22" s="40"/>
+      <c r="X22" s="40"/>
+      <c r="Y22" s="40"/>
+      <c r="Z22" s="40"/>
+      <c r="AA22" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB22" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC22" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD22" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE22" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF22" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG22" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH22" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI22" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="AJ22" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="AK22" s="40"/>
+      <c r="AL22" s="40"/>
+      <c r="AM22" s="40"/>
+      <c r="AN22" s="40"/>
+      <c r="AO22" s="40"/>
+      <c r="AP22" s="40"/>
+      <c r="AQ22" s="40"/>
+      <c r="AR22" s="40"/>
+      <c r="AS22" s="40"/>
+    </row>
+    <row r="23" spans="2:64" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="77" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" s="40"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="40"/>
+      <c r="L23" s="40"/>
+      <c r="M23" s="40"/>
+      <c r="N23" s="40"/>
+      <c r="O23" s="40"/>
+      <c r="P23" s="40"/>
+      <c r="Q23" s="40"/>
+      <c r="R23" s="40"/>
+      <c r="S23" s="40"/>
+      <c r="T23" s="40"/>
+      <c r="U23" s="40"/>
+      <c r="V23" s="40"/>
+      <c r="W23" s="40"/>
+      <c r="X23" s="40"/>
+      <c r="Y23" s="40"/>
+      <c r="Z23" s="40"/>
+      <c r="AA23" s="40"/>
+      <c r="AB23" s="40"/>
+      <c r="AC23" s="40"/>
+      <c r="AD23" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE23" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF23" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG23" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH23" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI23" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ23" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="AK23" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL23" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM23" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN23" s="40"/>
+      <c r="AO23" s="40"/>
+      <c r="AP23" s="40"/>
+      <c r="AQ23" s="40"/>
+      <c r="AR23" s="40"/>
+      <c r="AS23" s="40"/>
+    </row>
+    <row r="24" spans="2:64" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="77" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" s="40"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="40"/>
+      <c r="J24" s="40"/>
+      <c r="K24" s="40"/>
+      <c r="L24" s="40"/>
+      <c r="M24" s="40"/>
+      <c r="N24" s="40"/>
+      <c r="O24" s="40"/>
+      <c r="P24" s="40"/>
+      <c r="Q24" s="40"/>
+      <c r="R24" s="40"/>
+      <c r="S24" s="40"/>
+      <c r="T24" s="40"/>
+      <c r="U24" s="40"/>
+      <c r="V24" s="40"/>
+      <c r="W24" s="40"/>
+      <c r="X24" s="40"/>
+      <c r="Y24" s="40"/>
+      <c r="Z24" s="40"/>
+      <c r="AA24" s="40"/>
+      <c r="AB24" s="40"/>
+      <c r="AC24" s="40"/>
+      <c r="AD24" s="40"/>
+      <c r="AE24" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF24" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG24" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH24" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI24" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ24" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="AK24" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL24" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM24" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN24" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="AO24" s="40"/>
+      <c r="AP24" s="40"/>
+      <c r="AQ24" s="40"/>
+      <c r="AR24" s="40"/>
+      <c r="AS24" s="40"/>
+    </row>
+    <row r="25" spans="2:64" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="77" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="40"/>
+      <c r="J25" s="40"/>
+      <c r="K25" s="40"/>
+      <c r="L25" s="40"/>
+      <c r="M25" s="40"/>
+      <c r="N25" s="40"/>
+      <c r="O25" s="40"/>
+      <c r="P25" s="40"/>
+      <c r="Q25" s="40"/>
+      <c r="R25" s="40"/>
+      <c r="S25" s="40"/>
+      <c r="T25" s="40"/>
+      <c r="U25" s="40"/>
+      <c r="V25" s="40"/>
+      <c r="W25" s="40"/>
+      <c r="X25" s="40"/>
+      <c r="Y25" s="40"/>
+      <c r="Z25" s="40"/>
+      <c r="AA25" s="40"/>
+      <c r="AB25" s="40"/>
+      <c r="AC25" s="40"/>
+      <c r="AD25" s="40"/>
+      <c r="AE25" s="40"/>
+      <c r="AF25" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG25" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="AH25" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI25" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ25" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK25" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="AL25" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="AM25" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN25" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="AO25" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP25" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="AQ25" s="40"/>
+      <c r="AR25" s="40"/>
+      <c r="AS25" s="40"/>
+    </row>
+    <row r="26" spans="2:64" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="77" t="s">
+        <v>107</v>
+      </c>
+      <c r="C26" s="40"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="40"/>
+      <c r="I26" s="40"/>
+      <c r="J26" s="40"/>
+      <c r="K26" s="40"/>
+      <c r="L26" s="40"/>
+      <c r="M26" s="40"/>
+      <c r="N26" s="40"/>
+      <c r="O26" s="40"/>
+      <c r="P26" s="40"/>
+      <c r="Q26" s="40"/>
+      <c r="R26" s="40"/>
+      <c r="S26" s="40"/>
+      <c r="T26" s="40"/>
+      <c r="U26" s="40"/>
+      <c r="V26" s="40"/>
+      <c r="W26" s="40"/>
+      <c r="X26" s="40"/>
+      <c r="Y26" s="40"/>
+      <c r="Z26" s="40"/>
+      <c r="AA26" s="40"/>
+      <c r="AB26" s="40"/>
+      <c r="AC26" s="40"/>
+      <c r="AD26" s="40"/>
+      <c r="AE26" s="40"/>
+      <c r="AF26" s="40"/>
+      <c r="AG26" s="40"/>
+      <c r="AH26" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI26" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ26" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="AK26" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL26" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="AM26" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN26" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO26" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="AP26" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="AQ26" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="AR26" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="AS26" s="40" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="2:64" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="77" t="s">
+        <v>69</v>
+      </c>
+      <c r="AK27" s="76" t="s">
+        <v>4</v>
+      </c>
+      <c r="AL27" s="76" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM27" s="75" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN27" s="75" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO27" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="AP27" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="AQ27" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="AR27" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="AS27" s="73" t="s">
+        <v>9</v>
+      </c>
+      <c r="AT27" s="73" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="2:64" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="77" t="s">
+        <v>33</v>
+      </c>
+      <c r="AL28" s="76" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM28" s="75" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN28" s="75" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO28" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="AP28" s="73" t="s">
+        <v>5</v>
+      </c>
+      <c r="AQ28" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="AR28" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="AS28" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="AT28" s="73" t="s">
+        <v>9</v>
+      </c>
+      <c r="AU28" s="73" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="2:64" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="77" t="s">
+        <v>34</v>
+      </c>
+      <c r="AM29" s="75" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN29" s="75" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO29" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="AP29" s="73" t="s">
+        <v>4</v>
+      </c>
+      <c r="AQ29" s="73" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR29" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="AS29" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="AT29" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="AU29" s="73" t="s">
+        <v>9</v>
+      </c>
+      <c r="AV29" s="73" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="2:64" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="77" t="s">
+        <v>35</v>
+      </c>
+      <c r="AQ30" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="AR30" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="AS30" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="AT30" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="AU30" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="AV30" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="AW30" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="AX30" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="AY30" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="AZ30" s="40"/>
+      <c r="BA30" s="40"/>
+      <c r="BB30" s="40"/>
+      <c r="BC30" s="40"/>
+      <c r="BD30" s="40"/>
+      <c r="BE30" s="40"/>
+      <c r="BF30" s="40"/>
+      <c r="BG30" s="40"/>
+      <c r="BH30" s="40"/>
+      <c r="BI30" s="40"/>
+      <c r="BJ30" s="40"/>
+      <c r="BK30" s="40"/>
+      <c r="BL30" s="40"/>
+    </row>
+    <row r="31" spans="2:64" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="77" t="s">
+        <v>36</v>
+      </c>
+      <c r="AQ31" s="40"/>
+      <c r="AR31" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="AS31" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="AT31" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="AU31" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="AV31" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="AW31" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="AX31" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="AY31" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="AZ31" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="BA31" s="40"/>
+      <c r="BB31" s="40"/>
+      <c r="BC31" s="40"/>
+      <c r="BD31" s="40"/>
+      <c r="BE31" s="40"/>
+      <c r="BF31" s="40"/>
+      <c r="BG31" s="40"/>
+      <c r="BH31" s="40"/>
+      <c r="BI31" s="40"/>
+      <c r="BJ31" s="40"/>
+      <c r="BK31" s="40"/>
+      <c r="BL31" s="40"/>
+    </row>
+    <row r="32" spans="2:64" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="77" t="s">
+        <v>33</v>
+      </c>
+      <c r="AQ32" s="40"/>
+      <c r="AR32" s="40"/>
+      <c r="AS32" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="AT32" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="AU32" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="AV32" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="AW32" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="AX32" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="AY32" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="AZ32" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="BA32" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="BB32" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="BC32" s="40"/>
+      <c r="BD32" s="40"/>
+      <c r="BE32" s="40"/>
+      <c r="BF32" s="40"/>
+      <c r="BG32" s="40"/>
+      <c r="BH32" s="40"/>
+      <c r="BI32" s="40"/>
+      <c r="BJ32" s="40"/>
+      <c r="BK32" s="40"/>
+      <c r="BL32" s="40"/>
+    </row>
+    <row r="33" spans="2:83" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="77" t="s">
+        <v>37</v>
+      </c>
+      <c r="AQ33" s="40"/>
+      <c r="AR33" s="40"/>
+      <c r="AS33" s="40"/>
+      <c r="AT33" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="AU33" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="AV33" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="AW33" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="AX33" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="AY33" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="AZ33" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="BA33" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="BB33" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="BC33" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="BD33" s="40"/>
+      <c r="BE33" s="40"/>
+      <c r="BF33" s="40"/>
+      <c r="BG33" s="40"/>
+      <c r="BH33" s="40"/>
+      <c r="BI33" s="40"/>
+      <c r="BJ33" s="40"/>
+      <c r="BK33" s="40"/>
+      <c r="BL33" s="40"/>
+    </row>
+    <row r="34" spans="2:83" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="77" t="s">
+        <v>62</v>
+      </c>
+      <c r="AQ34" s="40"/>
+      <c r="AR34" s="40"/>
+      <c r="AS34" s="40"/>
+      <c r="AT34" s="40"/>
+      <c r="AU34" s="40"/>
+      <c r="AV34" s="40"/>
+      <c r="AW34" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="AX34" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="AY34" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="AZ34" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="BA34" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="BB34" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="BC34" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="BD34" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="BE34" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="BF34" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="BG34" s="40"/>
+      <c r="BH34" s="40"/>
+      <c r="BI34" s="40"/>
+      <c r="BJ34" s="40"/>
+      <c r="BK34" s="40"/>
+      <c r="BL34" s="40"/>
+    </row>
+    <row r="35" spans="2:83" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="77" t="s">
+        <v>38</v>
+      </c>
+      <c r="AQ35" s="40"/>
+      <c r="AR35" s="40"/>
+      <c r="AS35" s="40"/>
+      <c r="AT35" s="40"/>
+      <c r="AU35" s="40"/>
+      <c r="AV35" s="40"/>
+      <c r="AW35" s="40"/>
+      <c r="AX35" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="AY35" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="AZ35" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="BA35" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="BB35" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="BC35" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="BD35" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="BE35" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="BF35" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="BG35" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="BH35" s="40"/>
+      <c r="BI35" s="40"/>
+      <c r="BJ35" s="40"/>
+      <c r="BK35" s="40"/>
+      <c r="BL35" s="40"/>
+    </row>
+    <row r="36" spans="2:83" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="77" t="s">
+        <v>37</v>
+      </c>
+      <c r="AQ36" s="40"/>
+      <c r="AR36" s="40"/>
+      <c r="AS36" s="40"/>
+      <c r="AT36" s="40"/>
+      <c r="AU36" s="40"/>
+      <c r="AV36" s="40"/>
+      <c r="AW36" s="40"/>
+      <c r="AX36" s="40"/>
+      <c r="AY36" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="AZ36" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="BA36" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="BB36" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="BC36" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="BD36" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="BE36" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="BF36" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="BG36" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="BH36" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="BI36" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="BJ36" s="40"/>
+      <c r="BK36" s="40"/>
+      <c r="BL36" s="40"/>
+    </row>
+    <row r="37" spans="2:83" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="77" t="s">
+        <v>108</v>
+      </c>
+      <c r="AQ37" s="40"/>
+      <c r="AR37" s="40"/>
+      <c r="AS37" s="40"/>
+      <c r="AT37" s="40"/>
+      <c r="AU37" s="40"/>
+      <c r="AV37" s="40"/>
+      <c r="AW37" s="40"/>
+      <c r="AX37" s="40"/>
+      <c r="AY37" s="40"/>
+      <c r="AZ37" s="40"/>
+      <c r="BA37" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="BB37" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="BC37" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="BD37" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="BE37" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="BF37" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="BG37" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="BH37" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="BI37" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="BJ37" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="BK37" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="BL37" s="40" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="2:83" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="77" t="s">
+        <v>38</v>
+      </c>
+      <c r="BD38" s="76" t="s">
+        <v>4</v>
+      </c>
+      <c r="BE38" s="76" t="s">
+        <v>5</v>
+      </c>
+      <c r="BF38" s="75" t="s">
+        <v>12</v>
+      </c>
+      <c r="BG38" s="75" t="s">
+        <v>12</v>
+      </c>
+      <c r="BH38" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="BI38" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="BJ38" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="BK38" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="BL38" s="73" t="s">
+        <v>9</v>
+      </c>
+      <c r="BM38" s="73" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="2:83" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="77" t="s">
+        <v>106</v>
+      </c>
+      <c r="BE39" s="76" t="s">
+        <v>4</v>
+      </c>
+      <c r="BF39" s="75" t="s">
+        <v>12</v>
+      </c>
+      <c r="BG39" s="75" t="s">
+        <v>12</v>
+      </c>
+      <c r="BH39" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="BI39" s="73" t="s">
+        <v>5</v>
+      </c>
+      <c r="BJ39" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="BK39" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="BL39" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="BM39" s="73" t="s">
+        <v>9</v>
+      </c>
+      <c r="BN39" s="73" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="2:83" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="77" t="s">
+        <v>37</v>
+      </c>
+      <c r="BF40" s="75" t="s">
+        <v>12</v>
+      </c>
+      <c r="BG40" s="75" t="s">
+        <v>12</v>
+      </c>
+      <c r="BH40" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="BI40" s="73" t="s">
+        <v>4</v>
+      </c>
+      <c r="BJ40" s="73" t="s">
+        <v>5</v>
+      </c>
+      <c r="BK40" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="BL40" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="BM40" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="BN40" s="73" t="s">
+        <v>9</v>
+      </c>
+      <c r="BO40" s="73" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="2:83" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="77" t="s">
+        <v>63</v>
+      </c>
+      <c r="BJ41" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="BK41" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="BL41" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="BM41" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="BN41" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="BO41" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="BP41" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="BQ41" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="BR41" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="BS41" s="40"/>
+      <c r="BT41" s="40"/>
+      <c r="BU41" s="40"/>
+      <c r="BV41" s="40"/>
+      <c r="BW41" s="40"/>
+      <c r="BX41" s="40"/>
+      <c r="BY41" s="40"/>
+      <c r="BZ41" s="40"/>
+      <c r="CA41" s="40"/>
+      <c r="CB41" s="40"/>
+      <c r="CC41" s="40"/>
+      <c r="CD41" s="40"/>
+      <c r="CE41" s="40"/>
+    </row>
+    <row r="42" spans="2:83" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="77" t="s">
+        <v>67</v>
+      </c>
+      <c r="BJ42" s="40"/>
+      <c r="BK42" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="BL42" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="BM42" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="BN42" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="BO42" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="BP42" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="BQ42" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="BR42" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="BS42" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="BT42" s="40"/>
+      <c r="BU42" s="40"/>
+      <c r="BV42" s="40"/>
+      <c r="BW42" s="40"/>
+      <c r="BX42" s="40"/>
+      <c r="BY42" s="40"/>
+      <c r="BZ42" s="40"/>
+      <c r="CA42" s="40"/>
+      <c r="CB42" s="40"/>
+      <c r="CC42" s="40"/>
+      <c r="CD42" s="40"/>
+      <c r="CE42" s="40"/>
+    </row>
+    <row r="43" spans="2:83" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="77" t="s">
+        <v>34</v>
+      </c>
+      <c r="BJ43" s="40"/>
+      <c r="BK43" s="40"/>
+      <c r="BL43" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="BM43" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="BN43" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="BO43" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="BP43" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="BQ43" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="BR43" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="BS43" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="BT43" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="BU43" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="BV43" s="40"/>
+      <c r="BW43" s="40"/>
+      <c r="BX43" s="40"/>
+      <c r="BY43" s="40"/>
+      <c r="BZ43" s="40"/>
+      <c r="CA43" s="40"/>
+      <c r="CB43" s="40"/>
+      <c r="CC43" s="40"/>
+      <c r="CD43" s="40"/>
+      <c r="CE43" s="40"/>
+    </row>
+    <row r="44" spans="2:83" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="77" t="s">
+        <v>106</v>
+      </c>
+      <c r="BJ44" s="40"/>
+      <c r="BK44" s="40"/>
+      <c r="BL44" s="40"/>
+      <c r="BM44" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="BN44" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="BO44" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="BP44" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="BQ44" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="BR44" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="BS44" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="BT44" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="BU44" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="BV44" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="BW44" s="40"/>
+      <c r="BX44" s="40"/>
+      <c r="BY44" s="40"/>
+      <c r="BZ44" s="40"/>
+      <c r="CA44" s="40"/>
+      <c r="CB44" s="40"/>
+      <c r="CC44" s="40"/>
+      <c r="CD44" s="40"/>
+      <c r="CE44" s="40"/>
+    </row>
+    <row r="45" spans="2:83" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="77" t="s">
+        <v>64</v>
+      </c>
+      <c r="BJ45" s="40"/>
+      <c r="BK45" s="40"/>
+      <c r="BL45" s="40"/>
+      <c r="BM45" s="40"/>
+      <c r="BN45" s="40"/>
+      <c r="BO45" s="40"/>
+      <c r="BP45" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="BQ45" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="BR45" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="BS45" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="BT45" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="BU45" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="BV45" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="BW45" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="BX45" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="BY45" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="BZ45" s="40"/>
+      <c r="CA45" s="40"/>
+      <c r="CB45" s="40"/>
+      <c r="CC45" s="40"/>
+      <c r="CD45" s="40"/>
+      <c r="CE45" s="40"/>
+    </row>
+    <row r="46" spans="2:83" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="77" t="s">
+        <v>69</v>
+      </c>
+      <c r="BJ46" s="40"/>
+      <c r="BK46" s="40"/>
+      <c r="BL46" s="40"/>
+      <c r="BM46" s="40"/>
+      <c r="BN46" s="40"/>
+      <c r="BO46" s="40"/>
+      <c r="BP46" s="40"/>
+      <c r="BQ46" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="BR46" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="BS46" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="BT46" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="BU46" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="BV46" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="BW46" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="BX46" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="BY46" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="BZ46" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="CA46" s="40"/>
+      <c r="CB46" s="40"/>
+      <c r="CC46" s="40"/>
+      <c r="CD46" s="40"/>
+      <c r="CE46" s="40"/>
+    </row>
+    <row r="47" spans="2:83" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="77" t="s">
+        <v>34</v>
+      </c>
+      <c r="BJ47" s="40"/>
+      <c r="BK47" s="40"/>
+      <c r="BL47" s="40"/>
+      <c r="BM47" s="40"/>
+      <c r="BN47" s="40"/>
+      <c r="BO47" s="40"/>
+      <c r="BP47" s="40"/>
+      <c r="BQ47" s="40"/>
+      <c r="BR47" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="BS47" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="BT47" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="BU47" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="BV47" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="BW47" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="BX47" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="BY47" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="BZ47" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="CA47" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="CB47" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="CC47" s="40"/>
+      <c r="CD47" s="40"/>
+      <c r="CE47" s="40"/>
+    </row>
+    <row r="48" spans="2:83" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="77" t="s">
+        <v>109</v>
+      </c>
+      <c r="BJ48" s="40"/>
+      <c r="BK48" s="40"/>
+      <c r="BL48" s="40"/>
+      <c r="BM48" s="40"/>
+      <c r="BN48" s="40"/>
+      <c r="BO48" s="40"/>
+      <c r="BP48" s="40"/>
+      <c r="BQ48" s="40"/>
+      <c r="BR48" s="40"/>
+      <c r="BS48" s="40"/>
+      <c r="BT48" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="BU48" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="BV48" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="BW48" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="BX48" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="BY48" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="BZ48" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="CA48" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="CB48" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="CC48" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="CD48" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="CE48" s="40" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="2:84" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="77" t="s">
+        <v>69</v>
+      </c>
+      <c r="BW49" s="76" t="s">
+        <v>4</v>
+      </c>
+      <c r="BX49" s="76" t="s">
+        <v>5</v>
+      </c>
+      <c r="BY49" s="75" t="s">
+        <v>12</v>
+      </c>
+      <c r="BZ49" s="75" t="s">
+        <v>12</v>
+      </c>
+      <c r="CA49" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="CB49" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="CC49" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="CD49" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="CE49" s="73" t="s">
+        <v>9</v>
+      </c>
+      <c r="CF49" s="73" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" scale="60" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE8F676F-49DF-48A1-9A2A-A9219EC105D3}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A2:K41"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6.75" style="25" customWidth="1"/>
+    <col min="2" max="2" width="19.625" style="25" customWidth="1"/>
+    <col min="3" max="7" width="10.125" style="25" customWidth="1"/>
+    <col min="8" max="8" width="23.5" style="25" customWidth="1"/>
+    <col min="9" max="11" width="8.125" style="25" customWidth="1"/>
+    <col min="12" max="63" width="12.125" style="25" customWidth="1"/>
+    <col min="64" max="16384" width="11" style="25"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:11" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="36" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="36"/>
+    </row>
+    <row r="4" spans="1:11" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="36"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+    </row>
+    <row r="5" spans="1:11" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="36"/>
+      <c r="B5" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="35"/>
+    </row>
+    <row r="7" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="66"/>
+      <c r="B7" s="66"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="66"/>
+    </row>
+    <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="67"/>
+      <c r="B8" s="59" t="s">
+        <v>97</v>
+      </c>
+      <c r="C8" s="47" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="G8" s="45" t="s">
+        <v>54</v>
+      </c>
+      <c r="H8" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="I8" s="68"/>
+      <c r="J8" s="66"/>
+      <c r="K8" s="37"/>
+    </row>
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="67"/>
+      <c r="B9" s="58" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="48" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="44">
+        <v>3</v>
+      </c>
+      <c r="E9" s="44">
+        <v>4</v>
+      </c>
+      <c r="F9" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="G9" s="46">
+        <v>7</v>
+      </c>
+      <c r="H9" s="60"/>
+      <c r="I9" s="68"/>
+      <c r="J9" s="66"/>
+      <c r="K9" s="37"/>
+    </row>
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="67"/>
+      <c r="B10" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="49" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" s="30">
+        <v>4</v>
+      </c>
+      <c r="E10" s="30">
+        <v>5</v>
+      </c>
+      <c r="F10" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="G10" s="31">
+        <v>8</v>
+      </c>
+      <c r="H10" s="61"/>
+      <c r="I10" s="68"/>
+      <c r="J10" s="66"/>
+      <c r="K10" s="37"/>
+    </row>
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="67"/>
+      <c r="B11" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" s="30">
+        <v>5</v>
+      </c>
+      <c r="E11" s="30">
+        <v>6</v>
+      </c>
+      <c r="F11" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="G11" s="31">
+        <v>9</v>
+      </c>
+      <c r="H11" s="61"/>
+      <c r="I11" s="68"/>
+      <c r="J11" s="66"/>
+      <c r="K11" s="37"/>
+    </row>
+    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="67"/>
+      <c r="B12" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="49" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" s="30">
+        <v>6</v>
+      </c>
+      <c r="E12" s="30">
+        <v>7</v>
+      </c>
+      <c r="F12" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="G12" s="31">
+        <v>10</v>
+      </c>
+      <c r="H12" s="61"/>
+      <c r="I12" s="68"/>
+      <c r="J12" s="66"/>
+      <c r="K12" s="37"/>
+    </row>
+    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="67"/>
+      <c r="B13" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" s="30">
+        <v>7</v>
+      </c>
+      <c r="E13" s="30">
+        <v>8</v>
+      </c>
+      <c r="F13" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="G13" s="31">
+        <v>11</v>
+      </c>
+      <c r="H13" s="61"/>
+      <c r="I13" s="68"/>
+      <c r="J13" s="66"/>
+      <c r="K13" s="37"/>
+    </row>
+    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="67"/>
+      <c r="B14" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="49" t="s">
+        <v>73</v>
+      </c>
+      <c r="D14" s="30">
+        <v>8</v>
+      </c>
+      <c r="E14" s="30">
+        <v>9</v>
+      </c>
+      <c r="F14" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="G14" s="31">
+        <v>12</v>
+      </c>
+      <c r="H14" s="61"/>
+      <c r="I14" s="68"/>
+      <c r="J14" s="66"/>
+      <c r="K14" s="38"/>
+    </row>
+    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="67"/>
+      <c r="B15" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" s="30">
+        <v>9</v>
+      </c>
+      <c r="E15" s="30">
+        <v>10</v>
+      </c>
+      <c r="F15" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="G15" s="31">
+        <v>13</v>
+      </c>
+      <c r="H15" s="61"/>
+      <c r="I15" s="68"/>
+      <c r="J15" s="66"/>
+      <c r="K15" s="37"/>
+    </row>
+    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="67"/>
+      <c r="B16" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16" s="30">
+        <v>10</v>
+      </c>
+      <c r="E16" s="30">
+        <v>11</v>
+      </c>
+      <c r="F16" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="G16" s="31">
+        <v>14</v>
+      </c>
+      <c r="H16" s="61"/>
+      <c r="I16" s="68"/>
+      <c r="J16" s="66"/>
+      <c r="K16" s="37"/>
+    </row>
+    <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="67"/>
+      <c r="B17" s="50" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="D17" s="30">
+        <v>11</v>
+      </c>
+      <c r="E17" s="30">
+        <v>12</v>
+      </c>
+      <c r="F17" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="G17" s="31">
+        <v>15</v>
+      </c>
+      <c r="H17" s="61"/>
+      <c r="I17" s="68"/>
+      <c r="J17" s="66"/>
+      <c r="K17" s="37"/>
+    </row>
+    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="67"/>
+      <c r="B18" s="50" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="D18" s="30">
+        <v>12</v>
+      </c>
+      <c r="E18" s="30">
+        <v>13</v>
+      </c>
+      <c r="F18" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="G18" s="31">
+        <v>16</v>
+      </c>
+      <c r="H18" s="61"/>
+      <c r="I18" s="68"/>
+      <c r="J18" s="66"/>
+      <c r="K18" s="37"/>
+    </row>
+    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="67"/>
+      <c r="B19" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="D19" s="30">
+        <v>13</v>
+      </c>
+      <c r="E19" s="30">
+        <v>14</v>
+      </c>
+      <c r="F19" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="G19" s="31">
+        <v>17</v>
+      </c>
+      <c r="H19" s="61"/>
+      <c r="I19" s="68"/>
+      <c r="J19" s="66"/>
+      <c r="K19" s="37"/>
+    </row>
+    <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="67"/>
+      <c r="B20" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="49" t="s">
+        <v>84</v>
+      </c>
+      <c r="D20" s="30">
+        <v>14</v>
+      </c>
+      <c r="E20" s="30">
+        <v>15</v>
+      </c>
+      <c r="F20" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="G20" s="31">
+        <v>18</v>
+      </c>
+      <c r="H20" s="61"/>
+      <c r="I20" s="68"/>
+      <c r="J20" s="66"/>
+      <c r="K20" s="37"/>
+    </row>
+    <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="67"/>
+      <c r="B21" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="D21" s="30">
+        <v>15</v>
+      </c>
+      <c r="E21" s="30">
+        <v>16</v>
+      </c>
+      <c r="F21" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="G21" s="31">
+        <v>19</v>
+      </c>
+      <c r="H21" s="61"/>
+      <c r="I21" s="68"/>
+      <c r="J21" s="66"/>
+    </row>
+    <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="67"/>
+      <c r="B22" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" s="49" t="s">
+        <v>87</v>
+      </c>
+      <c r="D22" s="30">
+        <v>16</v>
+      </c>
+      <c r="E22" s="30">
+        <v>17</v>
+      </c>
+      <c r="F22" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="G22" s="31">
+        <v>20</v>
+      </c>
+      <c r="H22" s="61"/>
+      <c r="I22" s="68"/>
+      <c r="J22" s="66"/>
+    </row>
+    <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="67"/>
+      <c r="B23" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" s="49" t="s">
+        <v>89</v>
+      </c>
+      <c r="D23" s="30">
+        <v>17</v>
+      </c>
+      <c r="E23" s="30">
+        <v>18</v>
+      </c>
+      <c r="F23" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="G23" s="31">
+        <v>21</v>
+      </c>
+      <c r="H23" s="61"/>
+      <c r="I23" s="68"/>
+      <c r="J23" s="66"/>
+    </row>
+    <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="67"/>
+      <c r="B24" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="49" t="s">
+        <v>90</v>
+      </c>
+      <c r="D24" s="30">
+        <v>18</v>
+      </c>
+      <c r="E24" s="30">
+        <v>19</v>
+      </c>
+      <c r="F24" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="G24" s="31">
+        <v>22</v>
+      </c>
+      <c r="H24" s="61"/>
+      <c r="I24" s="68"/>
+      <c r="J24" s="66"/>
+    </row>
+    <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="67"/>
+      <c r="B25" s="50" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" s="49" t="s">
+        <v>91</v>
+      </c>
+      <c r="D25" s="30">
+        <v>19</v>
+      </c>
+      <c r="E25" s="30">
+        <v>20</v>
+      </c>
+      <c r="F25" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="G25" s="31">
+        <v>23</v>
+      </c>
+      <c r="H25" s="61"/>
+      <c r="I25" s="68"/>
+      <c r="J25" s="66"/>
+    </row>
+    <row r="26" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="67"/>
+      <c r="B26" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="C26" s="49" t="s">
+        <v>92</v>
+      </c>
+      <c r="D26" s="30">
+        <v>20</v>
+      </c>
+      <c r="E26" s="30">
+        <v>21</v>
+      </c>
+      <c r="F26" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="G26" s="31">
+        <v>24</v>
+      </c>
+      <c r="H26" s="61"/>
+      <c r="I26" s="68"/>
+      <c r="J26" s="66"/>
+    </row>
+    <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="67"/>
+      <c r="B27" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27" s="49" t="s">
+        <v>93</v>
+      </c>
+      <c r="D27" s="30">
+        <v>21</v>
+      </c>
+      <c r="E27" s="30">
+        <v>22</v>
+      </c>
+      <c r="F27" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="G27" s="31">
+        <v>25</v>
+      </c>
+      <c r="H27" s="61"/>
+      <c r="I27" s="68"/>
+      <c r="J27" s="66"/>
+    </row>
+    <row r="28" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="67"/>
+      <c r="B28" s="62" t="s">
+        <v>69</v>
+      </c>
+      <c r="C28" s="63" t="s">
+        <v>94</v>
+      </c>
+      <c r="D28" s="28">
+        <v>22</v>
+      </c>
+      <c r="E28" s="28">
+        <v>23</v>
+      </c>
+      <c r="F28" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="G28" s="29">
+        <v>26</v>
+      </c>
+      <c r="H28" s="64"/>
+      <c r="I28" s="68"/>
+      <c r="J28" s="66"/>
+    </row>
+    <row r="29" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A29" s="65"/>
+      <c r="B29" s="65"/>
+      <c r="C29" s="65"/>
+      <c r="D29" s="65"/>
+      <c r="E29" s="65"/>
+      <c r="F29" s="65"/>
+      <c r="G29" s="65"/>
+      <c r="H29" s="65"/>
+      <c r="I29" s="65"/>
+      <c r="J29" s="65"/>
+    </row>
+    <row r="31" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A31" s="26"/>
+      <c r="C31" s="27"/>
+    </row>
+    <row r="32" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A32" s="26"/>
+    </row>
+    <row r="33" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+      <c r="A33" s="26"/>
+    </row>
+    <row r="35" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+      <c r="A35" s="26"/>
+      <c r="C35" s="27"/>
+    </row>
+    <row r="36" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+      <c r="A36" s="26"/>
+    </row>
+    <row r="37" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+      <c r="A37" s="26"/>
+    </row>
+    <row r="38" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+      <c r="A38" s="26"/>
+    </row>
+    <row r="40" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+      <c r="A40" s="26"/>
+    </row>
+    <row r="41" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+      <c r="A41" s="26"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="A8:A28"/>
+    <mergeCell ref="A7:I7"/>
+    <mergeCell ref="I8:J28"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup scale="68" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7B5DA73-718D-432E-BEC5-70BCFB6775D8}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B2:AF41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4525,7 +9973,7 @@
       </c>
     </row>
     <row r="6" spans="2:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="40" t="s">
         <v>33</v>
       </c>
       <c r="C6" s="9" t="s">
@@ -4543,15 +9991,18 @@
       <c r="G6" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="H6" s="51" t="s">
         <v>9</v>
       </c>
       <c r="I6" s="13" t="s">
         <v>10</v>
       </c>
       <c r="J6" s="9"/>
+      <c r="K6" s="42"/>
       <c r="L6" s="9"/>
-      <c r="N6" s="21"/>
+      <c r="M6" s="42"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="42"/>
       <c r="P6" s="9"/>
       <c r="Q6" s="9"/>
       <c r="R6" s="9"/>
@@ -4571,7 +10022,7 @@
       <c r="AF6" s="9"/>
     </row>
     <row r="7" spans="2:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="40" t="s">
         <v>34</v>
       </c>
       <c r="C7" s="9"/>
@@ -4590,15 +10041,13 @@
       <c r="H7" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="J7" s="17" t="s">
+      <c r="I7" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="K7" s="13" t="s">
-        <v>40</v>
-      </c>
+      <c r="K7" s="13"/>
       <c r="L7" s="9"/>
       <c r="M7" s="9"/>
       <c r="N7" s="9"/>
@@ -4622,8 +10071,8 @@
       <c r="AF7" s="9"/>
     </row>
     <row r="8" spans="2:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="11" t="s">
-        <v>35</v>
+      <c r="B8" s="40" t="s">
+        <v>37</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
@@ -4636,27 +10085,21 @@
       <c r="G8" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="J8" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="K8" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="L8" s="15" t="s">
+      <c r="H8" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="J8" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="M8" s="13" t="s">
+      <c r="K8" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="N8" s="13" t="s">
-        <v>120</v>
-      </c>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="9"/>
       <c r="O8" s="9"/>
       <c r="P8" s="9"/>
       <c r="Q8" s="9"/>
@@ -4677,42 +10120,36 @@
       <c r="AF8" s="9"/>
     </row>
     <row r="9" spans="2:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="11" t="s">
-        <v>36</v>
+      <c r="B9" s="40" t="s">
+        <v>100</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="13" t="s">
+      <c r="G9" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H9" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="I9" s="23" t="s">
-        <v>12</v>
+      <c r="H9" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>7</v>
       </c>
       <c r="J9" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="K9" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="L9" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="M9" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="N9" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="K9" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="L9" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="O9" s="9" t="s">
-        <v>43</v>
-      </c>
+      <c r="M9" s="13"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
       <c r="P9" s="9"/>
       <c r="Q9" s="9"/>
       <c r="R9" s="9"/>
@@ -4732,43 +10169,37 @@
       <c r="AF9" s="9"/>
     </row>
     <row r="10" spans="2:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="11" t="s">
-        <v>33</v>
+      <c r="B10" s="40" t="s">
+        <v>35</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="13"/>
-      <c r="G10" s="13" t="s">
+      <c r="G10" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="I10" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="J10" s="9" t="s">
+      <c r="H10" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="K10" s="9" t="s">
+      <c r="I10" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="L10" s="9" t="s">
+      <c r="J10" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="M10" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="N10" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="O10" s="13" t="s">
+      <c r="K10" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="L10" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="P10" s="13" t="s">
+      <c r="M10" s="13" t="s">
         <v>10</v>
       </c>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
       <c r="Q10" s="13"/>
       <c r="R10" s="9"/>
       <c r="S10" s="9"/>
@@ -4787,47 +10218,39 @@
       <c r="AF10" s="9"/>
     </row>
     <row r="11" spans="2:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="11" t="s">
-        <v>37</v>
+      <c r="B11" s="40" t="s">
+        <v>62</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
-      <c r="H11" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="I11" s="14" t="s">
-        <v>12</v>
+      <c r="H11" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="L11" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="M11" s="14" t="s">
-        <v>12</v>
+        <v>7</v>
+      </c>
+      <c r="L11" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="M11" s="9" t="s">
+        <v>9</v>
       </c>
       <c r="N11" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="O11" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="P11" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q11" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="R11" s="9" t="s">
-        <v>42</v>
-      </c>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9"/>
       <c r="S11" s="9"/>
       <c r="T11" s="9"/>
       <c r="U11" s="9"/>
@@ -4844,8 +10267,8 @@
       <c r="AF11" s="9"/>
     </row>
     <row r="12" spans="2:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="11" t="s">
-        <v>62</v>
+      <c r="B12" s="40" t="s">
+        <v>39</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
@@ -4853,41 +10276,33 @@
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
+      <c r="I12" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>5</v>
+      </c>
       <c r="K12" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="L12" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="M12" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="N12" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="O12" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="P12" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q12" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="R12" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="S12" s="15" t="s">
+      <c r="L12" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="M12" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="N12" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="T12" s="9" t="s">
+      <c r="O12" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="U12" s="13" t="s">
-        <v>119</v>
-      </c>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="9"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="9"/>
       <c r="V12" s="9"/>
       <c r="W12" s="9"/>
       <c r="X12" s="9"/>
@@ -4901,8 +10316,8 @@
       <c r="AF12" s="9"/>
     </row>
     <row r="13" spans="2:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="11" t="s">
-        <v>38</v>
+      <c r="B13" s="40" t="s">
+        <v>63</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
@@ -4911,41 +10326,33 @@
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
+      <c r="J13" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="K13" s="9" t="s">
+        <v>5</v>
+      </c>
       <c r="L13" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="M13" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="N13" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="O13" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="P13" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q13" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="R13" s="18" t="s">
+      <c r="M13" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="S13" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="T13" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="U13" s="15" t="s">
+      <c r="N13" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="O13" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="P13" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="V13" s="9" t="s">
-        <v>44</v>
-      </c>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9"/>
+      <c r="S13" s="9"/>
+      <c r="T13" s="9"/>
+      <c r="U13" s="9"/>
+      <c r="V13" s="9"/>
       <c r="W13" s="9"/>
       <c r="X13" s="9"/>
       <c r="Y13" s="9"/>
@@ -4958,8 +10365,8 @@
       <c r="AF13" s="9"/>
     </row>
     <row r="14" spans="2:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="11" t="s">
-        <v>37</v>
+      <c r="B14" s="40" t="s">
+        <v>64</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -4969,44 +10376,34 @@
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="N14" s="9" t="s">
+      <c r="K14" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="O14" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="P14" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q14" s="9" t="s">
+      <c r="L14" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="R14" s="9" t="s">
+      <c r="M14" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="S14" s="9" t="s">
+      <c r="N14" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="T14" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="U14" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="V14" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="W14" s="15" t="s">
+      <c r="O14" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="P14" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q14" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="X14" s="9" t="s">
-        <v>45</v>
-      </c>
+      <c r="R14" s="9"/>
+      <c r="S14" s="9"/>
+      <c r="T14" s="13"/>
+      <c r="U14" s="9"/>
+      <c r="V14" s="9"/>
+      <c r="W14" s="9"/>
+      <c r="X14" s="9"/>
       <c r="Y14" s="9"/>
       <c r="Z14" s="9"/>
       <c r="AA14" s="13"/>
@@ -5017,8 +10414,8 @@
       <c r="AF14" s="9"/>
     </row>
     <row r="15" spans="2:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="11" t="s">
-        <v>39</v>
+      <c r="B15" s="40" t="s">
+        <v>65</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
@@ -5029,48 +10426,36 @@
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="P15" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q15" s="9" t="s">
+      <c r="L15" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="R15" s="9" t="s">
+      <c r="M15" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="S15" s="9" t="s">
+      <c r="N15" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="T15" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="U15" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="V15" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="W15" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="X15" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="Y15" s="15" t="s">
+      <c r="O15" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="P15" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q15" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="Z15" s="9" t="s">
+      <c r="R15" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="AA15" s="13" t="s">
-        <v>118</v>
-      </c>
+      <c r="S15" s="9"/>
+      <c r="T15" s="13"/>
+      <c r="U15" s="9"/>
+      <c r="V15" s="9"/>
+      <c r="W15" s="9"/>
+      <c r="X15" s="9"/>
+      <c r="Y15" s="9"/>
+      <c r="Z15" s="9"/>
+      <c r="AA15" s="13"/>
       <c r="AB15" s="9"/>
       <c r="AC15" s="9"/>
       <c r="AD15" s="9"/>
@@ -5078,8 +10463,8 @@
       <c r="AF15" s="9"/>
     </row>
     <row r="16" spans="2:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="11" t="s">
-        <v>38</v>
+      <c r="B16" s="40" t="s">
+        <v>35</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
@@ -5091,41 +10476,35 @@
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="9"/>
-      <c r="Q16" s="9"/>
-      <c r="R16" s="9" t="s">
+      <c r="M16" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="S16" s="9" t="s">
+      <c r="N16" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="T16" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="U16" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="V16" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="W16" s="25" t="s">
+      <c r="O16" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="X16" s="18" t="s">
+      <c r="P16" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="Y16" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z16" s="9" t="s">
+      <c r="Q16" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="R16" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="AA16" s="13" t="s">
+      <c r="S16" s="13" t="s">
         <v>10</v>
       </c>
+      <c r="T16" s="13"/>
+      <c r="U16" s="9"/>
+      <c r="V16" s="9"/>
+      <c r="W16" s="9"/>
+      <c r="X16" s="9"/>
+      <c r="Y16" s="9"/>
+      <c r="Z16" s="9"/>
+      <c r="AA16" s="13"/>
       <c r="AB16" s="9"/>
       <c r="AC16" s="9"/>
       <c r="AD16" s="9"/>
@@ -5133,7 +10512,9 @@
       <c r="AF16" s="9"/>
     </row>
     <row r="17" spans="2:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="10"/>
+      <c r="B17" s="40" t="s">
+        <v>62</v>
+      </c>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
@@ -5145,13 +10526,27 @@
       <c r="K17" s="9"/>
       <c r="L17" s="9"/>
       <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="9"/>
-      <c r="Q17" s="9"/>
-      <c r="R17" s="9"/>
-      <c r="S17" s="9"/>
-      <c r="T17" s="9"/>
+      <c r="N17" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="O17" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="P17" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q17" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="R17" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="S17" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="T17" s="13" t="s">
+        <v>10</v>
+      </c>
       <c r="U17" s="9"/>
       <c r="V17" s="9"/>
       <c r="W17" s="9"/>
@@ -5166,7 +10561,9 @@
       <c r="AF17" s="9"/>
     </row>
     <row r="18" spans="2:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="10"/>
+      <c r="B18" s="40" t="s">
+        <v>66</v>
+      </c>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
@@ -5179,13 +10576,27 @@
       <c r="L18" s="9"/>
       <c r="M18" s="9"/>
       <c r="N18" s="9"/>
-      <c r="O18" s="9"/>
-      <c r="P18" s="9"/>
-      <c r="Q18" s="9"/>
-      <c r="R18" s="9"/>
-      <c r="S18" s="9"/>
-      <c r="T18" s="9"/>
-      <c r="U18" s="9"/>
+      <c r="O18" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="P18" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q18" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="R18" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="S18" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="T18" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="U18" s="13" t="s">
+        <v>10</v>
+      </c>
       <c r="V18" s="9"/>
       <c r="W18" s="9"/>
       <c r="X18" s="9"/>
@@ -5199,7 +10610,9 @@
       <c r="AF18" s="9"/>
     </row>
     <row r="19" spans="2:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="10"/>
+      <c r="B19" s="40" t="s">
+        <v>63</v>
+      </c>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
       <c r="E19" s="9"/>
@@ -5213,13 +10626,27 @@
       <c r="M19" s="9"/>
       <c r="N19" s="9"/>
       <c r="O19" s="9"/>
-      <c r="P19" s="9"/>
-      <c r="Q19" s="9"/>
-      <c r="R19" s="9"/>
-      <c r="S19" s="9"/>
-      <c r="T19" s="9"/>
-      <c r="U19" s="9"/>
-      <c r="V19" s="9"/>
+      <c r="P19" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q19" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="R19" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="S19" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="T19" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="U19" s="56" t="s">
+        <v>9</v>
+      </c>
+      <c r="V19" s="13" t="s">
+        <v>10</v>
+      </c>
       <c r="W19" s="9"/>
       <c r="X19" s="9"/>
       <c r="Y19" s="9"/>
@@ -5232,7 +10659,9 @@
       <c r="AF19" s="9"/>
     </row>
     <row r="20" spans="2:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="10"/>
+      <c r="B20" s="40" t="s">
+        <v>64</v>
+      </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
@@ -5247,13 +10676,27 @@
       <c r="N20" s="9"/>
       <c r="O20" s="9"/>
       <c r="P20" s="9"/>
-      <c r="Q20" s="9"/>
-      <c r="R20" s="9"/>
-      <c r="S20" s="9"/>
-      <c r="T20" s="9"/>
-      <c r="U20" s="9"/>
-      <c r="V20" s="9"/>
-      <c r="W20" s="9"/>
+      <c r="Q20" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="R20" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="S20" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="T20" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="U20" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="V20" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="W20" s="13" t="s">
+        <v>10</v>
+      </c>
       <c r="X20" s="9"/>
       <c r="Y20" s="9"/>
       <c r="Z20" s="9"/>
@@ -5265,7 +10708,9 @@
       <c r="AF20" s="9"/>
     </row>
     <row r="21" spans="2:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="12"/>
+      <c r="B21" s="40" t="s">
+        <v>68</v>
+      </c>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
@@ -5281,13 +10726,27 @@
       <c r="O21" s="9"/>
       <c r="P21" s="9"/>
       <c r="Q21" s="9"/>
-      <c r="R21" s="9"/>
-      <c r="S21" s="9"/>
-      <c r="T21" s="9"/>
-      <c r="U21" s="9"/>
-      <c r="V21" s="9"/>
-      <c r="W21" s="9"/>
-      <c r="X21" s="9"/>
+      <c r="R21" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="S21" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="T21" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="U21" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="V21" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="W21" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="X21" s="13" t="s">
+        <v>10</v>
+      </c>
       <c r="Y21" s="9"/>
       <c r="Z21" s="9"/>
       <c r="AA21" s="9"/>
@@ -5298,7 +10757,9 @@
       <c r="AF21" s="9"/>
     </row>
     <row r="22" spans="2:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="10"/>
+      <c r="B22" s="40" t="s">
+        <v>36</v>
+      </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
       <c r="E22" s="9"/>
@@ -5317,13 +10778,27 @@
       <c r="R22" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="S22" s="9"/>
-      <c r="T22" s="9"/>
-      <c r="U22" s="9"/>
-      <c r="V22" s="9"/>
-      <c r="W22" s="9"/>
-      <c r="X22" s="9"/>
-      <c r="Y22" s="9"/>
+      <c r="S22" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="T22" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="U22" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="V22" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="W22" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="X22" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y22" s="13" t="s">
+        <v>10</v>
+      </c>
       <c r="Z22" s="9"/>
       <c r="AA22" s="9"/>
       <c r="AB22" s="9"/>
@@ -5333,7 +10808,9 @@
       <c r="AF22" s="9"/>
     </row>
     <row r="23" spans="2:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="10"/>
+      <c r="B23" s="40" t="s">
+        <v>38</v>
+      </c>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
       <c r="E23" s="9"/>
@@ -5351,13 +10828,27 @@
       <c r="Q23" s="9"/>
       <c r="R23" s="9"/>
       <c r="S23" s="9"/>
-      <c r="T23" s="9"/>
-      <c r="U23" s="9"/>
-      <c r="V23" s="9"/>
-      <c r="W23" s="9"/>
-      <c r="X23" s="9"/>
-      <c r="Y23" s="9"/>
-      <c r="Z23" s="9"/>
+      <c r="T23" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="U23" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="V23" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="W23" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="X23" s="55" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y23" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z23" s="13" t="s">
+        <v>10</v>
+      </c>
       <c r="AA23" s="9"/>
       <c r="AB23" s="9"/>
       <c r="AC23" s="9"/>
@@ -5366,7 +10857,9 @@
       <c r="AF23" s="9"/>
     </row>
     <row r="24" spans="2:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="10"/>
+      <c r="B24" s="40" t="s">
+        <v>67</v>
+      </c>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
       <c r="E24" s="9"/>
@@ -5385,13 +10878,27 @@
       <c r="R24" s="9"/>
       <c r="S24" s="9"/>
       <c r="T24" s="9"/>
-      <c r="U24" s="9"/>
-      <c r="V24" s="9"/>
-      <c r="W24" s="9"/>
-      <c r="X24" s="9"/>
-      <c r="Y24" s="9"/>
-      <c r="Z24" s="9"/>
-      <c r="AA24" s="9"/>
+      <c r="U24" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="V24" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="W24" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="X24" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y24" s="56" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z24" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA24" s="13" t="s">
+        <v>10</v>
+      </c>
       <c r="AB24" s="9"/>
       <c r="AC24" s="9"/>
       <c r="AD24" s="9"/>
@@ -5399,7 +10906,9 @@
       <c r="AF24" s="9"/>
     </row>
     <row r="25" spans="2:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="10"/>
+      <c r="B25" s="40" t="s">
+        <v>69</v>
+      </c>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
       <c r="E25" s="9"/>
@@ -5419,13 +10928,27 @@
       <c r="S25" s="9"/>
       <c r="T25" s="9"/>
       <c r="U25" s="9"/>
-      <c r="V25" s="9"/>
-      <c r="W25" s="9"/>
-      <c r="X25" s="9"/>
-      <c r="Y25" s="9"/>
-      <c r="Z25" s="9"/>
-      <c r="AA25" s="9"/>
-      <c r="AB25" s="9"/>
+      <c r="V25" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="W25" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="X25" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y25" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z25" s="57" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA25" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB25" s="13" t="s">
+        <v>10</v>
+      </c>
       <c r="AC25" s="9"/>
       <c r="AD25" s="9"/>
       <c r="AE25" s="9"/>
@@ -5480,19 +11003,129 @@
     </row>
     <row r="27" spans="2:32" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="28" spans="2:32" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="2:32" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="2:32" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="2:32" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="2:32" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="2:32" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="D29" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="E29" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="F29" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="G29" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="H29" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="I29" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="O29" s="40" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="2:32" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="D30" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="E30" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="F30" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="G30" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="H30" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="I30" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="J30" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="K30" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="L30" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="O30" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="R30" s="40" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="31" spans="2:32" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="O31" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="R31" s="40" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="32" spans="2:32" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="O32" s="40" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="O33" s="40" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="O34" s="40" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="O35" s="40" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="36" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="O36" s="40" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="60" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -5500,633 +11133,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE8F676F-49DF-48A1-9A2A-A9219EC105D3}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A2:K41"/>
-  <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="6.75" style="27" customWidth="1"/>
-    <col min="2" max="2" width="19.625" style="27" customWidth="1"/>
-    <col min="3" max="7" width="10.125" style="27" customWidth="1"/>
-    <col min="8" max="8" width="23.5" style="27" customWidth="1"/>
-    <col min="9" max="11" width="8.125" style="27" customWidth="1"/>
-    <col min="12" max="63" width="12.125" style="27" customWidth="1"/>
-    <col min="64" max="16384" width="11" style="27"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:11" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="38" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="38"/>
-    </row>
-    <row r="4" spans="1:11" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="38"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-    </row>
-    <row r="5" spans="1:11" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="38"/>
-      <c r="B5" s="37" t="s">
-        <v>59</v>
-      </c>
-      <c r="C5" s="37"/>
-    </row>
-    <row r="7" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="65" t="s">
-        <v>113</v>
-      </c>
-      <c r="C8" s="51" t="s">
-        <v>58</v>
-      </c>
-      <c r="D8" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="E8" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="F8" s="35" t="s">
-        <v>55</v>
-      </c>
-      <c r="G8" s="49" t="s">
-        <v>54</v>
-      </c>
-      <c r="H8" s="35" t="s">
-        <v>87</v>
-      </c>
-      <c r="I8" s="39"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="40"/>
-    </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="64" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="52" t="s">
-        <v>52</v>
-      </c>
-      <c r="D9" s="48">
-        <v>3</v>
-      </c>
-      <c r="E9" s="48">
-        <v>4</v>
-      </c>
-      <c r="F9" s="48" t="s">
-        <v>70</v>
-      </c>
-      <c r="G9" s="50">
-        <v>7</v>
-      </c>
-      <c r="H9" s="62" t="s">
-        <v>71</v>
-      </c>
-      <c r="I9" s="39"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
-    </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="53" t="s">
-        <v>88</v>
-      </c>
-      <c r="D10" s="33">
-        <v>4</v>
-      </c>
-      <c r="E10" s="33">
-        <v>5</v>
-      </c>
-      <c r="F10" s="33" t="s">
-        <v>89</v>
-      </c>
-      <c r="G10" s="34">
-        <v>8</v>
-      </c>
-      <c r="H10" s="63" t="s">
-        <v>72</v>
-      </c>
-      <c r="I10" s="41"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="40"/>
-    </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="54" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="53" t="s">
-        <v>90</v>
-      </c>
-      <c r="D11" s="33">
-        <v>5</v>
-      </c>
-      <c r="E11" s="33">
-        <v>6</v>
-      </c>
-      <c r="F11" s="33" t="s">
-        <v>91</v>
-      </c>
-      <c r="G11" s="34">
-        <v>9</v>
-      </c>
-      <c r="H11" s="63" t="s">
-        <v>73</v>
-      </c>
-      <c r="I11" s="54"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="40"/>
-    </row>
-    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="54" t="s">
-        <v>61</v>
-      </c>
-      <c r="C12" s="53" t="s">
-        <v>92</v>
-      </c>
-      <c r="D12" s="33">
-        <v>6</v>
-      </c>
-      <c r="E12" s="33">
-        <v>7</v>
-      </c>
-      <c r="F12" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="G12" s="34">
-        <v>10</v>
-      </c>
-      <c r="H12" s="63" t="s">
-        <v>74</v>
-      </c>
-      <c r="I12" s="54"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="40"/>
-    </row>
-    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="54" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="D13" s="33">
-        <v>7</v>
-      </c>
-      <c r="E13" s="33">
-        <v>8</v>
-      </c>
-      <c r="F13" s="33" t="s">
-        <v>94</v>
-      </c>
-      <c r="G13" s="34">
-        <v>11</v>
-      </c>
-      <c r="H13" s="63" t="s">
-        <v>75</v>
-      </c>
-      <c r="I13" s="40"/>
-      <c r="J13" s="40"/>
-      <c r="K13" s="40"/>
-    </row>
-    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="54" t="s">
-        <v>62</v>
-      </c>
-      <c r="C14" s="53" t="s">
-        <v>89</v>
-      </c>
-      <c r="D14" s="33">
-        <v>8</v>
-      </c>
-      <c r="E14" s="33">
-        <v>9</v>
-      </c>
-      <c r="F14" s="33" t="s">
-        <v>98</v>
-      </c>
-      <c r="G14" s="34">
-        <v>12</v>
-      </c>
-      <c r="H14" s="63" t="s">
-        <v>76</v>
-      </c>
-      <c r="I14" s="42"/>
-      <c r="J14" s="42"/>
-      <c r="K14" s="42"/>
-    </row>
-    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="54" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="53" t="s">
-        <v>91</v>
-      </c>
-      <c r="D15" s="33">
-        <v>9</v>
-      </c>
-      <c r="E15" s="33">
-        <v>10</v>
-      </c>
-      <c r="F15" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="G15" s="34">
-        <v>13</v>
-      </c>
-      <c r="H15" s="63" t="s">
-        <v>77</v>
-      </c>
-      <c r="I15" s="41"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="40"/>
-    </row>
-    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="54" t="s">
-        <v>63</v>
-      </c>
-      <c r="C16" s="53" t="s">
-        <v>93</v>
-      </c>
-      <c r="D16" s="33">
-        <v>10</v>
-      </c>
-      <c r="E16" s="33">
-        <v>11</v>
-      </c>
-      <c r="F16" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="G16" s="34">
-        <v>14</v>
-      </c>
-      <c r="H16" s="63" t="s">
-        <v>78</v>
-      </c>
-      <c r="I16" s="41"/>
-      <c r="J16" s="40"/>
-      <c r="K16" s="40"/>
-    </row>
-    <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="54" t="s">
-        <v>64</v>
-      </c>
-      <c r="C17" s="53" t="s">
-        <v>94</v>
-      </c>
-      <c r="D17" s="33">
-        <v>11</v>
-      </c>
-      <c r="E17" s="33">
-        <v>12</v>
-      </c>
-      <c r="F17" s="33" t="s">
-        <v>101</v>
-      </c>
-      <c r="G17" s="34">
-        <v>15</v>
-      </c>
-      <c r="H17" s="63" t="s">
-        <v>79</v>
-      </c>
-      <c r="I17" s="41"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="40"/>
-    </row>
-    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="54" t="s">
-        <v>65</v>
-      </c>
-      <c r="C18" s="53" t="s">
-        <v>98</v>
-      </c>
-      <c r="D18" s="33">
-        <v>12</v>
-      </c>
-      <c r="E18" s="33">
-        <v>13</v>
-      </c>
-      <c r="F18" s="33" t="s">
-        <v>102</v>
-      </c>
-      <c r="G18" s="34">
-        <v>16</v>
-      </c>
-      <c r="H18" s="63" t="s">
-        <v>80</v>
-      </c>
-      <c r="I18" s="41"/>
-      <c r="J18" s="40"/>
-      <c r="K18" s="40"/>
-    </row>
-    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="54" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" s="53" t="s">
-        <v>99</v>
-      </c>
-      <c r="D19" s="33">
-        <v>13</v>
-      </c>
-      <c r="E19" s="33">
-        <v>14</v>
-      </c>
-      <c r="F19" s="33" t="s">
-        <v>103</v>
-      </c>
-      <c r="G19" s="34">
-        <v>17</v>
-      </c>
-      <c r="H19" s="63" t="s">
-        <v>75</v>
-      </c>
-      <c r="I19" s="41"/>
-      <c r="J19" s="40"/>
-      <c r="K19" s="40"/>
-    </row>
-    <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="54" t="s">
-        <v>62</v>
-      </c>
-      <c r="C20" s="53" t="s">
-        <v>100</v>
-      </c>
-      <c r="D20" s="33">
-        <v>14</v>
-      </c>
-      <c r="E20" s="33">
-        <v>15</v>
-      </c>
-      <c r="F20" s="33" t="s">
-        <v>104</v>
-      </c>
-      <c r="G20" s="34">
-        <v>18</v>
-      </c>
-      <c r="H20" s="63" t="s">
-        <v>76</v>
-      </c>
-      <c r="I20" s="41"/>
-      <c r="J20" s="40"/>
-      <c r="K20" s="40"/>
-    </row>
-    <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="54" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" s="53" t="s">
-        <v>101</v>
-      </c>
-      <c r="D21" s="33">
-        <v>15</v>
-      </c>
-      <c r="E21" s="33">
-        <v>16</v>
-      </c>
-      <c r="F21" s="33" t="s">
-        <v>105</v>
-      </c>
-      <c r="G21" s="34">
-        <v>19</v>
-      </c>
-      <c r="H21" s="63" t="s">
-        <v>81</v>
-      </c>
-      <c r="I21" s="32"/>
-    </row>
-    <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="54" t="s">
-        <v>66</v>
-      </c>
-      <c r="C22" s="53" t="s">
-        <v>103</v>
-      </c>
-      <c r="D22" s="33">
-        <v>16</v>
-      </c>
-      <c r="E22" s="33">
-        <v>17</v>
-      </c>
-      <c r="F22" s="33" t="s">
-        <v>106</v>
-      </c>
-      <c r="G22" s="34">
-        <v>20</v>
-      </c>
-      <c r="H22" s="63" t="s">
-        <v>82</v>
-      </c>
-      <c r="I22" s="31"/>
-    </row>
-    <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="54" t="s">
-        <v>63</v>
-      </c>
-      <c r="C23" s="53" t="s">
-        <v>105</v>
-      </c>
-      <c r="D23" s="33">
-        <v>17</v>
-      </c>
-      <c r="E23" s="33">
-        <v>18</v>
-      </c>
-      <c r="F23" s="33" t="s">
-        <v>107</v>
-      </c>
-      <c r="G23" s="34">
-        <v>21</v>
-      </c>
-      <c r="H23" s="63" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="54" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" s="53" t="s">
-        <v>106</v>
-      </c>
-      <c r="D24" s="33">
-        <v>18</v>
-      </c>
-      <c r="E24" s="33">
-        <v>19</v>
-      </c>
-      <c r="F24" s="33" t="s">
-        <v>108</v>
-      </c>
-      <c r="G24" s="34">
-        <v>22</v>
-      </c>
-      <c r="H24" s="63" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="54" t="s">
-        <v>64</v>
-      </c>
-      <c r="C25" s="53" t="s">
-        <v>107</v>
-      </c>
-      <c r="D25" s="33">
-        <v>19</v>
-      </c>
-      <c r="E25" s="33">
-        <v>20</v>
-      </c>
-      <c r="F25" s="33" t="s">
-        <v>109</v>
-      </c>
-      <c r="G25" s="34">
-        <v>23</v>
-      </c>
-      <c r="H25" s="63" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="C26" s="53" t="s">
-        <v>108</v>
-      </c>
-      <c r="D26" s="33">
-        <v>20</v>
-      </c>
-      <c r="E26" s="33">
-        <v>21</v>
-      </c>
-      <c r="F26" s="33" t="s">
-        <v>110</v>
-      </c>
-      <c r="G26" s="34">
-        <v>24</v>
-      </c>
-      <c r="H26" s="63" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="54" t="s">
-        <v>68</v>
-      </c>
-      <c r="C27" s="53" t="s">
-        <v>109</v>
-      </c>
-      <c r="D27" s="33">
-        <v>21</v>
-      </c>
-      <c r="E27" s="33">
-        <v>22</v>
-      </c>
-      <c r="F27" s="33" t="s">
-        <v>111</v>
-      </c>
-      <c r="G27" s="34">
-        <v>25</v>
-      </c>
-      <c r="H27" s="63" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="54" t="s">
-        <v>69</v>
-      </c>
-      <c r="C28" s="53" t="s">
-        <v>110</v>
-      </c>
-      <c r="D28" s="33">
-        <v>22</v>
-      </c>
-      <c r="E28" s="33">
-        <v>23</v>
-      </c>
-      <c r="F28" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="G28" s="34">
-        <v>26</v>
-      </c>
-      <c r="H28" s="63" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A29" s="30"/>
-      <c r="B29" s="30"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="30"/>
-      <c r="H29" s="30"/>
-      <c r="I29" s="30"/>
-      <c r="J29" s="30"/>
-    </row>
-    <row r="31" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A31" s="28"/>
-      <c r="C31" s="29"/>
-    </row>
-    <row r="32" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A32" s="28"/>
-    </row>
-    <row r="33" spans="1:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="A33" s="28"/>
-    </row>
-    <row r="35" spans="1:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="A35" s="28"/>
-      <c r="C35" s="29"/>
-    </row>
-    <row r="36" spans="1:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="A36" s="28"/>
-    </row>
-    <row r="37" spans="1:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="A37" s="28"/>
-    </row>
-    <row r="38" spans="1:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="A38" s="28"/>
-    </row>
-    <row r="40" spans="1:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="A40" s="28"/>
-    </row>
-    <row r="41" spans="1:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="A41" s="28"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A29:J29"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup scale="68" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7B5DA73-718D-432E-BEC5-70BCFB6775D8}">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E52587BC-7ABB-4B86-9CA1-A4BC0005AC99}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B2:AF41"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N29" sqref="N29"/>
+    <sheetView topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6318,16 +11333,16 @@
       </c>
     </row>
     <row r="6" spans="2:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="13" t="s">
         <v>6</v>
       </c>
       <c r="F6" s="13" t="s">
@@ -6336,30 +11351,30 @@
       <c r="G6" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="55" t="s">
+      <c r="H6" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="13" t="s">
+      <c r="I6" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="J6" s="9"/>
-      <c r="K6" s="46"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="46"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="46"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="9"/>
-      <c r="S6" s="9"/>
-      <c r="T6" s="9"/>
-      <c r="U6" s="9"/>
-      <c r="V6" s="9"/>
-      <c r="W6" s="9"/>
-      <c r="X6" s="9"/>
-      <c r="Y6" s="9"/>
-      <c r="Z6" s="9"/>
-      <c r="AA6" s="9"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="69"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="69"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="69"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="13"/>
+      <c r="T6" s="13"/>
+      <c r="U6" s="13"/>
+      <c r="V6" s="13"/>
+      <c r="W6" s="13"/>
+      <c r="X6" s="13"/>
+      <c r="Y6" s="13"/>
+      <c r="Z6" s="13"/>
+      <c r="AA6" s="13"/>
       <c r="AB6" s="9"/>
       <c r="AC6" s="9"/>
       <c r="AD6" s="9"/>
@@ -6367,17 +11382,17 @@
       <c r="AF6" s="9"/>
     </row>
     <row r="7" spans="2:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="44" t="s">
+      <c r="B7" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9" t="s">
+      <c r="C7" s="13"/>
+      <c r="D7" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="13" t="s">
         <v>6</v>
       </c>
       <c r="G7" s="13" t="s">
@@ -6386,29 +11401,29 @@
       <c r="H7" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="55" t="s">
-        <v>9</v>
-      </c>
-      <c r="J7" s="13" t="s">
+      <c r="I7" s="72" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="17" t="s">
         <v>10</v>
       </c>
       <c r="K7" s="13"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="9"/>
-      <c r="S7" s="9"/>
-      <c r="T7" s="9"/>
-      <c r="U7" s="9"/>
-      <c r="V7" s="9"/>
-      <c r="W7" s="9"/>
-      <c r="X7" s="9"/>
-      <c r="Y7" s="9"/>
-      <c r="Z7" s="9"/>
-      <c r="AA7" s="9"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="13"/>
+      <c r="T7" s="13"/>
+      <c r="U7" s="13"/>
+      <c r="V7" s="13"/>
+      <c r="W7" s="13"/>
+      <c r="X7" s="13"/>
+      <c r="Y7" s="13"/>
+      <c r="Z7" s="13"/>
+      <c r="AA7" s="13"/>
       <c r="AB7" s="9"/>
       <c r="AC7" s="9"/>
       <c r="AD7" s="9"/>
@@ -6416,27 +11431,27 @@
       <c r="AF7" s="9"/>
     </row>
     <row r="8" spans="2:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="44" t="s">
+      <c r="B8" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9" t="s">
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G8" s="13" t="s">
         <v>6</v>
       </c>
       <c r="H8" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="I8" s="13" t="s">
+      <c r="I8" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="J8" s="56" t="s">
+      <c r="J8" s="17" t="s">
         <v>9</v>
       </c>
       <c r="K8" s="13" t="s">
@@ -6444,20 +11459,20 @@
       </c>
       <c r="L8" s="13"/>
       <c r="M8" s="13"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="9"/>
-      <c r="Q8" s="9"/>
-      <c r="R8" s="9"/>
-      <c r="S8" s="9"/>
-      <c r="T8" s="9"/>
-      <c r="U8" s="9"/>
-      <c r="V8" s="9"/>
-      <c r="W8" s="9"/>
-      <c r="X8" s="9"/>
-      <c r="Y8" s="9"/>
-      <c r="Z8" s="9"/>
-      <c r="AA8" s="9"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="13"/>
+      <c r="T8" s="13"/>
+      <c r="U8" s="13"/>
+      <c r="V8" s="13"/>
+      <c r="W8" s="13"/>
+      <c r="X8" s="13"/>
+      <c r="Y8" s="13"/>
+      <c r="Z8" s="13"/>
+      <c r="AA8" s="13"/>
       <c r="AB8" s="9"/>
       <c r="AC8" s="9"/>
       <c r="AD8" s="9"/>
@@ -6465,48 +11480,48 @@
       <c r="AF8" s="9"/>
     </row>
     <row r="9" spans="2:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="44" t="s">
-        <v>116</v>
-      </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9" t="s">
+      <c r="B9" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="H9" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="I9" s="13" t="s">
+      <c r="I9" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="J9" s="13" t="s">
+      <c r="J9" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="K9" s="56" t="s">
+      <c r="K9" s="13" t="s">
         <v>9</v>
       </c>
       <c r="L9" s="13" t="s">
         <v>10</v>
       </c>
       <c r="M9" s="13"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="9"/>
-      <c r="S9" s="9"/>
-      <c r="T9" s="9"/>
-      <c r="U9" s="9"/>
-      <c r="V9" s="9"/>
-      <c r="W9" s="9"/>
-      <c r="X9" s="9"/>
-      <c r="Y9" s="9"/>
-      <c r="Z9" s="9"/>
-      <c r="AA9" s="9"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="13"/>
+      <c r="S9" s="13"/>
+      <c r="T9" s="13"/>
+      <c r="U9" s="13"/>
+      <c r="V9" s="13"/>
+      <c r="W9" s="13"/>
+      <c r="X9" s="13"/>
+      <c r="Y9" s="13"/>
+      <c r="Z9" s="13"/>
+      <c r="AA9" s="13"/>
       <c r="AB9" s="9"/>
       <c r="AC9" s="9"/>
       <c r="AD9" s="9"/>
@@ -6514,26 +11529,26 @@
       <c r="AF9" s="9"/>
     </row>
     <row r="10" spans="2:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
       <c r="F10" s="13"/>
-      <c r="G10" s="9" t="s">
+      <c r="G10" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="9" t="s">
+      <c r="H10" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="I10" s="9" t="s">
+      <c r="I10" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="J10" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="K10" s="55" t="s">
+      <c r="J10" s="71" t="s">
+        <v>14</v>
+      </c>
+      <c r="K10" s="13" t="s">
         <v>8</v>
       </c>
       <c r="L10" s="13" t="s">
@@ -6546,16 +11561,16 @@
       <c r="O10" s="13"/>
       <c r="P10" s="13"/>
       <c r="Q10" s="13"/>
-      <c r="R10" s="9"/>
-      <c r="S10" s="9"/>
-      <c r="T10" s="9"/>
-      <c r="U10" s="9"/>
-      <c r="V10" s="9"/>
-      <c r="W10" s="9"/>
-      <c r="X10" s="9"/>
-      <c r="Y10" s="9"/>
-      <c r="Z10" s="9"/>
-      <c r="AA10" s="9"/>
+      <c r="R10" s="13"/>
+      <c r="S10" s="13"/>
+      <c r="T10" s="13"/>
+      <c r="U10" s="13"/>
+      <c r="V10" s="13"/>
+      <c r="W10" s="13"/>
+      <c r="X10" s="13"/>
+      <c r="Y10" s="13"/>
+      <c r="Z10" s="13"/>
+      <c r="AA10" s="13"/>
       <c r="AB10" s="9"/>
       <c r="AC10" s="9"/>
       <c r="AD10" s="9"/>
@@ -6563,48 +11578,48 @@
       <c r="AF10" s="9"/>
     </row>
     <row r="11" spans="2:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="44" t="s">
+      <c r="B11" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9" t="s">
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="I11" s="9" t="s">
+      <c r="I11" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="J11" s="9" t="s">
+      <c r="J11" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="K11" s="9" t="s">
+      <c r="K11" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="L11" s="56" t="s">
+      <c r="L11" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="M11" s="9" t="s">
+      <c r="M11" s="13" t="s">
         <v>9</v>
       </c>
       <c r="N11" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="O11" s="9"/>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="9"/>
-      <c r="R11" s="9"/>
-      <c r="S11" s="9"/>
-      <c r="T11" s="9"/>
-      <c r="U11" s="9"/>
-      <c r="V11" s="9"/>
-      <c r="W11" s="9"/>
-      <c r="X11" s="9"/>
-      <c r="Y11" s="9"/>
-      <c r="Z11" s="9"/>
-      <c r="AA11" s="9"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="13"/>
+      <c r="U11" s="13"/>
+      <c r="V11" s="13"/>
+      <c r="W11" s="13"/>
+      <c r="X11" s="13"/>
+      <c r="Y11" s="13"/>
+      <c r="Z11" s="13"/>
+      <c r="AA11" s="13"/>
       <c r="AB11" s="9"/>
       <c r="AC11" s="9"/>
       <c r="AD11" s="9"/>
@@ -6612,22 +11627,22 @@
       <c r="AF11" s="9"/>
     </row>
     <row r="12" spans="2:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="44" t="s">
+      <c r="B12" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9" t="s">
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="J12" s="9" t="s">
+      <c r="J12" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="K12" s="9" t="s">
+      <c r="K12" s="13" t="s">
         <v>6</v>
       </c>
       <c r="L12" s="13" t="s">
@@ -6642,18 +11657,18 @@
       <c r="O12" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="P12" s="9"/>
+      <c r="P12" s="13"/>
       <c r="Q12" s="13"/>
-      <c r="R12" s="9"/>
-      <c r="S12" s="9"/>
-      <c r="T12" s="9"/>
-      <c r="U12" s="9"/>
-      <c r="V12" s="9"/>
-      <c r="W12" s="9"/>
-      <c r="X12" s="9"/>
-      <c r="Y12" s="9"/>
-      <c r="Z12" s="9"/>
-      <c r="AA12" s="9"/>
+      <c r="R12" s="13"/>
+      <c r="S12" s="13"/>
+      <c r="T12" s="13"/>
+      <c r="U12" s="13"/>
+      <c r="V12" s="13"/>
+      <c r="W12" s="13"/>
+      <c r="X12" s="13"/>
+      <c r="Y12" s="13"/>
+      <c r="Z12" s="13"/>
+      <c r="AA12" s="13"/>
       <c r="AB12" s="9"/>
       <c r="AC12" s="9"/>
       <c r="AD12" s="9"/>
@@ -6661,29 +11676,29 @@
       <c r="AF12" s="9"/>
     </row>
     <row r="13" spans="2:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="44" t="s">
+      <c r="B13" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9" t="s">
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="K13" s="9" t="s">
+      <c r="K13" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="L13" s="9" t="s">
+      <c r="L13" s="13" t="s">
         <v>6</v>
       </c>
       <c r="M13" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="N13" s="57" t="s">
+      <c r="N13" s="13" t="s">
         <v>8</v>
       </c>
       <c r="O13" s="13" t="s">
@@ -6692,16 +11707,16 @@
       <c r="P13" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="Q13" s="9"/>
-      <c r="R13" s="9"/>
-      <c r="S13" s="9"/>
-      <c r="T13" s="9"/>
-      <c r="U13" s="9"/>
-      <c r="V13" s="9"/>
-      <c r="W13" s="9"/>
-      <c r="X13" s="9"/>
-      <c r="Y13" s="9"/>
-      <c r="Z13" s="9"/>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="13"/>
+      <c r="S13" s="13"/>
+      <c r="T13" s="13"/>
+      <c r="U13" s="13"/>
+      <c r="V13" s="13"/>
+      <c r="W13" s="13"/>
+      <c r="X13" s="13"/>
+      <c r="Y13" s="13"/>
+      <c r="Z13" s="13"/>
       <c r="AA13" s="13"/>
       <c r="AB13" s="9"/>
       <c r="AC13" s="9"/>
@@ -6710,24 +11725,24 @@
       <c r="AF13" s="9"/>
     </row>
     <row r="14" spans="2:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="44" t="s">
+      <c r="B14" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9" t="s">
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="L14" s="9" t="s">
+      <c r="L14" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="M14" s="9" t="s">
+      <c r="M14" s="13" t="s">
         <v>6</v>
       </c>
       <c r="N14" s="13" t="s">
@@ -6742,15 +11757,15 @@
       <c r="Q14" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="R14" s="9"/>
-      <c r="S14" s="9"/>
+      <c r="R14" s="13"/>
+      <c r="S14" s="13"/>
       <c r="T14" s="13"/>
-      <c r="U14" s="9"/>
-      <c r="V14" s="9"/>
-      <c r="W14" s="9"/>
-      <c r="X14" s="9"/>
-      <c r="Y14" s="9"/>
-      <c r="Z14" s="9"/>
+      <c r="U14" s="13"/>
+      <c r="V14" s="13"/>
+      <c r="W14" s="13"/>
+      <c r="X14" s="13"/>
+      <c r="Y14" s="13"/>
+      <c r="Z14" s="13"/>
       <c r="AA14" s="13"/>
       <c r="AB14" s="9"/>
       <c r="AC14" s="9"/>
@@ -6759,25 +11774,25 @@
       <c r="AF14" s="9"/>
     </row>
     <row r="15" spans="2:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="44" t="s">
+      <c r="B15" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9" t="s">
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="M15" s="9" t="s">
+      <c r="M15" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="N15" s="9" t="s">
+      <c r="N15" s="13" t="s">
         <v>6</v>
       </c>
       <c r="O15" s="13" t="s">
@@ -6792,14 +11807,14 @@
       <c r="R15" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="S15" s="9"/>
+      <c r="S15" s="13"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="9"/>
-      <c r="V15" s="9"/>
-      <c r="W15" s="9"/>
-      <c r="X15" s="9"/>
-      <c r="Y15" s="9"/>
-      <c r="Z15" s="9"/>
+      <c r="U15" s="13"/>
+      <c r="V15" s="13"/>
+      <c r="W15" s="13"/>
+      <c r="X15" s="13"/>
+      <c r="Y15" s="13"/>
+      <c r="Z15" s="13"/>
       <c r="AA15" s="13"/>
       <c r="AB15" s="9"/>
       <c r="AC15" s="9"/>
@@ -6808,26 +11823,26 @@
       <c r="AF15" s="9"/>
     </row>
     <row r="16" spans="2:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="44" t="s">
+      <c r="B16" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9" t="s">
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="N16" s="9" t="s">
+      <c r="N16" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="O16" s="9" t="s">
+      <c r="O16" s="13" t="s">
         <v>6</v>
       </c>
       <c r="P16" s="13" t="s">
@@ -6836,19 +11851,19 @@
       <c r="Q16" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="R16" s="58" t="s">
+      <c r="R16" s="13" t="s">
         <v>9</v>
       </c>
       <c r="S16" s="13" t="s">
         <v>10</v>
       </c>
       <c r="T16" s="13"/>
-      <c r="U16" s="9"/>
-      <c r="V16" s="9"/>
-      <c r="W16" s="9"/>
-      <c r="X16" s="9"/>
-      <c r="Y16" s="9"/>
-      <c r="Z16" s="9"/>
+      <c r="U16" s="13"/>
+      <c r="V16" s="13"/>
+      <c r="W16" s="13"/>
+      <c r="X16" s="13"/>
+      <c r="Y16" s="13"/>
+      <c r="Z16" s="13"/>
       <c r="AA16" s="13"/>
       <c r="AB16" s="9"/>
       <c r="AC16" s="9"/>
@@ -6857,27 +11872,27 @@
       <c r="AF16" s="9"/>
     </row>
     <row r="17" spans="2:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="44" t="s">
+      <c r="B17" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9" t="s">
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="O17" s="9" t="s">
+      <c r="O17" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="P17" s="9" t="s">
+      <c r="P17" s="13" t="s">
         <v>6</v>
       </c>
       <c r="Q17" s="13" t="s">
@@ -6892,13 +11907,13 @@
       <c r="T17" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="U17" s="9"/>
-      <c r="V17" s="9"/>
-      <c r="W17" s="9"/>
-      <c r="X17" s="9"/>
-      <c r="Y17" s="9"/>
-      <c r="Z17" s="9"/>
-      <c r="AA17" s="9"/>
+      <c r="U17" s="13"/>
+      <c r="V17" s="13"/>
+      <c r="W17" s="13"/>
+      <c r="X17" s="13"/>
+      <c r="Y17" s="13"/>
+      <c r="Z17" s="13"/>
+      <c r="AA17" s="13"/>
       <c r="AB17" s="9"/>
       <c r="AC17" s="9"/>
       <c r="AD17" s="9"/>
@@ -6906,28 +11921,28 @@
       <c r="AF17" s="9"/>
     </row>
     <row r="18" spans="2:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="44" t="s">
+      <c r="B18" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="9" t="s">
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="P18" s="9" t="s">
+      <c r="P18" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="Q18" s="9" t="s">
+      <c r="Q18" s="13" t="s">
         <v>6</v>
       </c>
       <c r="R18" s="13" t="s">
@@ -6936,18 +11951,18 @@
       <c r="S18" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="T18" s="59" t="s">
+      <c r="T18" s="13" t="s">
         <v>9</v>
       </c>
       <c r="U18" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="V18" s="9"/>
-      <c r="W18" s="9"/>
-      <c r="X18" s="9"/>
-      <c r="Y18" s="9"/>
-      <c r="Z18" s="9"/>
-      <c r="AA18" s="9"/>
+      <c r="V18" s="13"/>
+      <c r="W18" s="13"/>
+      <c r="X18" s="13"/>
+      <c r="Y18" s="13"/>
+      <c r="Z18" s="13"/>
+      <c r="AA18" s="13"/>
       <c r="AB18" s="9"/>
       <c r="AC18" s="9"/>
       <c r="AD18" s="9"/>
@@ -6955,29 +11970,29 @@
       <c r="AF18" s="9"/>
     </row>
     <row r="19" spans="2:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="44" t="s">
+      <c r="B19" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="9"/>
-      <c r="P19" s="9" t="s">
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="Q19" s="9" t="s">
+      <c r="Q19" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="R19" s="9" t="s">
+      <c r="R19" s="13" t="s">
         <v>6</v>
       </c>
       <c r="S19" s="13" t="s">
@@ -6986,17 +12001,17 @@
       <c r="T19" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="U19" s="60" t="s">
+      <c r="U19" s="13" t="s">
         <v>9</v>
       </c>
       <c r="V19" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="W19" s="9"/>
-      <c r="X19" s="9"/>
-      <c r="Y19" s="9"/>
-      <c r="Z19" s="9"/>
-      <c r="AA19" s="9"/>
+      <c r="W19" s="13"/>
+      <c r="X19" s="13"/>
+      <c r="Y19" s="13"/>
+      <c r="Z19" s="13"/>
+      <c r="AA19" s="13"/>
       <c r="AB19" s="9"/>
       <c r="AC19" s="9"/>
       <c r="AD19" s="9"/>
@@ -7004,30 +12019,30 @@
       <c r="AF19" s="9"/>
     </row>
     <row r="20" spans="2:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="44" t="s">
+      <c r="B20" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="9"/>
-      <c r="O20" s="9"/>
-      <c r="P20" s="9"/>
-      <c r="Q20" s="9" t="s">
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="13"/>
+      <c r="P20" s="13"/>
+      <c r="Q20" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="R20" s="9" t="s">
+      <c r="R20" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="S20" s="9" t="s">
+      <c r="S20" s="13" t="s">
         <v>6</v>
       </c>
       <c r="T20" s="13" t="s">
@@ -7036,16 +12051,16 @@
       <c r="U20" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="V20" s="61" t="s">
+      <c r="V20" s="13" t="s">
         <v>9</v>
       </c>
       <c r="W20" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="X20" s="9"/>
-      <c r="Y20" s="9"/>
-      <c r="Z20" s="9"/>
-      <c r="AA20" s="9"/>
+      <c r="X20" s="13"/>
+      <c r="Y20" s="13"/>
+      <c r="Z20" s="13"/>
+      <c r="AA20" s="13"/>
       <c r="AB20" s="9"/>
       <c r="AC20" s="9"/>
       <c r="AD20" s="9"/>
@@ -7053,31 +12068,31 @@
       <c r="AF20" s="9"/>
     </row>
     <row r="21" spans="2:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="44" t="s">
+      <c r="B21" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="9"/>
-      <c r="O21" s="9"/>
-      <c r="P21" s="9"/>
-      <c r="Q21" s="9"/>
-      <c r="R21" s="9" t="s">
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="13"/>
+      <c r="Q21" s="13"/>
+      <c r="R21" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="S21" s="9" t="s">
+      <c r="S21" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="T21" s="9" t="s">
+      <c r="T21" s="13" t="s">
         <v>6</v>
       </c>
       <c r="U21" s="13" t="s">
@@ -7092,9 +12107,9 @@
       <c r="X21" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="Y21" s="9"/>
-      <c r="Z21" s="9"/>
-      <c r="AA21" s="9"/>
+      <c r="Y21" s="13"/>
+      <c r="Z21" s="13"/>
+      <c r="AA21" s="13"/>
       <c r="AB21" s="9"/>
       <c r="AC21" s="9"/>
       <c r="AD21" s="9"/>
@@ -7102,40 +12117,40 @@
       <c r="AF21" s="9"/>
     </row>
     <row r="22" spans="2:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="44" t="s">
+      <c r="B22" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="9"/>
-      <c r="O22" s="9"/>
-      <c r="P22" s="9"/>
-      <c r="Q22" s="9"/>
-      <c r="R22" s="9" t="s">
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="13"/>
+      <c r="P22" s="13"/>
+      <c r="Q22" s="13"/>
+      <c r="R22" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="S22" s="9" t="s">
+      <c r="S22" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="T22" s="9" t="s">
+      <c r="T22" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="U22" s="9" t="s">
+      <c r="U22" s="13" t="s">
         <v>6</v>
       </c>
       <c r="V22" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="W22" s="58" t="s">
+      <c r="W22" s="13" t="s">
         <v>8</v>
       </c>
       <c r="X22" s="13" t="s">
@@ -7144,8 +12159,8 @@
       <c r="Y22" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="Z22" s="9"/>
-      <c r="AA22" s="9"/>
+      <c r="Z22" s="13"/>
+      <c r="AA22" s="13"/>
       <c r="AB22" s="9"/>
       <c r="AC22" s="9"/>
       <c r="AD22" s="9"/>
@@ -7153,39 +12168,39 @@
       <c r="AF22" s="9"/>
     </row>
     <row r="23" spans="2:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="44" t="s">
+      <c r="B23" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="9"/>
-      <c r="O23" s="9"/>
-      <c r="P23" s="9"/>
-      <c r="Q23" s="9"/>
-      <c r="R23" s="9"/>
-      <c r="S23" s="9"/>
-      <c r="T23" s="9" t="s">
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="13"/>
+      <c r="P23" s="13"/>
+      <c r="Q23" s="13"/>
+      <c r="R23" s="13"/>
+      <c r="S23" s="13"/>
+      <c r="T23" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="U23" s="9" t="s">
+      <c r="U23" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="V23" s="9" t="s">
+      <c r="V23" s="13" t="s">
         <v>6</v>
       </c>
       <c r="W23" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="X23" s="59" t="s">
+      <c r="X23" s="13" t="s">
         <v>8</v>
       </c>
       <c r="Y23" s="13" t="s">
@@ -7194,7 +12209,7 @@
       <c r="Z23" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="AA23" s="9"/>
+      <c r="AA23" s="13"/>
       <c r="AB23" s="9"/>
       <c r="AC23" s="9"/>
       <c r="AD23" s="9"/>
@@ -7202,40 +12217,40 @@
       <c r="AF23" s="9"/>
     </row>
     <row r="24" spans="2:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="44" t="s">
+      <c r="B24" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
-      <c r="N24" s="9"/>
-      <c r="O24" s="9"/>
-      <c r="P24" s="9"/>
-      <c r="Q24" s="9"/>
-      <c r="R24" s="9"/>
-      <c r="S24" s="9"/>
-      <c r="T24" s="9"/>
-      <c r="U24" s="9" t="s">
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="13"/>
+      <c r="O24" s="13"/>
+      <c r="P24" s="13"/>
+      <c r="Q24" s="13"/>
+      <c r="R24" s="13"/>
+      <c r="S24" s="13"/>
+      <c r="T24" s="13"/>
+      <c r="U24" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="V24" s="9" t="s">
+      <c r="V24" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="W24" s="9" t="s">
+      <c r="W24" s="13" t="s">
         <v>6</v>
       </c>
       <c r="X24" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="Y24" s="60" t="s">
+      <c r="Y24" s="13" t="s">
         <v>8</v>
       </c>
       <c r="Z24" s="13" t="s">
@@ -7251,41 +12266,41 @@
       <c r="AF24" s="9"/>
     </row>
     <row r="25" spans="2:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="44" t="s">
+      <c r="B25" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="9"/>
-      <c r="N25" s="9"/>
-      <c r="O25" s="9"/>
-      <c r="P25" s="9"/>
-      <c r="Q25" s="9"/>
-      <c r="R25" s="9"/>
-      <c r="S25" s="9"/>
-      <c r="T25" s="9"/>
-      <c r="U25" s="9"/>
-      <c r="V25" s="9" t="s">
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="13"/>
+      <c r="O25" s="13"/>
+      <c r="P25" s="13"/>
+      <c r="Q25" s="13"/>
+      <c r="R25" s="13"/>
+      <c r="S25" s="13"/>
+      <c r="T25" s="13"/>
+      <c r="U25" s="13"/>
+      <c r="V25" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="W25" s="9" t="s">
+      <c r="W25" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="X25" s="9" t="s">
+      <c r="X25" s="13" t="s">
         <v>6</v>
       </c>
       <c r="Y25" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="Z25" s="61" t="s">
+      <c r="Z25" s="13" t="s">
         <v>8</v>
       </c>
       <c r="AA25" s="13" t="s">
@@ -7301,13 +12316,13 @@
     </row>
     <row r="26" spans="2:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="10"/>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D26" s="9" t="s">
+      <c r="D26" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E26" s="9" t="s">
+      <c r="E26" s="13" t="s">
         <v>6</v>
       </c>
       <c r="F26" s="13" t="s">
@@ -7322,24 +12337,24 @@
       <c r="I26" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
-      <c r="M26" s="9"/>
-      <c r="N26" s="9"/>
-      <c r="O26" s="9"/>
-      <c r="P26" s="9"/>
-      <c r="Q26" s="9"/>
-      <c r="R26" s="9"/>
-      <c r="S26" s="9"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="13"/>
+      <c r="O26" s="13"/>
+      <c r="P26" s="13"/>
+      <c r="Q26" s="13"/>
+      <c r="R26" s="13"/>
+      <c r="S26" s="13"/>
       <c r="T26" s="13"/>
       <c r="U26" s="13"/>
       <c r="V26" s="13"/>
       <c r="W26" s="13"/>
-      <c r="X26" s="9"/>
-      <c r="Y26" s="9"/>
-      <c r="Z26" s="9"/>
-      <c r="AA26" s="9"/>
+      <c r="X26" s="13"/>
+      <c r="Y26" s="13"/>
+      <c r="Z26" s="13"/>
+      <c r="AA26" s="13"/>
       <c r="AB26" s="9"/>
       <c r="AC26" s="9"/>
       <c r="AD26" s="9"/>
@@ -7349,120 +12364,120 @@
     <row r="27" spans="2:32" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="28" spans="2:32" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="29" spans="2:32" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="43" t="s">
+      <c r="B29" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="C29" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="D29" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="E29" s="47" t="s">
-        <v>95</v>
-      </c>
-      <c r="F29" s="47" t="s">
+      <c r="C29" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="D29" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="E29" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="F29" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="G29" s="47" t="s">
-        <v>97</v>
-      </c>
-      <c r="H29" s="47" t="s">
-        <v>97</v>
-      </c>
-      <c r="I29" s="47" t="s">
+      <c r="G29" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="H29" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="I29" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="O29" s="44" t="s">
+      <c r="O29" s="40" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="30" spans="2:32" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="43" t="s">
+      <c r="B30" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="D30" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="E30" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="F30" s="47" t="s">
-        <v>96</v>
-      </c>
-      <c r="G30" s="47" t="s">
-        <v>96</v>
-      </c>
-      <c r="H30" s="47" t="s">
-        <v>95</v>
-      </c>
-      <c r="I30" s="47" t="s">
+      <c r="D30" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="E30" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="F30" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="G30" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="H30" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="I30" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="J30" s="47" t="s">
-        <v>97</v>
-      </c>
-      <c r="K30" s="47" t="s">
-        <v>97</v>
-      </c>
-      <c r="L30" s="47" t="s">
+      <c r="J30" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="K30" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="L30" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="O30" s="44" t="s">
+      <c r="O30" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="R30" s="44" t="s">
-        <v>115</v>
+      <c r="R30" s="40" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="31" spans="2:32" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="43" t="s">
+      <c r="B31" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="O31" s="44" t="s">
+      <c r="O31" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="R31" s="44" t="s">
-        <v>114</v>
+      <c r="R31" s="40" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="32" spans="2:32" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="43" t="s">
+      <c r="B32" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="O32" s="44" t="s">
+      <c r="O32" s="40" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="33" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="43" t="s">
+      <c r="B33" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="O33" s="44" t="s">
+      <c r="O33" s="40" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="34" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="43" t="s">
+      <c r="B34" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="O34" s="44" t="s">
+      <c r="O34" s="40" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="35" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="43" t="s">
+      <c r="B35" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="O35" s="44" t="s">
+      <c r="O35" s="40" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="36" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="43" t="s">
+      <c r="B36" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="O36" s="44" t="s">
+      <c r="O36" s="40" t="s">
         <v>69</v>
       </c>
     </row>

--- a/Assignment 1/Assignment 1.xlsx
+++ b/Assignment 1/Assignment 1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\raeedh\school\COMPENG4DM4\Assignment 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EB1C953-EB84-4484-98C1-D4BF964EC059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D96FA1FB-E2B2-483B-9729-589940B9CAD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="A1" sheetId="6" r:id="rId1"/>
@@ -18,9 +18,10 @@
     <sheet name="A2.2" sheetId="11" r:id="rId3"/>
     <sheet name="B1" sheetId="19" r:id="rId4"/>
     <sheet name="B2" sheetId="18" r:id="rId5"/>
-    <sheet name="B4" sheetId="14" r:id="rId6"/>
-    <sheet name="B4.2" sheetId="16" r:id="rId7"/>
-    <sheet name="B4.3" sheetId="17" r:id="rId8"/>
+    <sheet name="B2.1" sheetId="20" r:id="rId6"/>
+    <sheet name="B4" sheetId="14" r:id="rId7"/>
+    <sheet name="B4.2" sheetId="16" r:id="rId8"/>
+    <sheet name="B4.3" sheetId="17" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'A1'!$B$2:$AF$26</definedName>
@@ -28,9 +29,10 @@
     <definedName name="_xlnm.Print_Area" localSheetId="2">'A2.2'!$B$2:$AF$26</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'B1'!$B$2:$AF$26</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'B2'!$B$2:$AF$26</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">'B4'!$A$1:$M$42</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">'B4.2'!$B$2:$AF$26</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="7">'B4.3'!$B$2:$AF$26</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">'B2.1'!$B$2:$AF$26</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">'B4'!$A$1:$M$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">'B4.2'!$B$2:$AF$26</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="8">'B4.3'!$B$2:$AF$26</definedName>
   </definedNames>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -50,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1289" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1406" uniqueCount="110">
   <si>
     <t>4DM4 Assignment #1, Timing for Basic RISC 7-stage  pipeline</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -954,7 +956,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1060,18 +1062,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1094,6 +1084,20 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4496,7 +4500,7 @@
   <dimension ref="B2:CG49"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="E19" sqref="E18:E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4508,14 +4512,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:85" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="84" t="s">
+      <c r="B2" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="84"/>
+      <c r="C2" s="80"/>
     </row>
     <row r="3" spans="2:85" ht="18" x14ac:dyDescent="0.25">
-      <c r="B3" s="84"/>
-      <c r="C3" s="84"/>
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
     </row>
     <row r="4" spans="2:85" ht="18" x14ac:dyDescent="0.25">
       <c r="B4" s="26"/>
@@ -4561,338 +4565,338 @@
       <c r="Z4" s="35"/>
     </row>
     <row r="5" spans="2:85" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="83" t="s">
+      <c r="B5" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="82">
+      <c r="C5" s="78">
         <v>1</v>
       </c>
-      <c r="D5" s="80">
-        <f>C5+1</f>
+      <c r="D5" s="76">
+        <f t="shared" ref="D5:AI5" si="0">C5+1</f>
         <v>2</v>
       </c>
-      <c r="E5" s="80">
-        <f>D5+1</f>
+      <c r="E5" s="76">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="F5" s="80">
-        <f>E5+1</f>
+      <c r="F5" s="76">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G5" s="80">
-        <f>F5+1</f>
+      <c r="G5" s="76">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="H5" s="80">
-        <f>G5+1</f>
+      <c r="H5" s="76">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="I5" s="81">
-        <f>H5+1</f>
+      <c r="I5" s="77">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="J5" s="80">
-        <f>I5+1</f>
+      <c r="J5" s="76">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="K5" s="80">
-        <f>J5+1</f>
+      <c r="K5" s="76">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="L5" s="80">
-        <f>K5+1</f>
+      <c r="L5" s="76">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="M5" s="80">
-        <f>L5+1</f>
+      <c r="M5" s="76">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="N5" s="80">
-        <f>M5+1</f>
-        <v>12</v>
-      </c>
-      <c r="O5" s="80">
-        <f>N5+1</f>
+      <c r="N5" s="76">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="O5" s="76">
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="P5" s="80">
-        <f>O5+1</f>
+      <c r="P5" s="76">
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="Q5" s="80">
-        <f>P5+1</f>
+      <c r="Q5" s="76">
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="R5" s="80">
-        <f>Q5+1</f>
+      <c r="R5" s="76">
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="S5" s="80">
-        <f>R5+1</f>
+      <c r="S5" s="76">
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="T5" s="80">
-        <f>S5+1</f>
+      <c r="T5" s="76">
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="U5" s="80">
-        <f>T5+1</f>
+      <c r="U5" s="76">
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="V5" s="80">
-        <f>U5+1</f>
+      <c r="V5" s="76">
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="W5" s="80">
-        <f>V5+1</f>
+      <c r="W5" s="76">
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="X5" s="80">
-        <f>W5+1</f>
+      <c r="X5" s="76">
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="Y5" s="80">
-        <f>X5+1</f>
+      <c r="Y5" s="76">
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="Z5" s="80">
-        <f>Y5+1</f>
+      <c r="Z5" s="76">
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="AA5" s="80">
-        <f>Z5+1</f>
+      <c r="AA5" s="76">
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="AB5" s="80">
-        <f>AA5+1</f>
+      <c r="AB5" s="76">
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="AC5" s="80">
-        <f>AB5+1</f>
+      <c r="AC5" s="76">
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="AD5" s="80">
-        <f>AC5+1</f>
+      <c r="AD5" s="76">
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="AE5" s="80">
-        <f>AD5+1</f>
+      <c r="AE5" s="76">
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="AF5" s="80">
-        <f>AE5+1</f>
+      <c r="AF5" s="76">
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="AG5" s="80">
-        <f>AF5+1</f>
+      <c r="AG5" s="76">
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="AH5" s="80">
-        <f>AG5+1</f>
+      <c r="AH5" s="76">
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="AI5" s="80">
-        <f>AH5+1</f>
+      <c r="AI5" s="76">
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="AJ5" s="80">
-        <f>AI5+1</f>
+      <c r="AJ5" s="76">
+        <f t="shared" ref="AJ5:BO5" si="1">AI5+1</f>
         <v>34</v>
       </c>
-      <c r="AK5" s="80">
-        <f>AJ5+1</f>
+      <c r="AK5" s="76">
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="AL5" s="80">
-        <f>AK5+1</f>
+      <c r="AL5" s="76">
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="AM5" s="80">
-        <f>AL5+1</f>
+      <c r="AM5" s="76">
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
-      <c r="AN5" s="80">
-        <f>AM5+1</f>
+      <c r="AN5" s="76">
+        <f t="shared" si="1"/>
         <v>38</v>
       </c>
-      <c r="AO5" s="80">
-        <f>AN5+1</f>
+      <c r="AO5" s="76">
+        <f t="shared" si="1"/>
         <v>39</v>
       </c>
-      <c r="AP5" s="80">
-        <f>AO5+1</f>
+      <c r="AP5" s="76">
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="AQ5" s="80">
-        <f>AP5+1</f>
+      <c r="AQ5" s="76">
+        <f t="shared" si="1"/>
         <v>41</v>
       </c>
-      <c r="AR5" s="80">
-        <f>AQ5+1</f>
+      <c r="AR5" s="76">
+        <f t="shared" si="1"/>
         <v>42</v>
       </c>
-      <c r="AS5" s="80">
-        <f>AR5+1</f>
+      <c r="AS5" s="76">
+        <f t="shared" si="1"/>
         <v>43</v>
       </c>
-      <c r="AT5" s="80">
-        <f>AS5+1</f>
+      <c r="AT5" s="76">
+        <f t="shared" si="1"/>
         <v>44</v>
       </c>
-      <c r="AU5" s="80">
-        <f>AT5+1</f>
+      <c r="AU5" s="76">
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="AV5" s="80">
-        <f>AU5+1</f>
+      <c r="AV5" s="76">
+        <f t="shared" si="1"/>
         <v>46</v>
       </c>
-      <c r="AW5" s="80">
-        <f>AV5+1</f>
+      <c r="AW5" s="76">
+        <f t="shared" si="1"/>
         <v>47</v>
       </c>
-      <c r="AX5" s="80">
-        <f>AW5+1</f>
+      <c r="AX5" s="76">
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="AY5" s="80">
-        <f>AX5+1</f>
+      <c r="AY5" s="76">
+        <f t="shared" si="1"/>
         <v>49</v>
       </c>
-      <c r="AZ5" s="80">
-        <f>AY5+1</f>
+      <c r="AZ5" s="76">
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="BA5" s="80">
-        <f>AZ5+1</f>
+      <c r="BA5" s="76">
+        <f t="shared" si="1"/>
         <v>51</v>
       </c>
-      <c r="BB5" s="80">
-        <f>BA5+1</f>
+      <c r="BB5" s="76">
+        <f t="shared" si="1"/>
         <v>52</v>
       </c>
-      <c r="BC5" s="80">
-        <f>BB5+1</f>
+      <c r="BC5" s="76">
+        <f t="shared" si="1"/>
         <v>53</v>
       </c>
-      <c r="BD5" s="80">
-        <f>BC5+1</f>
+      <c r="BD5" s="76">
+        <f t="shared" si="1"/>
         <v>54</v>
       </c>
-      <c r="BE5" s="80">
-        <f>BD5+1</f>
+      <c r="BE5" s="76">
+        <f t="shared" si="1"/>
         <v>55</v>
       </c>
-      <c r="BF5" s="80">
-        <f>BE5+1</f>
+      <c r="BF5" s="76">
+        <f t="shared" si="1"/>
         <v>56</v>
       </c>
-      <c r="BG5" s="80">
-        <f>BF5+1</f>
+      <c r="BG5" s="76">
+        <f t="shared" si="1"/>
         <v>57</v>
       </c>
-      <c r="BH5" s="80">
-        <f>BG5+1</f>
+      <c r="BH5" s="76">
+        <f t="shared" si="1"/>
         <v>58</v>
       </c>
-      <c r="BI5" s="80">
-        <f>BH5+1</f>
+      <c r="BI5" s="76">
+        <f t="shared" si="1"/>
         <v>59</v>
       </c>
-      <c r="BJ5" s="80">
-        <f>BI5+1</f>
+      <c r="BJ5" s="76">
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="BK5" s="80">
-        <f>BJ5+1</f>
+      <c r="BK5" s="76">
+        <f t="shared" si="1"/>
         <v>61</v>
       </c>
-      <c r="BL5" s="80">
-        <f>BK5+1</f>
+      <c r="BL5" s="76">
+        <f t="shared" si="1"/>
         <v>62</v>
       </c>
-      <c r="BM5" s="80">
-        <f>BL5+1</f>
+      <c r="BM5" s="76">
+        <f t="shared" si="1"/>
         <v>63</v>
       </c>
-      <c r="BN5" s="80">
-        <f>BM5+1</f>
+      <c r="BN5" s="76">
+        <f t="shared" si="1"/>
         <v>64</v>
       </c>
-      <c r="BO5" s="80">
-        <f>BN5+1</f>
+      <c r="BO5" s="76">
+        <f t="shared" si="1"/>
         <v>65</v>
       </c>
-      <c r="BP5" s="80">
-        <f>BO5+1</f>
+      <c r="BP5" s="76">
+        <f t="shared" ref="BP5:CG5" si="2">BO5+1</f>
         <v>66</v>
       </c>
-      <c r="BQ5" s="80">
-        <f>BP5+1</f>
+      <c r="BQ5" s="76">
+        <f t="shared" si="2"/>
         <v>67</v>
       </c>
-      <c r="BR5" s="80">
-        <f>BQ5+1</f>
+      <c r="BR5" s="76">
+        <f t="shared" si="2"/>
         <v>68</v>
       </c>
-      <c r="BS5" s="80">
-        <f>BR5+1</f>
+      <c r="BS5" s="76">
+        <f t="shared" si="2"/>
         <v>69</v>
       </c>
-      <c r="BT5" s="80">
-        <f>BS5+1</f>
+      <c r="BT5" s="76">
+        <f t="shared" si="2"/>
         <v>70</v>
       </c>
-      <c r="BU5" s="80">
-        <f>BT5+1</f>
+      <c r="BU5" s="76">
+        <f t="shared" si="2"/>
         <v>71</v>
       </c>
-      <c r="BV5" s="80">
-        <f>BU5+1</f>
+      <c r="BV5" s="76">
+        <f t="shared" si="2"/>
         <v>72</v>
       </c>
-      <c r="BW5" s="80">
-        <f>BV5+1</f>
+      <c r="BW5" s="76">
+        <f t="shared" si="2"/>
         <v>73</v>
       </c>
-      <c r="BX5" s="80">
-        <f>BW5+1</f>
+      <c r="BX5" s="76">
+        <f t="shared" si="2"/>
         <v>74</v>
       </c>
-      <c r="BY5" s="80">
-        <f>BX5+1</f>
+      <c r="BY5" s="76">
+        <f t="shared" si="2"/>
         <v>75</v>
       </c>
-      <c r="BZ5" s="80">
-        <f>BY5+1</f>
+      <c r="BZ5" s="76">
+        <f t="shared" si="2"/>
         <v>76</v>
       </c>
-      <c r="CA5" s="80">
-        <f>BZ5+1</f>
+      <c r="CA5" s="76">
+        <f t="shared" si="2"/>
         <v>77</v>
       </c>
-      <c r="CB5" s="80">
-        <f>CA5+1</f>
+      <c r="CB5" s="76">
+        <f t="shared" si="2"/>
         <v>78</v>
       </c>
-      <c r="CC5" s="80">
-        <f>CB5+1</f>
+      <c r="CC5" s="76">
+        <f t="shared" si="2"/>
         <v>79</v>
       </c>
-      <c r="CD5" s="80">
-        <f>CC5+1</f>
+      <c r="CD5" s="76">
+        <f t="shared" si="2"/>
         <v>80</v>
       </c>
-      <c r="CE5" s="80">
-        <f>CD5+1</f>
+      <c r="CE5" s="76">
+        <f t="shared" si="2"/>
         <v>81</v>
       </c>
-      <c r="CF5" s="80">
-        <f>CE5+1</f>
+      <c r="CF5" s="76">
+        <f t="shared" si="2"/>
         <v>82</v>
       </c>
-      <c r="CG5" s="80">
-        <f>CF5+1</f>
+      <c r="CG5" s="76">
+        <f t="shared" si="2"/>
         <v>83</v>
       </c>
     </row>
@@ -5529,7 +5533,7 @@
       <c r="AF16" s="40"/>
     </row>
     <row r="17" spans="2:64" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="77"/>
+      <c r="B17" s="73"/>
       <c r="C17" s="40"/>
       <c r="D17" s="40"/>
       <c r="E17" s="40"/>
@@ -5547,9 +5551,9 @@
       <c r="Q17" s="40"/>
       <c r="R17" s="40"/>
       <c r="S17" s="40"/>
-      <c r="T17" s="78"/>
-      <c r="U17" s="78"/>
-      <c r="V17" s="78"/>
+      <c r="T17" s="74"/>
+      <c r="U17" s="74"/>
+      <c r="V17" s="74"/>
       <c r="W17" s="40"/>
       <c r="X17" s="40"/>
       <c r="Y17" s="40"/>
@@ -5562,7 +5566,7 @@
       <c r="AF17" s="40"/>
     </row>
     <row r="18" spans="2:64" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="77"/>
+      <c r="B18" s="73"/>
       <c r="C18" s="40"/>
       <c r="D18" s="40"/>
       <c r="E18" s="40"/>
@@ -5580,9 +5584,9 @@
       <c r="Q18" s="40"/>
       <c r="R18" s="40"/>
       <c r="S18" s="40"/>
-      <c r="T18" s="78"/>
-      <c r="U18" s="78"/>
-      <c r="V18" s="78"/>
+      <c r="T18" s="74"/>
+      <c r="U18" s="74"/>
+      <c r="V18" s="74"/>
       <c r="W18" s="40"/>
       <c r="X18" s="40"/>
       <c r="Y18" s="40"/>
@@ -5595,7 +5599,7 @@
       <c r="AF18" s="40"/>
     </row>
     <row r="19" spans="2:64" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="77"/>
+      <c r="B19" s="73"/>
       <c r="C19" s="40"/>
       <c r="D19" s="40"/>
       <c r="E19" s="40"/>
@@ -5620,8 +5624,8 @@
       <c r="X19" s="40"/>
       <c r="Y19" s="40"/>
       <c r="Z19" s="40"/>
-      <c r="AA19" s="78"/>
-      <c r="AB19" s="78"/>
+      <c r="AA19" s="74"/>
+      <c r="AB19" s="74"/>
       <c r="AC19" s="40"/>
       <c r="AD19" s="40"/>
       <c r="AE19" s="40"/>
@@ -5641,7 +5645,7 @@
       <c r="AS19" s="40"/>
     </row>
     <row r="20" spans="2:64" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="77"/>
+      <c r="B20" s="73"/>
       <c r="C20" s="40"/>
       <c r="D20" s="40"/>
       <c r="E20" s="40"/>
@@ -5666,8 +5670,8 @@
       <c r="X20" s="40"/>
       <c r="Y20" s="40"/>
       <c r="Z20" s="40"/>
-      <c r="AA20" s="78"/>
-      <c r="AB20" s="78"/>
+      <c r="AA20" s="74"/>
+      <c r="AB20" s="74"/>
       <c r="AC20" s="40"/>
       <c r="AD20" s="40"/>
       <c r="AE20" s="40"/>
@@ -5687,7 +5691,7 @@
       <c r="AS20" s="40"/>
     </row>
     <row r="21" spans="2:64" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="77"/>
+      <c r="B21" s="73"/>
       <c r="C21" s="40"/>
       <c r="D21" s="40"/>
       <c r="E21" s="40"/>
@@ -5712,12 +5716,12 @@
       <c r="X21" s="40"/>
       <c r="Y21" s="40"/>
       <c r="Z21" s="40"/>
-      <c r="AA21" s="78"/>
-      <c r="AB21" s="78"/>
+      <c r="AA21" s="74"/>
+      <c r="AB21" s="74"/>
       <c r="AC21" s="40"/>
       <c r="AD21" s="40"/>
       <c r="AE21" s="40"/>
-      <c r="AF21" s="78"/>
+      <c r="AF21" s="74"/>
       <c r="AG21" s="40"/>
       <c r="AH21" s="40"/>
       <c r="AI21" s="40"/>
@@ -5733,7 +5737,7 @@
       <c r="AS21" s="40"/>
     </row>
     <row r="22" spans="2:64" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="77"/>
+      <c r="B22" s="73"/>
       <c r="C22" s="40"/>
       <c r="D22" s="40"/>
       <c r="E22" s="40"/>
@@ -5758,12 +5762,12 @@
       <c r="X22" s="40"/>
       <c r="Y22" s="40"/>
       <c r="Z22" s="40"/>
-      <c r="AA22" s="78"/>
-      <c r="AB22" s="78"/>
+      <c r="AA22" s="74"/>
+      <c r="AB22" s="74"/>
       <c r="AC22" s="40"/>
       <c r="AD22" s="40"/>
       <c r="AE22" s="40"/>
-      <c r="AF22" s="78"/>
+      <c r="AF22" s="74"/>
       <c r="AG22" s="40"/>
       <c r="AH22" s="40"/>
       <c r="AI22" s="40"/>
@@ -5779,7 +5783,7 @@
       <c r="AS22" s="40"/>
     </row>
     <row r="23" spans="2:64" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="77"/>
+      <c r="B23" s="73"/>
       <c r="C23" s="40"/>
       <c r="D23" s="40"/>
       <c r="E23" s="40"/>
@@ -5809,10 +5813,10 @@
       <c r="AC23" s="40"/>
       <c r="AD23" s="40"/>
       <c r="AE23" s="40"/>
-      <c r="AF23" s="78"/>
+      <c r="AF23" s="74"/>
       <c r="AG23" s="40"/>
-      <c r="AH23" s="78"/>
-      <c r="AI23" s="78"/>
+      <c r="AH23" s="74"/>
+      <c r="AI23" s="74"/>
       <c r="AJ23" s="40"/>
       <c r="AK23" s="40"/>
       <c r="AL23" s="40"/>
@@ -5825,7 +5829,7 @@
       <c r="AS23" s="40"/>
     </row>
     <row r="24" spans="2:64" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="77"/>
+      <c r="B24" s="73"/>
       <c r="C24" s="40"/>
       <c r="D24" s="40"/>
       <c r="E24" s="40"/>
@@ -5855,10 +5859,10 @@
       <c r="AC24" s="40"/>
       <c r="AD24" s="40"/>
       <c r="AE24" s="40"/>
-      <c r="AF24" s="78"/>
+      <c r="AF24" s="74"/>
       <c r="AG24" s="40"/>
-      <c r="AH24" s="78"/>
-      <c r="AI24" s="78"/>
+      <c r="AH24" s="74"/>
+      <c r="AI24" s="74"/>
       <c r="AJ24" s="40"/>
       <c r="AK24" s="40"/>
       <c r="AL24" s="40"/>
@@ -5871,7 +5875,7 @@
       <c r="AS24" s="40"/>
     </row>
     <row r="25" spans="2:64" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="77"/>
+      <c r="B25" s="73"/>
       <c r="C25" s="40"/>
       <c r="D25" s="40"/>
       <c r="E25" s="40"/>
@@ -5901,14 +5905,14 @@
       <c r="AC25" s="40"/>
       <c r="AD25" s="40"/>
       <c r="AE25" s="40"/>
-      <c r="AF25" s="78"/>
+      <c r="AF25" s="74"/>
       <c r="AG25" s="40"/>
-      <c r="AH25" s="78"/>
-      <c r="AI25" s="78"/>
+      <c r="AH25" s="74"/>
+      <c r="AI25" s="74"/>
       <c r="AJ25" s="40"/>
       <c r="AK25" s="40"/>
       <c r="AL25" s="40"/>
-      <c r="AM25" s="78"/>
+      <c r="AM25" s="74"/>
       <c r="AN25" s="40"/>
       <c r="AO25" s="40"/>
       <c r="AP25" s="40"/>
@@ -5917,7 +5921,7 @@
       <c r="AS25" s="40"/>
     </row>
     <row r="26" spans="2:64" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="77"/>
+      <c r="B26" s="73"/>
       <c r="C26" s="40"/>
       <c r="D26" s="40"/>
       <c r="E26" s="40"/>
@@ -5949,65 +5953,65 @@
       <c r="AE26" s="40"/>
       <c r="AF26" s="40"/>
       <c r="AG26" s="40"/>
-      <c r="AH26" s="78"/>
-      <c r="AI26" s="78"/>
+      <c r="AH26" s="74"/>
+      <c r="AI26" s="74"/>
       <c r="AJ26" s="40"/>
       <c r="AK26" s="40"/>
       <c r="AL26" s="40"/>
-      <c r="AM26" s="78"/>
-      <c r="AN26" s="78"/>
-      <c r="AO26" s="78"/>
+      <c r="AM26" s="74"/>
+      <c r="AN26" s="74"/>
+      <c r="AO26" s="74"/>
       <c r="AP26" s="40"/>
       <c r="AQ26" s="40"/>
       <c r="AR26" s="40"/>
       <c r="AS26" s="40"/>
     </row>
     <row r="27" spans="2:64" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="77"/>
-      <c r="AK27" s="76"/>
-      <c r="AL27" s="76"/>
-      <c r="AM27" s="75"/>
-      <c r="AN27" s="75"/>
-      <c r="AO27" s="74"/>
-      <c r="AP27" s="73"/>
-      <c r="AQ27" s="73"/>
-      <c r="AR27" s="73"/>
-      <c r="AS27" s="73"/>
-      <c r="AT27" s="73"/>
+      <c r="B27" s="73"/>
+      <c r="AK27" s="72"/>
+      <c r="AL27" s="72"/>
+      <c r="AM27" s="71"/>
+      <c r="AN27" s="71"/>
+      <c r="AO27" s="70"/>
+      <c r="AP27" s="69"/>
+      <c r="AQ27" s="69"/>
+      <c r="AR27" s="69"/>
+      <c r="AS27" s="69"/>
+      <c r="AT27" s="69"/>
     </row>
     <row r="28" spans="2:64" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="77"/>
-      <c r="AL28" s="76"/>
-      <c r="AM28" s="75"/>
-      <c r="AN28" s="75"/>
-      <c r="AO28" s="74"/>
-      <c r="AP28" s="73"/>
-      <c r="AQ28" s="73"/>
-      <c r="AR28" s="73"/>
-      <c r="AS28" s="73"/>
-      <c r="AT28" s="73"/>
-      <c r="AU28" s="73"/>
+      <c r="B28" s="73"/>
+      <c r="AL28" s="72"/>
+      <c r="AM28" s="71"/>
+      <c r="AN28" s="71"/>
+      <c r="AO28" s="70"/>
+      <c r="AP28" s="69"/>
+      <c r="AQ28" s="69"/>
+      <c r="AR28" s="69"/>
+      <c r="AS28" s="69"/>
+      <c r="AT28" s="69"/>
+      <c r="AU28" s="69"/>
     </row>
     <row r="29" spans="2:64" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="77"/>
-      <c r="AM29" s="75"/>
-      <c r="AN29" s="75"/>
-      <c r="AO29" s="74"/>
-      <c r="AP29" s="73"/>
-      <c r="AQ29" s="73"/>
-      <c r="AR29" s="73"/>
-      <c r="AS29" s="73"/>
-      <c r="AT29" s="73"/>
-      <c r="AU29" s="73"/>
-      <c r="AV29" s="73"/>
+      <c r="B29" s="73"/>
+      <c r="AM29" s="71"/>
+      <c r="AN29" s="71"/>
+      <c r="AO29" s="70"/>
+      <c r="AP29" s="69"/>
+      <c r="AQ29" s="69"/>
+      <c r="AR29" s="69"/>
+      <c r="AS29" s="69"/>
+      <c r="AT29" s="69"/>
+      <c r="AU29" s="69"/>
+      <c r="AV29" s="69"/>
     </row>
     <row r="30" spans="2:64" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="77"/>
+      <c r="B30" s="73"/>
       <c r="AQ30" s="40"/>
       <c r="AR30" s="40"/>
       <c r="AS30" s="40"/>
-      <c r="AT30" s="78"/>
-      <c r="AU30" s="78"/>
+      <c r="AT30" s="74"/>
+      <c r="AU30" s="74"/>
       <c r="AV30" s="40"/>
       <c r="AW30" s="40"/>
       <c r="AX30" s="40"/>
@@ -6027,12 +6031,12 @@
       <c r="BL30" s="40"/>
     </row>
     <row r="31" spans="2:64" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="77"/>
+      <c r="B31" s="73"/>
       <c r="AQ31" s="40"/>
       <c r="AR31" s="40"/>
       <c r="AS31" s="40"/>
-      <c r="AT31" s="78"/>
-      <c r="AU31" s="78"/>
+      <c r="AT31" s="74"/>
+      <c r="AU31" s="74"/>
       <c r="AV31" s="40"/>
       <c r="AW31" s="40"/>
       <c r="AX31" s="40"/>
@@ -6052,16 +6056,16 @@
       <c r="BL31" s="40"/>
     </row>
     <row r="32" spans="2:64" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="77"/>
+      <c r="B32" s="73"/>
       <c r="AQ32" s="40"/>
       <c r="AR32" s="40"/>
       <c r="AS32" s="40"/>
-      <c r="AT32" s="78"/>
-      <c r="AU32" s="78"/>
+      <c r="AT32" s="74"/>
+      <c r="AU32" s="74"/>
       <c r="AV32" s="40"/>
       <c r="AW32" s="40"/>
       <c r="AX32" s="40"/>
-      <c r="AY32" s="78"/>
+      <c r="AY32" s="74"/>
       <c r="AZ32" s="40"/>
       <c r="BA32" s="40"/>
       <c r="BB32" s="40"/>
@@ -6077,16 +6081,16 @@
       <c r="BL32" s="40"/>
     </row>
     <row r="33" spans="2:83" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="77"/>
+      <c r="B33" s="73"/>
       <c r="AQ33" s="40"/>
       <c r="AR33" s="40"/>
       <c r="AS33" s="40"/>
-      <c r="AT33" s="78"/>
-      <c r="AU33" s="78"/>
+      <c r="AT33" s="74"/>
+      <c r="AU33" s="74"/>
       <c r="AV33" s="40"/>
       <c r="AW33" s="40"/>
       <c r="AX33" s="40"/>
-      <c r="AY33" s="78"/>
+      <c r="AY33" s="74"/>
       <c r="AZ33" s="40"/>
       <c r="BA33" s="40"/>
       <c r="BB33" s="40"/>
@@ -6102,7 +6106,7 @@
       <c r="BL33" s="40"/>
     </row>
     <row r="34" spans="2:83" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="77"/>
+      <c r="B34" s="73"/>
       <c r="AQ34" s="40"/>
       <c r="AR34" s="40"/>
       <c r="AS34" s="40"/>
@@ -6111,10 +6115,10 @@
       <c r="AV34" s="40"/>
       <c r="AW34" s="40"/>
       <c r="AX34" s="40"/>
-      <c r="AY34" s="78"/>
+      <c r="AY34" s="74"/>
       <c r="AZ34" s="40"/>
-      <c r="BA34" s="78"/>
-      <c r="BB34" s="78"/>
+      <c r="BA34" s="74"/>
+      <c r="BB34" s="74"/>
       <c r="BC34" s="40"/>
       <c r="BD34" s="40"/>
       <c r="BE34" s="40"/>
@@ -6127,7 +6131,7 @@
       <c r="BL34" s="40"/>
     </row>
     <row r="35" spans="2:83" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="77"/>
+      <c r="B35" s="73"/>
       <c r="AQ35" s="40"/>
       <c r="AR35" s="40"/>
       <c r="AS35" s="40"/>
@@ -6136,10 +6140,10 @@
       <c r="AV35" s="40"/>
       <c r="AW35" s="40"/>
       <c r="AX35" s="40"/>
-      <c r="AY35" s="78"/>
+      <c r="AY35" s="74"/>
       <c r="AZ35" s="40"/>
-      <c r="BA35" s="78"/>
-      <c r="BB35" s="78"/>
+      <c r="BA35" s="74"/>
+      <c r="BB35" s="74"/>
       <c r="BC35" s="40"/>
       <c r="BD35" s="40"/>
       <c r="BE35" s="40"/>
@@ -6152,7 +6156,7 @@
       <c r="BL35" s="40"/>
     </row>
     <row r="36" spans="2:83" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="77"/>
+      <c r="B36" s="73"/>
       <c r="AQ36" s="40"/>
       <c r="AR36" s="40"/>
       <c r="AS36" s="40"/>
@@ -6161,14 +6165,14 @@
       <c r="AV36" s="40"/>
       <c r="AW36" s="40"/>
       <c r="AX36" s="40"/>
-      <c r="AY36" s="78"/>
+      <c r="AY36" s="74"/>
       <c r="AZ36" s="40"/>
-      <c r="BA36" s="78"/>
-      <c r="BB36" s="78"/>
+      <c r="BA36" s="74"/>
+      <c r="BB36" s="74"/>
       <c r="BC36" s="40"/>
       <c r="BD36" s="40"/>
       <c r="BE36" s="40"/>
-      <c r="BF36" s="78"/>
+      <c r="BF36" s="74"/>
       <c r="BG36" s="40"/>
       <c r="BH36" s="40"/>
       <c r="BI36" s="40"/>
@@ -6177,7 +6181,7 @@
       <c r="BL36" s="40"/>
     </row>
     <row r="37" spans="2:83" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="77"/>
+      <c r="B37" s="73"/>
       <c r="AQ37" s="40"/>
       <c r="AR37" s="40"/>
       <c r="AS37" s="40"/>
@@ -6188,65 +6192,65 @@
       <c r="AX37" s="40"/>
       <c r="AY37" s="40"/>
       <c r="AZ37" s="40"/>
-      <c r="BA37" s="78"/>
-      <c r="BB37" s="78"/>
+      <c r="BA37" s="74"/>
+      <c r="BB37" s="74"/>
       <c r="BC37" s="40"/>
       <c r="BD37" s="40"/>
       <c r="BE37" s="40"/>
-      <c r="BF37" s="78"/>
-      <c r="BG37" s="78"/>
-      <c r="BH37" s="78"/>
+      <c r="BF37" s="74"/>
+      <c r="BG37" s="74"/>
+      <c r="BH37" s="74"/>
       <c r="BI37" s="40"/>
       <c r="BJ37" s="40"/>
       <c r="BK37" s="40"/>
       <c r="BL37" s="40"/>
     </row>
     <row r="38" spans="2:83" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="77"/>
-      <c r="BD38" s="76"/>
-      <c r="BE38" s="76"/>
-      <c r="BF38" s="75"/>
-      <c r="BG38" s="75"/>
-      <c r="BH38" s="74"/>
-      <c r="BI38" s="73"/>
-      <c r="BJ38" s="73"/>
-      <c r="BK38" s="73"/>
-      <c r="BL38" s="73"/>
-      <c r="BM38" s="73"/>
+      <c r="B38" s="73"/>
+      <c r="BD38" s="72"/>
+      <c r="BE38" s="72"/>
+      <c r="BF38" s="71"/>
+      <c r="BG38" s="71"/>
+      <c r="BH38" s="70"/>
+      <c r="BI38" s="69"/>
+      <c r="BJ38" s="69"/>
+      <c r="BK38" s="69"/>
+      <c r="BL38" s="69"/>
+      <c r="BM38" s="69"/>
     </row>
     <row r="39" spans="2:83" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="77"/>
-      <c r="BE39" s="76"/>
-      <c r="BF39" s="75"/>
-      <c r="BG39" s="75"/>
-      <c r="BH39" s="74"/>
-      <c r="BI39" s="73"/>
-      <c r="BJ39" s="73"/>
-      <c r="BK39" s="73"/>
-      <c r="BL39" s="73"/>
-      <c r="BM39" s="73"/>
-      <c r="BN39" s="73"/>
+      <c r="B39" s="73"/>
+      <c r="BE39" s="72"/>
+      <c r="BF39" s="71"/>
+      <c r="BG39" s="71"/>
+      <c r="BH39" s="70"/>
+      <c r="BI39" s="69"/>
+      <c r="BJ39" s="69"/>
+      <c r="BK39" s="69"/>
+      <c r="BL39" s="69"/>
+      <c r="BM39" s="69"/>
+      <c r="BN39" s="69"/>
     </row>
     <row r="40" spans="2:83" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="77"/>
-      <c r="BF40" s="75"/>
-      <c r="BG40" s="75"/>
-      <c r="BH40" s="74"/>
-      <c r="BI40" s="73"/>
-      <c r="BJ40" s="73"/>
-      <c r="BK40" s="73"/>
-      <c r="BL40" s="73"/>
-      <c r="BM40" s="73"/>
-      <c r="BN40" s="73"/>
-      <c r="BO40" s="73"/>
+      <c r="B40" s="73"/>
+      <c r="BF40" s="71"/>
+      <c r="BG40" s="71"/>
+      <c r="BH40" s="70"/>
+      <c r="BI40" s="69"/>
+      <c r="BJ40" s="69"/>
+      <c r="BK40" s="69"/>
+      <c r="BL40" s="69"/>
+      <c r="BM40" s="69"/>
+      <c r="BN40" s="69"/>
+      <c r="BO40" s="69"/>
     </row>
     <row r="41" spans="2:83" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="77"/>
+      <c r="B41" s="73"/>
       <c r="BJ41" s="40"/>
       <c r="BK41" s="40"/>
       <c r="BL41" s="40"/>
-      <c r="BM41" s="78"/>
-      <c r="BN41" s="78"/>
+      <c r="BM41" s="74"/>
+      <c r="BN41" s="74"/>
       <c r="BO41" s="40"/>
       <c r="BP41" s="40"/>
       <c r="BQ41" s="40"/>
@@ -6266,12 +6270,12 @@
       <c r="CE41" s="40"/>
     </row>
     <row r="42" spans="2:83" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="77"/>
+      <c r="B42" s="73"/>
       <c r="BJ42" s="40"/>
       <c r="BK42" s="40"/>
       <c r="BL42" s="40"/>
-      <c r="BM42" s="78"/>
-      <c r="BN42" s="78"/>
+      <c r="BM42" s="74"/>
+      <c r="BN42" s="74"/>
       <c r="BO42" s="40"/>
       <c r="BP42" s="40"/>
       <c r="BQ42" s="40"/>
@@ -6291,16 +6295,16 @@
       <c r="CE42" s="40"/>
     </row>
     <row r="43" spans="2:83" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="77"/>
+      <c r="B43" s="73"/>
       <c r="BJ43" s="40"/>
       <c r="BK43" s="40"/>
       <c r="BL43" s="40"/>
-      <c r="BM43" s="78"/>
-      <c r="BN43" s="78"/>
+      <c r="BM43" s="74"/>
+      <c r="BN43" s="74"/>
       <c r="BO43" s="40"/>
       <c r="BP43" s="40"/>
       <c r="BQ43" s="40"/>
-      <c r="BR43" s="78"/>
+      <c r="BR43" s="74"/>
       <c r="BS43" s="40"/>
       <c r="BT43" s="40"/>
       <c r="BU43" s="40"/>
@@ -6316,16 +6320,16 @@
       <c r="CE43" s="40"/>
     </row>
     <row r="44" spans="2:83" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="77"/>
+      <c r="B44" s="73"/>
       <c r="BJ44" s="40"/>
       <c r="BK44" s="40"/>
       <c r="BL44" s="40"/>
-      <c r="BM44" s="78"/>
-      <c r="BN44" s="78"/>
+      <c r="BM44" s="74"/>
+      <c r="BN44" s="74"/>
       <c r="BO44" s="40"/>
       <c r="BP44" s="40"/>
       <c r="BQ44" s="40"/>
-      <c r="BR44" s="78"/>
+      <c r="BR44" s="74"/>
       <c r="BS44" s="40"/>
       <c r="BT44" s="40"/>
       <c r="BU44" s="40"/>
@@ -6341,7 +6345,7 @@
       <c r="CE44" s="40"/>
     </row>
     <row r="45" spans="2:83" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="77"/>
+      <c r="B45" s="73"/>
       <c r="BJ45" s="40"/>
       <c r="BK45" s="40"/>
       <c r="BL45" s="40"/>
@@ -6350,10 +6354,10 @@
       <c r="BO45" s="40"/>
       <c r="BP45" s="40"/>
       <c r="BQ45" s="40"/>
-      <c r="BR45" s="78"/>
+      <c r="BR45" s="74"/>
       <c r="BS45" s="40"/>
-      <c r="BT45" s="78"/>
-      <c r="BU45" s="78"/>
+      <c r="BT45" s="74"/>
+      <c r="BU45" s="74"/>
       <c r="BV45" s="40"/>
       <c r="BW45" s="40"/>
       <c r="BX45" s="40"/>
@@ -6366,7 +6370,7 @@
       <c r="CE45" s="40"/>
     </row>
     <row r="46" spans="2:83" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="77"/>
+      <c r="B46" s="73"/>
       <c r="BJ46" s="40"/>
       <c r="BK46" s="40"/>
       <c r="BL46" s="40"/>
@@ -6375,10 +6379,10 @@
       <c r="BO46" s="40"/>
       <c r="BP46" s="40"/>
       <c r="BQ46" s="40"/>
-      <c r="BR46" s="78"/>
+      <c r="BR46" s="74"/>
       <c r="BS46" s="40"/>
-      <c r="BT46" s="78"/>
-      <c r="BU46" s="78"/>
+      <c r="BT46" s="74"/>
+      <c r="BU46" s="74"/>
       <c r="BV46" s="40"/>
       <c r="BW46" s="40"/>
       <c r="BX46" s="40"/>
@@ -6391,7 +6395,7 @@
       <c r="CE46" s="40"/>
     </row>
     <row r="47" spans="2:83" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="77"/>
+      <c r="B47" s="73"/>
       <c r="BJ47" s="40"/>
       <c r="BK47" s="40"/>
       <c r="BL47" s="40"/>
@@ -6400,14 +6404,14 @@
       <c r="BO47" s="40"/>
       <c r="BP47" s="40"/>
       <c r="BQ47" s="40"/>
-      <c r="BR47" s="78"/>
+      <c r="BR47" s="74"/>
       <c r="BS47" s="40"/>
-      <c r="BT47" s="78"/>
-      <c r="BU47" s="78"/>
+      <c r="BT47" s="74"/>
+      <c r="BU47" s="74"/>
       <c r="BV47" s="40"/>
       <c r="BW47" s="40"/>
       <c r="BX47" s="40"/>
-      <c r="BY47" s="78"/>
+      <c r="BY47" s="74"/>
       <c r="BZ47" s="40"/>
       <c r="CA47" s="40"/>
       <c r="CB47" s="40"/>
@@ -6416,7 +6420,7 @@
       <c r="CE47" s="40"/>
     </row>
     <row r="48" spans="2:83" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="77"/>
+      <c r="B48" s="73"/>
       <c r="BJ48" s="40"/>
       <c r="BK48" s="40"/>
       <c r="BL48" s="40"/>
@@ -6427,31 +6431,31 @@
       <c r="BQ48" s="40"/>
       <c r="BR48" s="40"/>
       <c r="BS48" s="40"/>
-      <c r="BT48" s="78"/>
-      <c r="BU48" s="78"/>
+      <c r="BT48" s="74"/>
+      <c r="BU48" s="74"/>
       <c r="BV48" s="40"/>
       <c r="BW48" s="40"/>
       <c r="BX48" s="40"/>
-      <c r="BY48" s="78"/>
-      <c r="BZ48" s="78"/>
-      <c r="CA48" s="78"/>
+      <c r="BY48" s="74"/>
+      <c r="BZ48" s="74"/>
+      <c r="CA48" s="74"/>
       <c r="CB48" s="40"/>
       <c r="CC48" s="40"/>
       <c r="CD48" s="40"/>
       <c r="CE48" s="40"/>
     </row>
     <row r="49" spans="2:84" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="77"/>
-      <c r="BW49" s="76"/>
-      <c r="BX49" s="76"/>
-      <c r="BY49" s="75"/>
-      <c r="BZ49" s="75"/>
-      <c r="CA49" s="74"/>
-      <c r="CB49" s="73"/>
-      <c r="CC49" s="73"/>
-      <c r="CD49" s="73"/>
-      <c r="CE49" s="73"/>
-      <c r="CF49" s="73"/>
+      <c r="B49" s="73"/>
+      <c r="BW49" s="72"/>
+      <c r="BX49" s="72"/>
+      <c r="BY49" s="71"/>
+      <c r="BZ49" s="71"/>
+      <c r="CA49" s="70"/>
+      <c r="CB49" s="69"/>
+      <c r="CC49" s="69"/>
+      <c r="CD49" s="69"/>
+      <c r="CE49" s="69"/>
+      <c r="CF49" s="69"/>
     </row>
   </sheetData>
   <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6467,8 +6471,8 @@
   </sheetPr>
   <dimension ref="B2:CG49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+    <sheetView zoomScale="58" zoomScaleNormal="58" workbookViewId="0">
+      <selection activeCell="O5" sqref="O5:AF5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6480,14 +6484,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:85" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="84" t="s">
+      <c r="B2" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="84"/>
+      <c r="C2" s="80"/>
     </row>
     <row r="3" spans="2:85" ht="18" x14ac:dyDescent="0.25">
-      <c r="B3" s="84"/>
-      <c r="C3" s="84"/>
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
     </row>
     <row r="4" spans="2:85" ht="18" x14ac:dyDescent="0.25">
       <c r="B4" s="26"/>
@@ -6533,343 +6537,343 @@
       <c r="Z4" s="35"/>
     </row>
     <row r="5" spans="2:85" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="83" t="s">
+      <c r="B5" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="82">
+      <c r="C5" s="78">
         <v>1</v>
       </c>
-      <c r="D5" s="80">
-        <f>C5+1</f>
+      <c r="D5" s="76">
+        <f t="shared" ref="D5:AI5" si="0">C5+1</f>
         <v>2</v>
       </c>
-      <c r="E5" s="80">
-        <f>D5+1</f>
+      <c r="E5" s="76">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="F5" s="80">
-        <f>E5+1</f>
+      <c r="F5" s="76">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G5" s="80">
-        <f>F5+1</f>
+      <c r="G5" s="76">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="H5" s="80">
-        <f>G5+1</f>
+      <c r="H5" s="76">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="I5" s="81">
-        <f>H5+1</f>
+      <c r="I5" s="77">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="J5" s="80">
-        <f>I5+1</f>
+      <c r="J5" s="76">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="K5" s="80">
-        <f>J5+1</f>
+      <c r="K5" s="76">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="L5" s="80">
-        <f>K5+1</f>
+      <c r="L5" s="76">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="M5" s="80">
-        <f>L5+1</f>
+      <c r="M5" s="76">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="N5" s="80">
-        <f>M5+1</f>
-        <v>12</v>
-      </c>
-      <c r="O5" s="80">
-        <f>N5+1</f>
+      <c r="N5" s="76">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="O5" s="76">
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="P5" s="80">
-        <f>O5+1</f>
+      <c r="P5" s="76">
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="Q5" s="80">
-        <f>P5+1</f>
+      <c r="Q5" s="76">
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="R5" s="80">
-        <f>Q5+1</f>
+      <c r="R5" s="76">
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="S5" s="80">
-        <f>R5+1</f>
+      <c r="S5" s="76">
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="T5" s="80">
-        <f>S5+1</f>
+      <c r="T5" s="76">
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="U5" s="80">
-        <f>T5+1</f>
+      <c r="U5" s="76">
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="V5" s="80">
-        <f>U5+1</f>
+      <c r="V5" s="76">
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="W5" s="80">
-        <f>V5+1</f>
+      <c r="W5" s="76">
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="X5" s="80">
-        <f>W5+1</f>
+      <c r="X5" s="76">
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="Y5" s="80">
-        <f>X5+1</f>
+      <c r="Y5" s="76">
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="Z5" s="80">
-        <f>Y5+1</f>
+      <c r="Z5" s="76">
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="AA5" s="80">
-        <f>Z5+1</f>
+      <c r="AA5" s="76">
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="AB5" s="80">
-        <f>AA5+1</f>
+      <c r="AB5" s="76">
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="AC5" s="80">
-        <f>AB5+1</f>
+      <c r="AC5" s="76">
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="AD5" s="80">
-        <f>AC5+1</f>
+      <c r="AD5" s="76">
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="AE5" s="80">
-        <f>AD5+1</f>
+      <c r="AE5" s="76">
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="AF5" s="80">
-        <f>AE5+1</f>
+      <c r="AF5" s="76">
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="AG5" s="80">
-        <f>AF5+1</f>
+      <c r="AG5" s="76">
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="AH5" s="80">
-        <f>AG5+1</f>
+      <c r="AH5" s="76">
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="AI5" s="80">
-        <f>AH5+1</f>
+      <c r="AI5" s="76">
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="AJ5" s="80">
-        <f>AI5+1</f>
+      <c r="AJ5" s="76">
+        <f t="shared" ref="AJ5:BO5" si="1">AI5+1</f>
         <v>34</v>
       </c>
-      <c r="AK5" s="80">
-        <f>AJ5+1</f>
+      <c r="AK5" s="76">
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="AL5" s="80">
-        <f>AK5+1</f>
+      <c r="AL5" s="76">
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="AM5" s="80">
-        <f>AL5+1</f>
+      <c r="AM5" s="76">
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
-      <c r="AN5" s="80">
-        <f>AM5+1</f>
+      <c r="AN5" s="76">
+        <f t="shared" si="1"/>
         <v>38</v>
       </c>
-      <c r="AO5" s="80">
-        <f>AN5+1</f>
+      <c r="AO5" s="76">
+        <f t="shared" si="1"/>
         <v>39</v>
       </c>
-      <c r="AP5" s="80">
-        <f>AO5+1</f>
+      <c r="AP5" s="76">
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="AQ5" s="80">
-        <f>AP5+1</f>
+      <c r="AQ5" s="76">
+        <f t="shared" si="1"/>
         <v>41</v>
       </c>
-      <c r="AR5" s="80">
-        <f>AQ5+1</f>
+      <c r="AR5" s="76">
+        <f t="shared" si="1"/>
         <v>42</v>
       </c>
-      <c r="AS5" s="80">
-        <f>AR5+1</f>
+      <c r="AS5" s="76">
+        <f t="shared" si="1"/>
         <v>43</v>
       </c>
-      <c r="AT5" s="80">
-        <f>AS5+1</f>
+      <c r="AT5" s="76">
+        <f t="shared" si="1"/>
         <v>44</v>
       </c>
-      <c r="AU5" s="80">
-        <f>AT5+1</f>
+      <c r="AU5" s="76">
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="AV5" s="80">
-        <f>AU5+1</f>
+      <c r="AV5" s="76">
+        <f t="shared" si="1"/>
         <v>46</v>
       </c>
-      <c r="AW5" s="80">
-        <f>AV5+1</f>
+      <c r="AW5" s="76">
+        <f t="shared" si="1"/>
         <v>47</v>
       </c>
-      <c r="AX5" s="80">
-        <f>AW5+1</f>
+      <c r="AX5" s="76">
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="AY5" s="80">
-        <f>AX5+1</f>
+      <c r="AY5" s="76">
+        <f t="shared" si="1"/>
         <v>49</v>
       </c>
-      <c r="AZ5" s="80">
-        <f>AY5+1</f>
+      <c r="AZ5" s="76">
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="BA5" s="80">
-        <f>AZ5+1</f>
+      <c r="BA5" s="76">
+        <f t="shared" si="1"/>
         <v>51</v>
       </c>
-      <c r="BB5" s="80">
-        <f>BA5+1</f>
+      <c r="BB5" s="76">
+        <f t="shared" si="1"/>
         <v>52</v>
       </c>
-      <c r="BC5" s="80">
-        <f>BB5+1</f>
+      <c r="BC5" s="76">
+        <f t="shared" si="1"/>
         <v>53</v>
       </c>
-      <c r="BD5" s="80">
-        <f>BC5+1</f>
+      <c r="BD5" s="76">
+        <f t="shared" si="1"/>
         <v>54</v>
       </c>
-      <c r="BE5" s="80">
-        <f>BD5+1</f>
+      <c r="BE5" s="76">
+        <f t="shared" si="1"/>
         <v>55</v>
       </c>
-      <c r="BF5" s="80">
-        <f>BE5+1</f>
+      <c r="BF5" s="76">
+        <f t="shared" si="1"/>
         <v>56</v>
       </c>
-      <c r="BG5" s="80">
-        <f>BF5+1</f>
+      <c r="BG5" s="76">
+        <f t="shared" si="1"/>
         <v>57</v>
       </c>
-      <c r="BH5" s="80">
-        <f>BG5+1</f>
+      <c r="BH5" s="76">
+        <f t="shared" si="1"/>
         <v>58</v>
       </c>
-      <c r="BI5" s="80">
-        <f>BH5+1</f>
+      <c r="BI5" s="76">
+        <f t="shared" si="1"/>
         <v>59</v>
       </c>
-      <c r="BJ5" s="80">
-        <f>BI5+1</f>
+      <c r="BJ5" s="76">
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="BK5" s="80">
-        <f>BJ5+1</f>
+      <c r="BK5" s="76">
+        <f t="shared" si="1"/>
         <v>61</v>
       </c>
-      <c r="BL5" s="80">
-        <f>BK5+1</f>
+      <c r="BL5" s="76">
+        <f t="shared" si="1"/>
         <v>62</v>
       </c>
-      <c r="BM5" s="80">
-        <f>BL5+1</f>
+      <c r="BM5" s="76">
+        <f t="shared" si="1"/>
         <v>63</v>
       </c>
-      <c r="BN5" s="80">
-        <f>BM5+1</f>
+      <c r="BN5" s="76">
+        <f t="shared" si="1"/>
         <v>64</v>
       </c>
-      <c r="BO5" s="80">
-        <f>BN5+1</f>
+      <c r="BO5" s="76">
+        <f t="shared" si="1"/>
         <v>65</v>
       </c>
-      <c r="BP5" s="80">
-        <f>BO5+1</f>
+      <c r="BP5" s="76">
+        <f t="shared" ref="BP5:CG5" si="2">BO5+1</f>
         <v>66</v>
       </c>
-      <c r="BQ5" s="80">
-        <f>BP5+1</f>
+      <c r="BQ5" s="76">
+        <f t="shared" si="2"/>
         <v>67</v>
       </c>
-      <c r="BR5" s="80">
-        <f>BQ5+1</f>
+      <c r="BR5" s="76">
+        <f t="shared" si="2"/>
         <v>68</v>
       </c>
-      <c r="BS5" s="80">
-        <f>BR5+1</f>
+      <c r="BS5" s="76">
+        <f t="shared" si="2"/>
         <v>69</v>
       </c>
-      <c r="BT5" s="80">
-        <f>BS5+1</f>
+      <c r="BT5" s="76">
+        <f t="shared" si="2"/>
         <v>70</v>
       </c>
-      <c r="BU5" s="80">
-        <f>BT5+1</f>
+      <c r="BU5" s="76">
+        <f t="shared" si="2"/>
         <v>71</v>
       </c>
-      <c r="BV5" s="80">
-        <f>BU5+1</f>
+      <c r="BV5" s="76">
+        <f t="shared" si="2"/>
         <v>72</v>
       </c>
-      <c r="BW5" s="80">
-        <f>BV5+1</f>
+      <c r="BW5" s="76">
+        <f t="shared" si="2"/>
         <v>73</v>
       </c>
-      <c r="BX5" s="80">
-        <f>BW5+1</f>
+      <c r="BX5" s="76">
+        <f t="shared" si="2"/>
         <v>74</v>
       </c>
-      <c r="BY5" s="80">
-        <f>BX5+1</f>
+      <c r="BY5" s="76">
+        <f t="shared" si="2"/>
         <v>75</v>
       </c>
-      <c r="BZ5" s="80">
-        <f>BY5+1</f>
+      <c r="BZ5" s="76">
+        <f t="shared" si="2"/>
         <v>76</v>
       </c>
-      <c r="CA5" s="80">
-        <f>BZ5+1</f>
+      <c r="CA5" s="76">
+        <f t="shared" si="2"/>
         <v>77</v>
       </c>
-      <c r="CB5" s="80">
-        <f>CA5+1</f>
+      <c r="CB5" s="76">
+        <f t="shared" si="2"/>
         <v>78</v>
       </c>
-      <c r="CC5" s="80">
-        <f>CB5+1</f>
+      <c r="CC5" s="76">
+        <f t="shared" si="2"/>
         <v>79</v>
       </c>
-      <c r="CD5" s="80">
-        <f>CC5+1</f>
+      <c r="CD5" s="76">
+        <f t="shared" si="2"/>
         <v>80</v>
       </c>
-      <c r="CE5" s="80">
-        <f>CD5+1</f>
+      <c r="CE5" s="76">
+        <f t="shared" si="2"/>
         <v>81</v>
       </c>
-      <c r="CF5" s="80">
-        <f>CE5+1</f>
+      <c r="CF5" s="76">
+        <f t="shared" si="2"/>
         <v>82</v>
       </c>
-      <c r="CG5" s="80">
-        <f>CF5+1</f>
+      <c r="CG5" s="76">
+        <f t="shared" si="2"/>
         <v>83</v>
       </c>
     </row>
     <row r="6" spans="2:85" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="77" t="s">
+      <c r="B6" s="73" t="s">
         <v>33</v>
       </c>
       <c r="C6" s="40" t="s">
@@ -6895,7 +6899,7 @@
       </c>
       <c r="J6" s="40"/>
       <c r="L6" s="40"/>
-      <c r="N6" s="79"/>
+      <c r="N6" s="75"/>
       <c r="P6" s="40"/>
       <c r="Q6" s="40"/>
       <c r="R6" s="40"/>
@@ -6915,7 +6919,7 @@
       <c r="AF6" s="40"/>
     </row>
     <row r="7" spans="2:85" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="77" t="s">
+      <c r="B7" s="73" t="s">
         <v>34</v>
       </c>
       <c r="C7" s="40"/>
@@ -6964,7 +6968,7 @@
       <c r="AF7" s="40"/>
     </row>
     <row r="8" spans="2:85" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="77" t="s">
+      <c r="B8" s="73" t="s">
         <v>35</v>
       </c>
       <c r="C8" s="40"/>
@@ -6978,10 +6982,10 @@
       <c r="G8" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="78" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" s="78" t="s">
+      <c r="H8" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="74" t="s">
         <v>12</v>
       </c>
       <c r="J8" s="40" t="s">
@@ -7038,7 +7042,7 @@
       </c>
     </row>
     <row r="9" spans="2:85" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="77" t="s">
+      <c r="B9" s="73" t="s">
         <v>36</v>
       </c>
       <c r="C9" s="40"/>
@@ -7050,10 +7054,10 @@
       <c r="G9" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="H9" s="78" t="s">
-        <v>12</v>
-      </c>
-      <c r="I9" s="78" t="s">
+      <c r="H9" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="74" t="s">
         <v>12</v>
       </c>
       <c r="J9" s="40" t="s">
@@ -7091,7 +7095,7 @@
       <c r="AF9" s="40"/>
     </row>
     <row r="10" spans="2:85" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="77" t="s">
+      <c r="B10" s="73" t="s">
         <v>33</v>
       </c>
       <c r="C10" s="40"/>
@@ -7101,10 +7105,10 @@
       <c r="G10" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="78" t="s">
-        <v>12</v>
-      </c>
-      <c r="I10" s="78" t="s">
+      <c r="H10" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" s="74" t="s">
         <v>12</v>
       </c>
       <c r="J10" s="40" t="s">
@@ -7116,7 +7120,7 @@
       <c r="L10" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="M10" s="78" t="s">
+      <c r="M10" s="74" t="s">
         <v>12</v>
       </c>
       <c r="N10" s="40" t="s">
@@ -7146,7 +7150,7 @@
       <c r="AF10" s="40"/>
     </row>
     <row r="11" spans="2:85" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="77" t="s">
+      <c r="B11" s="73" t="s">
         <v>37</v>
       </c>
       <c r="C11" s="40"/>
@@ -7154,10 +7158,10 @@
       <c r="E11" s="40"/>
       <c r="F11" s="40"/>
       <c r="G11" s="40"/>
-      <c r="H11" s="78" t="s">
-        <v>12</v>
-      </c>
-      <c r="I11" s="78" t="s">
+      <c r="H11" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="74" t="s">
         <v>12</v>
       </c>
       <c r="J11" s="40" t="s">
@@ -7169,7 +7173,7 @@
       <c r="L11" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="M11" s="78" t="s">
+      <c r="M11" s="74" t="s">
         <v>12</v>
       </c>
       <c r="N11" s="40" t="s">
@@ -7201,7 +7205,7 @@
       <c r="AF11" s="40"/>
     </row>
     <row r="12" spans="2:85" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="77" t="s">
+      <c r="B12" s="73" t="s">
         <v>62</v>
       </c>
       <c r="C12" s="40"/>
@@ -7218,16 +7222,16 @@
       <c r="L12" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="M12" s="78" t="s">
+      <c r="M12" s="74" t="s">
         <v>12</v>
       </c>
       <c r="N12" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="O12" s="78" t="s">
-        <v>12</v>
-      </c>
-      <c r="P12" s="78" t="s">
+      <c r="O12" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="P12" s="74" t="s">
         <v>12</v>
       </c>
       <c r="Q12" s="40" t="s">
@@ -7256,7 +7260,7 @@
       <c r="AF12" s="40"/>
     </row>
     <row r="13" spans="2:85" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="77" t="s">
+      <c r="B13" s="73" t="s">
         <v>38</v>
       </c>
       <c r="C13" s="40"/>
@@ -7271,16 +7275,16 @@
       <c r="L13" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="M13" s="78" t="s">
+      <c r="M13" s="74" t="s">
         <v>12</v>
       </c>
       <c r="N13" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="O13" s="78" t="s">
-        <v>12</v>
-      </c>
-      <c r="P13" s="78" t="s">
+      <c r="O13" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="P13" s="74" t="s">
         <v>12</v>
       </c>
       <c r="Q13" s="40" t="s">
@@ -7311,7 +7315,7 @@
       <c r="AF13" s="40"/>
     </row>
     <row r="14" spans="2:85" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="77" t="s">
+      <c r="B14" s="73" t="s">
         <v>37</v>
       </c>
       <c r="C14" s="40"/>
@@ -7324,16 +7328,16 @@
       <c r="J14" s="40"/>
       <c r="K14" s="40"/>
       <c r="L14" s="40"/>
-      <c r="M14" s="78" t="s">
+      <c r="M14" s="74" t="s">
         <v>12</v>
       </c>
       <c r="N14" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="O14" s="78" t="s">
-        <v>12</v>
-      </c>
-      <c r="P14" s="78" t="s">
+      <c r="O14" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="P14" s="74" t="s">
         <v>12</v>
       </c>
       <c r="Q14" s="40" t="s">
@@ -7345,7 +7349,7 @@
       <c r="S14" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="T14" s="78" t="s">
+      <c r="T14" s="74" t="s">
         <v>12</v>
       </c>
       <c r="U14" s="40" t="s">
@@ -7368,7 +7372,7 @@
       <c r="AF14" s="40"/>
     </row>
     <row r="15" spans="2:85" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="77" t="s">
+      <c r="B15" s="73" t="s">
         <v>105</v>
       </c>
       <c r="C15" s="40"/>
@@ -7383,10 +7387,10 @@
       <c r="L15" s="40"/>
       <c r="M15" s="40"/>
       <c r="N15" s="40"/>
-      <c r="O15" s="78" t="s">
-        <v>12</v>
-      </c>
-      <c r="P15" s="78" t="s">
+      <c r="O15" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="P15" s="74" t="s">
         <v>12</v>
       </c>
       <c r="Q15" s="40" t="s">
@@ -7398,13 +7402,13 @@
       <c r="S15" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="T15" s="78" t="s">
-        <v>12</v>
-      </c>
-      <c r="U15" s="78" t="s">
-        <v>12</v>
-      </c>
-      <c r="V15" s="78" t="s">
+      <c r="T15" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="U15" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="V15" s="74" t="s">
         <v>12</v>
       </c>
       <c r="W15" s="40" t="s">
@@ -7427,7 +7431,7 @@
       <c r="AF15" s="40"/>
     </row>
     <row r="16" spans="2:85" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="77" t="s">
+      <c r="B16" s="73" t="s">
         <v>38</v>
       </c>
       <c r="C16" s="40"/>
@@ -7451,13 +7455,13 @@
       <c r="S16" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="T16" s="78" t="s">
-        <v>12</v>
-      </c>
-      <c r="U16" s="78" t="s">
-        <v>12</v>
-      </c>
-      <c r="V16" s="78" t="s">
+      <c r="T16" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="U16" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="V16" s="74" t="s">
         <v>12</v>
       </c>
       <c r="W16" s="40" t="s">
@@ -7482,7 +7486,7 @@
       <c r="AF16" s="40"/>
     </row>
     <row r="17" spans="2:64" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="77" t="s">
+      <c r="B17" s="73" t="s">
         <v>106</v>
       </c>
       <c r="C17" s="40"/>
@@ -7504,13 +7508,13 @@
       <c r="S17" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="T17" s="78" t="s">
-        <v>12</v>
-      </c>
-      <c r="U17" s="78" t="s">
-        <v>12</v>
-      </c>
-      <c r="V17" s="78" t="s">
+      <c r="T17" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="U17" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="V17" s="74" t="s">
         <v>12</v>
       </c>
       <c r="W17" s="40" t="s">
@@ -7537,7 +7541,7 @@
       <c r="AF17" s="40"/>
     </row>
     <row r="18" spans="2:64" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="77" t="s">
+      <c r="B18" s="73" t="s">
         <v>37</v>
       </c>
       <c r="C18" s="40"/>
@@ -7557,13 +7561,13 @@
       <c r="Q18" s="40"/>
       <c r="R18" s="40"/>
       <c r="S18" s="40"/>
-      <c r="T18" s="78" t="s">
-        <v>12</v>
-      </c>
-      <c r="U18" s="78" t="s">
-        <v>12</v>
-      </c>
-      <c r="V18" s="78" t="s">
+      <c r="T18" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="U18" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="V18" s="74" t="s">
         <v>12</v>
       </c>
       <c r="W18" s="40" t="s">
@@ -7592,7 +7596,7 @@
       <c r="AF18" s="40"/>
     </row>
     <row r="19" spans="2:64" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="77" t="s">
+      <c r="B19" s="73" t="s">
         <v>63</v>
       </c>
       <c r="C19" s="40"/>
@@ -7625,10 +7629,10 @@
       <c r="Z19" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="AA19" s="78" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB19" s="78" t="s">
+      <c r="AA19" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB19" s="74" t="s">
         <v>12</v>
       </c>
       <c r="AC19" s="40" t="s">
@@ -7658,7 +7662,7 @@
       <c r="AS19" s="40"/>
     </row>
     <row r="20" spans="2:64" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="77" t="s">
+      <c r="B20" s="73" t="s">
         <v>67</v>
       </c>
       <c r="C20" s="40"/>
@@ -7689,10 +7693,10 @@
       <c r="Z20" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="AA20" s="78" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB20" s="78" t="s">
+      <c r="AA20" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB20" s="74" t="s">
         <v>12</v>
       </c>
       <c r="AC20" s="40" t="s">
@@ -7724,7 +7728,7 @@
       <c r="AS20" s="40"/>
     </row>
     <row r="21" spans="2:64" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="77" t="s">
+      <c r="B21" s="73" t="s">
         <v>34</v>
       </c>
       <c r="C21" s="40"/>
@@ -7753,10 +7757,10 @@
       <c r="Z21" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="AA21" s="78" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB21" s="78" t="s">
+      <c r="AA21" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB21" s="74" t="s">
         <v>12</v>
       </c>
       <c r="AC21" s="40" t="s">
@@ -7768,7 +7772,7 @@
       <c r="AE21" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="AF21" s="78" t="s">
+      <c r="AF21" s="74" t="s">
         <v>12</v>
       </c>
       <c r="AG21" s="40" t="s">
@@ -7792,7 +7796,7 @@
       <c r="AS21" s="40"/>
     </row>
     <row r="22" spans="2:64" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="77" t="s">
+      <c r="B22" s="73" t="s">
         <v>106</v>
       </c>
       <c r="C22" s="40"/>
@@ -7821,10 +7825,10 @@
       <c r="X22" s="40"/>
       <c r="Y22" s="40"/>
       <c r="Z22" s="40"/>
-      <c r="AA22" s="78" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB22" s="78" t="s">
+      <c r="AA22" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB22" s="74" t="s">
         <v>12</v>
       </c>
       <c r="AC22" s="40" t="s">
@@ -7836,7 +7840,7 @@
       <c r="AE22" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="AF22" s="78" t="s">
+      <c r="AF22" s="74" t="s">
         <v>12</v>
       </c>
       <c r="AG22" s="40" t="s">
@@ -7862,7 +7866,7 @@
       <c r="AS22" s="40"/>
     </row>
     <row r="23" spans="2:64" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="77" t="s">
+      <c r="B23" s="73" t="s">
         <v>64</v>
       </c>
       <c r="C23" s="40"/>
@@ -7898,16 +7902,16 @@
       <c r="AE23" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="AF23" s="78" t="s">
+      <c r="AF23" s="74" t="s">
         <v>12</v>
       </c>
       <c r="AG23" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="AH23" s="78" t="s">
-        <v>12</v>
-      </c>
-      <c r="AI23" s="78" t="s">
+      <c r="AH23" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI23" s="74" t="s">
         <v>12</v>
       </c>
       <c r="AJ23" s="40" t="s">
@@ -7930,7 +7934,7 @@
       <c r="AS23" s="40"/>
     </row>
     <row r="24" spans="2:64" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="77" t="s">
+      <c r="B24" s="73" t="s">
         <v>69</v>
       </c>
       <c r="C24" s="40"/>
@@ -7964,16 +7968,16 @@
       <c r="AE24" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="AF24" s="78" t="s">
+      <c r="AF24" s="74" t="s">
         <v>12</v>
       </c>
       <c r="AG24" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="AH24" s="78" t="s">
-        <v>12</v>
-      </c>
-      <c r="AI24" s="78" t="s">
+      <c r="AH24" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI24" s="74" t="s">
         <v>12</v>
       </c>
       <c r="AJ24" s="40" t="s">
@@ -7998,7 +8002,7 @@
       <c r="AS24" s="40"/>
     </row>
     <row r="25" spans="2:64" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="77" t="s">
+      <c r="B25" s="73" t="s">
         <v>34</v>
       </c>
       <c r="C25" s="40"/>
@@ -8030,16 +8034,16 @@
       <c r="AC25" s="40"/>
       <c r="AD25" s="40"/>
       <c r="AE25" s="40"/>
-      <c r="AF25" s="78" t="s">
+      <c r="AF25" s="74" t="s">
         <v>12</v>
       </c>
       <c r="AG25" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="AH25" s="78" t="s">
-        <v>12</v>
-      </c>
-      <c r="AI25" s="78" t="s">
+      <c r="AH25" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI25" s="74" t="s">
         <v>12</v>
       </c>
       <c r="AJ25" s="40" t="s">
@@ -8051,7 +8055,7 @@
       <c r="AL25" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="AM25" s="78" t="s">
+      <c r="AM25" s="74" t="s">
         <v>12</v>
       </c>
       <c r="AN25" s="40" t="s">
@@ -8068,7 +8072,7 @@
       <c r="AS25" s="40"/>
     </row>
     <row r="26" spans="2:64" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="77" t="s">
+      <c r="B26" s="73" t="s">
         <v>107</v>
       </c>
       <c r="C26" s="40"/>
@@ -8102,10 +8106,10 @@
       <c r="AE26" s="40"/>
       <c r="AF26" s="40"/>
       <c r="AG26" s="40"/>
-      <c r="AH26" s="78" t="s">
-        <v>12</v>
-      </c>
-      <c r="AI26" s="78" t="s">
+      <c r="AH26" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI26" s="74" t="s">
         <v>12</v>
       </c>
       <c r="AJ26" s="40" t="s">
@@ -8117,13 +8121,13 @@
       <c r="AL26" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="AM26" s="78" t="s">
-        <v>12</v>
-      </c>
-      <c r="AN26" s="78" t="s">
-        <v>12</v>
-      </c>
-      <c r="AO26" s="78" t="s">
+      <c r="AM26" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN26" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO26" s="74" t="s">
         <v>12</v>
       </c>
       <c r="AP26" s="40" t="s">
@@ -8140,112 +8144,112 @@
       </c>
     </row>
     <row r="27" spans="2:64" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="77" t="s">
+      <c r="B27" s="73" t="s">
         <v>69</v>
       </c>
-      <c r="AK27" s="76" t="s">
+      <c r="AK27" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="AL27" s="76" t="s">
+      <c r="AL27" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="AM27" s="75" t="s">
-        <v>12</v>
-      </c>
-      <c r="AN27" s="75" t="s">
-        <v>12</v>
-      </c>
-      <c r="AO27" s="74" t="s">
-        <v>12</v>
-      </c>
-      <c r="AP27" s="73" t="s">
+      <c r="AM27" s="71" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN27" s="71" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO27" s="70" t="s">
+        <v>12</v>
+      </c>
+      <c r="AP27" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="AQ27" s="73" t="s">
+      <c r="AQ27" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="AR27" s="73" t="s">
+      <c r="AR27" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="AS27" s="73" t="s">
+      <c r="AS27" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="AT27" s="73" t="s">
+      <c r="AT27" s="69" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="28" spans="2:64" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="77" t="s">
+      <c r="B28" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="AL28" s="76" t="s">
+      <c r="AL28" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="AM28" s="75" t="s">
-        <v>12</v>
-      </c>
-      <c r="AN28" s="75" t="s">
-        <v>12</v>
-      </c>
-      <c r="AO28" s="74" t="s">
-        <v>12</v>
-      </c>
-      <c r="AP28" s="73" t="s">
+      <c r="AM28" s="71" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN28" s="71" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO28" s="70" t="s">
+        <v>12</v>
+      </c>
+      <c r="AP28" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="AQ28" s="73" t="s">
+      <c r="AQ28" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="AR28" s="73" t="s">
+      <c r="AR28" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="AS28" s="73" t="s">
+      <c r="AS28" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="AT28" s="73" t="s">
+      <c r="AT28" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="AU28" s="73" t="s">
+      <c r="AU28" s="69" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="29" spans="2:64" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="77" t="s">
+      <c r="B29" s="73" t="s">
         <v>34</v>
       </c>
-      <c r="AM29" s="75" t="s">
-        <v>12</v>
-      </c>
-      <c r="AN29" s="75" t="s">
-        <v>12</v>
-      </c>
-      <c r="AO29" s="74" t="s">
-        <v>12</v>
-      </c>
-      <c r="AP29" s="73" t="s">
+      <c r="AM29" s="71" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN29" s="71" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO29" s="70" t="s">
+        <v>12</v>
+      </c>
+      <c r="AP29" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="AQ29" s="73" t="s">
+      <c r="AQ29" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="AR29" s="73" t="s">
+      <c r="AR29" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="AS29" s="73" t="s">
+      <c r="AS29" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="AT29" s="73" t="s">
+      <c r="AT29" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="AU29" s="73" t="s">
+      <c r="AU29" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="AV29" s="73" t="s">
+      <c r="AV29" s="69" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="30" spans="2:64" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="77" t="s">
+      <c r="B30" s="73" t="s">
         <v>35</v>
       </c>
       <c r="AQ30" s="40" t="s">
@@ -8257,10 +8261,10 @@
       <c r="AS30" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="AT30" s="78" t="s">
-        <v>12</v>
-      </c>
-      <c r="AU30" s="78" t="s">
+      <c r="AT30" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="AU30" s="74" t="s">
         <v>12</v>
       </c>
       <c r="AV30" s="40" t="s">
@@ -8290,7 +8294,7 @@
       <c r="BL30" s="40"/>
     </row>
     <row r="31" spans="2:64" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="77" t="s">
+      <c r="B31" s="73" t="s">
         <v>36</v>
       </c>
       <c r="AQ31" s="40"/>
@@ -8300,10 +8304,10 @@
       <c r="AS31" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="AT31" s="78" t="s">
-        <v>12</v>
-      </c>
-      <c r="AU31" s="78" t="s">
+      <c r="AT31" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="AU31" s="74" t="s">
         <v>12</v>
       </c>
       <c r="AV31" s="40" t="s">
@@ -8335,7 +8339,7 @@
       <c r="BL31" s="40"/>
     </row>
     <row r="32" spans="2:64" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="77" t="s">
+      <c r="B32" s="73" t="s">
         <v>33</v>
       </c>
       <c r="AQ32" s="40"/>
@@ -8343,10 +8347,10 @@
       <c r="AS32" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="AT32" s="78" t="s">
-        <v>12</v>
-      </c>
-      <c r="AU32" s="78" t="s">
+      <c r="AT32" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="AU32" s="74" t="s">
         <v>12</v>
       </c>
       <c r="AV32" s="40" t="s">
@@ -8358,7 +8362,7 @@
       <c r="AX32" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="AY32" s="78" t="s">
+      <c r="AY32" s="74" t="s">
         <v>12</v>
       </c>
       <c r="AZ32" s="40" t="s">
@@ -8382,16 +8386,16 @@
       <c r="BL32" s="40"/>
     </row>
     <row r="33" spans="2:83" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="77" t="s">
+      <c r="B33" s="73" t="s">
         <v>37</v>
       </c>
       <c r="AQ33" s="40"/>
       <c r="AR33" s="40"/>
       <c r="AS33" s="40"/>
-      <c r="AT33" s="78" t="s">
-        <v>12</v>
-      </c>
-      <c r="AU33" s="78" t="s">
+      <c r="AT33" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="AU33" s="74" t="s">
         <v>12</v>
       </c>
       <c r="AV33" s="40" t="s">
@@ -8403,7 +8407,7 @@
       <c r="AX33" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="AY33" s="78" t="s">
+      <c r="AY33" s="74" t="s">
         <v>12</v>
       </c>
       <c r="AZ33" s="40" t="s">
@@ -8429,7 +8433,7 @@
       <c r="BL33" s="40"/>
     </row>
     <row r="34" spans="2:83" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="77" t="s">
+      <c r="B34" s="73" t="s">
         <v>62</v>
       </c>
       <c r="AQ34" s="40"/>
@@ -8444,16 +8448,16 @@
       <c r="AX34" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="AY34" s="78" t="s">
+      <c r="AY34" s="74" t="s">
         <v>12</v>
       </c>
       <c r="AZ34" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="BA34" s="78" t="s">
-        <v>12</v>
-      </c>
-      <c r="BB34" s="78" t="s">
+      <c r="BA34" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="BB34" s="74" t="s">
         <v>12</v>
       </c>
       <c r="BC34" s="40" t="s">
@@ -8476,7 +8480,7 @@
       <c r="BL34" s="40"/>
     </row>
     <row r="35" spans="2:83" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="77" t="s">
+      <c r="B35" s="73" t="s">
         <v>38</v>
       </c>
       <c r="AQ35" s="40"/>
@@ -8489,16 +8493,16 @@
       <c r="AX35" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="AY35" s="78" t="s">
+      <c r="AY35" s="74" t="s">
         <v>12</v>
       </c>
       <c r="AZ35" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="BA35" s="78" t="s">
-        <v>12</v>
-      </c>
-      <c r="BB35" s="78" t="s">
+      <c r="BA35" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="BB35" s="74" t="s">
         <v>12</v>
       </c>
       <c r="BC35" s="40" t="s">
@@ -8523,7 +8527,7 @@
       <c r="BL35" s="40"/>
     </row>
     <row r="36" spans="2:83" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="77" t="s">
+      <c r="B36" s="73" t="s">
         <v>37</v>
       </c>
       <c r="AQ36" s="40"/>
@@ -8534,16 +8538,16 @@
       <c r="AV36" s="40"/>
       <c r="AW36" s="40"/>
       <c r="AX36" s="40"/>
-      <c r="AY36" s="78" t="s">
+      <c r="AY36" s="74" t="s">
         <v>12</v>
       </c>
       <c r="AZ36" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="BA36" s="78" t="s">
-        <v>12</v>
-      </c>
-      <c r="BB36" s="78" t="s">
+      <c r="BA36" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="BB36" s="74" t="s">
         <v>12</v>
       </c>
       <c r="BC36" s="40" t="s">
@@ -8555,7 +8559,7 @@
       <c r="BE36" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="BF36" s="78" t="s">
+      <c r="BF36" s="74" t="s">
         <v>12</v>
       </c>
       <c r="BG36" s="40" t="s">
@@ -8572,7 +8576,7 @@
       <c r="BL36" s="40"/>
     </row>
     <row r="37" spans="2:83" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="77" t="s">
+      <c r="B37" s="73" t="s">
         <v>108</v>
       </c>
       <c r="AQ37" s="40"/>
@@ -8585,10 +8589,10 @@
       <c r="AX37" s="40"/>
       <c r="AY37" s="40"/>
       <c r="AZ37" s="40"/>
-      <c r="BA37" s="78" t="s">
-        <v>12</v>
-      </c>
-      <c r="BB37" s="78" t="s">
+      <c r="BA37" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="BB37" s="74" t="s">
         <v>12</v>
       </c>
       <c r="BC37" s="40" t="s">
@@ -8600,13 +8604,13 @@
       <c r="BE37" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="BF37" s="78" t="s">
-        <v>12</v>
-      </c>
-      <c r="BG37" s="78" t="s">
-        <v>12</v>
-      </c>
-      <c r="BH37" s="78" t="s">
+      <c r="BF37" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="BG37" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="BH37" s="74" t="s">
         <v>12</v>
       </c>
       <c r="BI37" s="40" t="s">
@@ -8623,112 +8627,112 @@
       </c>
     </row>
     <row r="38" spans="2:83" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="77" t="s">
+      <c r="B38" s="73" t="s">
         <v>38</v>
       </c>
-      <c r="BD38" s="76" t="s">
+      <c r="BD38" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="BE38" s="76" t="s">
+      <c r="BE38" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="BF38" s="75" t="s">
-        <v>12</v>
-      </c>
-      <c r="BG38" s="75" t="s">
-        <v>12</v>
-      </c>
-      <c r="BH38" s="74" t="s">
-        <v>12</v>
-      </c>
-      <c r="BI38" s="73" t="s">
+      <c r="BF38" s="71" t="s">
+        <v>12</v>
+      </c>
+      <c r="BG38" s="71" t="s">
+        <v>12</v>
+      </c>
+      <c r="BH38" s="70" t="s">
+        <v>12</v>
+      </c>
+      <c r="BI38" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="BJ38" s="73" t="s">
+      <c r="BJ38" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="BK38" s="73" t="s">
+      <c r="BK38" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="BL38" s="73" t="s">
+      <c r="BL38" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="BM38" s="73" t="s">
+      <c r="BM38" s="69" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="39" spans="2:83" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="77" t="s">
+      <c r="B39" s="73" t="s">
         <v>106</v>
       </c>
-      <c r="BE39" s="76" t="s">
+      <c r="BE39" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="BF39" s="75" t="s">
-        <v>12</v>
-      </c>
-      <c r="BG39" s="75" t="s">
-        <v>12</v>
-      </c>
-      <c r="BH39" s="74" t="s">
-        <v>12</v>
-      </c>
-      <c r="BI39" s="73" t="s">
+      <c r="BF39" s="71" t="s">
+        <v>12</v>
+      </c>
+      <c r="BG39" s="71" t="s">
+        <v>12</v>
+      </c>
+      <c r="BH39" s="70" t="s">
+        <v>12</v>
+      </c>
+      <c r="BI39" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="BJ39" s="73" t="s">
+      <c r="BJ39" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="BK39" s="73" t="s">
+      <c r="BK39" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="BL39" s="73" t="s">
+      <c r="BL39" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="BM39" s="73" t="s">
+      <c r="BM39" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="BN39" s="73" t="s">
+      <c r="BN39" s="69" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="40" spans="2:83" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="77" t="s">
+      <c r="B40" s="73" t="s">
         <v>37</v>
       </c>
-      <c r="BF40" s="75" t="s">
-        <v>12</v>
-      </c>
-      <c r="BG40" s="75" t="s">
-        <v>12</v>
-      </c>
-      <c r="BH40" s="74" t="s">
-        <v>12</v>
-      </c>
-      <c r="BI40" s="73" t="s">
+      <c r="BF40" s="71" t="s">
+        <v>12</v>
+      </c>
+      <c r="BG40" s="71" t="s">
+        <v>12</v>
+      </c>
+      <c r="BH40" s="70" t="s">
+        <v>12</v>
+      </c>
+      <c r="BI40" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="BJ40" s="73" t="s">
+      <c r="BJ40" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="BK40" s="73" t="s">
+      <c r="BK40" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="BL40" s="73" t="s">
+      <c r="BL40" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="BM40" s="73" t="s">
+      <c r="BM40" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="BN40" s="73" t="s">
+      <c r="BN40" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="BO40" s="73" t="s">
+      <c r="BO40" s="69" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="41" spans="2:83" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="77" t="s">
+      <c r="B41" s="73" t="s">
         <v>63</v>
       </c>
       <c r="BJ41" s="40" t="s">
@@ -8740,10 +8744,10 @@
       <c r="BL41" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="BM41" s="78" t="s">
-        <v>12</v>
-      </c>
-      <c r="BN41" s="78" t="s">
+      <c r="BM41" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="BN41" s="74" t="s">
         <v>12</v>
       </c>
       <c r="BO41" s="40" t="s">
@@ -8773,7 +8777,7 @@
       <c r="CE41" s="40"/>
     </row>
     <row r="42" spans="2:83" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="77" t="s">
+      <c r="B42" s="73" t="s">
         <v>67</v>
       </c>
       <c r="BJ42" s="40"/>
@@ -8783,10 +8787,10 @@
       <c r="BL42" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="BM42" s="78" t="s">
-        <v>12</v>
-      </c>
-      <c r="BN42" s="78" t="s">
+      <c r="BM42" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="BN42" s="74" t="s">
         <v>12</v>
       </c>
       <c r="BO42" s="40" t="s">
@@ -8818,7 +8822,7 @@
       <c r="CE42" s="40"/>
     </row>
     <row r="43" spans="2:83" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="77" t="s">
+      <c r="B43" s="73" t="s">
         <v>34</v>
       </c>
       <c r="BJ43" s="40"/>
@@ -8826,10 +8830,10 @@
       <c r="BL43" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="BM43" s="78" t="s">
-        <v>12</v>
-      </c>
-      <c r="BN43" s="78" t="s">
+      <c r="BM43" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="BN43" s="74" t="s">
         <v>12</v>
       </c>
       <c r="BO43" s="40" t="s">
@@ -8841,7 +8845,7 @@
       <c r="BQ43" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="BR43" s="78" t="s">
+      <c r="BR43" s="74" t="s">
         <v>12</v>
       </c>
       <c r="BS43" s="40" t="s">
@@ -8865,16 +8869,16 @@
       <c r="CE43" s="40"/>
     </row>
     <row r="44" spans="2:83" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="77" t="s">
+      <c r="B44" s="73" t="s">
         <v>106</v>
       </c>
       <c r="BJ44" s="40"/>
       <c r="BK44" s="40"/>
       <c r="BL44" s="40"/>
-      <c r="BM44" s="78" t="s">
-        <v>12</v>
-      </c>
-      <c r="BN44" s="78" t="s">
+      <c r="BM44" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="BN44" s="74" t="s">
         <v>12</v>
       </c>
       <c r="BO44" s="40" t="s">
@@ -8886,7 +8890,7 @@
       <c r="BQ44" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="BR44" s="78" t="s">
+      <c r="BR44" s="74" t="s">
         <v>12</v>
       </c>
       <c r="BS44" s="40" t="s">
@@ -8912,7 +8916,7 @@
       <c r="CE44" s="40"/>
     </row>
     <row r="45" spans="2:83" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="77" t="s">
+      <c r="B45" s="73" t="s">
         <v>64</v>
       </c>
       <c r="BJ45" s="40"/>
@@ -8927,16 +8931,16 @@
       <c r="BQ45" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="BR45" s="78" t="s">
+      <c r="BR45" s="74" t="s">
         <v>12</v>
       </c>
       <c r="BS45" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="BT45" s="78" t="s">
-        <v>12</v>
-      </c>
-      <c r="BU45" s="78" t="s">
+      <c r="BT45" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="BU45" s="74" t="s">
         <v>12</v>
       </c>
       <c r="BV45" s="40" t="s">
@@ -8959,7 +8963,7 @@
       <c r="CE45" s="40"/>
     </row>
     <row r="46" spans="2:83" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="77" t="s">
+      <c r="B46" s="73" t="s">
         <v>69</v>
       </c>
       <c r="BJ46" s="40"/>
@@ -8972,16 +8976,16 @@
       <c r="BQ46" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="BR46" s="78" t="s">
+      <c r="BR46" s="74" t="s">
         <v>12</v>
       </c>
       <c r="BS46" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="BT46" s="78" t="s">
-        <v>12</v>
-      </c>
-      <c r="BU46" s="78" t="s">
+      <c r="BT46" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="BU46" s="74" t="s">
         <v>12</v>
       </c>
       <c r="BV46" s="40" t="s">
@@ -9006,7 +9010,7 @@
       <c r="CE46" s="40"/>
     </row>
     <row r="47" spans="2:83" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="77" t="s">
+      <c r="B47" s="73" t="s">
         <v>34</v>
       </c>
       <c r="BJ47" s="40"/>
@@ -9017,16 +9021,16 @@
       <c r="BO47" s="40"/>
       <c r="BP47" s="40"/>
       <c r="BQ47" s="40"/>
-      <c r="BR47" s="78" t="s">
+      <c r="BR47" s="74" t="s">
         <v>12</v>
       </c>
       <c r="BS47" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="BT47" s="78" t="s">
-        <v>12</v>
-      </c>
-      <c r="BU47" s="78" t="s">
+      <c r="BT47" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="BU47" s="74" t="s">
         <v>12</v>
       </c>
       <c r="BV47" s="40" t="s">
@@ -9038,7 +9042,7 @@
       <c r="BX47" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="BY47" s="78" t="s">
+      <c r="BY47" s="74" t="s">
         <v>12</v>
       </c>
       <c r="BZ47" s="40" t="s">
@@ -9055,7 +9059,7 @@
       <c r="CE47" s="40"/>
     </row>
     <row r="48" spans="2:83" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="77" t="s">
+      <c r="B48" s="73" t="s">
         <v>109</v>
       </c>
       <c r="BJ48" s="40"/>
@@ -9068,10 +9072,10 @@
       <c r="BQ48" s="40"/>
       <c r="BR48" s="40"/>
       <c r="BS48" s="40"/>
-      <c r="BT48" s="78" t="s">
-        <v>12</v>
-      </c>
-      <c r="BU48" s="78" t="s">
+      <c r="BT48" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="BU48" s="74" t="s">
         <v>12</v>
       </c>
       <c r="BV48" s="40" t="s">
@@ -9083,13 +9087,13 @@
       <c r="BX48" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="BY48" s="78" t="s">
-        <v>12</v>
-      </c>
-      <c r="BZ48" s="78" t="s">
-        <v>12</v>
-      </c>
-      <c r="CA48" s="78" t="s">
+      <c r="BY48" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="BZ48" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="CA48" s="74" t="s">
         <v>12</v>
       </c>
       <c r="CB48" s="40" t="s">
@@ -9106,37 +9110,37 @@
       </c>
     </row>
     <row r="49" spans="2:84" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="77" t="s">
+      <c r="B49" s="73" t="s">
         <v>69</v>
       </c>
-      <c r="BW49" s="76" t="s">
+      <c r="BW49" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="BX49" s="76" t="s">
+      <c r="BX49" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="BY49" s="75" t="s">
-        <v>12</v>
-      </c>
-      <c r="BZ49" s="75" t="s">
-        <v>12</v>
-      </c>
-      <c r="CA49" s="74" t="s">
-        <v>12</v>
-      </c>
-      <c r="CB49" s="73" t="s">
+      <c r="BY49" s="71" t="s">
+        <v>12</v>
+      </c>
+      <c r="BZ49" s="71" t="s">
+        <v>12</v>
+      </c>
+      <c r="CA49" s="70" t="s">
+        <v>12</v>
+      </c>
+      <c r="CB49" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="CC49" s="73" t="s">
+      <c r="CC49" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="CD49" s="73" t="s">
+      <c r="CD49" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="CE49" s="73" t="s">
+      <c r="CE49" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="CF49" s="73" t="s">
+      <c r="CF49" s="69" t="s">
         <v>10</v>
       </c>
     </row>
@@ -9148,6 +9152,1928 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3C9CF87-7858-4578-8BEB-0003605F2FF4}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B2:CG49"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.375" style="25" customWidth="1"/>
+    <col min="2" max="2" width="28.125" style="25" customWidth="1"/>
+    <col min="3" max="85" width="8.625" style="25" customWidth="1"/>
+    <col min="86" max="16384" width="11" style="25"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:85" ht="18" x14ac:dyDescent="0.25">
+      <c r="B2" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="80"/>
+    </row>
+    <row r="3" spans="2:85" ht="18" x14ac:dyDescent="0.25">
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+    </row>
+    <row r="4" spans="2:85" ht="18" x14ac:dyDescent="0.25">
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="N4" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="O4" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="R4" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="S4" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="T4" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="U4" s="35"/>
+      <c r="V4" s="35"/>
+      <c r="W4" s="35"/>
+      <c r="X4" s="35"/>
+      <c r="Y4" s="35"/>
+      <c r="Z4" s="35"/>
+    </row>
+    <row r="5" spans="2:85" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="79" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="78">
+        <v>13</v>
+      </c>
+      <c r="D5" s="76">
+        <f t="shared" ref="D5:BO5" si="0">C5+1</f>
+        <v>14</v>
+      </c>
+      <c r="E5" s="76">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="F5" s="76">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="G5" s="76">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="H5" s="76">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="I5" s="77">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="J5" s="76">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="K5" s="76">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="L5" s="76">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="M5" s="76">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="N5" s="76">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="O5" s="76">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="P5" s="76">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="Q5" s="76">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="R5" s="76">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="S5" s="76">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="T5" s="76">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="U5" s="76">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="V5" s="76">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="W5" s="76">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="X5" s="76">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="Y5" s="76">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="Z5" s="76">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="AA5" s="76">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="AB5" s="76">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="AC5" s="76">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="AD5" s="76">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="AE5" s="76">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="AF5" s="76">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="AG5" s="76">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="AH5" s="76">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="AI5" s="76">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="AJ5" s="76">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="AK5" s="76">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="AL5" s="76">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="AM5" s="76">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="AN5" s="76">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="AO5" s="76">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="AP5" s="76">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="AQ5" s="76">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="AR5" s="76">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="AS5" s="76">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="AT5" s="76">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="AU5" s="76">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="AV5" s="76">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="AW5" s="76">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="AX5" s="76">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="AY5" s="76">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="AZ5" s="76">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="BA5" s="76">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="BB5" s="76">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="BC5" s="76">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="BD5" s="76">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="BE5" s="76">
+        <f t="shared" si="0"/>
+        <v>67</v>
+      </c>
+      <c r="BF5" s="76">
+        <f t="shared" si="0"/>
+        <v>68</v>
+      </c>
+      <c r="BG5" s="76">
+        <f t="shared" si="0"/>
+        <v>69</v>
+      </c>
+      <c r="BH5" s="76">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="BI5" s="76">
+        <f t="shared" si="0"/>
+        <v>71</v>
+      </c>
+      <c r="BJ5" s="76">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="BK5" s="76">
+        <f t="shared" si="0"/>
+        <v>73</v>
+      </c>
+      <c r="BL5" s="76">
+        <f t="shared" si="0"/>
+        <v>74</v>
+      </c>
+      <c r="BM5" s="76">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="BN5" s="76">
+        <f t="shared" si="0"/>
+        <v>76</v>
+      </c>
+      <c r="BO5" s="76">
+        <f t="shared" si="0"/>
+        <v>77</v>
+      </c>
+      <c r="BP5" s="76">
+        <f t="shared" ref="BP5:CG5" si="1">BO5+1</f>
+        <v>78</v>
+      </c>
+      <c r="BQ5" s="76">
+        <f t="shared" si="1"/>
+        <v>79</v>
+      </c>
+      <c r="BR5" s="76">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="BS5" s="76">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+      <c r="BT5" s="76">
+        <f t="shared" si="1"/>
+        <v>82</v>
+      </c>
+      <c r="BU5" s="76">
+        <f t="shared" si="1"/>
+        <v>83</v>
+      </c>
+      <c r="BV5" s="76">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+      <c r="BW5" s="76">
+        <f t="shared" si="1"/>
+        <v>85</v>
+      </c>
+      <c r="BX5" s="76">
+        <f t="shared" si="1"/>
+        <v>86</v>
+      </c>
+      <c r="BY5" s="76">
+        <f t="shared" si="1"/>
+        <v>87</v>
+      </c>
+      <c r="BZ5" s="76">
+        <f t="shared" si="1"/>
+        <v>88</v>
+      </c>
+      <c r="CA5" s="76">
+        <f t="shared" si="1"/>
+        <v>89</v>
+      </c>
+      <c r="CB5" s="76">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="CC5" s="76">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+      <c r="CD5" s="76">
+        <f t="shared" si="1"/>
+        <v>92</v>
+      </c>
+      <c r="CE5" s="76">
+        <f t="shared" si="1"/>
+        <v>93</v>
+      </c>
+      <c r="CF5" s="76">
+        <f t="shared" si="1"/>
+        <v>94</v>
+      </c>
+      <c r="CG5" s="76">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="2:85" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="85" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="L6" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="M6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="N6" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="O6" s="40"/>
+      <c r="P6" s="40"/>
+      <c r="Q6" s="40"/>
+      <c r="R6" s="40"/>
+      <c r="S6" s="40"/>
+      <c r="T6" s="40"/>
+      <c r="U6" s="74"/>
+      <c r="V6" s="74"/>
+      <c r="W6" s="40"/>
+      <c r="X6" s="40"/>
+      <c r="Y6" s="40"/>
+      <c r="Z6" s="40"/>
+      <c r="AA6" s="40"/>
+      <c r="AB6" s="40"/>
+      <c r="AC6" s="40"/>
+      <c r="AD6" s="40"/>
+      <c r="AE6" s="40"/>
+      <c r="AF6" s="40"/>
+    </row>
+    <row r="7" spans="2:85" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="85" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="K7" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="L7" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="M7" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="N7" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="O7" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="P7" s="40"/>
+      <c r="Q7" s="40"/>
+      <c r="R7" s="40"/>
+      <c r="S7" s="40"/>
+      <c r="T7" s="40"/>
+      <c r="U7" s="74"/>
+      <c r="V7" s="74"/>
+      <c r="W7" s="40"/>
+      <c r="X7" s="40"/>
+      <c r="Y7" s="40"/>
+      <c r="Z7" s="40"/>
+      <c r="AA7" s="40"/>
+      <c r="AB7" s="40"/>
+      <c r="AC7" s="40"/>
+      <c r="AD7" s="40"/>
+      <c r="AE7" s="40"/>
+      <c r="AF7" s="40"/>
+    </row>
+    <row r="8" spans="2:85" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="85" t="s">
+        <v>106</v>
+      </c>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="K8" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="L8" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="M8" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="N8" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="O8" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="P8" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q8" s="40"/>
+      <c r="R8" s="40"/>
+      <c r="S8" s="40"/>
+      <c r="T8" s="40"/>
+      <c r="U8" s="74"/>
+      <c r="V8" s="74"/>
+      <c r="W8" s="40"/>
+      <c r="X8" s="40"/>
+      <c r="Y8" s="40"/>
+      <c r="Z8" s="40"/>
+      <c r="AA8" s="40"/>
+      <c r="AB8" s="40"/>
+      <c r="AC8" s="40"/>
+      <c r="AD8" s="40"/>
+      <c r="AE8" s="40"/>
+      <c r="AF8" s="40"/>
+      <c r="AI8" s="40"/>
+      <c r="AJ8" s="40"/>
+      <c r="AK8" s="40"/>
+      <c r="AL8" s="40"/>
+      <c r="AM8" s="40"/>
+      <c r="AN8" s="40"/>
+      <c r="AO8" s="40"/>
+    </row>
+    <row r="9" spans="2:85" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="85" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="K9" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="L9" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="M9" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="N9" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="O9" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="P9" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q9" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="R9" s="40"/>
+      <c r="S9" s="40"/>
+      <c r="T9" s="40"/>
+      <c r="U9" s="74"/>
+      <c r="V9" s="74"/>
+      <c r="W9" s="40"/>
+      <c r="X9" s="40"/>
+      <c r="Y9" s="40"/>
+      <c r="Z9" s="40"/>
+      <c r="AA9" s="40"/>
+      <c r="AB9" s="40"/>
+      <c r="AC9" s="40"/>
+      <c r="AD9" s="40"/>
+      <c r="AE9" s="40"/>
+      <c r="AF9" s="40"/>
+    </row>
+    <row r="10" spans="2:85" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="85" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="40"/>
+      <c r="L10" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="M10" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="O10" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="P10" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q10" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="R10" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="S10" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="T10" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="U10" s="40"/>
+      <c r="V10" s="40"/>
+      <c r="W10" s="40"/>
+      <c r="X10" s="40"/>
+      <c r="Y10" s="40"/>
+      <c r="Z10" s="40"/>
+      <c r="AA10" s="74"/>
+      <c r="AB10" s="74"/>
+      <c r="AC10" s="40"/>
+      <c r="AD10" s="40"/>
+      <c r="AE10" s="40"/>
+      <c r="AF10" s="40"/>
+    </row>
+    <row r="11" spans="2:85" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="86"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="74"/>
+      <c r="I11" s="74"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="40"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="74"/>
+      <c r="N11" s="40"/>
+      <c r="O11" s="40"/>
+      <c r="P11" s="40"/>
+      <c r="Q11" s="40"/>
+      <c r="R11" s="40"/>
+      <c r="S11" s="40"/>
+      <c r="T11" s="40"/>
+      <c r="U11" s="40"/>
+      <c r="V11" s="40"/>
+      <c r="W11" s="40"/>
+      <c r="X11" s="40"/>
+      <c r="Y11" s="40"/>
+      <c r="Z11" s="40"/>
+      <c r="AA11" s="40"/>
+      <c r="AB11" s="40"/>
+      <c r="AC11" s="40"/>
+      <c r="AD11" s="40"/>
+      <c r="AE11" s="40"/>
+      <c r="AF11" s="40"/>
+    </row>
+    <row r="12" spans="2:85" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="86"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="40"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="74"/>
+      <c r="N12" s="40"/>
+      <c r="O12" s="74"/>
+      <c r="P12" s="74"/>
+      <c r="Q12" s="40"/>
+      <c r="R12" s="40"/>
+      <c r="S12" s="40"/>
+      <c r="T12" s="40"/>
+      <c r="U12" s="40"/>
+      <c r="V12" s="40"/>
+      <c r="W12" s="40"/>
+      <c r="X12" s="40"/>
+      <c r="Y12" s="40"/>
+      <c r="Z12" s="40"/>
+      <c r="AA12" s="40"/>
+      <c r="AB12" s="40"/>
+      <c r="AC12" s="40"/>
+      <c r="AD12" s="40"/>
+      <c r="AE12" s="40"/>
+      <c r="AF12" s="40"/>
+    </row>
+    <row r="13" spans="2:85" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="86"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="40"/>
+      <c r="L13" s="40"/>
+      <c r="M13" s="74"/>
+      <c r="N13" s="40"/>
+      <c r="O13" s="74"/>
+      <c r="P13" s="74"/>
+      <c r="Q13" s="40"/>
+      <c r="R13" s="40"/>
+      <c r="S13" s="40"/>
+      <c r="T13" s="40"/>
+      <c r="U13" s="40"/>
+      <c r="V13" s="40"/>
+      <c r="W13" s="40"/>
+      <c r="X13" s="40"/>
+      <c r="Y13" s="40"/>
+      <c r="Z13" s="40"/>
+      <c r="AA13" s="40"/>
+      <c r="AB13" s="40"/>
+      <c r="AC13" s="40"/>
+      <c r="AD13" s="40"/>
+      <c r="AE13" s="40"/>
+      <c r="AF13" s="40"/>
+    </row>
+    <row r="14" spans="2:85" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="86"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="40"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="74"/>
+      <c r="N14" s="40"/>
+      <c r="O14" s="74"/>
+      <c r="P14" s="74"/>
+      <c r="Q14" s="40"/>
+      <c r="R14" s="40"/>
+      <c r="S14" s="40"/>
+      <c r="T14" s="74"/>
+      <c r="U14" s="40"/>
+      <c r="V14" s="40"/>
+      <c r="W14" s="40"/>
+      <c r="X14" s="40"/>
+      <c r="Y14" s="40"/>
+      <c r="Z14" s="40"/>
+      <c r="AA14" s="40"/>
+      <c r="AB14" s="40"/>
+      <c r="AC14" s="40"/>
+      <c r="AD14" s="40"/>
+      <c r="AE14" s="40"/>
+      <c r="AF14" s="40"/>
+    </row>
+    <row r="15" spans="2:85" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="86"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="40"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="40"/>
+      <c r="N15" s="40"/>
+      <c r="O15" s="74"/>
+      <c r="P15" s="74"/>
+      <c r="Q15" s="40"/>
+      <c r="R15" s="40"/>
+      <c r="S15" s="40"/>
+      <c r="T15" s="74"/>
+      <c r="U15" s="74"/>
+      <c r="V15" s="74"/>
+      <c r="W15" s="40"/>
+      <c r="X15" s="40"/>
+      <c r="Y15" s="40"/>
+      <c r="Z15" s="40"/>
+      <c r="AA15" s="40"/>
+      <c r="AB15" s="40"/>
+      <c r="AC15" s="40"/>
+      <c r="AD15" s="40"/>
+      <c r="AE15" s="40"/>
+      <c r="AF15" s="40"/>
+    </row>
+    <row r="16" spans="2:85" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="86"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="40"/>
+      <c r="N16" s="40"/>
+      <c r="O16" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="P16" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q16" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="R16" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="S16" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="T16" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="U16" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="V16" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="W16" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="X16" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y16" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z16" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA16" s="40"/>
+      <c r="AB16" s="40"/>
+      <c r="AC16" s="40"/>
+      <c r="AD16" s="40"/>
+      <c r="AE16" s="40"/>
+      <c r="AF16" s="40"/>
+    </row>
+    <row r="17" spans="2:64" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="86"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="40"/>
+      <c r="L17" s="40"/>
+      <c r="M17" s="40"/>
+      <c r="N17" s="40"/>
+      <c r="O17" s="40"/>
+      <c r="P17" s="40"/>
+      <c r="Q17" s="40"/>
+      <c r="R17" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="S17" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="T17" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="U17" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="V17" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="W17" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="X17" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y17" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z17" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA17" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB17" s="40"/>
+      <c r="AC17" s="40"/>
+      <c r="AD17" s="40"/>
+      <c r="AE17" s="40"/>
+      <c r="AF17" s="40"/>
+    </row>
+    <row r="18" spans="2:64" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="86"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="40"/>
+      <c r="L18" s="40"/>
+      <c r="M18" s="40"/>
+      <c r="N18" s="40"/>
+      <c r="O18" s="40"/>
+      <c r="P18" s="40"/>
+      <c r="Q18" s="40"/>
+      <c r="R18" s="40"/>
+      <c r="S18" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="T18" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="U18" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="V18" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="W18" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="X18" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y18" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z18" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA18" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB18" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC18" s="40"/>
+      <c r="AD18" s="40"/>
+      <c r="AE18" s="40"/>
+      <c r="AF18" s="40"/>
+    </row>
+    <row r="19" spans="2:64" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="73"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="40"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="40"/>
+      <c r="L19" s="40"/>
+      <c r="M19" s="40"/>
+      <c r="N19" s="40"/>
+      <c r="O19" s="40"/>
+      <c r="P19" s="40"/>
+      <c r="Q19" s="40"/>
+      <c r="R19" s="40"/>
+      <c r="S19" s="40"/>
+      <c r="T19" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="U19" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="V19" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="W19" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="X19" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y19" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z19" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA19" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB19" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC19" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD19" s="40"/>
+      <c r="AE19" s="40"/>
+      <c r="AF19" s="40"/>
+      <c r="AH19" s="40"/>
+      <c r="AI19" s="40"/>
+      <c r="AJ19" s="40"/>
+      <c r="AK19" s="40"/>
+      <c r="AL19" s="40"/>
+      <c r="AM19" s="40"/>
+      <c r="AN19" s="40"/>
+      <c r="AO19" s="40"/>
+      <c r="AP19" s="40"/>
+      <c r="AQ19" s="40"/>
+      <c r="AR19" s="40"/>
+      <c r="AS19" s="40"/>
+    </row>
+    <row r="20" spans="2:64" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="73"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="40"/>
+      <c r="L20" s="40"/>
+      <c r="M20" s="40"/>
+      <c r="N20" s="40"/>
+      <c r="O20" s="40"/>
+      <c r="P20" s="40"/>
+      <c r="Q20" s="40"/>
+      <c r="R20" s="40"/>
+      <c r="S20" s="40"/>
+      <c r="T20" s="40"/>
+      <c r="U20" s="40"/>
+      <c r="V20" s="40"/>
+      <c r="W20" s="40"/>
+      <c r="X20" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y20" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z20" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA20" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB20" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC20" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD20" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE20" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF20" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="AH20" s="40"/>
+      <c r="AI20" s="40"/>
+      <c r="AJ20" s="40"/>
+      <c r="AK20" s="40"/>
+      <c r="AL20" s="40"/>
+      <c r="AM20" s="40"/>
+      <c r="AN20" s="40"/>
+      <c r="AO20" s="40"/>
+      <c r="AP20" s="40"/>
+      <c r="AQ20" s="40"/>
+      <c r="AR20" s="40"/>
+      <c r="AS20" s="40"/>
+    </row>
+    <row r="21" spans="2:64" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="73"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="40"/>
+      <c r="L21" s="40"/>
+      <c r="M21" s="40"/>
+      <c r="N21" s="40"/>
+      <c r="O21" s="40"/>
+      <c r="P21" s="40"/>
+      <c r="Q21" s="40"/>
+      <c r="R21" s="40"/>
+      <c r="S21" s="40"/>
+      <c r="T21" s="40"/>
+      <c r="U21" s="40"/>
+      <c r="V21" s="40"/>
+      <c r="W21" s="40"/>
+      <c r="X21" s="40"/>
+      <c r="Y21" s="40"/>
+      <c r="Z21" s="40"/>
+      <c r="AA21" s="74"/>
+      <c r="AB21" s="74"/>
+      <c r="AC21" s="40"/>
+      <c r="AD21" s="40"/>
+      <c r="AE21" s="40"/>
+      <c r="AF21" s="74"/>
+      <c r="AG21" s="40"/>
+      <c r="AH21" s="40"/>
+      <c r="AI21" s="40"/>
+      <c r="AJ21" s="40"/>
+      <c r="AK21" s="40"/>
+      <c r="AL21" s="40"/>
+      <c r="AM21" s="40"/>
+      <c r="AN21" s="40"/>
+      <c r="AO21" s="40"/>
+      <c r="AP21" s="40"/>
+      <c r="AQ21" s="40"/>
+      <c r="AR21" s="40"/>
+      <c r="AS21" s="40"/>
+    </row>
+    <row r="22" spans="2:64" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="73"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="40"/>
+      <c r="L22" s="40"/>
+      <c r="M22" s="40"/>
+      <c r="N22" s="40"/>
+      <c r="O22" s="40"/>
+      <c r="P22" s="40"/>
+      <c r="Q22" s="40"/>
+      <c r="R22" s="40"/>
+      <c r="S22" s="40"/>
+      <c r="T22" s="40"/>
+      <c r="U22" s="40"/>
+      <c r="V22" s="40"/>
+      <c r="W22" s="40"/>
+      <c r="X22" s="40"/>
+      <c r="Y22" s="40"/>
+      <c r="Z22" s="40"/>
+      <c r="AA22" s="74"/>
+      <c r="AB22" s="74"/>
+      <c r="AC22" s="40"/>
+      <c r="AD22" s="40"/>
+      <c r="AE22" s="40"/>
+      <c r="AF22" s="74"/>
+      <c r="AG22" s="40"/>
+      <c r="AH22" s="40"/>
+      <c r="AI22" s="40"/>
+      <c r="AJ22" s="40"/>
+      <c r="AK22" s="40"/>
+      <c r="AL22" s="40"/>
+      <c r="AM22" s="40"/>
+      <c r="AN22" s="40"/>
+      <c r="AO22" s="40"/>
+      <c r="AP22" s="40"/>
+      <c r="AQ22" s="40"/>
+      <c r="AR22" s="40"/>
+      <c r="AS22" s="40"/>
+    </row>
+    <row r="23" spans="2:64" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="73"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="40"/>
+      <c r="L23" s="40"/>
+      <c r="M23" s="40"/>
+      <c r="N23" s="40"/>
+      <c r="O23" s="40"/>
+      <c r="P23" s="40"/>
+      <c r="Q23" s="40"/>
+      <c r="R23" s="40"/>
+      <c r="S23" s="40"/>
+      <c r="T23" s="40"/>
+      <c r="U23" s="40"/>
+      <c r="V23" s="40"/>
+      <c r="W23" s="40"/>
+      <c r="X23" s="40"/>
+      <c r="Y23" s="40"/>
+      <c r="Z23" s="40"/>
+      <c r="AA23" s="40"/>
+      <c r="AB23" s="40"/>
+      <c r="AC23" s="40"/>
+      <c r="AD23" s="40"/>
+      <c r="AE23" s="40"/>
+      <c r="AF23" s="74"/>
+      <c r="AG23" s="40"/>
+      <c r="AH23" s="74"/>
+      <c r="AI23" s="74"/>
+      <c r="AJ23" s="40"/>
+      <c r="AK23" s="40"/>
+      <c r="AL23" s="40"/>
+      <c r="AM23" s="40"/>
+      <c r="AN23" s="40"/>
+      <c r="AO23" s="40"/>
+      <c r="AP23" s="40"/>
+      <c r="AQ23" s="40"/>
+      <c r="AR23" s="40"/>
+      <c r="AS23" s="40"/>
+    </row>
+    <row r="24" spans="2:64" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="73"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="40"/>
+      <c r="J24" s="40"/>
+      <c r="K24" s="40"/>
+      <c r="L24" s="40"/>
+      <c r="M24" s="40"/>
+      <c r="N24" s="40"/>
+      <c r="O24" s="40"/>
+      <c r="P24" s="40"/>
+      <c r="Q24" s="40"/>
+      <c r="R24" s="40"/>
+      <c r="S24" s="40"/>
+      <c r="T24" s="40"/>
+      <c r="U24" s="40"/>
+      <c r="V24" s="40"/>
+      <c r="W24" s="40"/>
+      <c r="X24" s="40"/>
+      <c r="Y24" s="40"/>
+      <c r="Z24" s="40"/>
+      <c r="AA24" s="40"/>
+      <c r="AB24" s="40"/>
+      <c r="AC24" s="40"/>
+      <c r="AD24" s="40"/>
+      <c r="AE24" s="40"/>
+      <c r="AF24" s="74"/>
+      <c r="AG24" s="40"/>
+      <c r="AH24" s="74"/>
+      <c r="AI24" s="74"/>
+      <c r="AJ24" s="40"/>
+      <c r="AK24" s="40"/>
+      <c r="AL24" s="40"/>
+      <c r="AM24" s="40"/>
+      <c r="AN24" s="40"/>
+      <c r="AO24" s="40"/>
+      <c r="AP24" s="40"/>
+      <c r="AQ24" s="40"/>
+      <c r="AR24" s="40"/>
+      <c r="AS24" s="40"/>
+    </row>
+    <row r="25" spans="2:64" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="73"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="40"/>
+      <c r="J25" s="40"/>
+      <c r="K25" s="40"/>
+      <c r="L25" s="40"/>
+      <c r="M25" s="40"/>
+      <c r="N25" s="40"/>
+      <c r="O25" s="40"/>
+      <c r="P25" s="40"/>
+      <c r="Q25" s="40"/>
+      <c r="R25" s="40"/>
+      <c r="S25" s="40"/>
+      <c r="T25" s="40"/>
+      <c r="U25" s="40"/>
+      <c r="V25" s="40"/>
+      <c r="W25" s="40"/>
+      <c r="X25" s="40"/>
+      <c r="Y25" s="40"/>
+      <c r="Z25" s="40"/>
+      <c r="AA25" s="40"/>
+      <c r="AB25" s="40"/>
+      <c r="AC25" s="40"/>
+      <c r="AD25" s="40"/>
+      <c r="AE25" s="40"/>
+      <c r="AF25" s="74"/>
+      <c r="AG25" s="40"/>
+      <c r="AH25" s="74"/>
+      <c r="AI25" s="74"/>
+      <c r="AJ25" s="40"/>
+      <c r="AK25" s="40"/>
+      <c r="AL25" s="40"/>
+      <c r="AM25" s="74"/>
+      <c r="AN25" s="40"/>
+      <c r="AO25" s="40"/>
+      <c r="AP25" s="40"/>
+      <c r="AQ25" s="40"/>
+      <c r="AR25" s="40"/>
+      <c r="AS25" s="40"/>
+    </row>
+    <row r="26" spans="2:64" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="73"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="40"/>
+      <c r="I26" s="40"/>
+      <c r="J26" s="40"/>
+      <c r="K26" s="40"/>
+      <c r="L26" s="40"/>
+      <c r="M26" s="40"/>
+      <c r="N26" s="40"/>
+      <c r="O26" s="40"/>
+      <c r="P26" s="40"/>
+      <c r="Q26" s="40"/>
+      <c r="R26" s="40"/>
+      <c r="S26" s="40"/>
+      <c r="T26" s="40"/>
+      <c r="U26" s="40"/>
+      <c r="V26" s="40"/>
+      <c r="W26" s="40"/>
+      <c r="X26" s="40"/>
+      <c r="Y26" s="40"/>
+      <c r="Z26" s="40"/>
+      <c r="AA26" s="40"/>
+      <c r="AB26" s="40"/>
+      <c r="AC26" s="40"/>
+      <c r="AD26" s="40"/>
+      <c r="AE26" s="40"/>
+      <c r="AF26" s="40"/>
+      <c r="AG26" s="40"/>
+      <c r="AH26" s="74"/>
+      <c r="AI26" s="74"/>
+      <c r="AJ26" s="40"/>
+      <c r="AK26" s="40"/>
+      <c r="AL26" s="40"/>
+      <c r="AM26" s="74"/>
+      <c r="AN26" s="74"/>
+      <c r="AO26" s="74"/>
+      <c r="AP26" s="40"/>
+      <c r="AQ26" s="40"/>
+      <c r="AR26" s="40"/>
+      <c r="AS26" s="40"/>
+    </row>
+    <row r="27" spans="2:64" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="73"/>
+      <c r="AK27" s="72"/>
+      <c r="AL27" s="72"/>
+      <c r="AM27" s="71"/>
+      <c r="AN27" s="71"/>
+      <c r="AO27" s="70"/>
+      <c r="AP27" s="69"/>
+      <c r="AQ27" s="69"/>
+      <c r="AR27" s="69"/>
+      <c r="AS27" s="69"/>
+      <c r="AT27" s="69"/>
+    </row>
+    <row r="28" spans="2:64" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="73"/>
+      <c r="AL28" s="72"/>
+      <c r="AM28" s="71"/>
+      <c r="AN28" s="71"/>
+      <c r="AO28" s="70"/>
+      <c r="AP28" s="69"/>
+      <c r="AQ28" s="69"/>
+      <c r="AR28" s="69"/>
+      <c r="AS28" s="69"/>
+      <c r="AT28" s="69"/>
+      <c r="AU28" s="69"/>
+    </row>
+    <row r="29" spans="2:64" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="73"/>
+      <c r="AM29" s="71"/>
+      <c r="AN29" s="71"/>
+      <c r="AO29" s="70"/>
+      <c r="AP29" s="69"/>
+      <c r="AQ29" s="69"/>
+      <c r="AR29" s="69"/>
+      <c r="AS29" s="69"/>
+      <c r="AT29" s="69"/>
+      <c r="AU29" s="69"/>
+      <c r="AV29" s="69"/>
+    </row>
+    <row r="30" spans="2:64" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="73"/>
+      <c r="AQ30" s="40"/>
+      <c r="AR30" s="40"/>
+      <c r="AS30" s="40"/>
+      <c r="AT30" s="74"/>
+      <c r="AU30" s="74"/>
+      <c r="AV30" s="40"/>
+      <c r="AW30" s="40"/>
+      <c r="AX30" s="40"/>
+      <c r="AY30" s="40"/>
+      <c r="AZ30" s="40"/>
+      <c r="BA30" s="40"/>
+      <c r="BB30" s="40"/>
+      <c r="BC30" s="40"/>
+      <c r="BD30" s="40"/>
+      <c r="BE30" s="40"/>
+      <c r="BF30" s="40"/>
+      <c r="BG30" s="40"/>
+      <c r="BH30" s="40"/>
+      <c r="BI30" s="40"/>
+      <c r="BJ30" s="40"/>
+      <c r="BK30" s="40"/>
+      <c r="BL30" s="40"/>
+    </row>
+    <row r="31" spans="2:64" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="73"/>
+      <c r="AQ31" s="40"/>
+      <c r="AR31" s="40"/>
+      <c r="AS31" s="40"/>
+      <c r="AT31" s="74"/>
+      <c r="AU31" s="74"/>
+      <c r="AV31" s="40"/>
+      <c r="AW31" s="40"/>
+      <c r="AX31" s="40"/>
+      <c r="AY31" s="40"/>
+      <c r="AZ31" s="40"/>
+      <c r="BA31" s="40"/>
+      <c r="BB31" s="40"/>
+      <c r="BC31" s="40"/>
+      <c r="BD31" s="40"/>
+      <c r="BE31" s="40"/>
+      <c r="BF31" s="40"/>
+      <c r="BG31" s="40"/>
+      <c r="BH31" s="40"/>
+      <c r="BI31" s="40"/>
+      <c r="BJ31" s="40"/>
+      <c r="BK31" s="40"/>
+      <c r="BL31" s="40"/>
+    </row>
+    <row r="32" spans="2:64" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="73"/>
+      <c r="AQ32" s="40"/>
+      <c r="AR32" s="40"/>
+      <c r="AS32" s="40"/>
+      <c r="AT32" s="74"/>
+      <c r="AU32" s="74"/>
+      <c r="AV32" s="40"/>
+      <c r="AW32" s="40"/>
+      <c r="AX32" s="40"/>
+      <c r="AY32" s="74"/>
+      <c r="AZ32" s="40"/>
+      <c r="BA32" s="40"/>
+      <c r="BB32" s="40"/>
+      <c r="BC32" s="40"/>
+      <c r="BD32" s="40"/>
+      <c r="BE32" s="40"/>
+      <c r="BF32" s="40"/>
+      <c r="BG32" s="40"/>
+      <c r="BH32" s="40"/>
+      <c r="BI32" s="40"/>
+      <c r="BJ32" s="40"/>
+      <c r="BK32" s="40"/>
+      <c r="BL32" s="40"/>
+    </row>
+    <row r="33" spans="2:83" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="73"/>
+      <c r="AQ33" s="40"/>
+      <c r="AR33" s="40"/>
+      <c r="AS33" s="40"/>
+      <c r="AT33" s="74"/>
+      <c r="AU33" s="74"/>
+      <c r="AV33" s="40"/>
+      <c r="AW33" s="40"/>
+      <c r="AX33" s="40"/>
+      <c r="AY33" s="74"/>
+      <c r="AZ33" s="40"/>
+      <c r="BA33" s="40"/>
+      <c r="BB33" s="40"/>
+      <c r="BC33" s="40"/>
+      <c r="BD33" s="40"/>
+      <c r="BE33" s="40"/>
+      <c r="BF33" s="40"/>
+      <c r="BG33" s="40"/>
+      <c r="BH33" s="40"/>
+      <c r="BI33" s="40"/>
+      <c r="BJ33" s="40"/>
+      <c r="BK33" s="40"/>
+      <c r="BL33" s="40"/>
+    </row>
+    <row r="34" spans="2:83" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="73"/>
+      <c r="AQ34" s="40"/>
+      <c r="AR34" s="40"/>
+      <c r="AS34" s="40"/>
+      <c r="AT34" s="40"/>
+      <c r="AU34" s="40"/>
+      <c r="AV34" s="40"/>
+      <c r="AW34" s="40"/>
+      <c r="AX34" s="40"/>
+      <c r="AY34" s="74"/>
+      <c r="AZ34" s="40"/>
+      <c r="BA34" s="74"/>
+      <c r="BB34" s="74"/>
+      <c r="BC34" s="40"/>
+      <c r="BD34" s="40"/>
+      <c r="BE34" s="40"/>
+      <c r="BF34" s="40"/>
+      <c r="BG34" s="40"/>
+      <c r="BH34" s="40"/>
+      <c r="BI34" s="40"/>
+      <c r="BJ34" s="40"/>
+      <c r="BK34" s="40"/>
+      <c r="BL34" s="40"/>
+    </row>
+    <row r="35" spans="2:83" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="73"/>
+      <c r="AQ35" s="40"/>
+      <c r="AR35" s="40"/>
+      <c r="AS35" s="40"/>
+      <c r="AT35" s="40"/>
+      <c r="AU35" s="40"/>
+      <c r="AV35" s="40"/>
+      <c r="AW35" s="40"/>
+      <c r="AX35" s="40"/>
+      <c r="AY35" s="74"/>
+      <c r="AZ35" s="40"/>
+      <c r="BA35" s="74"/>
+      <c r="BB35" s="74"/>
+      <c r="BC35" s="40"/>
+      <c r="BD35" s="40"/>
+      <c r="BE35" s="40"/>
+      <c r="BF35" s="40"/>
+      <c r="BG35" s="40"/>
+      <c r="BH35" s="40"/>
+      <c r="BI35" s="40"/>
+      <c r="BJ35" s="40"/>
+      <c r="BK35" s="40"/>
+      <c r="BL35" s="40"/>
+    </row>
+    <row r="36" spans="2:83" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="73"/>
+      <c r="AQ36" s="40"/>
+      <c r="AR36" s="40"/>
+      <c r="AS36" s="40"/>
+      <c r="AT36" s="40"/>
+      <c r="AU36" s="40"/>
+      <c r="AV36" s="40"/>
+      <c r="AW36" s="40"/>
+      <c r="AX36" s="40"/>
+      <c r="AY36" s="74"/>
+      <c r="AZ36" s="40"/>
+      <c r="BA36" s="74"/>
+      <c r="BB36" s="74"/>
+      <c r="BC36" s="40"/>
+      <c r="BD36" s="40"/>
+      <c r="BE36" s="40"/>
+      <c r="BF36" s="74"/>
+      <c r="BG36" s="40"/>
+      <c r="BH36" s="40"/>
+      <c r="BI36" s="40"/>
+      <c r="BJ36" s="40"/>
+      <c r="BK36" s="40"/>
+      <c r="BL36" s="40"/>
+    </row>
+    <row r="37" spans="2:83" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="73"/>
+      <c r="AQ37" s="40"/>
+      <c r="AR37" s="40"/>
+      <c r="AS37" s="40"/>
+      <c r="AT37" s="40"/>
+      <c r="AU37" s="40"/>
+      <c r="AV37" s="40"/>
+      <c r="AW37" s="40"/>
+      <c r="AX37" s="40"/>
+      <c r="AY37" s="40"/>
+      <c r="AZ37" s="40"/>
+      <c r="BA37" s="74"/>
+      <c r="BB37" s="74"/>
+      <c r="BC37" s="40"/>
+      <c r="BD37" s="40"/>
+      <c r="BE37" s="40"/>
+      <c r="BF37" s="74"/>
+      <c r="BG37" s="74"/>
+      <c r="BH37" s="74"/>
+      <c r="BI37" s="40"/>
+      <c r="BJ37" s="40"/>
+      <c r="BK37" s="40"/>
+      <c r="BL37" s="40"/>
+    </row>
+    <row r="38" spans="2:83" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="73"/>
+      <c r="BD38" s="72"/>
+      <c r="BE38" s="72"/>
+      <c r="BF38" s="71"/>
+      <c r="BG38" s="71"/>
+      <c r="BH38" s="70"/>
+      <c r="BI38" s="69"/>
+      <c r="BJ38" s="69"/>
+      <c r="BK38" s="69"/>
+      <c r="BL38" s="69"/>
+      <c r="BM38" s="69"/>
+    </row>
+    <row r="39" spans="2:83" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="73"/>
+      <c r="BE39" s="72"/>
+      <c r="BF39" s="71"/>
+      <c r="BG39" s="71"/>
+      <c r="BH39" s="70"/>
+      <c r="BI39" s="69"/>
+      <c r="BJ39" s="69"/>
+      <c r="BK39" s="69"/>
+      <c r="BL39" s="69"/>
+      <c r="BM39" s="69"/>
+      <c r="BN39" s="69"/>
+    </row>
+    <row r="40" spans="2:83" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="73"/>
+      <c r="BF40" s="71"/>
+      <c r="BG40" s="71"/>
+      <c r="BH40" s="70"/>
+      <c r="BI40" s="69"/>
+      <c r="BJ40" s="69"/>
+      <c r="BK40" s="69"/>
+      <c r="BL40" s="69"/>
+      <c r="BM40" s="69"/>
+      <c r="BN40" s="69"/>
+      <c r="BO40" s="69"/>
+    </row>
+    <row r="41" spans="2:83" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="73"/>
+      <c r="BJ41" s="40"/>
+      <c r="BK41" s="40"/>
+      <c r="BL41" s="40"/>
+      <c r="BM41" s="74"/>
+      <c r="BN41" s="74"/>
+      <c r="BO41" s="40"/>
+      <c r="BP41" s="40"/>
+      <c r="BQ41" s="40"/>
+      <c r="BR41" s="40"/>
+      <c r="BS41" s="40"/>
+      <c r="BT41" s="40"/>
+      <c r="BU41" s="40"/>
+      <c r="BV41" s="40"/>
+      <c r="BW41" s="40"/>
+      <c r="BX41" s="40"/>
+      <c r="BY41" s="40"/>
+      <c r="BZ41" s="40"/>
+      <c r="CA41" s="40"/>
+      <c r="CB41" s="40"/>
+      <c r="CC41" s="40"/>
+      <c r="CD41" s="40"/>
+      <c r="CE41" s="40"/>
+    </row>
+    <row r="42" spans="2:83" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="73"/>
+      <c r="BJ42" s="40"/>
+      <c r="BK42" s="40"/>
+      <c r="BL42" s="40"/>
+      <c r="BM42" s="74"/>
+      <c r="BN42" s="74"/>
+      <c r="BO42" s="40"/>
+      <c r="BP42" s="40"/>
+      <c r="BQ42" s="40"/>
+      <c r="BR42" s="40"/>
+      <c r="BS42" s="40"/>
+      <c r="BT42" s="40"/>
+      <c r="BU42" s="40"/>
+      <c r="BV42" s="40"/>
+      <c r="BW42" s="40"/>
+      <c r="BX42" s="40"/>
+      <c r="BY42" s="40"/>
+      <c r="BZ42" s="40"/>
+      <c r="CA42" s="40"/>
+      <c r="CB42" s="40"/>
+      <c r="CC42" s="40"/>
+      <c r="CD42" s="40"/>
+      <c r="CE42" s="40"/>
+    </row>
+    <row r="43" spans="2:83" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="73"/>
+      <c r="BJ43" s="40"/>
+      <c r="BK43" s="40"/>
+      <c r="BL43" s="40"/>
+      <c r="BM43" s="74"/>
+      <c r="BN43" s="74"/>
+      <c r="BO43" s="40"/>
+      <c r="BP43" s="40"/>
+      <c r="BQ43" s="40"/>
+      <c r="BR43" s="74"/>
+      <c r="BS43" s="40"/>
+      <c r="BT43" s="40"/>
+      <c r="BU43" s="40"/>
+      <c r="BV43" s="40"/>
+      <c r="BW43" s="40"/>
+      <c r="BX43" s="40"/>
+      <c r="BY43" s="40"/>
+      <c r="BZ43" s="40"/>
+      <c r="CA43" s="40"/>
+      <c r="CB43" s="40"/>
+      <c r="CC43" s="40"/>
+      <c r="CD43" s="40"/>
+      <c r="CE43" s="40"/>
+    </row>
+    <row r="44" spans="2:83" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="73"/>
+      <c r="BJ44" s="40"/>
+      <c r="BK44" s="40"/>
+      <c r="BL44" s="40"/>
+      <c r="BM44" s="74"/>
+      <c r="BN44" s="74"/>
+      <c r="BO44" s="40"/>
+      <c r="BP44" s="40"/>
+      <c r="BQ44" s="40"/>
+      <c r="BR44" s="74"/>
+      <c r="BS44" s="40"/>
+      <c r="BT44" s="40"/>
+      <c r="BU44" s="40"/>
+      <c r="BV44" s="40"/>
+      <c r="BW44" s="40"/>
+      <c r="BX44" s="40"/>
+      <c r="BY44" s="40"/>
+      <c r="BZ44" s="40"/>
+      <c r="CA44" s="40"/>
+      <c r="CB44" s="40"/>
+      <c r="CC44" s="40"/>
+      <c r="CD44" s="40"/>
+      <c r="CE44" s="40"/>
+    </row>
+    <row r="45" spans="2:83" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="73"/>
+      <c r="BJ45" s="40"/>
+      <c r="BK45" s="40"/>
+      <c r="BL45" s="40"/>
+      <c r="BM45" s="40"/>
+      <c r="BN45" s="40"/>
+      <c r="BO45" s="40"/>
+      <c r="BP45" s="40"/>
+      <c r="BQ45" s="40"/>
+      <c r="BR45" s="74"/>
+      <c r="BS45" s="40"/>
+      <c r="BT45" s="74"/>
+      <c r="BU45" s="74"/>
+      <c r="BV45" s="40"/>
+      <c r="BW45" s="40"/>
+      <c r="BX45" s="40"/>
+      <c r="BY45" s="40"/>
+      <c r="BZ45" s="40"/>
+      <c r="CA45" s="40"/>
+      <c r="CB45" s="40"/>
+      <c r="CC45" s="40"/>
+      <c r="CD45" s="40"/>
+      <c r="CE45" s="40"/>
+    </row>
+    <row r="46" spans="2:83" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="73"/>
+      <c r="BJ46" s="40"/>
+      <c r="BK46" s="40"/>
+      <c r="BL46" s="40"/>
+      <c r="BM46" s="40"/>
+      <c r="BN46" s="40"/>
+      <c r="BO46" s="40"/>
+      <c r="BP46" s="40"/>
+      <c r="BQ46" s="40"/>
+      <c r="BR46" s="74"/>
+      <c r="BS46" s="40"/>
+      <c r="BT46" s="74"/>
+      <c r="BU46" s="74"/>
+      <c r="BV46" s="40"/>
+      <c r="BW46" s="40"/>
+      <c r="BX46" s="40"/>
+      <c r="BY46" s="40"/>
+      <c r="BZ46" s="40"/>
+      <c r="CA46" s="40"/>
+      <c r="CB46" s="40"/>
+      <c r="CC46" s="40"/>
+      <c r="CD46" s="40"/>
+      <c r="CE46" s="40"/>
+    </row>
+    <row r="47" spans="2:83" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="73"/>
+      <c r="BJ47" s="40"/>
+      <c r="BK47" s="40"/>
+      <c r="BL47" s="40"/>
+      <c r="BM47" s="40"/>
+      <c r="BN47" s="40"/>
+      <c r="BO47" s="40"/>
+      <c r="BP47" s="40"/>
+      <c r="BQ47" s="40"/>
+      <c r="BR47" s="74"/>
+      <c r="BS47" s="40"/>
+      <c r="BT47" s="74"/>
+      <c r="BU47" s="74"/>
+      <c r="BV47" s="40"/>
+      <c r="BW47" s="40"/>
+      <c r="BX47" s="40"/>
+      <c r="BY47" s="74"/>
+      <c r="BZ47" s="40"/>
+      <c r="CA47" s="40"/>
+      <c r="CB47" s="40"/>
+      <c r="CC47" s="40"/>
+      <c r="CD47" s="40"/>
+      <c r="CE47" s="40"/>
+    </row>
+    <row r="48" spans="2:83" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="73"/>
+      <c r="BJ48" s="40"/>
+      <c r="BK48" s="40"/>
+      <c r="BL48" s="40"/>
+      <c r="BM48" s="40"/>
+      <c r="BN48" s="40"/>
+      <c r="BO48" s="40"/>
+      <c r="BP48" s="40"/>
+      <c r="BQ48" s="40"/>
+      <c r="BR48" s="40"/>
+      <c r="BS48" s="40"/>
+      <c r="BT48" s="74"/>
+      <c r="BU48" s="74"/>
+      <c r="BV48" s="40"/>
+      <c r="BW48" s="40"/>
+      <c r="BX48" s="40"/>
+      <c r="BY48" s="74"/>
+      <c r="BZ48" s="74"/>
+      <c r="CA48" s="74"/>
+      <c r="CB48" s="40"/>
+      <c r="CC48" s="40"/>
+      <c r="CD48" s="40"/>
+      <c r="CE48" s="40"/>
+    </row>
+    <row r="49" spans="2:84" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="73"/>
+      <c r="BW49" s="72"/>
+      <c r="BX49" s="72"/>
+      <c r="BY49" s="71"/>
+      <c r="BZ49" s="71"/>
+      <c r="CA49" s="70"/>
+      <c r="CB49" s="69"/>
+      <c r="CC49" s="69"/>
+      <c r="CD49" s="69"/>
+      <c r="CE49" s="69"/>
+      <c r="CF49" s="69"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" scale="60" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE8F676F-49DF-48A1-9A2A-A9219EC105D3}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -9190,18 +11116,18 @@
       <c r="C5" s="35"/>
     </row>
     <row r="7" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="66"/>
-      <c r="B7" s="66"/>
-      <c r="C7" s="66"/>
-      <c r="D7" s="66"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="66"/>
-      <c r="H7" s="66"/>
-      <c r="I7" s="66"/>
+      <c r="A7" s="83"/>
+      <c r="B7" s="83"/>
+      <c r="C7" s="83"/>
+      <c r="D7" s="83"/>
+      <c r="E7" s="83"/>
+      <c r="F7" s="83"/>
+      <c r="G7" s="83"/>
+      <c r="H7" s="83"/>
+      <c r="I7" s="83"/>
     </row>
     <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="67"/>
+      <c r="A8" s="82"/>
       <c r="B8" s="59" t="s">
         <v>97</v>
       </c>
@@ -9223,12 +11149,12 @@
       <c r="H8" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="I8" s="68"/>
-      <c r="J8" s="66"/>
+      <c r="I8" s="84"/>
+      <c r="J8" s="83"/>
       <c r="K8" s="37"/>
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="67"/>
+      <c r="A9" s="82"/>
       <c r="B9" s="58" t="s">
         <v>33</v>
       </c>
@@ -9248,12 +11174,12 @@
         <v>7</v>
       </c>
       <c r="H9" s="60"/>
-      <c r="I9" s="68"/>
-      <c r="J9" s="66"/>
+      <c r="I9" s="84"/>
+      <c r="J9" s="83"/>
       <c r="K9" s="37"/>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="67"/>
+      <c r="A10" s="82"/>
       <c r="B10" s="50" t="s">
         <v>34</v>
       </c>
@@ -9273,12 +11199,12 @@
         <v>8</v>
       </c>
       <c r="H10" s="61"/>
-      <c r="I10" s="68"/>
-      <c r="J10" s="66"/>
+      <c r="I10" s="84"/>
+      <c r="J10" s="83"/>
       <c r="K10" s="37"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="67"/>
+      <c r="A11" s="82"/>
       <c r="B11" s="50" t="s">
         <v>37</v>
       </c>
@@ -9298,12 +11224,12 @@
         <v>9</v>
       </c>
       <c r="H11" s="61"/>
-      <c r="I11" s="68"/>
-      <c r="J11" s="66"/>
+      <c r="I11" s="84"/>
+      <c r="J11" s="83"/>
       <c r="K11" s="37"/>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="67"/>
+      <c r="A12" s="82"/>
       <c r="B12" s="50" t="s">
         <v>61</v>
       </c>
@@ -9323,12 +11249,12 @@
         <v>10</v>
       </c>
       <c r="H12" s="61"/>
-      <c r="I12" s="68"/>
-      <c r="J12" s="66"/>
+      <c r="I12" s="84"/>
+      <c r="J12" s="83"/>
       <c r="K12" s="37"/>
     </row>
     <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="67"/>
+      <c r="A13" s="82"/>
       <c r="B13" s="50" t="s">
         <v>35</v>
       </c>
@@ -9348,12 +11274,12 @@
         <v>11</v>
       </c>
       <c r="H13" s="61"/>
-      <c r="I13" s="68"/>
-      <c r="J13" s="66"/>
+      <c r="I13" s="84"/>
+      <c r="J13" s="83"/>
       <c r="K13" s="37"/>
     </row>
     <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="67"/>
+      <c r="A14" s="82"/>
       <c r="B14" s="50" t="s">
         <v>62</v>
       </c>
@@ -9373,12 +11299,12 @@
         <v>12</v>
       </c>
       <c r="H14" s="61"/>
-      <c r="I14" s="68"/>
-      <c r="J14" s="66"/>
+      <c r="I14" s="84"/>
+      <c r="J14" s="83"/>
       <c r="K14" s="38"/>
     </row>
     <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="67"/>
+      <c r="A15" s="82"/>
       <c r="B15" s="50" t="s">
         <v>39</v>
       </c>
@@ -9398,12 +11324,12 @@
         <v>13</v>
       </c>
       <c r="H15" s="61"/>
-      <c r="I15" s="68"/>
-      <c r="J15" s="66"/>
+      <c r="I15" s="84"/>
+      <c r="J15" s="83"/>
       <c r="K15" s="37"/>
     </row>
     <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="67"/>
+      <c r="A16" s="82"/>
       <c r="B16" s="50" t="s">
         <v>63</v>
       </c>
@@ -9423,12 +11349,12 @@
         <v>14</v>
       </c>
       <c r="H16" s="61"/>
-      <c r="I16" s="68"/>
-      <c r="J16" s="66"/>
+      <c r="I16" s="84"/>
+      <c r="J16" s="83"/>
       <c r="K16" s="37"/>
     </row>
     <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="67"/>
+      <c r="A17" s="82"/>
       <c r="B17" s="50" t="s">
         <v>64</v>
       </c>
@@ -9448,12 +11374,12 @@
         <v>15</v>
       </c>
       <c r="H17" s="61"/>
-      <c r="I17" s="68"/>
-      <c r="J17" s="66"/>
+      <c r="I17" s="84"/>
+      <c r="J17" s="83"/>
       <c r="K17" s="37"/>
     </row>
     <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="67"/>
+      <c r="A18" s="82"/>
       <c r="B18" s="50" t="s">
         <v>65</v>
       </c>
@@ -9473,12 +11399,12 @@
         <v>16</v>
       </c>
       <c r="H18" s="61"/>
-      <c r="I18" s="68"/>
-      <c r="J18" s="66"/>
+      <c r="I18" s="84"/>
+      <c r="J18" s="83"/>
       <c r="K18" s="37"/>
     </row>
     <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="67"/>
+      <c r="A19" s="82"/>
       <c r="B19" s="50" t="s">
         <v>35</v>
       </c>
@@ -9498,12 +11424,12 @@
         <v>17</v>
       </c>
       <c r="H19" s="61"/>
-      <c r="I19" s="68"/>
-      <c r="J19" s="66"/>
+      <c r="I19" s="84"/>
+      <c r="J19" s="83"/>
       <c r="K19" s="37"/>
     </row>
     <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="67"/>
+      <c r="A20" s="82"/>
       <c r="B20" s="50" t="s">
         <v>62</v>
       </c>
@@ -9523,12 +11449,12 @@
         <v>18</v>
       </c>
       <c r="H20" s="61"/>
-      <c r="I20" s="68"/>
-      <c r="J20" s="66"/>
+      <c r="I20" s="84"/>
+      <c r="J20" s="83"/>
       <c r="K20" s="37"/>
     </row>
     <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="67"/>
+      <c r="A21" s="82"/>
       <c r="B21" s="50" t="s">
         <v>36</v>
       </c>
@@ -9548,11 +11474,11 @@
         <v>19</v>
       </c>
       <c r="H21" s="61"/>
-      <c r="I21" s="68"/>
-      <c r="J21" s="66"/>
+      <c r="I21" s="84"/>
+      <c r="J21" s="83"/>
     </row>
     <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="67"/>
+      <c r="A22" s="82"/>
       <c r="B22" s="50" t="s">
         <v>66</v>
       </c>
@@ -9572,11 +11498,11 @@
         <v>20</v>
       </c>
       <c r="H22" s="61"/>
-      <c r="I22" s="68"/>
-      <c r="J22" s="66"/>
+      <c r="I22" s="84"/>
+      <c r="J22" s="83"/>
     </row>
     <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="67"/>
+      <c r="A23" s="82"/>
       <c r="B23" s="50" t="s">
         <v>63</v>
       </c>
@@ -9596,11 +11522,11 @@
         <v>21</v>
       </c>
       <c r="H23" s="61"/>
-      <c r="I23" s="68"/>
-      <c r="J23" s="66"/>
+      <c r="I23" s="84"/>
+      <c r="J23" s="83"/>
     </row>
     <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="67"/>
+      <c r="A24" s="82"/>
       <c r="B24" s="50" t="s">
         <v>38</v>
       </c>
@@ -9620,11 +11546,11 @@
         <v>22</v>
       </c>
       <c r="H24" s="61"/>
-      <c r="I24" s="68"/>
-      <c r="J24" s="66"/>
+      <c r="I24" s="84"/>
+      <c r="J24" s="83"/>
     </row>
     <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="67"/>
+      <c r="A25" s="82"/>
       <c r="B25" s="50" t="s">
         <v>64</v>
       </c>
@@ -9644,11 +11570,11 @@
         <v>23</v>
       </c>
       <c r="H25" s="61"/>
-      <c r="I25" s="68"/>
-      <c r="J25" s="66"/>
+      <c r="I25" s="84"/>
+      <c r="J25" s="83"/>
     </row>
     <row r="26" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="67"/>
+      <c r="A26" s="82"/>
       <c r="B26" s="50" t="s">
         <v>67</v>
       </c>
@@ -9668,11 +11594,11 @@
         <v>24</v>
       </c>
       <c r="H26" s="61"/>
-      <c r="I26" s="68"/>
-      <c r="J26" s="66"/>
+      <c r="I26" s="84"/>
+      <c r="J26" s="83"/>
     </row>
     <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="67"/>
+      <c r="A27" s="82"/>
       <c r="B27" s="50" t="s">
         <v>68</v>
       </c>
@@ -9692,11 +11618,11 @@
         <v>25</v>
       </c>
       <c r="H27" s="61"/>
-      <c r="I27" s="68"/>
-      <c r="J27" s="66"/>
+      <c r="I27" s="84"/>
+      <c r="J27" s="83"/>
     </row>
     <row r="28" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="67"/>
+      <c r="A28" s="82"/>
       <c r="B28" s="62" t="s">
         <v>69</v>
       </c>
@@ -9716,20 +11642,20 @@
         <v>26</v>
       </c>
       <c r="H28" s="64"/>
-      <c r="I28" s="68"/>
-      <c r="J28" s="66"/>
+      <c r="I28" s="84"/>
+      <c r="J28" s="83"/>
     </row>
     <row r="29" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A29" s="65"/>
-      <c r="B29" s="65"/>
-      <c r="C29" s="65"/>
-      <c r="D29" s="65"/>
-      <c r="E29" s="65"/>
-      <c r="F29" s="65"/>
-      <c r="G29" s="65"/>
-      <c r="H29" s="65"/>
-      <c r="I29" s="65"/>
-      <c r="J29" s="65"/>
+      <c r="A29" s="81"/>
+      <c r="B29" s="81"/>
+      <c r="C29" s="81"/>
+      <c r="D29" s="81"/>
+      <c r="E29" s="81"/>
+      <c r="F29" s="81"/>
+      <c r="G29" s="81"/>
+      <c r="H29" s="81"/>
+      <c r="I29" s="81"/>
+      <c r="J29" s="81"/>
     </row>
     <row r="31" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A31" s="26"/>
@@ -9773,7 +11699,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7B5DA73-718D-432E-BEC5-70BCFB6775D8}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -11133,7 +13059,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E52587BC-7ABB-4B86-9CA1-A4BC0005AC99}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -11354,15 +13280,15 @@
       <c r="H6" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="70" t="s">
+      <c r="I6" s="66" t="s">
         <v>10</v>
       </c>
       <c r="J6" s="13"/>
-      <c r="K6" s="69"/>
+      <c r="K6" s="65"/>
       <c r="L6" s="13"/>
-      <c r="M6" s="69"/>
+      <c r="M6" s="65"/>
       <c r="N6" s="13"/>
-      <c r="O6" s="69"/>
+      <c r="O6" s="65"/>
       <c r="P6" s="13"/>
       <c r="Q6" s="13"/>
       <c r="R6" s="13"/>
@@ -11401,7 +13327,7 @@
       <c r="H7" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="72" t="s">
+      <c r="I7" s="68" t="s">
         <v>13</v>
       </c>
       <c r="J7" s="17" t="s">
@@ -11545,7 +13471,7 @@
       <c r="I10" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="J10" s="71" t="s">
+      <c r="J10" s="67" t="s">
         <v>14</v>
       </c>
       <c r="K10" s="13" t="s">

--- a/Assignment 1/Assignment 1.xlsx
+++ b/Assignment 1/Assignment 1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\raeedh\school\COMPENG4DM4\Assignment 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC464701-B884-4C99-8F31-53282C7204AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{224E0D4A-236E-49AD-9DB2-DF804C582D71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" tabRatio="500" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" tabRatio="500" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="A1" sheetId="6" r:id="rId1"/>
@@ -20,8 +20,8 @@
     <sheet name="B2" sheetId="18" r:id="rId5"/>
     <sheet name="B2.1" sheetId="20" r:id="rId6"/>
     <sheet name="B4" sheetId="14" r:id="rId7"/>
-    <sheet name="B4.3" sheetId="17" r:id="rId8"/>
-    <sheet name="B4.2" sheetId="16" r:id="rId9"/>
+    <sheet name="B4.2" sheetId="16" r:id="rId8"/>
+    <sheet name="B4.3" sheetId="17" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'A1'!$B$2:$AF$26</definedName>
@@ -31,8 +31,8 @@
     <definedName name="_xlnm.Print_Area" localSheetId="4">'B2'!$B$2:$AF$26</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'B2.1'!$B$2:$AF$26</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">'B4'!$A$1:$M$42</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="8">'B4.2'!$B$2:$AF$26</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="7">'B4.3'!$B$2:$AF$26</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">'B4.2'!$B$2:$AF$26</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="8">'B4.3'!$B$2:$AF$26</definedName>
   </definedNames>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1586" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1547" uniqueCount="143">
   <si>
     <t>4DM4 Assignment #1, Timing for Basic RISC 7-stage  pipeline</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -486,6 +486,18 @@
   </si>
   <si>
     <t>** forward Rb (M2 to ID) end of cc21</t>
+  </si>
+  <si>
+    <t>SUB.I Rlo,#1</t>
+  </si>
+  <si>
+    <t>SUB.I Rli,#1</t>
+  </si>
+  <si>
+    <t>ADD.I R0,#64</t>
+  </si>
+  <si>
+    <t>LD Ra,(x)R0</t>
   </si>
 </sst>
 </file>
@@ -1024,7 +1036,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1170,6 +1182,7 @@
     <xf numFmtId="0" fontId="6" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -11805,6 +11818,1366 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7B5DA73-718D-432E-BEC5-70BCFB6775D8}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B2:AF41"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:L9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.375" customWidth="1"/>
+    <col min="2" max="2" width="28.125" customWidth="1"/>
+    <col min="3" max="32" width="8.625" customWidth="1"/>
+    <col min="33" max="74" width="4.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:32" ht="18" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="2:32" ht="18" x14ac:dyDescent="0.25">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+    </row>
+    <row r="4" spans="2:32" ht="18" x14ac:dyDescent="0.25">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4"/>
+      <c r="X4" s="4"/>
+      <c r="Y4" s="4"/>
+      <c r="Z4" s="4"/>
+    </row>
+    <row r="5" spans="2:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="6">
+        <v>1</v>
+      </c>
+      <c r="D5" s="7">
+        <f t="shared" ref="D5:AF5" si="0">C5+1</f>
+        <v>2</v>
+      </c>
+      <c r="E5" s="7">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F5" s="7">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="G5" s="7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="H5" s="7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="I5" s="8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="J5" s="7">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="K5" s="7">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="L5" s="7">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="M5" s="7">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="N5" s="7">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="O5" s="7">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="P5" s="7">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="Q5" s="7">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="R5" s="7">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="S5" s="7">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="T5" s="7">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="U5" s="7">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="V5" s="7">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="W5" s="7">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="X5" s="7">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="Y5" s="7">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="Z5" s="7">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="AA5" s="7">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="AB5" s="7">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="AC5" s="7">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="AD5" s="7">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="AE5" s="7">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="AF5" s="7">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="2:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" s="9"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="42"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="42"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="9"/>
+      <c r="V6" s="9"/>
+      <c r="W6" s="9"/>
+      <c r="X6" s="9"/>
+      <c r="Y6" s="9"/>
+      <c r="Z6" s="9"/>
+      <c r="AA6" s="9"/>
+      <c r="AB6" s="9"/>
+      <c r="AC6" s="9"/>
+      <c r="AD6" s="9"/>
+      <c r="AE6" s="9"/>
+      <c r="AF6" s="9"/>
+    </row>
+    <row r="7" spans="2:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="K7" s="13"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="9"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="9"/>
+      <c r="V7" s="9"/>
+      <c r="W7" s="9"/>
+      <c r="X7" s="9"/>
+      <c r="Y7" s="9"/>
+      <c r="Z7" s="9"/>
+      <c r="AA7" s="9"/>
+      <c r="AB7" s="9"/>
+      <c r="AC7" s="9"/>
+      <c r="AD7" s="9"/>
+      <c r="AE7" s="9"/>
+      <c r="AF7" s="9"/>
+    </row>
+    <row r="8" spans="2:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="J8" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
+      <c r="S8" s="9"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="9"/>
+      <c r="V8" s="9"/>
+      <c r="W8" s="9"/>
+      <c r="X8" s="9"/>
+      <c r="Y8" s="9"/>
+      <c r="Z8" s="9"/>
+      <c r="AA8" s="9"/>
+      <c r="AB8" s="9"/>
+      <c r="AC8" s="9"/>
+      <c r="AD8" s="9"/>
+      <c r="AE8" s="9"/>
+      <c r="AF8" s="9"/>
+    </row>
+    <row r="9" spans="2:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="J9" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="K9" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="L9" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="M9" s="13"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="9"/>
+      <c r="V9" s="9"/>
+      <c r="W9" s="9"/>
+      <c r="X9" s="9"/>
+      <c r="Y9" s="9"/>
+      <c r="Z9" s="9"/>
+      <c r="AA9" s="9"/>
+      <c r="AB9" s="9"/>
+      <c r="AC9" s="9"/>
+      <c r="AD9" s="9"/>
+      <c r="AE9" s="9"/>
+      <c r="AF9" s="9"/>
+    </row>
+    <row r="10" spans="2:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J10" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="K10" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="L10" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="M10" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="9"/>
+      <c r="T10" s="9"/>
+      <c r="U10" s="9"/>
+      <c r="V10" s="9"/>
+      <c r="W10" s="9"/>
+      <c r="X10" s="9"/>
+      <c r="Y10" s="9"/>
+      <c r="Z10" s="9"/>
+      <c r="AA10" s="9"/>
+      <c r="AB10" s="9"/>
+      <c r="AC10" s="9"/>
+      <c r="AD10" s="9"/>
+      <c r="AE10" s="9"/>
+      <c r="AF10" s="9"/>
+    </row>
+    <row r="11" spans="2:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="L11" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="M11" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="N11" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9"/>
+      <c r="S11" s="9"/>
+      <c r="T11" s="9"/>
+      <c r="U11" s="9"/>
+      <c r="V11" s="9"/>
+      <c r="W11" s="9"/>
+      <c r="X11" s="9"/>
+      <c r="Y11" s="9"/>
+      <c r="Z11" s="9"/>
+      <c r="AA11" s="9"/>
+      <c r="AB11" s="9"/>
+      <c r="AC11" s="9"/>
+      <c r="AD11" s="9"/>
+      <c r="AE11" s="9"/>
+      <c r="AF11" s="9"/>
+    </row>
+    <row r="12" spans="2:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="L12" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="M12" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="N12" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="O12" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="9"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="9"/>
+      <c r="V12" s="9"/>
+      <c r="W12" s="9"/>
+      <c r="X12" s="9"/>
+      <c r="Y12" s="9"/>
+      <c r="Z12" s="9"/>
+      <c r="AA12" s="9"/>
+      <c r="AB12" s="9"/>
+      <c r="AC12" s="9"/>
+      <c r="AD12" s="9"/>
+      <c r="AE12" s="9"/>
+      <c r="AF12" s="9"/>
+    </row>
+    <row r="13" spans="2:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="K13" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="L13" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="M13" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="N13" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="O13" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="P13" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9"/>
+      <c r="S13" s="9"/>
+      <c r="T13" s="9"/>
+      <c r="U13" s="9"/>
+      <c r="V13" s="9"/>
+      <c r="W13" s="9"/>
+      <c r="X13" s="9"/>
+      <c r="Y13" s="9"/>
+      <c r="Z13" s="9"/>
+      <c r="AA13" s="13"/>
+      <c r="AB13" s="9"/>
+      <c r="AC13" s="9"/>
+      <c r="AD13" s="9"/>
+      <c r="AE13" s="9"/>
+      <c r="AF13" s="9"/>
+    </row>
+    <row r="14" spans="2:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="L14" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="M14" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="N14" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="O14" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="P14" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q14" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="R14" s="9"/>
+      <c r="S14" s="9"/>
+      <c r="T14" s="13"/>
+      <c r="U14" s="9"/>
+      <c r="V14" s="9"/>
+      <c r="W14" s="9"/>
+      <c r="X14" s="9"/>
+      <c r="Y14" s="9"/>
+      <c r="Z14" s="9"/>
+      <c r="AA14" s="13"/>
+      <c r="AB14" s="9"/>
+      <c r="AC14" s="9"/>
+      <c r="AD14" s="9"/>
+      <c r="AE14" s="9"/>
+      <c r="AF14" s="9"/>
+    </row>
+    <row r="15" spans="2:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="M15" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="N15" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="O15" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="P15" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q15" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="R15" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="S15" s="9"/>
+      <c r="T15" s="13"/>
+      <c r="U15" s="9"/>
+      <c r="V15" s="9"/>
+      <c r="W15" s="9"/>
+      <c r="X15" s="9"/>
+      <c r="Y15" s="9"/>
+      <c r="Z15" s="9"/>
+      <c r="AA15" s="13"/>
+      <c r="AB15" s="9"/>
+      <c r="AC15" s="9"/>
+      <c r="AD15" s="9"/>
+      <c r="AE15" s="9"/>
+      <c r="AF15" s="9"/>
+    </row>
+    <row r="16" spans="2:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="N16" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="O16" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="P16" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q16" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="R16" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="S16" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="T16" s="13"/>
+      <c r="U16" s="9"/>
+      <c r="V16" s="9"/>
+      <c r="W16" s="9"/>
+      <c r="X16" s="9"/>
+      <c r="Y16" s="9"/>
+      <c r="Z16" s="9"/>
+      <c r="AA16" s="13"/>
+      <c r="AB16" s="9"/>
+      <c r="AC16" s="9"/>
+      <c r="AD16" s="9"/>
+      <c r="AE16" s="9"/>
+      <c r="AF16" s="9"/>
+    </row>
+    <row r="17" spans="2:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="O17" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="P17" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q17" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="R17" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="S17" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="T17" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="U17" s="9"/>
+      <c r="V17" s="9"/>
+      <c r="W17" s="9"/>
+      <c r="X17" s="9"/>
+      <c r="Y17" s="9"/>
+      <c r="Z17" s="9"/>
+      <c r="AA17" s="9"/>
+      <c r="AB17" s="9"/>
+      <c r="AC17" s="9"/>
+      <c r="AD17" s="9"/>
+      <c r="AE17" s="9"/>
+      <c r="AF17" s="9"/>
+    </row>
+    <row r="18" spans="2:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="P18" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q18" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="R18" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="S18" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="T18" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="U18" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="V18" s="9"/>
+      <c r="W18" s="9"/>
+      <c r="X18" s="9"/>
+      <c r="Y18" s="9"/>
+      <c r="Z18" s="9"/>
+      <c r="AA18" s="9"/>
+      <c r="AB18" s="9"/>
+      <c r="AC18" s="9"/>
+      <c r="AD18" s="9"/>
+      <c r="AE18" s="9"/>
+      <c r="AF18" s="9"/>
+    </row>
+    <row r="19" spans="2:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q19" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="R19" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="S19" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="T19" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="U19" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="V19" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="W19" s="9"/>
+      <c r="X19" s="9"/>
+      <c r="Y19" s="9"/>
+      <c r="Z19" s="9"/>
+      <c r="AA19" s="9"/>
+      <c r="AB19" s="9"/>
+      <c r="AC19" s="9"/>
+      <c r="AD19" s="9"/>
+      <c r="AE19" s="9"/>
+      <c r="AF19" s="9"/>
+    </row>
+    <row r="20" spans="2:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="R20" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="S20" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="T20" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="U20" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="V20" s="56" t="s">
+        <v>9</v>
+      </c>
+      <c r="W20" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="X20" s="9"/>
+      <c r="Y20" s="9"/>
+      <c r="Z20" s="9"/>
+      <c r="AA20" s="9"/>
+      <c r="AB20" s="9"/>
+      <c r="AC20" s="9"/>
+      <c r="AD20" s="9"/>
+      <c r="AE20" s="9"/>
+      <c r="AF20" s="9"/>
+    </row>
+    <row r="21" spans="2:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="9"/>
+      <c r="R21" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="S21" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="T21" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="U21" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="V21" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="W21" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="X21" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y21" s="9"/>
+      <c r="Z21" s="9"/>
+      <c r="AA21" s="9"/>
+      <c r="AB21" s="9"/>
+      <c r="AC21" s="9"/>
+      <c r="AD21" s="9"/>
+      <c r="AE21" s="9"/>
+      <c r="AF21" s="9"/>
+    </row>
+    <row r="22" spans="2:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="9"/>
+      <c r="R22" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="S22" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="T22" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="U22" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="V22" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="W22" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="X22" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y22" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z22" s="9"/>
+      <c r="AA22" s="9"/>
+      <c r="AB22" s="9"/>
+      <c r="AC22" s="9"/>
+      <c r="AD22" s="9"/>
+      <c r="AE22" s="9"/>
+      <c r="AF22" s="9"/>
+    </row>
+    <row r="23" spans="2:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="9"/>
+      <c r="R23" s="9"/>
+      <c r="S23" s="9"/>
+      <c r="T23" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="U23" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="V23" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="W23" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="X23" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y23" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z23" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA23" s="9"/>
+      <c r="AB23" s="9"/>
+      <c r="AC23" s="9"/>
+      <c r="AD23" s="9"/>
+      <c r="AE23" s="9"/>
+      <c r="AF23" s="9"/>
+    </row>
+    <row r="24" spans="2:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="9"/>
+      <c r="R24" s="9"/>
+      <c r="S24" s="9"/>
+      <c r="T24" s="9"/>
+      <c r="U24" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="V24" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="W24" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="X24" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y24" s="55" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z24" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA24" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB24" s="9"/>
+      <c r="AC24" s="9"/>
+      <c r="AD24" s="9"/>
+      <c r="AE24" s="9"/>
+      <c r="AF24" s="9"/>
+    </row>
+    <row r="25" spans="2:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="9"/>
+      <c r="R25" s="9"/>
+      <c r="S25" s="9"/>
+      <c r="T25" s="9"/>
+      <c r="U25" s="9"/>
+      <c r="V25" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="W25" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="X25" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y25" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z25" s="56" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA25" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB25" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC25" s="9"/>
+      <c r="AD25" s="9"/>
+      <c r="AE25" s="9"/>
+      <c r="AF25" s="9"/>
+    </row>
+    <row r="26" spans="2:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="10"/>
+      <c r="C26" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G26" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H26" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I26" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="9"/>
+      <c r="P26" s="9"/>
+      <c r="Q26" s="9"/>
+      <c r="R26" s="9"/>
+      <c r="S26" s="9"/>
+      <c r="T26" s="13"/>
+      <c r="U26" s="13"/>
+      <c r="V26" s="13"/>
+      <c r="W26" s="13"/>
+      <c r="X26" s="9"/>
+      <c r="Y26" s="9"/>
+      <c r="Z26" s="9"/>
+      <c r="AA26" s="9"/>
+      <c r="AB26" s="9"/>
+      <c r="AC26" s="9"/>
+      <c r="AD26" s="9"/>
+      <c r="AE26" s="9"/>
+      <c r="AF26" s="9"/>
+    </row>
+    <row r="27" spans="2:32" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="2:32" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="2:32" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="D29" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="E29" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="F29" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="G29" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="H29" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="I29" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="O29" s="40" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="2:32" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="D30" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="E30" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="F30" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="G30" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="H30" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="I30" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="J30" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="K30" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="L30" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="O30" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="R30" s="40" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="31" spans="2:32" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="O31" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="R31" s="40" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="32" spans="2:32" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="O32" s="40" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="O33" s="40" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="O34" s="40" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="O35" s="40" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="O36" s="40" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" scale="60" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E52587BC-7ABB-4B86-9CA1-A4BC0005AC99}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -11812,7 +13185,7 @@
   <dimension ref="B2:AF68"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A41" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K71" sqref="K71"/>
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -13675,27 +15048,13 @@
       <c r="AB56" s="13"/>
     </row>
     <row r="59" spans="2:28" ht="18" x14ac:dyDescent="0.25">
-      <c r="M59" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="N59" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="O59" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="P59" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q59" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="R59" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="S59" s="88" t="s">
-        <v>10</v>
-      </c>
+      <c r="M59" s="13"/>
+      <c r="N59" s="13"/>
+      <c r="O59" s="13"/>
+      <c r="P59" s="13"/>
+      <c r="Q59" s="13"/>
+      <c r="R59" s="13"/>
+      <c r="S59" s="88"/>
       <c r="T59" s="13"/>
       <c r="U59" s="13"/>
       <c r="V59" s="13"/>
@@ -13708,27 +15067,13 @@
     </row>
     <row r="60" spans="2:28" ht="18" x14ac:dyDescent="0.25">
       <c r="M60" s="13"/>
-      <c r="N60" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="O60" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="P60" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q60" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="R60" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="S60" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="T60" s="13" t="s">
-        <v>10</v>
-      </c>
+      <c r="N60" s="13"/>
+      <c r="O60" s="13"/>
+      <c r="P60" s="13"/>
+      <c r="Q60" s="13"/>
+      <c r="R60" s="13"/>
+      <c r="S60" s="13"/>
+      <c r="T60" s="13"/>
       <c r="U60" s="13"/>
       <c r="V60" s="13"/>
       <c r="W60" s="13"/>
@@ -13739,29 +15084,39 @@
       <c r="AB60" s="9"/>
     </row>
     <row r="61" spans="2:28" ht="18" x14ac:dyDescent="0.25">
+      <c r="B61" s="91" t="s">
+        <v>141</v>
+      </c>
+      <c r="C61" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D61" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E61" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F61" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G61" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H61" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I61" s="13" t="s">
+        <v>10</v>
+      </c>
       <c r="M61" s="13"/>
       <c r="N61" s="13"/>
-      <c r="O61" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="P61" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q61" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="R61" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="S61" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="T61" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="U61" s="89" t="s">
-        <v>10</v>
-      </c>
+      <c r="O61" s="13"/>
+      <c r="P61" s="13"/>
+      <c r="Q61" s="13"/>
+      <c r="R61" s="13"/>
+      <c r="S61" s="13"/>
+      <c r="T61" s="13"/>
+      <c r="U61" s="89"/>
       <c r="V61" s="13"/>
       <c r="W61" s="13"/>
       <c r="X61" s="13"/>
@@ -13771,30 +15126,40 @@
       <c r="AB61" s="9"/>
     </row>
     <row r="62" spans="2:28" ht="18" x14ac:dyDescent="0.25">
+      <c r="B62" s="91" t="s">
+        <v>139</v>
+      </c>
+      <c r="D62" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E62" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F62" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G62" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H62" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="I62" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="J62" s="13" t="s">
+        <v>10</v>
+      </c>
       <c r="M62" s="13"/>
       <c r="N62" s="13"/>
       <c r="O62" s="13"/>
-      <c r="P62" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q62" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="R62" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="S62" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="T62" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="U62" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="V62" s="90" t="s">
-        <v>10</v>
-      </c>
+      <c r="P62" s="13"/>
+      <c r="Q62" s="13"/>
+      <c r="R62" s="13"/>
+      <c r="S62" s="13"/>
+      <c r="T62" s="13"/>
+      <c r="U62" s="13"/>
+      <c r="V62" s="90"/>
       <c r="W62" s="13"/>
       <c r="X62" s="13"/>
       <c r="Y62" s="13"/>
@@ -13803,31 +15168,41 @@
       <c r="AB62" s="9"/>
     </row>
     <row r="63" spans="2:28" ht="18" x14ac:dyDescent="0.25">
+      <c r="B63" s="91" t="s">
+        <v>140</v>
+      </c>
+      <c r="E63" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F63" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G63" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H63" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I63" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="J63" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="K63" s="13" t="s">
+        <v>10</v>
+      </c>
       <c r="M63" s="13"/>
       <c r="N63" s="13"/>
       <c r="O63" s="13"/>
       <c r="P63" s="13"/>
-      <c r="Q63" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="R63" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="S63" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="T63" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="U63" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="V63" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="W63" s="13" t="s">
-        <v>10</v>
-      </c>
+      <c r="Q63" s="13"/>
+      <c r="R63" s="13"/>
+      <c r="S63" s="13"/>
+      <c r="T63" s="13"/>
+      <c r="U63" s="13"/>
+      <c r="V63" s="13"/>
+      <c r="W63" s="13"/>
       <c r="X63" s="13"/>
       <c r="Y63" s="13"/>
       <c r="Z63" s="13"/>
@@ -13835,32 +15210,42 @@
       <c r="AB63" s="9"/>
     </row>
     <row r="64" spans="2:28" ht="18" x14ac:dyDescent="0.25">
+      <c r="B64" s="91" t="s">
+        <v>142</v>
+      </c>
+      <c r="F64" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G64" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="H64" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I64" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="J64" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="K64" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="L64" s="13" t="s">
+        <v>10</v>
+      </c>
       <c r="M64" s="13"/>
       <c r="N64" s="13"/>
       <c r="O64" s="13"/>
       <c r="P64" s="13"/>
       <c r="Q64" s="13"/>
-      <c r="R64" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="S64" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="T64" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="U64" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="V64" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="W64" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="X64" s="13" t="s">
-        <v>10</v>
-      </c>
+      <c r="R64" s="13"/>
+      <c r="S64" s="13"/>
+      <c r="T64" s="13"/>
+      <c r="U64" s="13"/>
+      <c r="V64" s="13"/>
+      <c r="W64" s="13"/>
+      <c r="X64" s="13"/>
       <c r="Y64" s="13"/>
       <c r="Z64" s="13"/>
       <c r="AA64" s="13"/>
@@ -13872,30 +15257,14 @@
       <c r="O65" s="13"/>
       <c r="P65" s="13"/>
       <c r="Q65" s="13"/>
-      <c r="R65" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="S65" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="T65" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="U65" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="V65" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="W65" s="88" t="s">
-        <v>8</v>
-      </c>
-      <c r="X65" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y65" s="13" t="s">
-        <v>10</v>
-      </c>
+      <c r="R65" s="13"/>
+      <c r="S65" s="13"/>
+      <c r="T65" s="13"/>
+      <c r="U65" s="13"/>
+      <c r="V65" s="13"/>
+      <c r="W65" s="88"/>
+      <c r="X65" s="13"/>
+      <c r="Y65" s="13"/>
       <c r="Z65" s="13"/>
       <c r="AA65" s="13"/>
       <c r="AB65" s="9"/>
@@ -13908,27 +15277,13 @@
       <c r="Q66" s="13"/>
       <c r="R66" s="13"/>
       <c r="S66" s="13"/>
-      <c r="T66" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="U66" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="V66" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="W66" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="X66" s="89" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y66" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z66" s="13" t="s">
-        <v>10</v>
-      </c>
+      <c r="T66" s="13"/>
+      <c r="U66" s="13"/>
+      <c r="V66" s="13"/>
+      <c r="W66" s="13"/>
+      <c r="X66" s="89"/>
+      <c r="Y66" s="13"/>
+      <c r="Z66" s="13"/>
       <c r="AA66" s="13"/>
       <c r="AB66" s="9"/>
     </row>
@@ -13941,27 +15296,13 @@
       <c r="R67" s="13"/>
       <c r="S67" s="13"/>
       <c r="T67" s="13"/>
-      <c r="U67" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="V67" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="W67" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="X67" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y67" s="90" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z67" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA67" s="13" t="s">
-        <v>10</v>
-      </c>
+      <c r="U67" s="13"/>
+      <c r="V67" s="13"/>
+      <c r="W67" s="13"/>
+      <c r="X67" s="13"/>
+      <c r="Y67" s="90"/>
+      <c r="Z67" s="13"/>
+      <c r="AA67" s="13"/>
       <c r="AB67" s="9"/>
     </row>
     <row r="68" spans="13:28" ht="18" x14ac:dyDescent="0.25">
@@ -13974,1388 +15315,14 @@
       <c r="S68" s="13"/>
       <c r="T68" s="13"/>
       <c r="U68" s="13"/>
-      <c r="V68" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="W68" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="X68" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y68" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z68" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA68" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB68" s="13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" scale="60" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7B5DA73-718D-432E-BEC5-70BCFB6775D8}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="B2:AF41"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:L9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="2.375" customWidth="1"/>
-    <col min="2" max="2" width="28.125" customWidth="1"/>
-    <col min="3" max="32" width="8.625" customWidth="1"/>
-    <col min="33" max="74" width="4.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:32" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="K2" s="1"/>
-    </row>
-    <row r="3" spans="2:32" ht="18" x14ac:dyDescent="0.25">
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-    </row>
-    <row r="4" spans="2:32" ht="18" x14ac:dyDescent="0.25">
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="R4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="S4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="T4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="U4" s="4"/>
-      <c r="V4" s="4"/>
-      <c r="W4" s="4"/>
-      <c r="X4" s="4"/>
-      <c r="Y4" s="4"/>
-      <c r="Z4" s="4"/>
-    </row>
-    <row r="5" spans="2:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="6">
-        <v>1</v>
-      </c>
-      <c r="D5" s="7">
-        <f t="shared" ref="D5:AF5" si="0">C5+1</f>
-        <v>2</v>
-      </c>
-      <c r="E5" s="7">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="F5" s="7">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="G5" s="7">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="H5" s="7">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="I5" s="8">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="J5" s="7">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="K5" s="7">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="L5" s="7">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="M5" s="7">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="N5" s="7">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="O5" s="7">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="P5" s="7">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="Q5" s="7">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="R5" s="7">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="S5" s="7">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="T5" s="7">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="U5" s="7">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="V5" s="7">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="W5" s="7">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="X5" s="7">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="Y5" s="7">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="Z5" s="7">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="AA5" s="7">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="AB5" s="7">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="AC5" s="7">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="AD5" s="7">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="AE5" s="7">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="AF5" s="7">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="2:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="H6" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="I6" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="J6" s="9"/>
-      <c r="K6" s="42"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="42"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="42"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="9"/>
-      <c r="S6" s="9"/>
-      <c r="T6" s="9"/>
-      <c r="U6" s="9"/>
-      <c r="V6" s="9"/>
-      <c r="W6" s="9"/>
-      <c r="X6" s="9"/>
-      <c r="Y6" s="9"/>
-      <c r="Z6" s="9"/>
-      <c r="AA6" s="9"/>
-      <c r="AB6" s="9"/>
-      <c r="AC6" s="9"/>
-      <c r="AD6" s="9"/>
-      <c r="AE6" s="9"/>
-      <c r="AF6" s="9"/>
-    </row>
-    <row r="7" spans="2:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="I7" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="J7" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="K7" s="13"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="9"/>
-      <c r="S7" s="9"/>
-      <c r="T7" s="9"/>
-      <c r="U7" s="9"/>
-      <c r="V7" s="9"/>
-      <c r="W7" s="9"/>
-      <c r="X7" s="9"/>
-      <c r="Y7" s="9"/>
-      <c r="Z7" s="9"/>
-      <c r="AA7" s="9"/>
-      <c r="AB7" s="9"/>
-      <c r="AC7" s="9"/>
-      <c r="AD7" s="9"/>
-      <c r="AE7" s="9"/>
-      <c r="AF7" s="9"/>
-    </row>
-    <row r="8" spans="2:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H8" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="I8" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="J8" s="51" t="s">
-        <v>9</v>
-      </c>
-      <c r="K8" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="9"/>
-      <c r="Q8" s="9"/>
-      <c r="R8" s="9"/>
-      <c r="S8" s="9"/>
-      <c r="T8" s="9"/>
-      <c r="U8" s="9"/>
-      <c r="V8" s="9"/>
-      <c r="W8" s="9"/>
-      <c r="X8" s="9"/>
-      <c r="Y8" s="9"/>
-      <c r="Z8" s="9"/>
-      <c r="AA8" s="9"/>
-      <c r="AB8" s="9"/>
-      <c r="AC8" s="9"/>
-      <c r="AD8" s="9"/>
-      <c r="AE8" s="9"/>
-      <c r="AF8" s="9"/>
-    </row>
-    <row r="9" spans="2:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="40" t="s">
-        <v>99</v>
-      </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="I9" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="J9" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="K9" s="51" t="s">
-        <v>9</v>
-      </c>
-      <c r="L9" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="M9" s="13"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="9"/>
-      <c r="S9" s="9"/>
-      <c r="T9" s="9"/>
-      <c r="U9" s="9"/>
-      <c r="V9" s="9"/>
-      <c r="W9" s="9"/>
-      <c r="X9" s="9"/>
-      <c r="Y9" s="9"/>
-      <c r="Z9" s="9"/>
-      <c r="AA9" s="9"/>
-      <c r="AB9" s="9"/>
-      <c r="AC9" s="9"/>
-      <c r="AD9" s="9"/>
-      <c r="AE9" s="9"/>
-      <c r="AF9" s="9"/>
-    </row>
-    <row r="10" spans="2:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="J10" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="K10" s="50" t="s">
-        <v>8</v>
-      </c>
-      <c r="L10" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="M10" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="9"/>
-      <c r="S10" s="9"/>
-      <c r="T10" s="9"/>
-      <c r="U10" s="9"/>
-      <c r="V10" s="9"/>
-      <c r="W10" s="9"/>
-      <c r="X10" s="9"/>
-      <c r="Y10" s="9"/>
-      <c r="Z10" s="9"/>
-      <c r="AA10" s="9"/>
-      <c r="AB10" s="9"/>
-      <c r="AC10" s="9"/>
-      <c r="AD10" s="9"/>
-      <c r="AE10" s="9"/>
-      <c r="AF10" s="9"/>
-    </row>
-    <row r="11" spans="2:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="I11" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="J11" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="K11" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="L11" s="51" t="s">
-        <v>8</v>
-      </c>
-      <c r="M11" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="N11" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="O11" s="9"/>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="9"/>
-      <c r="R11" s="9"/>
-      <c r="S11" s="9"/>
-      <c r="T11" s="9"/>
-      <c r="U11" s="9"/>
-      <c r="V11" s="9"/>
-      <c r="W11" s="9"/>
-      <c r="X11" s="9"/>
-      <c r="Y11" s="9"/>
-      <c r="Z11" s="9"/>
-      <c r="AA11" s="9"/>
-      <c r="AB11" s="9"/>
-      <c r="AC11" s="9"/>
-      <c r="AD11" s="9"/>
-      <c r="AE11" s="9"/>
-      <c r="AF11" s="9"/>
-    </row>
-    <row r="12" spans="2:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="J12" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="K12" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="L12" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="M12" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="N12" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="O12" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="13"/>
-      <c r="R12" s="9"/>
-      <c r="S12" s="9"/>
-      <c r="T12" s="9"/>
-      <c r="U12" s="9"/>
-      <c r="V12" s="9"/>
-      <c r="W12" s="9"/>
-      <c r="X12" s="9"/>
-      <c r="Y12" s="9"/>
-      <c r="Z12" s="9"/>
-      <c r="AA12" s="9"/>
-      <c r="AB12" s="9"/>
-      <c r="AC12" s="9"/>
-      <c r="AD12" s="9"/>
-      <c r="AE12" s="9"/>
-      <c r="AF12" s="9"/>
-    </row>
-    <row r="13" spans="2:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="K13" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="L13" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="M13" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="N13" s="52" t="s">
-        <v>8</v>
-      </c>
-      <c r="O13" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="P13" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q13" s="9"/>
-      <c r="R13" s="9"/>
-      <c r="S13" s="9"/>
-      <c r="T13" s="9"/>
-      <c r="U13" s="9"/>
-      <c r="V13" s="9"/>
-      <c r="W13" s="9"/>
-      <c r="X13" s="9"/>
-      <c r="Y13" s="9"/>
-      <c r="Z13" s="9"/>
-      <c r="AA13" s="13"/>
-      <c r="AB13" s="9"/>
-      <c r="AC13" s="9"/>
-      <c r="AD13" s="9"/>
-      <c r="AE13" s="9"/>
-      <c r="AF13" s="9"/>
-    </row>
-    <row r="14" spans="2:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="40" t="s">
-        <v>63</v>
-      </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="L14" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="M14" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="N14" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="O14" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="P14" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q14" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="R14" s="9"/>
-      <c r="S14" s="9"/>
-      <c r="T14" s="13"/>
-      <c r="U14" s="9"/>
-      <c r="V14" s="9"/>
-      <c r="W14" s="9"/>
-      <c r="X14" s="9"/>
-      <c r="Y14" s="9"/>
-      <c r="Z14" s="9"/>
-      <c r="AA14" s="13"/>
-      <c r="AB14" s="9"/>
-      <c r="AC14" s="9"/>
-      <c r="AD14" s="9"/>
-      <c r="AE14" s="9"/>
-      <c r="AF14" s="9"/>
-    </row>
-    <row r="15" spans="2:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="40" t="s">
-        <v>64</v>
-      </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="M15" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="N15" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="O15" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="P15" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q15" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="R15" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="S15" s="9"/>
-      <c r="T15" s="13"/>
-      <c r="U15" s="9"/>
-      <c r="V15" s="9"/>
-      <c r="W15" s="9"/>
-      <c r="X15" s="9"/>
-      <c r="Y15" s="9"/>
-      <c r="Z15" s="9"/>
-      <c r="AA15" s="13"/>
-      <c r="AB15" s="9"/>
-      <c r="AC15" s="9"/>
-      <c r="AD15" s="9"/>
-      <c r="AE15" s="9"/>
-      <c r="AF15" s="9"/>
-    </row>
-    <row r="16" spans="2:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="N16" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="O16" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="P16" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q16" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="R16" s="53" t="s">
-        <v>9</v>
-      </c>
-      <c r="S16" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="T16" s="13"/>
-      <c r="U16" s="9"/>
-      <c r="V16" s="9"/>
-      <c r="W16" s="9"/>
-      <c r="X16" s="9"/>
-      <c r="Y16" s="9"/>
-      <c r="Z16" s="9"/>
-      <c r="AA16" s="13"/>
-      <c r="AB16" s="9"/>
-      <c r="AC16" s="9"/>
-      <c r="AD16" s="9"/>
-      <c r="AE16" s="9"/>
-      <c r="AF16" s="9"/>
-    </row>
-    <row r="17" spans="2:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="O17" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="P17" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q17" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="R17" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="S17" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="T17" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="U17" s="9"/>
-      <c r="V17" s="9"/>
-      <c r="W17" s="9"/>
-      <c r="X17" s="9"/>
-      <c r="Y17" s="9"/>
-      <c r="Z17" s="9"/>
-      <c r="AA17" s="9"/>
-      <c r="AB17" s="9"/>
-      <c r="AC17" s="9"/>
-      <c r="AD17" s="9"/>
-      <c r="AE17" s="9"/>
-      <c r="AF17" s="9"/>
-    </row>
-    <row r="18" spans="2:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="P18" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q18" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="R18" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="S18" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="T18" s="54" t="s">
-        <v>9</v>
-      </c>
-      <c r="U18" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="V18" s="9"/>
-      <c r="W18" s="9"/>
-      <c r="X18" s="9"/>
-      <c r="Y18" s="9"/>
-      <c r="Z18" s="9"/>
-      <c r="AA18" s="9"/>
-      <c r="AB18" s="9"/>
-      <c r="AC18" s="9"/>
-      <c r="AD18" s="9"/>
-      <c r="AE18" s="9"/>
-      <c r="AF18" s="9"/>
-    </row>
-    <row r="19" spans="2:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="9"/>
-      <c r="P19" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q19" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="R19" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="S19" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="T19" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="U19" s="55" t="s">
-        <v>9</v>
-      </c>
-      <c r="V19" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="W19" s="9"/>
-      <c r="X19" s="9"/>
-      <c r="Y19" s="9"/>
-      <c r="Z19" s="9"/>
-      <c r="AA19" s="9"/>
-      <c r="AB19" s="9"/>
-      <c r="AC19" s="9"/>
-      <c r="AD19" s="9"/>
-      <c r="AE19" s="9"/>
-      <c r="AF19" s="9"/>
-    </row>
-    <row r="20" spans="2:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="40" t="s">
-        <v>63</v>
-      </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="9"/>
-      <c r="O20" s="9"/>
-      <c r="P20" s="9"/>
-      <c r="Q20" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="R20" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="S20" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="T20" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="U20" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="V20" s="56" t="s">
-        <v>9</v>
-      </c>
-      <c r="W20" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="X20" s="9"/>
-      <c r="Y20" s="9"/>
-      <c r="Z20" s="9"/>
-      <c r="AA20" s="9"/>
-      <c r="AB20" s="9"/>
-      <c r="AC20" s="9"/>
-      <c r="AD20" s="9"/>
-      <c r="AE20" s="9"/>
-      <c r="AF20" s="9"/>
-    </row>
-    <row r="21" spans="2:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="40" t="s">
-        <v>67</v>
-      </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="9"/>
-      <c r="O21" s="9"/>
-      <c r="P21" s="9"/>
-      <c r="Q21" s="9"/>
-      <c r="R21" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="S21" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="T21" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="U21" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="V21" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="W21" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="X21" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y21" s="9"/>
-      <c r="Z21" s="9"/>
-      <c r="AA21" s="9"/>
-      <c r="AB21" s="9"/>
-      <c r="AC21" s="9"/>
-      <c r="AD21" s="9"/>
-      <c r="AE21" s="9"/>
-      <c r="AF21" s="9"/>
-    </row>
-    <row r="22" spans="2:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="9"/>
-      <c r="O22" s="9"/>
-      <c r="P22" s="9"/>
-      <c r="Q22" s="9"/>
-      <c r="R22" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="S22" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="T22" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="U22" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="V22" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="W22" s="53" t="s">
-        <v>8</v>
-      </c>
-      <c r="X22" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y22" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z22" s="9"/>
-      <c r="AA22" s="9"/>
-      <c r="AB22" s="9"/>
-      <c r="AC22" s="9"/>
-      <c r="AD22" s="9"/>
-      <c r="AE22" s="9"/>
-      <c r="AF22" s="9"/>
-    </row>
-    <row r="23" spans="2:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="9"/>
-      <c r="O23" s="9"/>
-      <c r="P23" s="9"/>
-      <c r="Q23" s="9"/>
-      <c r="R23" s="9"/>
-      <c r="S23" s="9"/>
-      <c r="T23" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="U23" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="V23" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="W23" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="X23" s="54" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y23" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z23" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="AA23" s="9"/>
-      <c r="AB23" s="9"/>
-      <c r="AC23" s="9"/>
-      <c r="AD23" s="9"/>
-      <c r="AE23" s="9"/>
-      <c r="AF23" s="9"/>
-    </row>
-    <row r="24" spans="2:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="40" t="s">
-        <v>66</v>
-      </c>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
-      <c r="N24" s="9"/>
-      <c r="O24" s="9"/>
-      <c r="P24" s="9"/>
-      <c r="Q24" s="9"/>
-      <c r="R24" s="9"/>
-      <c r="S24" s="9"/>
-      <c r="T24" s="9"/>
-      <c r="U24" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="V24" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="W24" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="X24" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y24" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z24" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA24" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="AB24" s="9"/>
-      <c r="AC24" s="9"/>
-      <c r="AD24" s="9"/>
-      <c r="AE24" s="9"/>
-      <c r="AF24" s="9"/>
-    </row>
-    <row r="25" spans="2:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="40" t="s">
-        <v>68</v>
-      </c>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="9"/>
-      <c r="N25" s="9"/>
-      <c r="O25" s="9"/>
-      <c r="P25" s="9"/>
-      <c r="Q25" s="9"/>
-      <c r="R25" s="9"/>
-      <c r="S25" s="9"/>
-      <c r="T25" s="9"/>
-      <c r="U25" s="9"/>
-      <c r="V25" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="W25" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="X25" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y25" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z25" s="56" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA25" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB25" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="AC25" s="9"/>
-      <c r="AD25" s="9"/>
-      <c r="AE25" s="9"/>
-      <c r="AF25" s="9"/>
-    </row>
-    <row r="26" spans="2:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="10"/>
-      <c r="C26" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F26" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="G26" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="H26" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I26" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
-      <c r="M26" s="9"/>
-      <c r="N26" s="9"/>
-      <c r="O26" s="9"/>
-      <c r="P26" s="9"/>
-      <c r="Q26" s="9"/>
-      <c r="R26" s="9"/>
-      <c r="S26" s="9"/>
-      <c r="T26" s="13"/>
-      <c r="U26" s="13"/>
-      <c r="V26" s="13"/>
-      <c r="W26" s="13"/>
-      <c r="X26" s="9"/>
-      <c r="Y26" s="9"/>
-      <c r="Z26" s="9"/>
-      <c r="AA26" s="9"/>
-      <c r="AB26" s="9"/>
-      <c r="AC26" s="9"/>
-      <c r="AD26" s="9"/>
-      <c r="AE26" s="9"/>
-      <c r="AF26" s="9"/>
-    </row>
-    <row r="27" spans="2:32" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="2:32" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="2:32" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="C29" s="41" t="s">
-        <v>79</v>
-      </c>
-      <c r="D29" s="41" t="s">
-        <v>79</v>
-      </c>
-      <c r="E29" s="43" t="s">
-        <v>78</v>
-      </c>
-      <c r="F29" s="43" t="s">
-        <v>7</v>
-      </c>
-      <c r="G29" s="43" t="s">
-        <v>80</v>
-      </c>
-      <c r="H29" s="43" t="s">
-        <v>80</v>
-      </c>
-      <c r="I29" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="O29" s="40" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="30" spans="2:32" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="39" t="s">
-        <v>51</v>
-      </c>
-      <c r="D30" s="41" t="s">
-        <v>79</v>
-      </c>
-      <c r="E30" s="41" t="s">
-        <v>79</v>
-      </c>
-      <c r="F30" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="G30" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="H30" s="43" t="s">
-        <v>78</v>
-      </c>
-      <c r="I30" s="43" t="s">
-        <v>7</v>
-      </c>
-      <c r="J30" s="43" t="s">
-        <v>80</v>
-      </c>
-      <c r="K30" s="43" t="s">
-        <v>80</v>
-      </c>
-      <c r="L30" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="O30" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="R30" s="40" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="31" spans="2:32" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="O31" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="R31" s="40" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="32" spans="2:32" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="39" t="s">
-        <v>49</v>
-      </c>
-      <c r="O32" s="40" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="33" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="O33" s="40" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="34" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="O34" s="40" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="35" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="O35" s="40" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="36" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="O36" s="40" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="37" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="V68" s="13"/>
+      <c r="W68" s="13"/>
+      <c r="X68" s="13"/>
+      <c r="Y68" s="13"/>
+      <c r="Z68" s="13"/>
+      <c r="AA68" s="13"/>
+      <c r="AB68" s="13"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="60" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
